--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Alaska</t>
   </si>
@@ -536,6 +536,18 @@
   </si>
   <si>
     <t>28 05 2020</t>
+  </si>
+  <si>
+    <t>29 05 2020</t>
+  </si>
+  <si>
+    <t>30 05 2020</t>
+  </si>
+  <si>
+    <t>31 05 2020</t>
+  </si>
+  <si>
+    <t>01 06 2020</t>
   </si>
 </sst>
 </file>
@@ -867,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE119"/>
+  <dimension ref="A1:BE123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6256,6 +6268,9 @@
       <c r="AQ97">
         <v>0.3691786</v>
       </c>
+      <c r="AR97">
+        <v>0</v>
+      </c>
       <c r="AS97">
         <v>0.3430491</v>
       </c>
@@ -6414,6 +6429,9 @@
       <c r="AQ98">
         <v>0.3457875</v>
       </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
       <c r="AS98">
         <v>0.3184541</v>
       </c>
@@ -6572,6 +6590,9 @@
       <c r="AQ99">
         <v>0.3586586</v>
       </c>
+      <c r="AR99">
+        <v>0</v>
+      </c>
       <c r="AS99">
         <v>0.3738843</v>
       </c>
@@ -9616,19 +9637,19 @@
         <v>173</v>
       </c>
       <c r="B119">
-        <v>0.499528</v>
+        <v>0.4992531</v>
       </c>
       <c r="C119">
         <v>0.5706185</v>
       </c>
       <c r="D119">
-        <v>0.5054991</v>
+        <v>0.5054157</v>
       </c>
       <c r="F119">
         <v>0.493524</v>
       </c>
       <c r="G119">
-        <v>0.322811</v>
+        <v>0.3227907</v>
       </c>
       <c r="H119">
         <v>0.3397461</v>
@@ -9658,19 +9679,19 @@
         <v>0.3295706</v>
       </c>
       <c r="R119">
-        <v>0.4132266</v>
+        <v>0.4132101</v>
       </c>
       <c r="S119">
-        <v>0.3934742</v>
+        <v>0.3934448</v>
       </c>
       <c r="T119">
         <v>0.3626435</v>
       </c>
       <c r="U119">
-        <v>0.3724045</v>
+        <v>0.3723108</v>
       </c>
       <c r="V119">
-        <v>0.439212</v>
+        <v>0.4391654</v>
       </c>
       <c r="W119">
         <v>0.3586122</v>
@@ -9697,10 +9718,10 @@
         <v>0.2860867</v>
       </c>
       <c r="AF119">
-        <v>0.3560499</v>
+        <v>0.3560332</v>
       </c>
       <c r="AG119">
-        <v>0.4491816</v>
+        <v>0.448961</v>
       </c>
       <c r="AH119">
         <v>0.5051232</v>
@@ -9709,7 +9730,7 @@
         <v>0.3214077</v>
       </c>
       <c r="AJ119">
-        <v>0.4351473</v>
+        <v>0.4351192</v>
       </c>
       <c r="AK119">
         <v>0.3828234</v>
@@ -9727,25 +9748,25 @@
         <v>0.3476964</v>
       </c>
       <c r="AP119">
-        <v>0.3279878</v>
+        <v>0.3279517</v>
       </c>
       <c r="AQ119">
-        <v>0.2745117</v>
+        <v>0.2745024</v>
       </c>
       <c r="AS119">
         <v>0.4608768</v>
       </c>
       <c r="AT119">
-        <v>0.3572406</v>
+        <v>0.357213</v>
       </c>
       <c r="AU119">
         <v>0.5437215</v>
       </c>
       <c r="AV119">
-        <v>0.3632772</v>
+        <v>0.363247</v>
       </c>
       <c r="AW119">
-        <v>0.3319568</v>
+        <v>0.331948</v>
       </c>
       <c r="AX119">
         <v>0.3055407</v>
@@ -9763,10 +9784,489 @@
         <v>0.2889623</v>
       </c>
       <c r="BD119">
-        <v>0.3292723</v>
+        <v>0.3292094</v>
       </c>
       <c r="BE119">
         <v>0.297574</v>
+      </c>
+    </row>
+    <row r="120" spans="1:57">
+      <c r="A120" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120">
+        <v>0.5324959</v>
+      </c>
+      <c r="C120">
+        <v>0.5408117</v>
+      </c>
+      <c r="D120">
+        <v>0.5350679</v>
+      </c>
+      <c r="F120">
+        <v>0.4963699</v>
+      </c>
+      <c r="G120">
+        <v>0.3210396</v>
+      </c>
+      <c r="H120">
+        <v>0.368475</v>
+      </c>
+      <c r="I120">
+        <v>0.3245705</v>
+      </c>
+      <c r="J120">
+        <v>0.6075444</v>
+      </c>
+      <c r="K120">
+        <v>0.3069542</v>
+      </c>
+      <c r="L120">
+        <v>0.3432742</v>
+      </c>
+      <c r="M120">
+        <v>0.3988088</v>
+      </c>
+      <c r="O120">
+        <v>0.1452381</v>
+      </c>
+      <c r="P120">
+        <v>0.5640774</v>
+      </c>
+      <c r="Q120">
+        <v>0.3247374</v>
+      </c>
+      <c r="R120">
+        <v>0.3919963</v>
+      </c>
+      <c r="S120">
+        <v>0.4142806</v>
+      </c>
+      <c r="T120">
+        <v>0.3373152</v>
+      </c>
+      <c r="U120">
+        <v>0.3695549</v>
+      </c>
+      <c r="V120">
+        <v>0.4008566</v>
+      </c>
+      <c r="W120">
+        <v>0.3446196</v>
+      </c>
+      <c r="X120">
+        <v>0.5314772</v>
+      </c>
+      <c r="Y120">
+        <v>0.2678815</v>
+      </c>
+      <c r="Z120">
+        <v>0.3130562</v>
+      </c>
+      <c r="AA120">
+        <v>0.4316825</v>
+      </c>
+      <c r="AB120">
+        <v>0.432488</v>
+      </c>
+      <c r="AD120">
+        <v>0.5949182</v>
+      </c>
+      <c r="AE120">
+        <v>0.3939767</v>
+      </c>
+      <c r="AF120">
+        <v>0.3498796</v>
+      </c>
+      <c r="AG120">
+        <v>0.3478986</v>
+      </c>
+      <c r="AH120">
+        <v>0.4421344</v>
+      </c>
+      <c r="AI120">
+        <v>0.2144979</v>
+      </c>
+      <c r="AJ120">
+        <v>0.4407877</v>
+      </c>
+      <c r="AK120">
+        <v>0.3526781</v>
+      </c>
+      <c r="AL120">
+        <v>0.2474397</v>
+      </c>
+      <c r="AM120">
+        <v>0.3457105</v>
+      </c>
+      <c r="AN120">
+        <v>0.360136</v>
+      </c>
+      <c r="AO120">
+        <v>0.3869271</v>
+      </c>
+      <c r="AP120">
+        <v>0.3532464</v>
+      </c>
+      <c r="AQ120">
+        <v>0.2865304</v>
+      </c>
+      <c r="AS120">
+        <v>0.4235876</v>
+      </c>
+      <c r="AT120">
+        <v>0.3496847</v>
+      </c>
+      <c r="AU120">
+        <v>0.535718</v>
+      </c>
+      <c r="AV120">
+        <v>0.364469</v>
+      </c>
+      <c r="AW120">
+        <v>0.3713251</v>
+      </c>
+      <c r="AX120">
+        <v>0.3217403</v>
+      </c>
+      <c r="AY120">
+        <v>0.3967036</v>
+      </c>
+      <c r="BA120">
+        <v>0.09051919999999999</v>
+      </c>
+      <c r="BB120">
+        <v>0.3265531</v>
+      </c>
+      <c r="BC120">
+        <v>0.2933674</v>
+      </c>
+      <c r="BD120">
+        <v>0.310627</v>
+      </c>
+      <c r="BE120">
+        <v>0.3492088</v>
+      </c>
+    </row>
+    <row r="121" spans="1:57">
+      <c r="A121" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121">
+        <v>0.5047724</v>
+      </c>
+      <c r="C121">
+        <v>0.5242393</v>
+      </c>
+      <c r="D121">
+        <v>0.5960481</v>
+      </c>
+      <c r="F121">
+        <v>0.4692544</v>
+      </c>
+      <c r="G121">
+        <v>0.302697</v>
+      </c>
+      <c r="H121">
+        <v>0.3488608</v>
+      </c>
+      <c r="I121">
+        <v>0.3522608</v>
+      </c>
+      <c r="J121">
+        <v>0.5221980000000001</v>
+      </c>
+      <c r="K121">
+        <v>0.3075293</v>
+      </c>
+      <c r="L121">
+        <v>0.3424304</v>
+      </c>
+      <c r="M121">
+        <v>0.3850277</v>
+      </c>
+      <c r="O121">
+        <v>0.1453568</v>
+      </c>
+      <c r="P121">
+        <v>0.5872305</v>
+      </c>
+      <c r="Q121">
+        <v>0.4265771</v>
+      </c>
+      <c r="R121">
+        <v>0.3822531</v>
+      </c>
+      <c r="S121">
+        <v>0.4020259</v>
+      </c>
+      <c r="T121">
+        <v>0.330995</v>
+      </c>
+      <c r="U121">
+        <v>0.3695971</v>
+      </c>
+      <c r="V121">
+        <v>0.4590115</v>
+      </c>
+      <c r="W121">
+        <v>0.3384647</v>
+      </c>
+      <c r="X121">
+        <v>0.5344336</v>
+      </c>
+      <c r="Y121">
+        <v>0.2408678</v>
+      </c>
+      <c r="Z121">
+        <v>0.3203618</v>
+      </c>
+      <c r="AA121">
+        <v>0.3801123</v>
+      </c>
+      <c r="AB121">
+        <v>0.4461457</v>
+      </c>
+      <c r="AD121">
+        <v>0.5968539</v>
+      </c>
+      <c r="AE121">
+        <v>0.4369387</v>
+      </c>
+      <c r="AF121">
+        <v>0.3655755</v>
+      </c>
+      <c r="AG121">
+        <v>0.3767077</v>
+      </c>
+      <c r="AH121">
+        <v>0.4836817</v>
+      </c>
+      <c r="AI121">
+        <v>0.1938842</v>
+      </c>
+      <c r="AJ121">
+        <v>0.4122613</v>
+      </c>
+      <c r="AK121">
+        <v>0.3258516</v>
+      </c>
+      <c r="AL121">
+        <v>0.2748803</v>
+      </c>
+      <c r="AM121">
+        <v>0.3571308</v>
+      </c>
+      <c r="AN121">
+        <v>0.3354181</v>
+      </c>
+      <c r="AO121">
+        <v>0.4370689</v>
+      </c>
+      <c r="AP121">
+        <v>0.3593436</v>
+      </c>
+      <c r="AQ121">
+        <v>0.2840539</v>
+      </c>
+      <c r="AS121">
+        <v>0.4177374</v>
+      </c>
+      <c r="AT121">
+        <v>0.3393181</v>
+      </c>
+      <c r="AU121">
+        <v>0.4431948</v>
+      </c>
+      <c r="AV121">
+        <v>0.3900626</v>
+      </c>
+      <c r="AW121">
+        <v>0.3608041</v>
+      </c>
+      <c r="AX121">
+        <v>0.289303</v>
+      </c>
+      <c r="AY121">
+        <v>0.3896832</v>
+      </c>
+      <c r="BA121">
+        <v>0.0917873</v>
+      </c>
+      <c r="BB121">
+        <v>0.3014691</v>
+      </c>
+      <c r="BC121">
+        <v>0.2998637</v>
+      </c>
+      <c r="BD121">
+        <v>0.3496322</v>
+      </c>
+      <c r="BE121">
+        <v>0.3850579</v>
+      </c>
+    </row>
+    <row r="122" spans="1:57">
+      <c r="A122" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122">
+        <v>0.4728497</v>
+      </c>
+      <c r="C122">
+        <v>0.509285</v>
+      </c>
+      <c r="D122">
+        <v>0.5498912</v>
+      </c>
+      <c r="F122">
+        <v>0.5341804999999999</v>
+      </c>
+      <c r="G122">
+        <v>0.3034673</v>
+      </c>
+      <c r="H122">
+        <v>0.3358322</v>
+      </c>
+      <c r="I122">
+        <v>0.3290508</v>
+      </c>
+      <c r="J122">
+        <v>0.4825046</v>
+      </c>
+      <c r="K122">
+        <v>0.361797</v>
+      </c>
+      <c r="L122">
+        <v>0.3555995</v>
+      </c>
+      <c r="M122">
+        <v>0.3554484</v>
+      </c>
+      <c r="O122">
+        <v>0.1480788</v>
+      </c>
+      <c r="P122">
+        <v>0.5314994</v>
+      </c>
+      <c r="Q122">
+        <v>0.4368779</v>
+      </c>
+      <c r="R122">
+        <v>0.3905919</v>
+      </c>
+      <c r="S122">
+        <v>0.4394632</v>
+      </c>
+      <c r="T122">
+        <v>0.341161</v>
+      </c>
+      <c r="U122">
+        <v>0.3498436</v>
+      </c>
+      <c r="V122">
+        <v>0.4467438</v>
+      </c>
+      <c r="W122">
+        <v>0.3496111</v>
+      </c>
+      <c r="X122">
+        <v>0.5275393</v>
+      </c>
+      <c r="Y122">
+        <v>0.228187</v>
+      </c>
+      <c r="Z122">
+        <v>0.2964295</v>
+      </c>
+      <c r="AA122">
+        <v>0.438177</v>
+      </c>
+      <c r="AB122">
+        <v>0.4163562</v>
+      </c>
+      <c r="AD122">
+        <v>0.6099749</v>
+      </c>
+      <c r="AE122">
+        <v>0.404754</v>
+      </c>
+      <c r="AF122">
+        <v>0.3428025</v>
+      </c>
+      <c r="AG122">
+        <v>0.4439807</v>
+      </c>
+      <c r="AH122">
+        <v>0.4408749</v>
+      </c>
+      <c r="AI122">
+        <v>0.2230886</v>
+      </c>
+      <c r="AJ122">
+        <v>0.3872506</v>
+      </c>
+      <c r="AK122">
+        <v>0.314305</v>
+      </c>
+      <c r="AL122">
+        <v>0.2907916</v>
+      </c>
+      <c r="AM122">
+        <v>0.3543519</v>
+      </c>
+      <c r="AN122">
+        <v>0.3508764</v>
+      </c>
+      <c r="AO122">
+        <v>0.4476105</v>
+      </c>
+      <c r="AP122">
+        <v>0.3237141</v>
+      </c>
+      <c r="AQ122">
+        <v>0.2874476</v>
+      </c>
+      <c r="AS122">
+        <v>0.3340212</v>
+      </c>
+      <c r="AT122">
+        <v>0.3199012</v>
+      </c>
+      <c r="AU122">
+        <v>0.4292347</v>
+      </c>
+      <c r="AV122">
+        <v>0.3254275</v>
+      </c>
+      <c r="AW122">
+        <v>0.3770988</v>
+      </c>
+      <c r="AX122">
+        <v>0.3158963</v>
+      </c>
+      <c r="AY122">
+        <v>0.387206</v>
+      </c>
+      <c r="BA122">
+        <v>0.15561</v>
+      </c>
+      <c r="BB122">
+        <v>0.3146316</v>
+      </c>
+      <c r="BC122">
+        <v>0.2959134</v>
+      </c>
+      <c r="BD122">
+        <v>0.4032489</v>
+      </c>
+      <c r="BE122">
+        <v>0.430363</v>
+      </c>
+    </row>
+    <row r="123" spans="1:57">
+      <c r="A123" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Alaska</t>
   </si>
@@ -548,6 +548,27 @@
   </si>
   <si>
     <t>01 06 2020</t>
+  </si>
+  <si>
+    <t>02 06 2020</t>
+  </si>
+  <si>
+    <t>03 06 2020</t>
+  </si>
+  <si>
+    <t>04 06 2020</t>
+  </si>
+  <si>
+    <t>05 06 2020</t>
+  </si>
+  <si>
+    <t>06 06 2020</t>
+  </si>
+  <si>
+    <t>07 06 2020</t>
+  </si>
+  <si>
+    <t>08 06 2020</t>
   </si>
 </sst>
 </file>
@@ -879,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE123"/>
+  <dimension ref="A1:BE130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6751,6 +6772,9 @@
       <c r="AQ100">
         <v>0.3420267</v>
       </c>
+      <c r="AR100">
+        <v>0</v>
+      </c>
       <c r="AS100">
         <v>0.4588363</v>
       </c>
@@ -6909,6 +6933,9 @@
       <c r="AQ101">
         <v>0.3397705</v>
       </c>
+      <c r="AR101">
+        <v>0.4651163</v>
+      </c>
       <c r="AS101">
         <v>0.4215232</v>
       </c>
@@ -7067,6 +7094,9 @@
       <c r="AQ102">
         <v>0.3906953</v>
       </c>
+      <c r="AR102">
+        <v>0.462963</v>
+      </c>
       <c r="AS102">
         <v>0.4218151</v>
       </c>
@@ -7225,6 +7255,9 @@
       <c r="AQ103">
         <v>0.35759</v>
       </c>
+      <c r="AR103">
+        <v>0.4716981</v>
+      </c>
       <c r="AS103">
         <v>0.4352487</v>
       </c>
@@ -7383,6 +7416,9 @@
       <c r="AQ104">
         <v>0.3231906</v>
       </c>
+      <c r="AR104">
+        <v>0.5181346999999999</v>
+      </c>
       <c r="AS104">
         <v>0.2594655</v>
       </c>
@@ -7541,6 +7577,9 @@
       <c r="AQ105">
         <v>0.3962992</v>
       </c>
+      <c r="AR105">
+        <v>0.5617978</v>
+      </c>
       <c r="AS105">
         <v>0.4841378</v>
       </c>
@@ -9667,7 +9706,7 @@
         <v>0.3359238</v>
       </c>
       <c r="M119">
-        <v>0.4127934</v>
+        <v>0.4127641</v>
       </c>
       <c r="O119">
         <v>0.1666667</v>
@@ -9825,7 +9864,7 @@
         <v>0.3432742</v>
       </c>
       <c r="M120">
-        <v>0.3988088</v>
+        <v>0.3987804</v>
       </c>
       <c r="O120">
         <v>0.1452381</v>
@@ -9983,7 +10022,7 @@
         <v>0.3424304</v>
       </c>
       <c r="M121">
-        <v>0.3850277</v>
+        <v>0.3850001</v>
       </c>
       <c r="O121">
         <v>0.1453568</v>
@@ -10120,13 +10159,13 @@
         <v>0.5498912</v>
       </c>
       <c r="F122">
-        <v>0.5341804999999999</v>
+        <v>0.5341384</v>
       </c>
       <c r="G122">
-        <v>0.3034673</v>
+        <v>0.3034544</v>
       </c>
       <c r="H122">
-        <v>0.3358322</v>
+        <v>0.3358031</v>
       </c>
       <c r="I122">
         <v>0.3290508</v>
@@ -10138,10 +10177,10 @@
         <v>0.361797</v>
       </c>
       <c r="L122">
-        <v>0.3555995</v>
+        <v>0.3555895</v>
       </c>
       <c r="M122">
-        <v>0.3554484</v>
+        <v>0.3554228</v>
       </c>
       <c r="O122">
         <v>0.1480788</v>
@@ -10159,7 +10198,7 @@
         <v>0.4394632</v>
       </c>
       <c r="T122">
-        <v>0.341161</v>
+        <v>0.3411089</v>
       </c>
       <c r="U122">
         <v>0.3498436</v>
@@ -10216,7 +10255,7 @@
         <v>0.3543519</v>
       </c>
       <c r="AN122">
-        <v>0.3508764</v>
+        <v>0.3508618</v>
       </c>
       <c r="AO122">
         <v>0.4476105</v>
@@ -10237,10 +10276,10 @@
         <v>0.4292347</v>
       </c>
       <c r="AV122">
-        <v>0.3254275</v>
+        <v>0.3254</v>
       </c>
       <c r="AW122">
-        <v>0.3770988</v>
+        <v>0.3770781</v>
       </c>
       <c r="AX122">
         <v>0.3158963</v>
@@ -10252,7 +10291,7 @@
         <v>0.15561</v>
       </c>
       <c r="BB122">
-        <v>0.3146316</v>
+        <v>0.3145865</v>
       </c>
       <c r="BC122">
         <v>0.2959134</v>
@@ -10267,6 +10306,959 @@
     <row r="123" spans="1:57">
       <c r="A123" t="s">
         <v>177</v>
+      </c>
+      <c r="B123">
+        <v>0.4849849</v>
+      </c>
+      <c r="C123">
+        <v>0.4460406</v>
+      </c>
+      <c r="D123">
+        <v>0.6138211</v>
+      </c>
+      <c r="F123">
+        <v>0.5270899999999999</v>
+      </c>
+      <c r="G123">
+        <v>0.3018257</v>
+      </c>
+      <c r="H123">
+        <v>0.351763</v>
+      </c>
+      <c r="I123">
+        <v>0.3075339</v>
+      </c>
+      <c r="J123">
+        <v>0.3026906</v>
+      </c>
+      <c r="K123">
+        <v>0.4059549</v>
+      </c>
+      <c r="L123">
+        <v>0.3531876</v>
+      </c>
+      <c r="M123">
+        <v>0.3403102</v>
+      </c>
+      <c r="O123">
+        <v>0.1599468</v>
+      </c>
+      <c r="P123">
+        <v>0.5104031</v>
+      </c>
+      <c r="Q123">
+        <v>0.4898054</v>
+      </c>
+      <c r="R123">
+        <v>0.3781969</v>
+      </c>
+      <c r="S123">
+        <v>0.4894694</v>
+      </c>
+      <c r="T123">
+        <v>0.3493179</v>
+      </c>
+      <c r="U123">
+        <v>0.347692</v>
+      </c>
+      <c r="V123">
+        <v>0.4493957</v>
+      </c>
+      <c r="W123">
+        <v>0.2881108</v>
+      </c>
+      <c r="X123">
+        <v>0.5387116</v>
+      </c>
+      <c r="Y123">
+        <v>0.1975282</v>
+      </c>
+      <c r="Z123">
+        <v>0.2931544</v>
+      </c>
+      <c r="AA123">
+        <v>0.4932034</v>
+      </c>
+      <c r="AB123">
+        <v>0.4024588</v>
+      </c>
+      <c r="AD123">
+        <v>0.6372597</v>
+      </c>
+      <c r="AE123">
+        <v>0.3857645</v>
+      </c>
+      <c r="AF123">
+        <v>0.3498461</v>
+      </c>
+      <c r="AG123">
+        <v>0.4965635</v>
+      </c>
+      <c r="AH123">
+        <v>0.4398901</v>
+      </c>
+      <c r="AI123">
+        <v>0.1508344</v>
+      </c>
+      <c r="AJ123">
+        <v>0.4169974</v>
+      </c>
+      <c r="AK123">
+        <v>0.304897</v>
+      </c>
+      <c r="AL123">
+        <v>0.3641499</v>
+      </c>
+      <c r="AM123">
+        <v>0.3244266</v>
+      </c>
+      <c r="AN123">
+        <v>0.3437967</v>
+      </c>
+      <c r="AO123">
+        <v>0.4885348</v>
+      </c>
+      <c r="AP123">
+        <v>0.3387037</v>
+      </c>
+      <c r="AQ123">
+        <v>0.2826041</v>
+      </c>
+      <c r="AS123">
+        <v>0.3010444</v>
+      </c>
+      <c r="AT123">
+        <v>0.3556507</v>
+      </c>
+      <c r="AU123">
+        <v>0.3893191</v>
+      </c>
+      <c r="AV123">
+        <v>0.3718593</v>
+      </c>
+      <c r="AW123">
+        <v>0.3853534</v>
+      </c>
+      <c r="AX123">
+        <v>0.376092</v>
+      </c>
+      <c r="AY123">
+        <v>0.4326245</v>
+      </c>
+      <c r="BA123">
+        <v>0.20475</v>
+      </c>
+      <c r="BB123">
+        <v>0.3072368</v>
+      </c>
+      <c r="BC123">
+        <v>0.3163836</v>
+      </c>
+      <c r="BD123">
+        <v>0.4023052</v>
+      </c>
+      <c r="BE123">
+        <v>0.5168106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:57">
+      <c r="A124" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124">
+        <v>0.4873674</v>
+      </c>
+      <c r="C124">
+        <v>0.4277594</v>
+      </c>
+      <c r="D124">
+        <v>0.6214668</v>
+      </c>
+      <c r="F124">
+        <v>0.5100114</v>
+      </c>
+      <c r="G124">
+        <v>0.2929021</v>
+      </c>
+      <c r="H124">
+        <v>0.3898445</v>
+      </c>
+      <c r="I124">
+        <v>0.3040759</v>
+      </c>
+      <c r="J124">
+        <v>0.3033708</v>
+      </c>
+      <c r="K124">
+        <v>0.3712185</v>
+      </c>
+      <c r="L124">
+        <v>0.340961</v>
+      </c>
+      <c r="M124">
+        <v>0.345522</v>
+      </c>
+      <c r="O124">
+        <v>0.1708493</v>
+      </c>
+      <c r="P124">
+        <v>0.5606184</v>
+      </c>
+      <c r="Q124">
+        <v>0.4700609</v>
+      </c>
+      <c r="R124">
+        <v>0.3841517</v>
+      </c>
+      <c r="S124">
+        <v>0.5279946</v>
+      </c>
+      <c r="T124">
+        <v>0.3587215</v>
+      </c>
+      <c r="U124">
+        <v>0.3377187</v>
+      </c>
+      <c r="V124">
+        <v>0.4609262</v>
+      </c>
+      <c r="W124">
+        <v>0.2676403</v>
+      </c>
+      <c r="X124">
+        <v>0.4957328</v>
+      </c>
+      <c r="Y124">
+        <v>0.242246</v>
+      </c>
+      <c r="Z124">
+        <v>0.278411</v>
+      </c>
+      <c r="AA124">
+        <v>0.5003625</v>
+      </c>
+      <c r="AB124">
+        <v>0.4403837</v>
+      </c>
+      <c r="AD124">
+        <v>0.6892334</v>
+      </c>
+      <c r="AE124">
+        <v>0.390612</v>
+      </c>
+      <c r="AF124">
+        <v>0.3457118</v>
+      </c>
+      <c r="AG124">
+        <v>0.5791641</v>
+      </c>
+      <c r="AH124">
+        <v>0.5088089</v>
+      </c>
+      <c r="AI124">
+        <v>0.1621912</v>
+      </c>
+      <c r="AJ124">
+        <v>0.3987549</v>
+      </c>
+      <c r="AK124">
+        <v>0.3244725</v>
+      </c>
+      <c r="AL124">
+        <v>0.4130027</v>
+      </c>
+      <c r="AM124">
+        <v>0.3172603</v>
+      </c>
+      <c r="AN124">
+        <v>0.39364</v>
+      </c>
+      <c r="AO124">
+        <v>0.5011736</v>
+      </c>
+      <c r="AP124">
+        <v>0.2958809</v>
+      </c>
+      <c r="AQ124">
+        <v>0.2920578</v>
+      </c>
+      <c r="AS124">
+        <v>0.2494945</v>
+      </c>
+      <c r="AT124">
+        <v>0.3378541</v>
+      </c>
+      <c r="AU124">
+        <v>0.433814</v>
+      </c>
+      <c r="AV124">
+        <v>0.3926633</v>
+      </c>
+      <c r="AW124">
+        <v>0.4011364</v>
+      </c>
+      <c r="AX124">
+        <v>0.4307844</v>
+      </c>
+      <c r="AY124">
+        <v>0.4289623</v>
+      </c>
+      <c r="BA124">
+        <v>0.2161714</v>
+      </c>
+      <c r="BB124">
+        <v>0.2678329</v>
+      </c>
+      <c r="BC124">
+        <v>0.3306823</v>
+      </c>
+      <c r="BD124">
+        <v>0.4189048</v>
+      </c>
+      <c r="BE124">
+        <v>0.493441</v>
+      </c>
+    </row>
+    <row r="125" spans="1:57">
+      <c r="A125" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125">
+        <v>0.512557</v>
+      </c>
+      <c r="C125">
+        <v>0.3921674</v>
+      </c>
+      <c r="D125">
+        <v>0.7087761</v>
+      </c>
+      <c r="F125">
+        <v>0.4884358</v>
+      </c>
+      <c r="G125">
+        <v>0.2974378</v>
+      </c>
+      <c r="H125">
+        <v>0.3925943</v>
+      </c>
+      <c r="I125">
+        <v>0.3024579</v>
+      </c>
+      <c r="J125">
+        <v>0.3161593</v>
+      </c>
+      <c r="K125">
+        <v>0.3373779</v>
+      </c>
+      <c r="L125">
+        <v>0.3305049</v>
+      </c>
+      <c r="M125">
+        <v>0.35402</v>
+      </c>
+      <c r="O125">
+        <v>0.1306482</v>
+      </c>
+      <c r="P125">
+        <v>0.5445248</v>
+      </c>
+      <c r="Q125">
+        <v>0.4319583</v>
+      </c>
+      <c r="R125">
+        <v>0.3705051</v>
+      </c>
+      <c r="S125">
+        <v>0.577251</v>
+      </c>
+      <c r="T125">
+        <v>0.3550279</v>
+      </c>
+      <c r="U125">
+        <v>0.3175135</v>
+      </c>
+      <c r="V125">
+        <v>0.4448556</v>
+      </c>
+      <c r="W125">
+        <v>0.2625416</v>
+      </c>
+      <c r="X125">
+        <v>0.4692786</v>
+      </c>
+      <c r="Y125">
+        <v>0.278504</v>
+      </c>
+      <c r="Z125">
+        <v>0.2815379</v>
+      </c>
+      <c r="AA125">
+        <v>0.4839492</v>
+      </c>
+      <c r="AB125">
+        <v>0.4063553</v>
+      </c>
+      <c r="AD125">
+        <v>0.6052394</v>
+      </c>
+      <c r="AE125">
+        <v>0.365318</v>
+      </c>
+      <c r="AF125">
+        <v>0.3746594</v>
+      </c>
+      <c r="AG125">
+        <v>0.5343166</v>
+      </c>
+      <c r="AH125">
+        <v>0.5091483</v>
+      </c>
+      <c r="AI125">
+        <v>0.2034716</v>
+      </c>
+      <c r="AJ125">
+        <v>0.3600452</v>
+      </c>
+      <c r="AK125">
+        <v>0.3011364</v>
+      </c>
+      <c r="AL125">
+        <v>0.4680613</v>
+      </c>
+      <c r="AM125">
+        <v>0.3043706</v>
+      </c>
+      <c r="AN125">
+        <v>0.3866752</v>
+      </c>
+      <c r="AO125">
+        <v>0.4857331</v>
+      </c>
+      <c r="AP125">
+        <v>0.2554321</v>
+      </c>
+      <c r="AQ125">
+        <v>0.3352552</v>
+      </c>
+      <c r="AS125">
+        <v>0.2143884</v>
+      </c>
+      <c r="AT125">
+        <v>0.3535209</v>
+      </c>
+      <c r="AU125">
+        <v>0.4010737</v>
+      </c>
+      <c r="AV125">
+        <v>0.412172</v>
+      </c>
+      <c r="AW125">
+        <v>0.4023345</v>
+      </c>
+      <c r="AX125">
+        <v>0.4466162</v>
+      </c>
+      <c r="AY125">
+        <v>0.423601</v>
+      </c>
+      <c r="BA125">
+        <v>0.2345798</v>
+      </c>
+      <c r="BB125">
+        <v>0.2754108</v>
+      </c>
+      <c r="BC125">
+        <v>0.3200175</v>
+      </c>
+      <c r="BD125">
+        <v>0.4065789</v>
+      </c>
+      <c r="BE125">
+        <v>0.5604767</v>
+      </c>
+    </row>
+    <row r="126" spans="1:57">
+      <c r="A126" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126">
+        <v>0.4131575</v>
+      </c>
+      <c r="C126">
+        <v>0.4384974</v>
+      </c>
+      <c r="D126">
+        <v>0.7406291</v>
+      </c>
+      <c r="F126">
+        <v>0.4806303</v>
+      </c>
+      <c r="G126">
+        <v>0.3127366</v>
+      </c>
+      <c r="H126">
+        <v>0.3757393</v>
+      </c>
+      <c r="I126">
+        <v>0.2860209</v>
+      </c>
+      <c r="J126">
+        <v>0.283773</v>
+      </c>
+      <c r="K126">
+        <v>0.3585937</v>
+      </c>
+      <c r="L126">
+        <v>0.3358304</v>
+      </c>
+      <c r="M126">
+        <v>0.3677662</v>
+      </c>
+      <c r="O126">
+        <v>0.2038118</v>
+      </c>
+      <c r="P126">
+        <v>0.5112910000000001</v>
+      </c>
+      <c r="Q126">
+        <v>0.4220976</v>
+      </c>
+      <c r="R126">
+        <v>0.3400707</v>
+      </c>
+      <c r="S126">
+        <v>0.5947778</v>
+      </c>
+      <c r="T126">
+        <v>0.3167692</v>
+      </c>
+      <c r="U126">
+        <v>0.3491108</v>
+      </c>
+      <c r="V126">
+        <v>0.4859583</v>
+      </c>
+      <c r="W126">
+        <v>0.281962</v>
+      </c>
+      <c r="X126">
+        <v>0.4860965</v>
+      </c>
+      <c r="Y126">
+        <v>0.2322585</v>
+      </c>
+      <c r="Z126">
+        <v>0.3001926</v>
+      </c>
+      <c r="AA126">
+        <v>0.4645572</v>
+      </c>
+      <c r="AB126">
+        <v>0.3897815</v>
+      </c>
+      <c r="AD126">
+        <v>0.5196123</v>
+      </c>
+      <c r="AE126">
+        <v>0.4404095</v>
+      </c>
+      <c r="AF126">
+        <v>0.3783631</v>
+      </c>
+      <c r="AG126">
+        <v>0.579039</v>
+      </c>
+      <c r="AH126">
+        <v>0.5171445</v>
+      </c>
+      <c r="AI126">
+        <v>0.2167148</v>
+      </c>
+      <c r="AJ126">
+        <v>0.3161775</v>
+      </c>
+      <c r="AK126">
+        <v>0.2759328</v>
+      </c>
+      <c r="AL126">
+        <v>0.4497735</v>
+      </c>
+      <c r="AM126">
+        <v>0.327866</v>
+      </c>
+      <c r="AN126">
+        <v>0.3619751</v>
+      </c>
+      <c r="AO126">
+        <v>0.5234121</v>
+      </c>
+      <c r="AP126">
+        <v>0.2610234</v>
+      </c>
+      <c r="AQ126">
+        <v>0.3351463</v>
+      </c>
+      <c r="AS126">
+        <v>0.3588017</v>
+      </c>
+      <c r="AT126">
+        <v>0.353308</v>
+      </c>
+      <c r="AU126">
+        <v>0.3238842</v>
+      </c>
+      <c r="AV126">
+        <v>0.4470904</v>
+      </c>
+      <c r="AW126">
+        <v>0.4167661</v>
+      </c>
+      <c r="AX126">
+        <v>0.4855886</v>
+      </c>
+      <c r="AY126">
+        <v>0.4192885</v>
+      </c>
+      <c r="BA126">
+        <v>0.2924271</v>
+      </c>
+      <c r="BB126">
+        <v>0.2700101</v>
+      </c>
+      <c r="BC126">
+        <v>0.3393596</v>
+      </c>
+      <c r="BD126">
+        <v>0.4174135</v>
+      </c>
+      <c r="BE126">
+        <v>0.5463456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:57">
+      <c r="A127" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127">
+        <v>0.4168694</v>
+      </c>
+      <c r="C127">
+        <v>0.4910977</v>
+      </c>
+      <c r="D127">
+        <v>0.7540678</v>
+      </c>
+      <c r="F127">
+        <v>0.512339</v>
+      </c>
+      <c r="G127">
+        <v>0.3046411</v>
+      </c>
+      <c r="H127">
+        <v>0.378775</v>
+      </c>
+      <c r="I127">
+        <v>0.2867077</v>
+      </c>
+      <c r="J127">
+        <v>0.2466189</v>
+      </c>
+      <c r="K127">
+        <v>0.3866753</v>
+      </c>
+      <c r="L127">
+        <v>0.3347589</v>
+      </c>
+      <c r="M127">
+        <v>0.3875201</v>
+      </c>
+      <c r="O127">
+        <v>0.1681046</v>
+      </c>
+      <c r="P127">
+        <v>0.4705472</v>
+      </c>
+      <c r="Q127">
+        <v>0.4456625</v>
+      </c>
+      <c r="R127">
+        <v>0.3334852</v>
+      </c>
+      <c r="S127">
+        <v>0.5629997</v>
+      </c>
+      <c r="T127">
+        <v>0.3910009</v>
+      </c>
+      <c r="U127">
+        <v>0.3223967</v>
+      </c>
+      <c r="V127">
+        <v>0.5048329</v>
+      </c>
+      <c r="W127">
+        <v>0.2622208</v>
+      </c>
+      <c r="X127">
+        <v>0.4956116</v>
+      </c>
+      <c r="Y127">
+        <v>0.2462375</v>
+      </c>
+      <c r="Z127">
+        <v>0.2792438</v>
+      </c>
+      <c r="AA127">
+        <v>0.4654325</v>
+      </c>
+      <c r="AB127">
+        <v>0.4086622</v>
+      </c>
+      <c r="AD127">
+        <v>0.5096232000000001</v>
+      </c>
+      <c r="AE127">
+        <v>0.3566518</v>
+      </c>
+      <c r="AF127">
+        <v>0.3736788</v>
+      </c>
+      <c r="AG127">
+        <v>0.6509494</v>
+      </c>
+      <c r="AH127">
+        <v>0.5169411</v>
+      </c>
+      <c r="AI127">
+        <v>0.215527</v>
+      </c>
+      <c r="AJ127">
+        <v>0.3080879</v>
+      </c>
+      <c r="AK127">
+        <v>0.2942504</v>
+      </c>
+      <c r="AL127">
+        <v>0.4608879</v>
+      </c>
+      <c r="AM127">
+        <v>0.3600704</v>
+      </c>
+      <c r="AN127">
+        <v>0.3427985</v>
+      </c>
+      <c r="AO127">
+        <v>0.5053021</v>
+      </c>
+      <c r="AP127">
+        <v>0.256</v>
+      </c>
+      <c r="AQ127">
+        <v>0.3137508</v>
+      </c>
+      <c r="AS127">
+        <v>0.3438769</v>
+      </c>
+      <c r="AT127">
+        <v>0.3827677</v>
+      </c>
+      <c r="AU127">
+        <v>0.2853707</v>
+      </c>
+      <c r="AV127">
+        <v>0.4441546</v>
+      </c>
+      <c r="AW127">
+        <v>0.3848316</v>
+      </c>
+      <c r="AX127">
+        <v>0.4692577</v>
+      </c>
+      <c r="AY127">
+        <v>0.4147755</v>
+      </c>
+      <c r="BA127">
+        <v>0.2757415</v>
+      </c>
+      <c r="BB127">
+        <v>0.2490902</v>
+      </c>
+      <c r="BC127">
+        <v>0.2902158</v>
+      </c>
+      <c r="BD127">
+        <v>0.425783</v>
+      </c>
+      <c r="BE127">
+        <v>0.5246684</v>
+      </c>
+    </row>
+    <row r="128" spans="1:57">
+      <c r="A128" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128">
+        <v>0.4614846</v>
+      </c>
+      <c r="C128">
+        <v>0.5491541</v>
+      </c>
+      <c r="D128">
+        <v>0.7291177</v>
+      </c>
+      <c r="F128">
+        <v>0.5220318</v>
+      </c>
+      <c r="G128">
+        <v>0.3303167</v>
+      </c>
+      <c r="H128">
+        <v>0.4171816</v>
+      </c>
+      <c r="I128">
+        <v>0.2901728</v>
+      </c>
+      <c r="J128">
+        <v>0.2287582</v>
+      </c>
+      <c r="K128">
+        <v>0.418976</v>
+      </c>
+      <c r="L128">
+        <v>0.3412584</v>
+      </c>
+      <c r="M128">
+        <v>0.3823952</v>
+      </c>
+      <c r="O128">
+        <v>0.2062544</v>
+      </c>
+      <c r="P128">
+        <v>0.449665</v>
+      </c>
+      <c r="Q128">
+        <v>0.3681595</v>
+      </c>
+      <c r="R128">
+        <v>0.3655015</v>
+      </c>
+      <c r="S128">
+        <v>0.5656745</v>
+      </c>
+      <c r="T128">
+        <v>0.4070283</v>
+      </c>
+      <c r="U128">
+        <v>0.2958613</v>
+      </c>
+      <c r="V128">
+        <v>0.4753994</v>
+      </c>
+      <c r="W128">
+        <v>0.2316502</v>
+      </c>
+      <c r="X128">
+        <v>0.5120595999999999</v>
+      </c>
+      <c r="Y128">
+        <v>0.2399783</v>
+      </c>
+      <c r="Z128">
+        <v>0.2983476</v>
+      </c>
+      <c r="AA128">
+        <v>0.4789137</v>
+      </c>
+      <c r="AB128">
+        <v>0.4574438</v>
+      </c>
+      <c r="AD128">
+        <v>0.5611161</v>
+      </c>
+      <c r="AE128">
+        <v>0.3015285</v>
+      </c>
+      <c r="AF128">
+        <v>0.3613804</v>
+      </c>
+      <c r="AG128">
+        <v>0.8000958</v>
+      </c>
+      <c r="AH128">
+        <v>0.5292734</v>
+      </c>
+      <c r="AI128">
+        <v>0.2204649</v>
+      </c>
+      <c r="AJ128">
+        <v>0.3298704</v>
+      </c>
+      <c r="AK128">
+        <v>0.3102232</v>
+      </c>
+      <c r="AL128">
+        <v>0.5064299</v>
+      </c>
+      <c r="AM128">
+        <v>0.3650611</v>
+      </c>
+      <c r="AN128">
+        <v>0.3561167</v>
+      </c>
+      <c r="AO128">
+        <v>0.4422867</v>
+      </c>
+      <c r="AP128">
+        <v>0.2418054</v>
+      </c>
+      <c r="AQ128">
+        <v>0.3173486</v>
+      </c>
+      <c r="AS128">
+        <v>0.3216968</v>
+      </c>
+      <c r="AT128">
+        <v>0.4180432</v>
+      </c>
+      <c r="AU128">
+        <v>0.326049</v>
+      </c>
+      <c r="AV128">
+        <v>0.4494416</v>
+      </c>
+      <c r="AW128">
+        <v>0.3906886</v>
+      </c>
+      <c r="AX128">
+        <v>0.5031330000000001</v>
+      </c>
+      <c r="AY128">
+        <v>0.4107686</v>
+      </c>
+      <c r="BA128">
+        <v>0.3134056</v>
+      </c>
+      <c r="BB128">
+        <v>0.2758183</v>
+      </c>
+      <c r="BC128">
+        <v>0.2867612</v>
+      </c>
+      <c r="BD128">
+        <v>0.3846225</v>
+      </c>
+      <c r="BE128">
+        <v>0.6298948</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Alaska</t>
   </si>
@@ -569,6 +569,15 @@
   </si>
   <si>
     <t>08 06 2020</t>
+  </si>
+  <si>
+    <t>09 06 2020</t>
+  </si>
+  <si>
+    <t>10 06 2020</t>
+  </si>
+  <si>
+    <t>11 06 2020</t>
   </si>
 </sst>
 </file>
@@ -900,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE130"/>
+  <dimension ref="A1:BE133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7738,6 +7747,9 @@
       <c r="AQ106">
         <v>0.372689</v>
       </c>
+      <c r="AR106">
+        <v>0.6060605999999999</v>
+      </c>
       <c r="AS106">
         <v>0.4625871</v>
       </c>
@@ -7896,6 +7908,9 @@
       <c r="AQ107">
         <v>0.3822908</v>
       </c>
+      <c r="AR107">
+        <v>0.6756757</v>
+      </c>
       <c r="AS107">
         <v>0.5182394</v>
       </c>
@@ -8054,6 +8069,9 @@
       <c r="AQ108">
         <v>0.3716013</v>
       </c>
+      <c r="AR108">
+        <v>0</v>
+      </c>
       <c r="AS108">
         <v>0.6437371</v>
       </c>
@@ -10985,7 +11003,7 @@
         <v>0.3334852</v>
       </c>
       <c r="S127">
-        <v>0.5629997</v>
+        <v>0.5629552</v>
       </c>
       <c r="T127">
         <v>0.3910009</v>
@@ -11042,7 +11060,7 @@
         <v>0.4608879</v>
       </c>
       <c r="AM127">
-        <v>0.3600704</v>
+        <v>0.3600571</v>
       </c>
       <c r="AN127">
         <v>0.3427985</v>
@@ -11107,13 +11125,13 @@
         <v>0.7291177</v>
       </c>
       <c r="F128">
-        <v>0.5220318</v>
+        <v>0.5219863</v>
       </c>
       <c r="G128">
-        <v>0.3303167</v>
+        <v>0.3303089</v>
       </c>
       <c r="H128">
-        <v>0.4171816</v>
+        <v>0.4171022</v>
       </c>
       <c r="I128">
         <v>0.2901728</v>
@@ -11125,7 +11143,7 @@
         <v>0.418976</v>
       </c>
       <c r="L128">
-        <v>0.3412584</v>
+        <v>0.3412479</v>
       </c>
       <c r="M128">
         <v>0.3823952</v>
@@ -11140,10 +11158,10 @@
         <v>0.3681595</v>
       </c>
       <c r="R128">
-        <v>0.3655015</v>
+        <v>0.365484</v>
       </c>
       <c r="S128">
-        <v>0.5656745</v>
+        <v>0.5656282</v>
       </c>
       <c r="T128">
         <v>0.4070283</v>
@@ -11191,7 +11209,7 @@
         <v>0.2204649</v>
       </c>
       <c r="AJ128">
-        <v>0.3298704</v>
+        <v>0.3298458</v>
       </c>
       <c r="AK128">
         <v>0.3102232</v>
@@ -11200,7 +11218,7 @@
         <v>0.5064299</v>
       </c>
       <c r="AM128">
-        <v>0.3650611</v>
+        <v>0.3650468</v>
       </c>
       <c r="AN128">
         <v>0.3561167</v>
@@ -11212,13 +11230,13 @@
         <v>0.2418054</v>
       </c>
       <c r="AQ128">
-        <v>0.3173486</v>
+        <v>0.3173244</v>
       </c>
       <c r="AS128">
         <v>0.3216968</v>
       </c>
       <c r="AT128">
-        <v>0.4180432</v>
+        <v>0.4180059</v>
       </c>
       <c r="AU128">
         <v>0.326049</v>
@@ -11230,7 +11248,7 @@
         <v>0.3906886</v>
       </c>
       <c r="AX128">
-        <v>0.5031330000000001</v>
+        <v>0.5030512</v>
       </c>
       <c r="AY128">
         <v>0.4107686</v>
@@ -11251,14 +11269,488 @@
         <v>0.6298948</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:57">
       <c r="A129" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>0.4989133</v>
+      </c>
+      <c r="C129">
+        <v>0.5671654</v>
+      </c>
+      <c r="D129">
+        <v>0.7330367</v>
+      </c>
+      <c r="F129">
+        <v>0.5199751</v>
+      </c>
+      <c r="G129">
+        <v>0.3371037</v>
+      </c>
+      <c r="H129">
+        <v>0.3974634</v>
+      </c>
+      <c r="I129">
+        <v>0.3222541</v>
+      </c>
+      <c r="J129">
+        <v>0.318717</v>
+      </c>
+      <c r="K129">
+        <v>0.3594348</v>
+      </c>
+      <c r="L129">
+        <v>0.3387692</v>
+      </c>
+      <c r="M129">
+        <v>0.4206858</v>
+      </c>
+      <c r="O129">
+        <v>0.2380167</v>
+      </c>
+      <c r="P129">
+        <v>0.4602957</v>
+      </c>
+      <c r="Q129">
+        <v>0.296018</v>
+      </c>
+      <c r="R129">
+        <v>0.3606113</v>
+      </c>
+      <c r="S129">
+        <v>0.5647226</v>
+      </c>
+      <c r="T129">
+        <v>0.4635734</v>
+      </c>
+      <c r="U129">
+        <v>0.3266002</v>
+      </c>
+      <c r="V129">
+        <v>0.5348586</v>
+      </c>
+      <c r="W129">
+        <v>0.2424493</v>
+      </c>
+      <c r="X129">
+        <v>0.5614941</v>
+      </c>
+      <c r="Y129">
+        <v>0.21773</v>
+      </c>
+      <c r="Z129">
+        <v>0.3106558</v>
+      </c>
+      <c r="AA129">
+        <v>0.4295411</v>
+      </c>
+      <c r="AB129">
+        <v>0.4941162</v>
+      </c>
+      <c r="AD129">
+        <v>0.6071496</v>
+      </c>
+      <c r="AE129">
+        <v>0.2915715</v>
+      </c>
+      <c r="AF129">
+        <v>0.387626</v>
+      </c>
+      <c r="AG129">
+        <v>0.7473147</v>
+      </c>
+      <c r="AH129">
+        <v>0.5228258</v>
+      </c>
+      <c r="AI129">
+        <v>0.2026529</v>
+      </c>
+      <c r="AJ129">
+        <v>0.3581723</v>
+      </c>
+      <c r="AK129">
+        <v>0.2941307</v>
+      </c>
+      <c r="AL129">
+        <v>0.4141155</v>
+      </c>
+      <c r="AM129">
+        <v>0.3491154</v>
+      </c>
+      <c r="AN129">
+        <v>0.3454104</v>
+      </c>
+      <c r="AO129">
+        <v>0.4433821</v>
+      </c>
+      <c r="AP129">
+        <v>0.2645647</v>
+      </c>
+      <c r="AQ129">
+        <v>0.2980715</v>
+      </c>
+      <c r="AS129">
+        <v>0.3351337</v>
+      </c>
+      <c r="AT129">
+        <v>0.4077499</v>
+      </c>
+      <c r="AU129">
+        <v>0.4664907</v>
+      </c>
+      <c r="AV129">
+        <v>0.4900366</v>
+      </c>
+      <c r="AW129">
+        <v>0.3827458</v>
+      </c>
+      <c r="AX129">
+        <v>0.4735745</v>
+      </c>
+      <c r="AY129">
+        <v>0.4107948</v>
+      </c>
+      <c r="BA129">
+        <v>0.2371759</v>
+      </c>
+      <c r="BB129">
+        <v>0.2905741</v>
+      </c>
+      <c r="BC129">
+        <v>0.2654873</v>
+      </c>
+      <c r="BD129">
+        <v>0.3465377</v>
+      </c>
+      <c r="BE129">
+        <v>0.7170943</v>
+      </c>
+    </row>
+    <row r="130" spans="1:57">
       <c r="A130" t="s">
         <v>184</v>
+      </c>
+      <c r="B130">
+        <v>0.4423429</v>
+      </c>
+      <c r="C130">
+        <v>0.5798375</v>
+      </c>
+      <c r="D130">
+        <v>0.7163267</v>
+      </c>
+      <c r="F130">
+        <v>0.5110475</v>
+      </c>
+      <c r="G130">
+        <v>0.3386219</v>
+      </c>
+      <c r="H130">
+        <v>0.4000528</v>
+      </c>
+      <c r="I130">
+        <v>0.3601287</v>
+      </c>
+      <c r="J130">
+        <v>0.2383863</v>
+      </c>
+      <c r="K130">
+        <v>0.3306813</v>
+      </c>
+      <c r="L130">
+        <v>0.3493911</v>
+      </c>
+      <c r="M130">
+        <v>0.4486603</v>
+      </c>
+      <c r="O130">
+        <v>0.2645235</v>
+      </c>
+      <c r="P130">
+        <v>0.5062392</v>
+      </c>
+      <c r="Q130">
+        <v>0.2177891</v>
+      </c>
+      <c r="R130">
+        <v>0.3442159</v>
+      </c>
+      <c r="S130">
+        <v>0.5499477</v>
+      </c>
+      <c r="T130">
+        <v>0.5210275</v>
+      </c>
+      <c r="U130">
+        <v>0.3281358</v>
+      </c>
+      <c r="V130">
+        <v>0.5821739</v>
+      </c>
+      <c r="W130">
+        <v>0.2850863</v>
+      </c>
+      <c r="X130">
+        <v>0.5434924</v>
+      </c>
+      <c r="Y130">
+        <v>0.3470019</v>
+      </c>
+      <c r="Z130">
+        <v>0.3298128</v>
+      </c>
+      <c r="AA130">
+        <v>0.3417861</v>
+      </c>
+      <c r="AB130">
+        <v>0.4589467</v>
+      </c>
+      <c r="AD130">
+        <v>0.6091556</v>
+      </c>
+      <c r="AE130">
+        <v>0.2536454</v>
+      </c>
+      <c r="AF130">
+        <v>0.3685354</v>
+      </c>
+      <c r="AG130">
+        <v>0.727095</v>
+      </c>
+      <c r="AH130">
+        <v>0.55164</v>
+      </c>
+      <c r="AI130">
+        <v>0.270764</v>
+      </c>
+      <c r="AJ130">
+        <v>0.342259</v>
+      </c>
+      <c r="AK130">
+        <v>0.2891348</v>
+      </c>
+      <c r="AL130">
+        <v>0.3891482</v>
+      </c>
+      <c r="AM130">
+        <v>0.3465515</v>
+      </c>
+      <c r="AN130">
+        <v>0.3453777</v>
+      </c>
+      <c r="AO130">
+        <v>0.4431783</v>
+      </c>
+      <c r="AP130">
+        <v>0.2342736</v>
+      </c>
+      <c r="AQ130">
+        <v>0.2846097</v>
+      </c>
+      <c r="AS130">
+        <v>0.3284933</v>
+      </c>
+      <c r="AT130">
+        <v>0.4059799</v>
+      </c>
+      <c r="AU130">
+        <v>0.4644246</v>
+      </c>
+      <c r="AV130">
+        <v>0.4609496</v>
+      </c>
+      <c r="AW130">
+        <v>0.3819311</v>
+      </c>
+      <c r="AX130">
+        <v>0.3732232</v>
+      </c>
+      <c r="AY130">
+        <v>0.3922044</v>
+      </c>
+      <c r="BA130">
+        <v>0.1873934</v>
+      </c>
+      <c r="BB130">
+        <v>0.2765795</v>
+      </c>
+      <c r="BC130">
+        <v>0.2795722</v>
+      </c>
+      <c r="BD130">
+        <v>0.3302295</v>
+      </c>
+      <c r="BE130">
+        <v>0.6461973</v>
+      </c>
+    </row>
+    <row r="131" spans="1:57">
+      <c r="A131" t="s">
+        <v>185</v>
+      </c>
+      <c r="B131">
+        <v>0.5169173</v>
+      </c>
+      <c r="C131">
+        <v>0.6273738</v>
+      </c>
+      <c r="D131">
+        <v>0.6471934</v>
+      </c>
+      <c r="F131">
+        <v>0.5468536000000001</v>
+      </c>
+      <c r="G131">
+        <v>0.3592687</v>
+      </c>
+      <c r="H131">
+        <v>0.3780051</v>
+      </c>
+      <c r="I131">
+        <v>0.3591511</v>
+      </c>
+      <c r="J131">
+        <v>0.24375</v>
+      </c>
+      <c r="K131">
+        <v>0.3346359</v>
+      </c>
+      <c r="L131">
+        <v>0.343297</v>
+      </c>
+      <c r="M131">
+        <v>0.4721408</v>
+      </c>
+      <c r="O131">
+        <v>0.2735209</v>
+      </c>
+      <c r="P131">
+        <v>0.5158463</v>
+      </c>
+      <c r="Q131">
+        <v>0.2383149</v>
+      </c>
+      <c r="R131">
+        <v>0.3539119</v>
+      </c>
+      <c r="S131">
+        <v>0.5472557</v>
+      </c>
+      <c r="T131">
+        <v>0.5294053</v>
+      </c>
+      <c r="U131">
+        <v>0.3517988</v>
+      </c>
+      <c r="V131">
+        <v>0.6047844999999999</v>
+      </c>
+      <c r="W131">
+        <v>0.2896218</v>
+      </c>
+      <c r="X131">
+        <v>0.5448647</v>
+      </c>
+      <c r="Y131">
+        <v>0.3675081</v>
+      </c>
+      <c r="Z131">
+        <v>0.3387754</v>
+      </c>
+      <c r="AA131">
+        <v>0.3145624</v>
+      </c>
+      <c r="AB131">
+        <v>0.4241433</v>
+      </c>
+      <c r="AD131">
+        <v>0.582677</v>
+      </c>
+      <c r="AE131">
+        <v>0.2363869</v>
+      </c>
+      <c r="AF131">
+        <v>0.3722949</v>
+      </c>
+      <c r="AG131">
+        <v>0.6126424</v>
+      </c>
+      <c r="AH131">
+        <v>0.4617437</v>
+      </c>
+      <c r="AI131">
+        <v>0.281419</v>
+      </c>
+      <c r="AJ131">
+        <v>0.3620017</v>
+      </c>
+      <c r="AK131">
+        <v>0.3186358</v>
+      </c>
+      <c r="AL131">
+        <v>0.4200534</v>
+      </c>
+      <c r="AM131">
+        <v>0.3577762</v>
+      </c>
+      <c r="AN131">
+        <v>0.3122303</v>
+      </c>
+      <c r="AO131">
+        <v>0.4756105</v>
+      </c>
+      <c r="AP131">
+        <v>0.251016</v>
+      </c>
+      <c r="AQ131">
+        <v>0.2814056</v>
+      </c>
+      <c r="AS131">
+        <v>0.3737468</v>
+      </c>
+      <c r="AT131">
+        <v>0.4677864</v>
+      </c>
+      <c r="AU131">
+        <v>0.429169</v>
+      </c>
+      <c r="AV131">
+        <v>0.4380661</v>
+      </c>
+      <c r="AW131">
+        <v>0.4152559</v>
+      </c>
+      <c r="AX131">
+        <v>0.2826557</v>
+      </c>
+      <c r="AY131">
+        <v>0.3914485</v>
+      </c>
+      <c r="BA131">
+        <v>0.2554315</v>
+      </c>
+      <c r="BB131">
+        <v>0.3024089</v>
+      </c>
+      <c r="BC131">
+        <v>0.2477588</v>
+      </c>
+      <c r="BD131">
+        <v>0.3929492</v>
+      </c>
+      <c r="BE131">
+        <v>0.6590323</v>
+      </c>
+    </row>
+    <row r="132" spans="1:57">
+      <c r="A132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:57">
+      <c r="A133" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Alaska</t>
   </si>
@@ -578,6 +578,21 @@
   </si>
   <si>
     <t>11 06 2020</t>
+  </si>
+  <si>
+    <t>12 06 2020</t>
+  </si>
+  <si>
+    <t>13 06 2020</t>
+  </si>
+  <si>
+    <t>14 06 2020</t>
+  </si>
+  <si>
+    <t>15 06 2020</t>
+  </si>
+  <si>
+    <t>16 06 2020</t>
   </si>
 </sst>
 </file>
@@ -909,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE133"/>
+  <dimension ref="A1:BE138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8230,6 +8245,9 @@
       <c r="AQ109">
         <v>0.3446638</v>
       </c>
+      <c r="AR109">
+        <v>0</v>
+      </c>
       <c r="AS109">
         <v>0.6243931</v>
       </c>
@@ -8388,6 +8406,9 @@
       <c r="AQ110">
         <v>0.3536152</v>
       </c>
+      <c r="AR110">
+        <v>0</v>
+      </c>
       <c r="AS110">
         <v>0.6257666</v>
       </c>
@@ -8546,6 +8567,9 @@
       <c r="AQ111">
         <v>0.3517413</v>
       </c>
+      <c r="AR111">
+        <v>0</v>
+      </c>
       <c r="AS111">
         <v>0.6626987</v>
       </c>
@@ -8704,6 +8728,9 @@
       <c r="AQ112">
         <v>0.3064008</v>
       </c>
+      <c r="AR112">
+        <v>0</v>
+      </c>
       <c r="AS112">
         <v>0.4900094</v>
       </c>
@@ -8862,6 +8889,9 @@
       <c r="AQ113">
         <v>0.3053722</v>
       </c>
+      <c r="AR113">
+        <v>0</v>
+      </c>
       <c r="AS113">
         <v>0.5075498000000001</v>
       </c>
@@ -11340,7 +11370,7 @@
         <v>0.21773</v>
       </c>
       <c r="Z129">
-        <v>0.3106558</v>
+        <v>0.3106429</v>
       </c>
       <c r="AA129">
         <v>0.4295411</v>
@@ -11498,7 +11528,7 @@
         <v>0.3470019</v>
       </c>
       <c r="Z130">
-        <v>0.3298128</v>
+        <v>0.3297987</v>
       </c>
       <c r="AA130">
         <v>0.3417861</v>
@@ -11582,7 +11612,7 @@
         <v>0.3302295</v>
       </c>
       <c r="BE130">
-        <v>0.6461973</v>
+        <v>0.6457445000000001</v>
       </c>
     </row>
     <row r="131" spans="1:57">
@@ -11599,10 +11629,10 @@
         <v>0.6471934</v>
       </c>
       <c r="F131">
-        <v>0.5468536000000001</v>
+        <v>0.5468051</v>
       </c>
       <c r="G131">
-        <v>0.3592687</v>
+        <v>0.3592599</v>
       </c>
       <c r="H131">
         <v>0.3780051</v>
@@ -11617,13 +11647,13 @@
         <v>0.3346359</v>
       </c>
       <c r="L131">
-        <v>0.343297</v>
+        <v>0.3432752</v>
       </c>
       <c r="M131">
         <v>0.4721408</v>
       </c>
       <c r="O131">
-        <v>0.2735209</v>
+        <v>0.2733778</v>
       </c>
       <c r="P131">
         <v>0.5158463</v>
@@ -11635,7 +11665,7 @@
         <v>0.3539119</v>
       </c>
       <c r="S131">
-        <v>0.5472557</v>
+        <v>0.5472104</v>
       </c>
       <c r="T131">
         <v>0.5294053</v>
@@ -11656,7 +11686,7 @@
         <v>0.3675081</v>
       </c>
       <c r="Z131">
-        <v>0.3387754</v>
+        <v>0.3387606</v>
       </c>
       <c r="AA131">
         <v>0.3145624</v>
@@ -11710,13 +11740,13 @@
         <v>0.3737468</v>
       </c>
       <c r="AT131">
-        <v>0.4677864</v>
+        <v>0.467744</v>
       </c>
       <c r="AU131">
         <v>0.429169</v>
       </c>
       <c r="AV131">
-        <v>0.4380661</v>
+        <v>0.4380247</v>
       </c>
       <c r="AW131">
         <v>0.4152559</v>
@@ -11731,26 +11761,816 @@
         <v>0.2554315</v>
       </c>
       <c r="BB131">
-        <v>0.3024089</v>
+        <v>0.3023843</v>
       </c>
       <c r="BC131">
         <v>0.2477588</v>
       </c>
       <c r="BD131">
-        <v>0.3929492</v>
+        <v>0.3928631</v>
       </c>
       <c r="BE131">
-        <v>0.6590323</v>
+        <v>0.6585614</v>
       </c>
     </row>
     <row r="132" spans="1:57">
       <c r="A132" t="s">
         <v>186</v>
       </c>
+      <c r="B132">
+        <v>0.4084447</v>
+      </c>
+      <c r="C132">
+        <v>0.6812469</v>
+      </c>
+      <c r="D132">
+        <v>0.6600476</v>
+      </c>
+      <c r="F132">
+        <v>0.5575037</v>
+      </c>
+      <c r="G132">
+        <v>0.3820573</v>
+      </c>
+      <c r="H132">
+        <v>0.3389564</v>
+      </c>
+      <c r="I132">
+        <v>0.3278174</v>
+      </c>
+      <c r="J132">
+        <v>0.4345088</v>
+      </c>
+      <c r="K132">
+        <v>0.2939478</v>
+      </c>
+      <c r="L132">
+        <v>0.3506451</v>
+      </c>
+      <c r="M132">
+        <v>0.4511751</v>
+      </c>
+      <c r="O132">
+        <v>0.2971969</v>
+      </c>
+      <c r="P132">
+        <v>0.5771539</v>
+      </c>
+      <c r="Q132">
+        <v>0.2584492</v>
+      </c>
+      <c r="R132">
+        <v>0.349034</v>
+      </c>
+      <c r="S132">
+        <v>0.5140845000000001</v>
+      </c>
+      <c r="T132">
+        <v>0.5976273</v>
+      </c>
+      <c r="U132">
+        <v>0.4032421</v>
+      </c>
+      <c r="V132">
+        <v>0.6104631</v>
+      </c>
+      <c r="W132">
+        <v>0.2858232</v>
+      </c>
+      <c r="X132">
+        <v>0.5453937</v>
+      </c>
+      <c r="Y132">
+        <v>0.3329845</v>
+      </c>
+      <c r="Z132">
+        <v>0.3358698</v>
+      </c>
+      <c r="AA132">
+        <v>0.3438895</v>
+      </c>
+      <c r="AB132">
+        <v>0.4404279</v>
+      </c>
+      <c r="AD132">
+        <v>0.5835696</v>
+      </c>
+      <c r="AE132">
+        <v>0.1949975</v>
+      </c>
+      <c r="AF132">
+        <v>0.3554803</v>
+      </c>
+      <c r="AG132">
+        <v>0.6462448</v>
+      </c>
+      <c r="AH132">
+        <v>0.4927556</v>
+      </c>
+      <c r="AI132">
+        <v>0.233219</v>
+      </c>
+      <c r="AJ132">
+        <v>0.3420242</v>
+      </c>
+      <c r="AK132">
+        <v>0.280364</v>
+      </c>
+      <c r="AL132">
+        <v>0.4527039</v>
+      </c>
+      <c r="AM132">
+        <v>0.3668797</v>
+      </c>
+      <c r="AN132">
+        <v>0.3098542</v>
+      </c>
+      <c r="AO132">
+        <v>0.5262916</v>
+      </c>
+      <c r="AP132">
+        <v>0.2932934</v>
+      </c>
+      <c r="AQ132">
+        <v>0.2504456</v>
+      </c>
+      <c r="AS132">
+        <v>0.4185292</v>
+      </c>
+      <c r="AT132">
+        <v>0.454618</v>
+      </c>
+      <c r="AU132">
+        <v>0.4013042</v>
+      </c>
+      <c r="AV132">
+        <v>0.4811463</v>
+      </c>
+      <c r="AW132">
+        <v>0.434791</v>
+      </c>
+      <c r="AX132">
+        <v>0.3217023</v>
+      </c>
+      <c r="AY132">
+        <v>0.4134145</v>
+      </c>
+      <c r="BA132">
+        <v>0.2583433</v>
+      </c>
+      <c r="BB132">
+        <v>0.3061121</v>
+      </c>
+      <c r="BC132">
+        <v>0.2677376</v>
+      </c>
+      <c r="BD132">
+        <v>0.4105808</v>
+      </c>
+      <c r="BE132">
+        <v>0.5947416</v>
+      </c>
     </row>
     <row r="133" spans="1:57">
       <c r="A133" t="s">
         <v>187</v>
+      </c>
+      <c r="B133">
+        <v>0.4227902</v>
+      </c>
+      <c r="C133">
+        <v>0.6092528</v>
+      </c>
+      <c r="D133">
+        <v>0.6050498</v>
+      </c>
+      <c r="F133">
+        <v>0.5923413</v>
+      </c>
+      <c r="G133">
+        <v>0.3724256</v>
+      </c>
+      <c r="H133">
+        <v>0.3375094</v>
+      </c>
+      <c r="I133">
+        <v>0.3709734</v>
+      </c>
+      <c r="J133">
+        <v>0.4624893</v>
+      </c>
+      <c r="K133">
+        <v>0.2385217</v>
+      </c>
+      <c r="L133">
+        <v>0.3682915</v>
+      </c>
+      <c r="M133">
+        <v>0.4883653</v>
+      </c>
+      <c r="O133">
+        <v>0.2521154</v>
+      </c>
+      <c r="P133">
+        <v>0.5487365</v>
+      </c>
+      <c r="Q133">
+        <v>0.2856396</v>
+      </c>
+      <c r="R133">
+        <v>0.3441757</v>
+      </c>
+      <c r="S133">
+        <v>0.5417328</v>
+      </c>
+      <c r="T133">
+        <v>0.6188372</v>
+      </c>
+      <c r="U133">
+        <v>0.3740141</v>
+      </c>
+      <c r="V133">
+        <v>0.6349953</v>
+      </c>
+      <c r="W133">
+        <v>0.3208019</v>
+      </c>
+      <c r="X133">
+        <v>0.4890242</v>
+      </c>
+      <c r="Y133">
+        <v>0.382482</v>
+      </c>
+      <c r="Z133">
+        <v>0.316885</v>
+      </c>
+      <c r="AA133">
+        <v>0.3901211</v>
+      </c>
+      <c r="AB133">
+        <v>0.4063581</v>
+      </c>
+      <c r="AD133">
+        <v>0.5878891000000001</v>
+      </c>
+      <c r="AE133">
+        <v>0.1269353</v>
+      </c>
+      <c r="AF133">
+        <v>0.3615421</v>
+      </c>
+      <c r="AG133">
+        <v>0.5358914</v>
+      </c>
+      <c r="AH133">
+        <v>0.5133888</v>
+      </c>
+      <c r="AI133">
+        <v>0.2092732</v>
+      </c>
+      <c r="AJ133">
+        <v>0.4193815</v>
+      </c>
+      <c r="AK133">
+        <v>0.2654345</v>
+      </c>
+      <c r="AL133">
+        <v>0.4686194</v>
+      </c>
+      <c r="AM133">
+        <v>0.3411966</v>
+      </c>
+      <c r="AN133">
+        <v>0.3130318</v>
+      </c>
+      <c r="AO133">
+        <v>0.5223822</v>
+      </c>
+      <c r="AP133">
+        <v>0.2977569</v>
+      </c>
+      <c r="AQ133">
+        <v>0.2686983</v>
+      </c>
+      <c r="AS133">
+        <v>0.2865082</v>
+      </c>
+      <c r="AT133">
+        <v>0.4681869</v>
+      </c>
+      <c r="AU133">
+        <v>0.5250712</v>
+      </c>
+      <c r="AV133">
+        <v>0.4530168</v>
+      </c>
+      <c r="AW133">
+        <v>0.4619566</v>
+      </c>
+      <c r="AX133">
+        <v>0.2858086</v>
+      </c>
+      <c r="AY133">
+        <v>0.4037937</v>
+      </c>
+      <c r="BA133">
+        <v>0.1637176</v>
+      </c>
+      <c r="BB133">
+        <v>0.3183461</v>
+      </c>
+      <c r="BC133">
+        <v>0.2355376</v>
+      </c>
+      <c r="BD133">
+        <v>0.359987</v>
+      </c>
+      <c r="BE133">
+        <v>0.6607797</v>
+      </c>
+    </row>
+    <row r="134" spans="1:57">
+      <c r="A134" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134">
+        <v>0.4721166</v>
+      </c>
+      <c r="C134">
+        <v>0.5405184</v>
+      </c>
+      <c r="D134">
+        <v>0.523537</v>
+      </c>
+      <c r="F134">
+        <v>0.6052877</v>
+      </c>
+      <c r="G134">
+        <v>0.3784509</v>
+      </c>
+      <c r="H134">
+        <v>0.3266943</v>
+      </c>
+      <c r="I134">
+        <v>0.3312462</v>
+      </c>
+      <c r="J134">
+        <v>0.3436426</v>
+      </c>
+      <c r="K134">
+        <v>0.3048806</v>
+      </c>
+      <c r="L134">
+        <v>0.3648519</v>
+      </c>
+      <c r="M134">
+        <v>0.4825889</v>
+      </c>
+      <c r="O134">
+        <v>0.2405124</v>
+      </c>
+      <c r="P134">
+        <v>0.5664341000000001</v>
+      </c>
+      <c r="Q134">
+        <v>0.2896063</v>
+      </c>
+      <c r="R134">
+        <v>0.351404</v>
+      </c>
+      <c r="S134">
+        <v>0.5571691</v>
+      </c>
+      <c r="T134">
+        <v>0.5024769</v>
+      </c>
+      <c r="U134">
+        <v>0.4023509</v>
+      </c>
+      <c r="V134">
+        <v>0.6252285</v>
+      </c>
+      <c r="W134">
+        <v>0.3341641</v>
+      </c>
+      <c r="X134">
+        <v>0.4636001</v>
+      </c>
+      <c r="Y134">
+        <v>0.3910557</v>
+      </c>
+      <c r="Z134">
+        <v>0.3039487</v>
+      </c>
+      <c r="AA134">
+        <v>0.3688355</v>
+      </c>
+      <c r="AB134">
+        <v>0.4354375</v>
+      </c>
+      <c r="AD134">
+        <v>0.5767273000000001</v>
+      </c>
+      <c r="AE134">
+        <v>0.1865845</v>
+      </c>
+      <c r="AF134">
+        <v>0.3798259</v>
+      </c>
+      <c r="AG134">
+        <v>0.5206429</v>
+      </c>
+      <c r="AH134">
+        <v>0.4944389</v>
+      </c>
+      <c r="AI134">
+        <v>0.2338881</v>
+      </c>
+      <c r="AJ134">
+        <v>0.4050789</v>
+      </c>
+      <c r="AK134">
+        <v>0.3499163</v>
+      </c>
+      <c r="AL134">
+        <v>0.4821016</v>
+      </c>
+      <c r="AM134">
+        <v>0.3361127</v>
+      </c>
+      <c r="AN134">
+        <v>0.3381615</v>
+      </c>
+      <c r="AO134">
+        <v>0.5676387000000001</v>
+      </c>
+      <c r="AP134">
+        <v>0.3480002</v>
+      </c>
+      <c r="AQ134">
+        <v>0.2697423</v>
+      </c>
+      <c r="AS134">
+        <v>0.3231625</v>
+      </c>
+      <c r="AT134">
+        <v>0.4653626</v>
+      </c>
+      <c r="AU134">
+        <v>0.5820975</v>
+      </c>
+      <c r="AV134">
+        <v>0.4538371</v>
+      </c>
+      <c r="AW134">
+        <v>0.5005382</v>
+      </c>
+      <c r="AX134">
+        <v>0.3223682</v>
+      </c>
+      <c r="AY134">
+        <v>0.3855855</v>
+      </c>
+      <c r="BA134">
+        <v>0.1930461</v>
+      </c>
+      <c r="BB134">
+        <v>0.3509978</v>
+      </c>
+      <c r="BC134">
+        <v>0.2600452</v>
+      </c>
+      <c r="BD134">
+        <v>0.3506924</v>
+      </c>
+      <c r="BE134">
+        <v>0.7922996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:57">
+      <c r="A135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135">
+        <v>0.4918033</v>
+      </c>
+      <c r="C135">
+        <v>0.5574882</v>
+      </c>
+      <c r="D135">
+        <v>0.5003837</v>
+      </c>
+      <c r="F135">
+        <v>0.5844001</v>
+      </c>
+      <c r="G135">
+        <v>0.3649892</v>
+      </c>
+      <c r="H135">
+        <v>0.3238998</v>
+      </c>
+      <c r="I135">
+        <v>0.3056701</v>
+      </c>
+      <c r="J135">
+        <v>0.3650396</v>
+      </c>
+      <c r="K135">
+        <v>0.2967828</v>
+      </c>
+      <c r="L135">
+        <v>0.3621485</v>
+      </c>
+      <c r="M135">
+        <v>0.5045598</v>
+      </c>
+      <c r="O135">
+        <v>0.2173556</v>
+      </c>
+      <c r="P135">
+        <v>0.5204603</v>
+      </c>
+      <c r="Q135">
+        <v>0.2919631</v>
+      </c>
+      <c r="R135">
+        <v>0.3367729</v>
+      </c>
+      <c r="S135">
+        <v>0.5757184</v>
+      </c>
+      <c r="T135">
+        <v>0.4451905</v>
+      </c>
+      <c r="U135">
+        <v>0.4342866</v>
+      </c>
+      <c r="V135">
+        <v>0.6266842</v>
+      </c>
+      <c r="W135">
+        <v>0.3398215</v>
+      </c>
+      <c r="X135">
+        <v>0.4369964</v>
+      </c>
+      <c r="Y135">
+        <v>0.419088</v>
+      </c>
+      <c r="Z135">
+        <v>0.2731903</v>
+      </c>
+      <c r="AA135">
+        <v>0.3589808</v>
+      </c>
+      <c r="AB135">
+        <v>0.4172774</v>
+      </c>
+      <c r="AD135">
+        <v>0.4918966</v>
+      </c>
+      <c r="AE135">
+        <v>0.2406801</v>
+      </c>
+      <c r="AF135">
+        <v>0.3905953</v>
+      </c>
+      <c r="AG135">
+        <v>0.3723837</v>
+      </c>
+      <c r="AH135">
+        <v>0.4916751</v>
+      </c>
+      <c r="AI135">
+        <v>0.2371628</v>
+      </c>
+      <c r="AJ135">
+        <v>0.3671766</v>
+      </c>
+      <c r="AK135">
+        <v>0.3671114</v>
+      </c>
+      <c r="AL135">
+        <v>0.3865995</v>
+      </c>
+      <c r="AM135">
+        <v>0.342403</v>
+      </c>
+      <c r="AN135">
+        <v>0.3467367</v>
+      </c>
+      <c r="AO135">
+        <v>0.5825585</v>
+      </c>
+      <c r="AP135">
+        <v>0.3613776</v>
+      </c>
+      <c r="AQ135">
+        <v>0.2723928</v>
+      </c>
+      <c r="AS135">
+        <v>0.3142463</v>
+      </c>
+      <c r="AT135">
+        <v>0.4355864</v>
+      </c>
+      <c r="AU135">
+        <v>0.6005544</v>
+      </c>
+      <c r="AV135">
+        <v>0.4765008</v>
+      </c>
+      <c r="AW135">
+        <v>0.51279</v>
+      </c>
+      <c r="AX135">
+        <v>0.3552548</v>
+      </c>
+      <c r="AY135">
+        <v>0.3651742</v>
+      </c>
+      <c r="BA135">
+        <v>0.1957917</v>
+      </c>
+      <c r="BB135">
+        <v>0.3723054</v>
+      </c>
+      <c r="BC135">
+        <v>0.2542668</v>
+      </c>
+      <c r="BD135">
+        <v>0.4499214</v>
+      </c>
+      <c r="BE135">
+        <v>0.7140198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:57">
+      <c r="A136" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136">
+        <v>0.4316109</v>
+      </c>
+      <c r="C136">
+        <v>0.591572</v>
+      </c>
+      <c r="D136">
+        <v>0.4803604</v>
+      </c>
+      <c r="F136">
+        <v>0.5959391000000001</v>
+      </c>
+      <c r="G136">
+        <v>0.3570823</v>
+      </c>
+      <c r="H136">
+        <v>0.325738</v>
+      </c>
+      <c r="I136">
+        <v>0.3081312</v>
+      </c>
+      <c r="J136">
+        <v>0.2383914</v>
+      </c>
+      <c r="K136">
+        <v>0.2807255</v>
+      </c>
+      <c r="L136">
+        <v>0.3675804</v>
+      </c>
+      <c r="M136">
+        <v>0.4520842</v>
+      </c>
+      <c r="O136">
+        <v>0.282001</v>
+      </c>
+      <c r="P136">
+        <v>0.5006836</v>
+      </c>
+      <c r="Q136">
+        <v>0.3585966</v>
+      </c>
+      <c r="R136">
+        <v>0.3284992</v>
+      </c>
+      <c r="S136">
+        <v>0.537004</v>
+      </c>
+      <c r="T136">
+        <v>0.4034309</v>
+      </c>
+      <c r="U136">
+        <v>0.4388283</v>
+      </c>
+      <c r="V136">
+        <v>0.584472</v>
+      </c>
+      <c r="W136">
+        <v>0.2990595</v>
+      </c>
+      <c r="X136">
+        <v>0.3662496</v>
+      </c>
+      <c r="Y136">
+        <v>0.5258664</v>
+      </c>
+      <c r="Z136">
+        <v>0.2685872</v>
+      </c>
+      <c r="AA136">
+        <v>0.3606862</v>
+      </c>
+      <c r="AB136">
+        <v>0.3932977</v>
+      </c>
+      <c r="AD136">
+        <v>0.4904185</v>
+      </c>
+      <c r="AE136">
+        <v>0.2852549</v>
+      </c>
+      <c r="AF136">
+        <v>0.3788905</v>
+      </c>
+      <c r="AG136">
+        <v>0.453526</v>
+      </c>
+      <c r="AH136">
+        <v>0.5200181</v>
+      </c>
+      <c r="AI136">
+        <v>0.2363629</v>
+      </c>
+      <c r="AJ136">
+        <v>0.3750897</v>
+      </c>
+      <c r="AK136">
+        <v>0.4106999</v>
+      </c>
+      <c r="AL136">
+        <v>0.4581109</v>
+      </c>
+      <c r="AM136">
+        <v>0.3721221</v>
+      </c>
+      <c r="AN136">
+        <v>0.361056</v>
+      </c>
+      <c r="AO136">
+        <v>0.5820642</v>
+      </c>
+      <c r="AP136">
+        <v>0.3559236</v>
+      </c>
+      <c r="AQ136">
+        <v>0.2694893</v>
+      </c>
+      <c r="AS136">
+        <v>0.4390062</v>
+      </c>
+      <c r="AT136">
+        <v>0.4977065</v>
+      </c>
+      <c r="AU136">
+        <v>0.5069207</v>
+      </c>
+      <c r="AV136">
+        <v>0.4244472</v>
+      </c>
+      <c r="AW136">
+        <v>0.5146805</v>
+      </c>
+      <c r="AX136">
+        <v>0.3556057</v>
+      </c>
+      <c r="AY136">
+        <v>0.3138259</v>
+      </c>
+      <c r="BA136">
+        <v>0.1812426</v>
+      </c>
+      <c r="BB136">
+        <v>0.3446017</v>
+      </c>
+      <c r="BC136">
+        <v>0.2511568</v>
+      </c>
+      <c r="BD136">
+        <v>0.4359158</v>
+      </c>
+      <c r="BE136">
+        <v>0.620884</v>
+      </c>
+    </row>
+    <row r="137" spans="1:57">
+      <c r="A137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:57">
+      <c r="A138" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Alaska</t>
   </si>
@@ -593,6 +593,24 @@
   </si>
   <si>
     <t>16 06 2020</t>
+  </si>
+  <si>
+    <t>17 06 2020</t>
+  </si>
+  <si>
+    <t>18 06 2020</t>
+  </si>
+  <si>
+    <t>19 06 2020</t>
+  </si>
+  <si>
+    <t>20 06 2020</t>
+  </si>
+  <si>
+    <t>21 06 2020</t>
+  </si>
+  <si>
+    <t>22 06 2020</t>
   </si>
 </sst>
 </file>
@@ -924,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE138"/>
+  <dimension ref="A1:BE144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9050,6 +9068,9 @@
       <c r="AQ114">
         <v>0.2837147</v>
       </c>
+      <c r="AR114">
+        <v>0</v>
+      </c>
       <c r="AS114">
         <v>0.4627784</v>
       </c>
@@ -9208,6 +9229,9 @@
       <c r="AQ115">
         <v>0.2993414</v>
       </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
       <c r="AS115">
         <v>0.3968296</v>
       </c>
@@ -9366,6 +9390,9 @@
       <c r="AQ116">
         <v>0.3060614</v>
       </c>
+      <c r="AR116">
+        <v>0.9259259</v>
+      </c>
       <c r="AS116">
         <v>0.3802473</v>
       </c>
@@ -9524,6 +9551,9 @@
       <c r="AQ117">
         <v>0.3020963</v>
       </c>
+      <c r="AR117">
+        <v>0.9259259</v>
+      </c>
       <c r="AS117">
         <v>0.4592456</v>
       </c>
@@ -9682,6 +9712,9 @@
       <c r="AQ118">
         <v>0.2866123</v>
       </c>
+      <c r="AR118">
+        <v>0.952381</v>
+      </c>
       <c r="AS118">
         <v>0.4505258</v>
       </c>
@@ -9840,6 +9873,9 @@
       <c r="AQ119">
         <v>0.2745024</v>
       </c>
+      <c r="AR119">
+        <v>0.9090909</v>
+      </c>
       <c r="AS119">
         <v>0.4608768</v>
       </c>
@@ -11880,7 +11916,7 @@
         <v>0.4527039</v>
       </c>
       <c r="AM132">
-        <v>0.3668797</v>
+        <v>0.3668641</v>
       </c>
       <c r="AN132">
         <v>0.3098542</v>
@@ -12038,7 +12074,7 @@
         <v>0.4686194</v>
       </c>
       <c r="AM133">
-        <v>0.3411966</v>
+        <v>0.341182</v>
       </c>
       <c r="AN133">
         <v>0.3130318</v>
@@ -12196,7 +12232,7 @@
         <v>0.4821016</v>
       </c>
       <c r="AM134">
-        <v>0.3361127</v>
+        <v>0.3360986</v>
       </c>
       <c r="AN134">
         <v>0.3381615</v>
@@ -12267,7 +12303,7 @@
         <v>0.3649892</v>
       </c>
       <c r="H135">
-        <v>0.3238998</v>
+        <v>0.323868</v>
       </c>
       <c r="I135">
         <v>0.3056701</v>
@@ -12354,7 +12390,7 @@
         <v>0.3865995</v>
       </c>
       <c r="AM135">
-        <v>0.342403</v>
+        <v>0.3423892</v>
       </c>
       <c r="AN135">
         <v>0.3467367</v>
@@ -12413,7 +12449,7 @@
         <v>0.4316109</v>
       </c>
       <c r="C136">
-        <v>0.591572</v>
+        <v>0.5914961</v>
       </c>
       <c r="D136">
         <v>0.4803604</v>
@@ -12422,10 +12458,10 @@
         <v>0.5959391000000001</v>
       </c>
       <c r="G136">
-        <v>0.3570823</v>
+        <v>0.357074</v>
       </c>
       <c r="H136">
-        <v>0.325738</v>
+        <v>0.3257062</v>
       </c>
       <c r="I136">
         <v>0.3081312</v>
@@ -12440,7 +12476,7 @@
         <v>0.3675804</v>
       </c>
       <c r="M136">
-        <v>0.4520842</v>
+        <v>0.4520485</v>
       </c>
       <c r="O136">
         <v>0.282001</v>
@@ -12461,7 +12497,7 @@
         <v>0.4034309</v>
       </c>
       <c r="U136">
-        <v>0.4388283</v>
+        <v>0.4387699</v>
       </c>
       <c r="V136">
         <v>0.584472</v>
@@ -12512,7 +12548,7 @@
         <v>0.4581109</v>
       </c>
       <c r="AM136">
-        <v>0.3721221</v>
+        <v>0.3721072</v>
       </c>
       <c r="AN136">
         <v>0.361056</v>
@@ -12521,7 +12557,7 @@
         <v>0.5820642</v>
       </c>
       <c r="AP136">
-        <v>0.3559236</v>
+        <v>0.3558797</v>
       </c>
       <c r="AQ136">
         <v>0.2694893</v>
@@ -12567,10 +12603,958 @@
       <c r="A137" t="s">
         <v>191</v>
       </c>
+      <c r="B137">
+        <v>0.3863543</v>
+      </c>
+      <c r="C137">
+        <v>0.5801948</v>
+      </c>
+      <c r="D137">
+        <v>0.4773163</v>
+      </c>
+      <c r="F137">
+        <v>0.6350183</v>
+      </c>
+      <c r="G137">
+        <v>0.3609408</v>
+      </c>
+      <c r="H137">
+        <v>0.3065941</v>
+      </c>
+      <c r="I137">
+        <v>0.2844822</v>
+      </c>
+      <c r="J137">
+        <v>0.2401838</v>
+      </c>
+      <c r="K137">
+        <v>0.1973559</v>
+      </c>
+      <c r="L137">
+        <v>0.3593247</v>
+      </c>
+      <c r="M137">
+        <v>0.4467009</v>
+      </c>
+      <c r="O137">
+        <v>0.2677376</v>
+      </c>
+      <c r="P137">
+        <v>0.4920518</v>
+      </c>
+      <c r="Q137">
+        <v>0.4505365</v>
+      </c>
+      <c r="R137">
+        <v>0.3289479</v>
+      </c>
+      <c r="S137">
+        <v>0.5274879</v>
+      </c>
+      <c r="T137">
+        <v>0.3879951</v>
+      </c>
+      <c r="U137">
+        <v>0.4598094</v>
+      </c>
+      <c r="V137">
+        <v>0.5519435</v>
+      </c>
+      <c r="W137">
+        <v>0.2722746</v>
+      </c>
+      <c r="X137">
+        <v>0.3334819</v>
+      </c>
+      <c r="Y137">
+        <v>0.3761819</v>
+      </c>
+      <c r="Z137">
+        <v>0.268493</v>
+      </c>
+      <c r="AA137">
+        <v>0.3992303</v>
+      </c>
+      <c r="AB137">
+        <v>0.3912847</v>
+      </c>
+      <c r="AD137">
+        <v>0.4385677</v>
+      </c>
+      <c r="AE137">
+        <v>0.3511533</v>
+      </c>
+      <c r="AF137">
+        <v>0.3888566</v>
+      </c>
+      <c r="AG137">
+        <v>0.3628673</v>
+      </c>
+      <c r="AH137">
+        <v>0.4464328</v>
+      </c>
+      <c r="AI137">
+        <v>0.2108449</v>
+      </c>
+      <c r="AJ137">
+        <v>0.3662842</v>
+      </c>
+      <c r="AK137">
+        <v>0.4051526</v>
+      </c>
+      <c r="AL137">
+        <v>0.422492</v>
+      </c>
+      <c r="AM137">
+        <v>0.3783611</v>
+      </c>
+      <c r="AN137">
+        <v>0.3796884</v>
+      </c>
+      <c r="AO137">
+        <v>0.5958856</v>
+      </c>
+      <c r="AP137">
+        <v>0.3795114</v>
+      </c>
+      <c r="AQ137">
+        <v>0.2862568</v>
+      </c>
+      <c r="AS137">
+        <v>0.4694077</v>
+      </c>
+      <c r="AT137">
+        <v>0.5159280000000001</v>
+      </c>
+      <c r="AU137">
+        <v>0.4651905</v>
+      </c>
+      <c r="AV137">
+        <v>0.472898</v>
+      </c>
+      <c r="AW137">
+        <v>0.5592975</v>
+      </c>
+      <c r="AX137">
+        <v>0.3991633</v>
+      </c>
+      <c r="AY137">
+        <v>0.3173978</v>
+      </c>
+      <c r="BA137">
+        <v>0.2428318</v>
+      </c>
+      <c r="BB137">
+        <v>0.3551825</v>
+      </c>
+      <c r="BC137">
+        <v>0.2575358</v>
+      </c>
+      <c r="BD137">
+        <v>0.4222794</v>
+      </c>
+      <c r="BE137">
+        <v>0.6428068</v>
+      </c>
     </row>
     <row r="138" spans="1:57">
       <c r="A138" t="s">
         <v>192</v>
+      </c>
+      <c r="B138">
+        <v>0.4732886</v>
+      </c>
+      <c r="C138">
+        <v>0.5544745</v>
+      </c>
+      <c r="D138">
+        <v>0.5089106</v>
+      </c>
+      <c r="F138">
+        <v>0.6589318</v>
+      </c>
+      <c r="G138">
+        <v>0.355505</v>
+      </c>
+      <c r="H138">
+        <v>0.2838239</v>
+      </c>
+      <c r="I138">
+        <v>0.2613993</v>
+      </c>
+      <c r="J138">
+        <v>0.2413938</v>
+      </c>
+      <c r="K138">
+        <v>0.3302483</v>
+      </c>
+      <c r="L138">
+        <v>0.3887495</v>
+      </c>
+      <c r="M138">
+        <v>0.4240268</v>
+      </c>
+      <c r="O138">
+        <v>0.3287871</v>
+      </c>
+      <c r="P138">
+        <v>0.4294339</v>
+      </c>
+      <c r="Q138">
+        <v>0.5504509</v>
+      </c>
+      <c r="R138">
+        <v>0.3217883</v>
+      </c>
+      <c r="S138">
+        <v>0.5624882</v>
+      </c>
+      <c r="T138">
+        <v>0.3777121</v>
+      </c>
+      <c r="U138">
+        <v>0.4571723</v>
+      </c>
+      <c r="V138">
+        <v>0.5132887</v>
+      </c>
+      <c r="W138">
+        <v>0.2646648</v>
+      </c>
+      <c r="X138">
+        <v>0.3440175</v>
+      </c>
+      <c r="Y138">
+        <v>0.3231518</v>
+      </c>
+      <c r="Z138">
+        <v>0.2438268</v>
+      </c>
+      <c r="AA138">
+        <v>0.3545634</v>
+      </c>
+      <c r="AB138">
+        <v>0.3986821</v>
+      </c>
+      <c r="AD138">
+        <v>0.468676</v>
+      </c>
+      <c r="AE138">
+        <v>0.3454702</v>
+      </c>
+      <c r="AF138">
+        <v>0.3939319</v>
+      </c>
+      <c r="AG138">
+        <v>0.3259683</v>
+      </c>
+      <c r="AH138">
+        <v>0.4596346</v>
+      </c>
+      <c r="AI138">
+        <v>0.1951879</v>
+      </c>
+      <c r="AJ138">
+        <v>0.3543005</v>
+      </c>
+      <c r="AK138">
+        <v>0.3749581</v>
+      </c>
+      <c r="AL138">
+        <v>0.4236747</v>
+      </c>
+      <c r="AM138">
+        <v>0.3631976</v>
+      </c>
+      <c r="AN138">
+        <v>0.3459083</v>
+      </c>
+      <c r="AO138">
+        <v>0.5989943</v>
+      </c>
+      <c r="AP138">
+        <v>0.3707371</v>
+      </c>
+      <c r="AQ138">
+        <v>0.2742741</v>
+      </c>
+      <c r="AS138">
+        <v>0.4379245</v>
+      </c>
+      <c r="AT138">
+        <v>0.534052</v>
+      </c>
+      <c r="AU138">
+        <v>0.4819388</v>
+      </c>
+      <c r="AV138">
+        <v>0.4956076</v>
+      </c>
+      <c r="AW138">
+        <v>0.5260745</v>
+      </c>
+      <c r="AX138">
+        <v>0.4556505</v>
+      </c>
+      <c r="AY138">
+        <v>0.3013279</v>
+      </c>
+      <c r="BA138">
+        <v>0.2555166</v>
+      </c>
+      <c r="BB138">
+        <v>0.374153</v>
+      </c>
+      <c r="BC138">
+        <v>0.2458547</v>
+      </c>
+      <c r="BD138">
+        <v>0.3709702</v>
+      </c>
+      <c r="BE138">
+        <v>0.7903167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:57">
+      <c r="A139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139">
+        <v>0.4701372</v>
+      </c>
+      <c r="C139">
+        <v>0.5674541</v>
+      </c>
+      <c r="D139">
+        <v>0.4568984</v>
+      </c>
+      <c r="F139">
+        <v>0.6717857</v>
+      </c>
+      <c r="G139">
+        <v>0.3408396</v>
+      </c>
+      <c r="H139">
+        <v>0.2848779</v>
+      </c>
+      <c r="I139">
+        <v>0.2858059</v>
+      </c>
+      <c r="J139">
+        <v>0.0518888</v>
+      </c>
+      <c r="K139">
+        <v>0.3515038</v>
+      </c>
+      <c r="L139">
+        <v>0.3843177</v>
+      </c>
+      <c r="M139">
+        <v>0.4398844</v>
+      </c>
+      <c r="O139">
+        <v>0.3077302</v>
+      </c>
+      <c r="P139">
+        <v>0.4787546</v>
+      </c>
+      <c r="Q139">
+        <v>0.5558761</v>
+      </c>
+      <c r="R139">
+        <v>0.3235494</v>
+      </c>
+      <c r="S139">
+        <v>0.5428396</v>
+      </c>
+      <c r="T139">
+        <v>0.3102085</v>
+      </c>
+      <c r="U139">
+        <v>0.4255034</v>
+      </c>
+      <c r="V139">
+        <v>0.5313001000000001</v>
+      </c>
+      <c r="W139">
+        <v>0.2323535</v>
+      </c>
+      <c r="X139">
+        <v>0.328672</v>
+      </c>
+      <c r="Y139">
+        <v>0.3628744</v>
+      </c>
+      <c r="Z139">
+        <v>0.2333119</v>
+      </c>
+      <c r="AA139">
+        <v>0.3401903</v>
+      </c>
+      <c r="AB139">
+        <v>0.3758055</v>
+      </c>
+      <c r="AD139">
+        <v>0.4691514</v>
+      </c>
+      <c r="AE139">
+        <v>0.3662106</v>
+      </c>
+      <c r="AF139">
+        <v>0.399587</v>
+      </c>
+      <c r="AG139">
+        <v>0.3559375</v>
+      </c>
+      <c r="AH139">
+        <v>0.4014919</v>
+      </c>
+      <c r="AI139">
+        <v>0.1990995</v>
+      </c>
+      <c r="AJ139">
+        <v>0.4013537</v>
+      </c>
+      <c r="AK139">
+        <v>0.4443804</v>
+      </c>
+      <c r="AL139">
+        <v>0.4670868</v>
+      </c>
+      <c r="AM139">
+        <v>0.3416148</v>
+      </c>
+      <c r="AN139">
+        <v>0.3639225</v>
+      </c>
+      <c r="AO139">
+        <v>0.5542882</v>
+      </c>
+      <c r="AP139">
+        <v>0.3384801</v>
+      </c>
+      <c r="AQ139">
+        <v>0.2894988</v>
+      </c>
+      <c r="AS139">
+        <v>0.4460346</v>
+      </c>
+      <c r="AT139">
+        <v>0.5353824</v>
+      </c>
+      <c r="AU139">
+        <v>0.4647673</v>
+      </c>
+      <c r="AV139">
+        <v>0.4888657</v>
+      </c>
+      <c r="AW139">
+        <v>0.5547682</v>
+      </c>
+      <c r="AX139">
+        <v>0.4201896</v>
+      </c>
+      <c r="AY139">
+        <v>0.3001141</v>
+      </c>
+      <c r="BA139">
+        <v>0.2959499</v>
+      </c>
+      <c r="BB139">
+        <v>0.3649437</v>
+      </c>
+      <c r="BC139">
+        <v>0.2497068</v>
+      </c>
+      <c r="BD139">
+        <v>0.332628</v>
+      </c>
+      <c r="BE139">
+        <v>0.6749713000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:57">
+      <c r="A140" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140">
+        <v>0.4693962</v>
+      </c>
+      <c r="C140">
+        <v>0.5937305</v>
+      </c>
+      <c r="D140">
+        <v>0.4765241</v>
+      </c>
+      <c r="F140">
+        <v>0.6525919</v>
+      </c>
+      <c r="G140">
+        <v>0.3530451</v>
+      </c>
+      <c r="H140">
+        <v>0.303213</v>
+      </c>
+      <c r="I140">
+        <v>0.2131504</v>
+      </c>
+      <c r="J140">
+        <v>0.093985</v>
+      </c>
+      <c r="K140">
+        <v>0.4157774</v>
+      </c>
+      <c r="L140">
+        <v>0.3915568</v>
+      </c>
+      <c r="M140">
+        <v>0.4275139</v>
+      </c>
+      <c r="O140">
+        <v>0.3041543</v>
+      </c>
+      <c r="P140">
+        <v>0.5459044</v>
+      </c>
+      <c r="Q140">
+        <v>0.5461182</v>
+      </c>
+      <c r="R140">
+        <v>0.3347969</v>
+      </c>
+      <c r="S140">
+        <v>0.5309327</v>
+      </c>
+      <c r="T140">
+        <v>0.3596751</v>
+      </c>
+      <c r="U140">
+        <v>0.5331119</v>
+      </c>
+      <c r="V140">
+        <v>0.4819868</v>
+      </c>
+      <c r="W140">
+        <v>0.2052207</v>
+      </c>
+      <c r="X140">
+        <v>0.3423725</v>
+      </c>
+      <c r="Y140">
+        <v>0.3101311</v>
+      </c>
+      <c r="Z140">
+        <v>0.2528258</v>
+      </c>
+      <c r="AA140">
+        <v>0.3217951</v>
+      </c>
+      <c r="AB140">
+        <v>0.3888063</v>
+      </c>
+      <c r="AD140">
+        <v>0.4691002</v>
+      </c>
+      <c r="AE140">
+        <v>0.3480277</v>
+      </c>
+      <c r="AF140">
+        <v>0.3815761</v>
+      </c>
+      <c r="AG140">
+        <v>0.4270131</v>
+      </c>
+      <c r="AH140">
+        <v>0.3719538</v>
+      </c>
+      <c r="AI140">
+        <v>0.1869149</v>
+      </c>
+      <c r="AJ140">
+        <v>0.3356903</v>
+      </c>
+      <c r="AK140">
+        <v>0.4438576</v>
+      </c>
+      <c r="AL140">
+        <v>0.5279925</v>
+      </c>
+      <c r="AM140">
+        <v>0.360876</v>
+      </c>
+      <c r="AN140">
+        <v>0.3412041</v>
+      </c>
+      <c r="AO140">
+        <v>0.5845042</v>
+      </c>
+      <c r="AP140">
+        <v>0.3377094</v>
+      </c>
+      <c r="AQ140">
+        <v>0.2825728</v>
+      </c>
+      <c r="AS140">
+        <v>0.4711661</v>
+      </c>
+      <c r="AT140">
+        <v>0.5391277</v>
+      </c>
+      <c r="AU140">
+        <v>0.4841538</v>
+      </c>
+      <c r="AV140">
+        <v>0.4977489</v>
+      </c>
+      <c r="AW140">
+        <v>0.6067787</v>
+      </c>
+      <c r="AX140">
+        <v>0.4194234</v>
+      </c>
+      <c r="AY140">
+        <v>0.3310208</v>
+      </c>
+      <c r="BA140">
+        <v>0.3887556</v>
+      </c>
+      <c r="BB140">
+        <v>0.3608996</v>
+      </c>
+      <c r="BC140">
+        <v>0.2621056</v>
+      </c>
+      <c r="BD140">
+        <v>0.389045</v>
+      </c>
+      <c r="BE140">
+        <v>0.6101239000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:57">
+      <c r="A141" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141">
+        <v>0.4502472</v>
+      </c>
+      <c r="C141">
+        <v>0.627809</v>
+      </c>
+      <c r="D141">
+        <v>0.5400712</v>
+      </c>
+      <c r="F141">
+        <v>0.6997814</v>
+      </c>
+      <c r="G141">
+        <v>0.3413756</v>
+      </c>
+      <c r="H141">
+        <v>0.2995005</v>
+      </c>
+      <c r="I141">
+        <v>0.22768</v>
+      </c>
+      <c r="J141">
+        <v>0.2226463</v>
+      </c>
+      <c r="K141">
+        <v>0.342621</v>
+      </c>
+      <c r="L141">
+        <v>0.4497954</v>
+      </c>
+      <c r="M141">
+        <v>0.4421135</v>
+      </c>
+      <c r="O141">
+        <v>0.3422542</v>
+      </c>
+      <c r="P141">
+        <v>0.5765763</v>
+      </c>
+      <c r="Q141">
+        <v>0.5500533</v>
+      </c>
+      <c r="R141">
+        <v>0.3413952</v>
+      </c>
+      <c r="S141">
+        <v>0.530601</v>
+      </c>
+      <c r="T141">
+        <v>0.4626593</v>
+      </c>
+      <c r="U141">
+        <v>0.5400486</v>
+      </c>
+      <c r="V141">
+        <v>0.5003126</v>
+      </c>
+      <c r="W141">
+        <v>0.220758</v>
+      </c>
+      <c r="X141">
+        <v>0.2920612</v>
+      </c>
+      <c r="Y141">
+        <v>0.314421</v>
+      </c>
+      <c r="Z141">
+        <v>0.2599472</v>
+      </c>
+      <c r="AA141">
+        <v>0.3217902</v>
+      </c>
+      <c r="AB141">
+        <v>0.3442856</v>
+      </c>
+      <c r="AD141">
+        <v>0.4972253</v>
+      </c>
+      <c r="AE141">
+        <v>0.4229359</v>
+      </c>
+      <c r="AF141">
+        <v>0.3589104</v>
+      </c>
+      <c r="AG141">
+        <v>0.3713942</v>
+      </c>
+      <c r="AH141">
+        <v>0.4201944</v>
+      </c>
+      <c r="AI141">
+        <v>0.199863</v>
+      </c>
+      <c r="AJ141">
+        <v>0.338574</v>
+      </c>
+      <c r="AK141">
+        <v>0.3589787</v>
+      </c>
+      <c r="AL141">
+        <v>0.5108065000000001</v>
+      </c>
+      <c r="AM141">
+        <v>0.342528</v>
+      </c>
+      <c r="AN141">
+        <v>0.3297343</v>
+      </c>
+      <c r="AO141">
+        <v>0.5267998</v>
+      </c>
+      <c r="AP141">
+        <v>0.291829</v>
+      </c>
+      <c r="AQ141">
+        <v>0.2947598</v>
+      </c>
+      <c r="AS141">
+        <v>0.4815724</v>
+      </c>
+      <c r="AT141">
+        <v>0.6089183</v>
+      </c>
+      <c r="AU141">
+        <v>0.5320142</v>
+      </c>
+      <c r="AV141">
+        <v>0.5144501</v>
+      </c>
+      <c r="AW141">
+        <v>0.6255086</v>
+      </c>
+      <c r="AX141">
+        <v>0.4517852</v>
+      </c>
+      <c r="AY141">
+        <v>0.3534276</v>
+      </c>
+      <c r="BA141">
+        <v>0.4111319</v>
+      </c>
+      <c r="BB141">
+        <v>0.3513644</v>
+      </c>
+      <c r="BC141">
+        <v>0.3239032</v>
+      </c>
+      <c r="BD141">
+        <v>0.425462</v>
+      </c>
+      <c r="BE141">
+        <v>0.4570312</v>
+      </c>
+    </row>
+    <row r="142" spans="1:57">
+      <c r="A142" t="s">
+        <v>196</v>
+      </c>
+      <c r="B142">
+        <v>0.3584229</v>
+      </c>
+      <c r="C142">
+        <v>0.6410641</v>
+      </c>
+      <c r="D142">
+        <v>0.5962853</v>
+      </c>
+      <c r="F142">
+        <v>0.7922577</v>
+      </c>
+      <c r="G142">
+        <v>0.3658923</v>
+      </c>
+      <c r="H142">
+        <v>0.2725695</v>
+      </c>
+      <c r="I142">
+        <v>0.2208733</v>
+      </c>
+      <c r="J142">
+        <v>0.2286446</v>
+      </c>
+      <c r="K142">
+        <v>0.3166596</v>
+      </c>
+      <c r="L142">
+        <v>0.4798122</v>
+      </c>
+      <c r="M142">
+        <v>0.4730118</v>
+      </c>
+      <c r="O142">
+        <v>0.3884514</v>
+      </c>
+      <c r="P142">
+        <v>0.6496303</v>
+      </c>
+      <c r="Q142">
+        <v>0.6020694</v>
+      </c>
+      <c r="R142">
+        <v>0.3118412</v>
+      </c>
+      <c r="S142">
+        <v>0.5268617</v>
+      </c>
+      <c r="T142">
+        <v>0.5149603</v>
+      </c>
+      <c r="U142">
+        <v>0.5203803</v>
+      </c>
+      <c r="V142">
+        <v>0.511292</v>
+      </c>
+      <c r="W142">
+        <v>0.2270082</v>
+      </c>
+      <c r="X142">
+        <v>0.2818457</v>
+      </c>
+      <c r="Y142">
+        <v>0.3056641</v>
+      </c>
+      <c r="Z142">
+        <v>0.2479496</v>
+      </c>
+      <c r="AA142">
+        <v>0.3195018</v>
+      </c>
+      <c r="AB142">
+        <v>0.3215328</v>
+      </c>
+      <c r="AD142">
+        <v>0.6292158</v>
+      </c>
+      <c r="AE142">
+        <v>0.4601154</v>
+      </c>
+      <c r="AF142">
+        <v>0.3932228</v>
+      </c>
+      <c r="AG142">
+        <v>0.4004946</v>
+      </c>
+      <c r="AH142">
+        <v>0.4175432</v>
+      </c>
+      <c r="AI142">
+        <v>0.2033112</v>
+      </c>
+      <c r="AJ142">
+        <v>0.3446759</v>
+      </c>
+      <c r="AK142">
+        <v>0.2975971</v>
+      </c>
+      <c r="AL142">
+        <v>0.626241</v>
+      </c>
+      <c r="AM142">
+        <v>0.321261</v>
+      </c>
+      <c r="AN142">
+        <v>0.3199374</v>
+      </c>
+      <c r="AO142">
+        <v>0.5104937000000001</v>
+      </c>
+      <c r="AP142">
+        <v>0.2871372</v>
+      </c>
+      <c r="AQ142">
+        <v>0.2981611</v>
+      </c>
+      <c r="AS142">
+        <v>0.4665762</v>
+      </c>
+      <c r="AT142">
+        <v>0.6570602</v>
+      </c>
+      <c r="AU142">
+        <v>0.5137547</v>
+      </c>
+      <c r="AV142">
+        <v>0.518134</v>
+      </c>
+      <c r="AW142">
+        <v>0.6770944</v>
+      </c>
+      <c r="AX142">
+        <v>0.4228395</v>
+      </c>
+      <c r="AY142">
+        <v>0.3620121</v>
+      </c>
+      <c r="BA142">
+        <v>0.3822627</v>
+      </c>
+      <c r="BB142">
+        <v>0.3061836</v>
+      </c>
+      <c r="BC142">
+        <v>0.2982414</v>
+      </c>
+      <c r="BD142">
+        <v>0.3298753</v>
+      </c>
+      <c r="BE142">
+        <v>0.5293353</v>
+      </c>
+    </row>
+    <row r="143" spans="1:57">
+      <c r="A143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:57">
+      <c r="A144" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Alaska</t>
   </si>
@@ -611,6 +611,18 @@
   </si>
   <si>
     <t>22 06 2020</t>
+  </si>
+  <si>
+    <t>23 06 2020</t>
+  </si>
+  <si>
+    <t>24 06 2020</t>
+  </si>
+  <si>
+    <t>25 06 2020</t>
+  </si>
+  <si>
+    <t>26 06 2020</t>
   </si>
 </sst>
 </file>
@@ -942,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE144"/>
+  <dimension ref="A1:BE148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10034,6 +10046,9 @@
       <c r="AQ120">
         <v>0.2865304</v>
       </c>
+      <c r="AR120">
+        <v>0.9615385</v>
+      </c>
       <c r="AS120">
         <v>0.4235876</v>
       </c>
@@ -10192,6 +10207,9 @@
       <c r="AQ121">
         <v>0.2840539</v>
       </c>
+      <c r="AR121">
+        <v>0.9345793999999999</v>
+      </c>
       <c r="AS121">
         <v>0.4177374</v>
       </c>
@@ -10350,6 +10368,9 @@
       <c r="AQ122">
         <v>0.2874476</v>
       </c>
+      <c r="AR122">
+        <v>0.9345793999999999</v>
+      </c>
       <c r="AS122">
         <v>0.3340212</v>
       </c>
@@ -10508,6 +10529,9 @@
       <c r="AQ123">
         <v>0.2826041</v>
       </c>
+      <c r="AR123">
+        <v>0</v>
+      </c>
       <c r="AS123">
         <v>0.3010444</v>
       </c>
@@ -10666,6 +10690,9 @@
       <c r="AQ124">
         <v>0.2920578</v>
       </c>
+      <c r="AR124">
+        <v>0.6289308</v>
+      </c>
       <c r="AS124">
         <v>0.2494945</v>
       </c>
@@ -13406,7 +13433,7 @@
         <v>0.7922577</v>
       </c>
       <c r="G142">
-        <v>0.3658923</v>
+        <v>0.3658553</v>
       </c>
       <c r="H142">
         <v>0.2725695</v>
@@ -13551,10 +13578,795 @@
       <c r="A143" t="s">
         <v>197</v>
       </c>
+      <c r="B143">
+        <v>0.4299176</v>
+      </c>
+      <c r="C143">
+        <v>0.5841029</v>
+      </c>
+      <c r="D143">
+        <v>0.7122694000000001</v>
+      </c>
+      <c r="F143">
+        <v>0.7868727</v>
+      </c>
+      <c r="G143">
+        <v>0.3841343</v>
+      </c>
+      <c r="H143">
+        <v>0.2769999</v>
+      </c>
+      <c r="I143">
+        <v>0.1875749</v>
+      </c>
+      <c r="J143">
+        <v>0.235953</v>
+      </c>
+      <c r="K143">
+        <v>0.4361181</v>
+      </c>
+      <c r="L143">
+        <v>0.5099305</v>
+      </c>
+      <c r="M143">
+        <v>0.51729</v>
+      </c>
+      <c r="O143">
+        <v>0.2928794</v>
+      </c>
+      <c r="P143">
+        <v>0.6668236</v>
+      </c>
+      <c r="Q143">
+        <v>0.5659569</v>
+      </c>
+      <c r="R143">
+        <v>0.3051378</v>
+      </c>
+      <c r="S143">
+        <v>0.58353</v>
+      </c>
+      <c r="T143">
+        <v>0.5800238</v>
+      </c>
+      <c r="U143">
+        <v>0.5266115</v>
+      </c>
+      <c r="V143">
+        <v>0.5770281</v>
+      </c>
+      <c r="W143">
+        <v>0.265331</v>
+      </c>
+      <c r="X143">
+        <v>0.2932868</v>
+      </c>
+      <c r="Y143">
+        <v>0.1983484</v>
+      </c>
+      <c r="Z143">
+        <v>0.2353787</v>
+      </c>
+      <c r="AA143">
+        <v>0.3484233</v>
+      </c>
+      <c r="AB143">
+        <v>0.3551902</v>
+      </c>
+      <c r="AD143">
+        <v>0.6270713</v>
+      </c>
+      <c r="AE143">
+        <v>0.4060952</v>
+      </c>
+      <c r="AF143">
+        <v>0.4098095</v>
+      </c>
+      <c r="AG143">
+        <v>0.2529333</v>
+      </c>
+      <c r="AH143">
+        <v>0.4274377</v>
+      </c>
+      <c r="AI143">
+        <v>0.2193734</v>
+      </c>
+      <c r="AJ143">
+        <v>0.3646814</v>
+      </c>
+      <c r="AK143">
+        <v>0.2534445</v>
+      </c>
+      <c r="AL143">
+        <v>0.5472644</v>
+      </c>
+      <c r="AM143">
+        <v>0.3251949</v>
+      </c>
+      <c r="AN143">
+        <v>0.3087605</v>
+      </c>
+      <c r="AO143">
+        <v>0.5384904</v>
+      </c>
+      <c r="AP143">
+        <v>0.3278763</v>
+      </c>
+      <c r="AQ143">
+        <v>0.2948958</v>
+      </c>
+      <c r="AS143">
+        <v>0.3278669</v>
+      </c>
+      <c r="AT143">
+        <v>0.6595007000000001</v>
+      </c>
+      <c r="AU143">
+        <v>0.4605847</v>
+      </c>
+      <c r="AV143">
+        <v>0.5583333</v>
+      </c>
+      <c r="AW143">
+        <v>0.7355757000000001</v>
+      </c>
+      <c r="AX143">
+        <v>0.5034583</v>
+      </c>
+      <c r="AY143">
+        <v>0.3731443</v>
+      </c>
+      <c r="BA143">
+        <v>0.40764</v>
+      </c>
+      <c r="BB143">
+        <v>0.3053555</v>
+      </c>
+      <c r="BC143">
+        <v>0.3369779</v>
+      </c>
+      <c r="BD143">
+        <v>0.3224896</v>
+      </c>
+      <c r="BE143">
+        <v>0.7194416</v>
+      </c>
     </row>
     <row r="144" spans="1:57">
       <c r="A144" t="s">
         <v>198</v>
+      </c>
+      <c r="B144">
+        <v>0.5409677000000001</v>
+      </c>
+      <c r="C144">
+        <v>0.6563312</v>
+      </c>
+      <c r="D144">
+        <v>0.6758653</v>
+      </c>
+      <c r="F144">
+        <v>0.8682566</v>
+      </c>
+      <c r="G144">
+        <v>0.3732982</v>
+      </c>
+      <c r="H144">
+        <v>0.2715601</v>
+      </c>
+      <c r="I144">
+        <v>0.1603008</v>
+      </c>
+      <c r="J144">
+        <v>0.2424986</v>
+      </c>
+      <c r="K144">
+        <v>0.5102501</v>
+      </c>
+      <c r="L144">
+        <v>0.5558275</v>
+      </c>
+      <c r="M144">
+        <v>0.5254165</v>
+      </c>
+      <c r="O144">
+        <v>0.2913085</v>
+      </c>
+      <c r="P144">
+        <v>0.6317675</v>
+      </c>
+      <c r="Q144">
+        <v>0.5898221</v>
+      </c>
+      <c r="R144">
+        <v>0.3236772</v>
+      </c>
+      <c r="S144">
+        <v>0.5556495</v>
+      </c>
+      <c r="T144">
+        <v>0.5585957</v>
+      </c>
+      <c r="U144">
+        <v>0.5602354000000001</v>
+      </c>
+      <c r="V144">
+        <v>0.6214258</v>
+      </c>
+      <c r="W144">
+        <v>0.287014</v>
+      </c>
+      <c r="X144">
+        <v>0.3139187</v>
+      </c>
+      <c r="Y144">
+        <v>0.2650219</v>
+      </c>
+      <c r="Z144">
+        <v>0.2204673</v>
+      </c>
+      <c r="AA144">
+        <v>0.3137485</v>
+      </c>
+      <c r="AB144">
+        <v>0.3946895</v>
+      </c>
+      <c r="AD144">
+        <v>0.6780471</v>
+      </c>
+      <c r="AE144">
+        <v>0.442824</v>
+      </c>
+      <c r="AF144">
+        <v>0.4228497</v>
+      </c>
+      <c r="AG144">
+        <v>0.400355</v>
+      </c>
+      <c r="AH144">
+        <v>0.4924516</v>
+      </c>
+      <c r="AI144">
+        <v>0.256426</v>
+      </c>
+      <c r="AJ144">
+        <v>0.3672354</v>
+      </c>
+      <c r="AK144">
+        <v>0.2207373</v>
+      </c>
+      <c r="AL144">
+        <v>0.5672401</v>
+      </c>
+      <c r="AM144">
+        <v>0.3252889</v>
+      </c>
+      <c r="AN144">
+        <v>0.3048788</v>
+      </c>
+      <c r="AO144">
+        <v>0.5171485</v>
+      </c>
+      <c r="AP144">
+        <v>0.3007372</v>
+      </c>
+      <c r="AQ144">
+        <v>0.2739843</v>
+      </c>
+      <c r="AS144">
+        <v>0.3575959</v>
+      </c>
+      <c r="AT144">
+        <v>0.696344</v>
+      </c>
+      <c r="AU144">
+        <v>0.5482522</v>
+      </c>
+      <c r="AV144">
+        <v>0.506008</v>
+      </c>
+      <c r="AW144">
+        <v>0.7636775</v>
+      </c>
+      <c r="AX144">
+        <v>0.5754314</v>
+      </c>
+      <c r="AY144">
+        <v>0.3636353</v>
+      </c>
+      <c r="BA144">
+        <v>0.4546538</v>
+      </c>
+      <c r="BB144">
+        <v>0.3337814</v>
+      </c>
+      <c r="BC144">
+        <v>0.3328386</v>
+      </c>
+      <c r="BD144">
+        <v>0.3310033</v>
+      </c>
+      <c r="BE144">
+        <v>0.7952616</v>
+      </c>
+    </row>
+    <row r="145" spans="1:57">
+      <c r="A145" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145">
+        <v>0.3361238</v>
+      </c>
+      <c r="C145">
+        <v>0.6824983</v>
+      </c>
+      <c r="D145">
+        <v>0.6869927</v>
+      </c>
+      <c r="F145">
+        <v>0.8755231999999999</v>
+      </c>
+      <c r="G145">
+        <v>0.397048</v>
+      </c>
+      <c r="H145">
+        <v>0.3502029</v>
+      </c>
+      <c r="I145">
+        <v>0.1533982</v>
+      </c>
+      <c r="J145">
+        <v>0.244436</v>
+      </c>
+      <c r="K145">
+        <v>0.5442462</v>
+      </c>
+      <c r="L145">
+        <v>0.5817508</v>
+      </c>
+      <c r="M145">
+        <v>0.5425352</v>
+      </c>
+      <c r="O145">
+        <v>0.2230333</v>
+      </c>
+      <c r="P145">
+        <v>0.6353315</v>
+      </c>
+      <c r="Q145">
+        <v>0.5309932000000001</v>
+      </c>
+      <c r="R145">
+        <v>0.3323737</v>
+      </c>
+      <c r="S145">
+        <v>0.4743293</v>
+      </c>
+      <c r="T145">
+        <v>0.5715398</v>
+      </c>
+      <c r="U145">
+        <v>0.5476126</v>
+      </c>
+      <c r="V145">
+        <v>0.685158</v>
+      </c>
+      <c r="W145">
+        <v>0.317587</v>
+      </c>
+      <c r="X145">
+        <v>0.3285764</v>
+      </c>
+      <c r="Y145">
+        <v>0.2841275</v>
+      </c>
+      <c r="Z145">
+        <v>0.2611591</v>
+      </c>
+      <c r="AA145">
+        <v>0.335791</v>
+      </c>
+      <c r="AB145">
+        <v>0.4293275</v>
+      </c>
+      <c r="AD145">
+        <v>0.734653</v>
+      </c>
+      <c r="AE145">
+        <v>0.4720346</v>
+      </c>
+      <c r="AF145">
+        <v>0.4087258</v>
+      </c>
+      <c r="AG145">
+        <v>0.5940805</v>
+      </c>
+      <c r="AH145">
+        <v>0.4688323</v>
+      </c>
+      <c r="AI145">
+        <v>0.304383</v>
+      </c>
+      <c r="AJ145">
+        <v>0.3765047</v>
+      </c>
+      <c r="AK145">
+        <v>0.2634061</v>
+      </c>
+      <c r="AL145">
+        <v>0.5519790999999999</v>
+      </c>
+      <c r="AM145">
+        <v>0.3276885</v>
+      </c>
+      <c r="AN145">
+        <v>0.3154596</v>
+      </c>
+      <c r="AO145">
+        <v>0.5740784</v>
+      </c>
+      <c r="AP145">
+        <v>0.282927</v>
+      </c>
+      <c r="AQ145">
+        <v>0.3029777</v>
+      </c>
+      <c r="AS145">
+        <v>0.3449371</v>
+      </c>
+      <c r="AT145">
+        <v>0.7278261</v>
+      </c>
+      <c r="AU145">
+        <v>0.584093</v>
+      </c>
+      <c r="AV145">
+        <v>0.4992202</v>
+      </c>
+      <c r="AW145">
+        <v>0.8534987000000001</v>
+      </c>
+      <c r="AX145">
+        <v>0.5350799000000001</v>
+      </c>
+      <c r="AY145">
+        <v>0.3627693</v>
+      </c>
+      <c r="BA145">
+        <v>0.3484736</v>
+      </c>
+      <c r="BB145">
+        <v>0.297706</v>
+      </c>
+      <c r="BC145">
+        <v>0.3485606</v>
+      </c>
+      <c r="BD145">
+        <v>0.3954634</v>
+      </c>
+      <c r="BE145">
+        <v>0.6476771</v>
+      </c>
+    </row>
+    <row r="146" spans="1:57">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146">
+        <v>0.3527689</v>
+      </c>
+      <c r="C146">
+        <v>0.6726328</v>
+      </c>
+      <c r="D146">
+        <v>0.6582851</v>
+      </c>
+      <c r="F146">
+        <v>0.9453054</v>
+      </c>
+      <c r="G146">
+        <v>0.4242899</v>
+      </c>
+      <c r="H146">
+        <v>0.3440139</v>
+      </c>
+      <c r="I146">
+        <v>0.1581242</v>
+      </c>
+      <c r="J146">
+        <v>0.2820608</v>
+      </c>
+      <c r="K146">
+        <v>0.5092209</v>
+      </c>
+      <c r="L146">
+        <v>0.6522483</v>
+      </c>
+      <c r="M146">
+        <v>0.5396107999999999</v>
+      </c>
+      <c r="O146">
+        <v>0.2472188</v>
+      </c>
+      <c r="P146">
+        <v>0.5483575000000001</v>
+      </c>
+      <c r="Q146">
+        <v>0.5678628999999999</v>
+      </c>
+      <c r="R146">
+        <v>0.3402836</v>
+      </c>
+      <c r="S146">
+        <v>0.4992076</v>
+      </c>
+      <c r="T146">
+        <v>0.6622741</v>
+      </c>
+      <c r="U146">
+        <v>0.5391899</v>
+      </c>
+      <c r="V146">
+        <v>0.6737465</v>
+      </c>
+      <c r="W146">
+        <v>0.3009859</v>
+      </c>
+      <c r="X146">
+        <v>0.3503361</v>
+      </c>
+      <c r="Y146">
+        <v>0.2275811</v>
+      </c>
+      <c r="Z146">
+        <v>0.2584056</v>
+      </c>
+      <c r="AA146">
+        <v>0.3438407</v>
+      </c>
+      <c r="AB146">
+        <v>0.4526778</v>
+      </c>
+      <c r="AD146">
+        <v>0.8248751</v>
+      </c>
+      <c r="AE146">
+        <v>0.566879</v>
+      </c>
+      <c r="AF146">
+        <v>0.4120582</v>
+      </c>
+      <c r="AG146">
+        <v>0.8287523</v>
+      </c>
+      <c r="AH146">
+        <v>0.587907</v>
+      </c>
+      <c r="AI146">
+        <v>0.2964371</v>
+      </c>
+      <c r="AJ146">
+        <v>0.3599</v>
+      </c>
+      <c r="AK146">
+        <v>0.2570161</v>
+      </c>
+      <c r="AL146">
+        <v>0.5283232</v>
+      </c>
+      <c r="AM146">
+        <v>0.3327101</v>
+      </c>
+      <c r="AN146">
+        <v>0.2983306</v>
+      </c>
+      <c r="AO146">
+        <v>0.6271786</v>
+      </c>
+      <c r="AP146">
+        <v>0.3178141</v>
+      </c>
+      <c r="AQ146">
+        <v>0.277503</v>
+      </c>
+      <c r="AS146">
+        <v>0.344979</v>
+      </c>
+      <c r="AT146">
+        <v>0.6879987</v>
+      </c>
+      <c r="AU146">
+        <v>0.7117162</v>
+      </c>
+      <c r="AV146">
+        <v>0.5182799</v>
+      </c>
+      <c r="AW146">
+        <v>0.9088826</v>
+      </c>
+      <c r="AX146">
+        <v>0.5641392</v>
+      </c>
+      <c r="AY146">
+        <v>0.3315785</v>
+      </c>
+      <c r="BA146">
+        <v>0.286497</v>
+      </c>
+      <c r="BB146">
+        <v>0.2655729</v>
+      </c>
+      <c r="BC146">
+        <v>0.3601689</v>
+      </c>
+      <c r="BD146">
+        <v>0.4709291</v>
+      </c>
+      <c r="BE146">
+        <v>0.6664116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:57">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147">
+        <v>0.3556092</v>
+      </c>
+      <c r="C147">
+        <v>0.6356416</v>
+      </c>
+      <c r="D147">
+        <v>0.6601846</v>
+      </c>
+      <c r="F147">
+        <v>1.0347193</v>
+      </c>
+      <c r="G147">
+        <v>0.4227923</v>
+      </c>
+      <c r="H147">
+        <v>0.3387272</v>
+      </c>
+      <c r="I147">
+        <v>0.1505218</v>
+      </c>
+      <c r="J147">
+        <v>0.2752599</v>
+      </c>
+      <c r="K147">
+        <v>0.499038</v>
+      </c>
+      <c r="L147">
+        <v>0.6783066</v>
+      </c>
+      <c r="M147">
+        <v>0.5795326</v>
+      </c>
+      <c r="O147">
+        <v>0.2374947</v>
+      </c>
+      <c r="P147">
+        <v>0.4828779</v>
+      </c>
+      <c r="Q147">
+        <v>0.6138405</v>
+      </c>
+      <c r="R147">
+        <v>0.3397252</v>
+      </c>
+      <c r="S147">
+        <v>0.4960112</v>
+      </c>
+      <c r="T147">
+        <v>0.5551384</v>
+      </c>
+      <c r="U147">
+        <v>0.4425484</v>
+      </c>
+      <c r="V147">
+        <v>0.724025</v>
+      </c>
+      <c r="W147">
+        <v>0.2804375</v>
+      </c>
+      <c r="X147">
+        <v>0.3708378</v>
+      </c>
+      <c r="Y147">
+        <v>0.2782856</v>
+      </c>
+      <c r="Z147">
+        <v>0.2201957</v>
+      </c>
+      <c r="AA147">
+        <v>0.34641</v>
+      </c>
+      <c r="AB147">
+        <v>0.5682218999999999</v>
+      </c>
+      <c r="AD147">
+        <v>0.9288629</v>
+      </c>
+      <c r="AE147">
+        <v>0.6107671</v>
+      </c>
+      <c r="AF147">
+        <v>0.4377089</v>
+      </c>
+      <c r="AG147">
+        <v>0.8198613</v>
+      </c>
+      <c r="AH147">
+        <v>0.523158</v>
+      </c>
+      <c r="AI147">
+        <v>0.3966866</v>
+      </c>
+      <c r="AJ147">
+        <v>0.3670605</v>
+      </c>
+      <c r="AK147">
+        <v>0.2897309</v>
+      </c>
+      <c r="AL147">
+        <v>0.5100969</v>
+      </c>
+      <c r="AM147">
+        <v>0.3565261</v>
+      </c>
+      <c r="AN147">
+        <v>0.3144984</v>
+      </c>
+      <c r="AO147">
+        <v>0.5892324</v>
+      </c>
+      <c r="AP147">
+        <v>0.3057701</v>
+      </c>
+      <c r="AQ147">
+        <v>0.2961598</v>
+      </c>
+      <c r="AS147">
+        <v>0.3243032</v>
+      </c>
+      <c r="AT147">
+        <v>0.7662813000000001</v>
+      </c>
+      <c r="AU147">
+        <v>0.7958097</v>
+      </c>
+      <c r="AV147">
+        <v>0.5864935999999999</v>
+      </c>
+      <c r="AW147">
+        <v>0.9468583</v>
+      </c>
+      <c r="AX147">
+        <v>0.6248169</v>
+      </c>
+      <c r="AY147">
+        <v>0.2945737</v>
+      </c>
+      <c r="BA147">
+        <v>0.1518602</v>
+      </c>
+      <c r="BB147">
+        <v>0.2638247</v>
+      </c>
+      <c r="BC147">
+        <v>0.3720608</v>
+      </c>
+      <c r="BD147">
+        <v>0.4922279</v>
+      </c>
+      <c r="BE147">
+        <v>0.7418856</v>
+      </c>
+    </row>
+    <row r="148" spans="1:57">
+      <c r="A148" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Alaska</t>
   </si>
@@ -656,6 +656,30 @@
   </si>
   <si>
     <t>07 07 2020</t>
+  </si>
+  <si>
+    <t>08 07 2020</t>
+  </si>
+  <si>
+    <t>09 07 2020</t>
+  </si>
+  <si>
+    <t>10 07 2020</t>
+  </si>
+  <si>
+    <t>11 07 2020</t>
+  </si>
+  <si>
+    <t>12 07 2020</t>
+  </si>
+  <si>
+    <t>13 07 2020</t>
+  </si>
+  <si>
+    <t>14 07 2020</t>
+  </si>
+  <si>
+    <t>15 07 2020</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE159"/>
+  <dimension ref="A1:BE167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12494,6 +12518,9 @@
       <c r="AQ135">
         <v>0.2723928</v>
       </c>
+      <c r="AR135">
+        <v>0</v>
+      </c>
       <c r="AS135">
         <v>0.3142463</v>
       </c>
@@ -12652,6 +12679,9 @@
       <c r="AQ136">
         <v>0.2694893</v>
       </c>
+      <c r="AR136">
+        <v>0</v>
+      </c>
       <c r="AS136">
         <v>0.4390062</v>
       </c>
@@ -12810,6 +12840,9 @@
       <c r="AQ137">
         <v>0.2862568</v>
       </c>
+      <c r="AR137">
+        <v>0</v>
+      </c>
       <c r="AS137">
         <v>0.4694077</v>
       </c>
@@ -12968,6 +13001,9 @@
       <c r="AQ138">
         <v>0.2742741</v>
       </c>
+      <c r="AR138">
+        <v>0</v>
+      </c>
       <c r="AS138">
         <v>0.4379245</v>
       </c>
@@ -13126,6 +13162,9 @@
       <c r="AQ139">
         <v>0.2894988</v>
       </c>
+      <c r="AR139">
+        <v>0</v>
+      </c>
       <c r="AS139">
         <v>0.4460346</v>
       </c>
@@ -13284,6 +13323,9 @@
       <c r="AQ140">
         <v>0.2825728</v>
       </c>
+      <c r="AR140">
+        <v>0</v>
+      </c>
       <c r="AS140">
         <v>0.4711661</v>
       </c>
@@ -15646,7 +15688,7 @@
         <v>0.4505295</v>
       </c>
       <c r="AO155">
-        <v>0.7949186</v>
+        <v>0.7948036000000001</v>
       </c>
       <c r="AP155">
         <v>0.3537659</v>
@@ -15705,7 +15747,7 @@
         <v>0.6564082999999999</v>
       </c>
       <c r="F156">
-        <v>1.0834335</v>
+        <v>1.0833434</v>
       </c>
       <c r="G156">
         <v>0.5416849</v>
@@ -15804,7 +15846,7 @@
         <v>0.464649</v>
       </c>
       <c r="AO156">
-        <v>0.7871064</v>
+        <v>0.7869929</v>
       </c>
       <c r="AP156">
         <v>0.3454599</v>
@@ -15863,7 +15905,7 @@
         <v>0.6436473</v>
       </c>
       <c r="F157">
-        <v>1.0856239</v>
+        <v>1.0855337</v>
       </c>
       <c r="G157">
         <v>0.5374606</v>
@@ -15902,25 +15944,25 @@
         <v>0.4571456</v>
       </c>
       <c r="T157">
-        <v>0.4182296</v>
+        <v>0.4181546</v>
       </c>
       <c r="U157">
         <v>0.3647236</v>
       </c>
       <c r="V157">
-        <v>0.902369</v>
+        <v>0.9022521999999999</v>
       </c>
       <c r="W157">
         <v>0.2651126</v>
       </c>
       <c r="X157">
-        <v>0.231028</v>
+        <v>0.2309943</v>
       </c>
       <c r="Y157">
         <v>0.2276045</v>
       </c>
       <c r="Z157">
-        <v>0.311071</v>
+        <v>0.3110549</v>
       </c>
       <c r="AA157">
         <v>0.3271896</v>
@@ -15941,7 +15983,7 @@
         <v>0.7084855</v>
       </c>
       <c r="AH157">
-        <v>0.5401026</v>
+        <v>0.5399456</v>
       </c>
       <c r="AI157">
         <v>0.1824242</v>
@@ -15962,13 +16004,13 @@
         <v>0.46587</v>
       </c>
       <c r="AO157">
-        <v>0.7886837</v>
+        <v>0.7885711</v>
       </c>
       <c r="AP157">
         <v>0.340379</v>
       </c>
       <c r="AQ157">
-        <v>0.2674977</v>
+        <v>0.2674866</v>
       </c>
       <c r="AS157">
         <v>0.1596018</v>
@@ -15983,7 +16025,7 @@
         <v>0.6827742</v>
       </c>
       <c r="AW157">
-        <v>1.2252539</v>
+        <v>1.2252236</v>
       </c>
       <c r="AX157">
         <v>0.4701623</v>
@@ -15995,7 +16037,7 @@
         <v>0.1049718</v>
       </c>
       <c r="BB157">
-        <v>0.219991</v>
+        <v>0.2199731</v>
       </c>
       <c r="BC157">
         <v>0.3311934</v>
@@ -16011,10 +16053,1427 @@
       <c r="A158" t="s">
         <v>212</v>
       </c>
+      <c r="B158">
+        <v>0.666563</v>
+      </c>
+      <c r="C158">
+        <v>0.9009317999999999</v>
+      </c>
+      <c r="D158">
+        <v>0.6341081</v>
+      </c>
+      <c r="F158">
+        <v>1.0639127</v>
+      </c>
+      <c r="G158">
+        <v>0.551944</v>
+      </c>
+      <c r="H158">
+        <v>0.322998</v>
+      </c>
+      <c r="I158">
+        <v>0.2200855</v>
+      </c>
+      <c r="J158">
+        <v>0.0544381</v>
+      </c>
+      <c r="K158">
+        <v>0.1227263</v>
+      </c>
+      <c r="L158">
+        <v>0.8951305000000001</v>
+      </c>
+      <c r="M158">
+        <v>0.8063146</v>
+      </c>
+      <c r="O158">
+        <v>0.3114771</v>
+      </c>
+      <c r="P158">
+        <v>0.5306809</v>
+      </c>
+      <c r="Q158">
+        <v>0.7420252000000001</v>
+      </c>
+      <c r="R158">
+        <v>0.3313992</v>
+      </c>
+      <c r="S158">
+        <v>0.4547506</v>
+      </c>
+      <c r="T158">
+        <v>0.4098005</v>
+      </c>
+      <c r="U158">
+        <v>0.3410862</v>
+      </c>
+      <c r="V158">
+        <v>0.940836</v>
+      </c>
+      <c r="W158">
+        <v>0.2801587</v>
+      </c>
+      <c r="X158">
+        <v>0.2139189</v>
+      </c>
+      <c r="Y158">
+        <v>0.2406983</v>
+      </c>
+      <c r="Z158">
+        <v>0.3134543</v>
+      </c>
+      <c r="AA158">
+        <v>0.3069363</v>
+      </c>
+      <c r="AB158">
+        <v>0.5327422000000001</v>
+      </c>
+      <c r="AD158">
+        <v>0.9484536</v>
+      </c>
+      <c r="AE158">
+        <v>0.6714872</v>
+      </c>
+      <c r="AF158">
+        <v>0.4730422</v>
+      </c>
+      <c r="AG158">
+        <v>0.5906105</v>
+      </c>
+      <c r="AH158">
+        <v>0.4973201</v>
+      </c>
+      <c r="AI158">
+        <v>0.1772638</v>
+      </c>
+      <c r="AJ158">
+        <v>0.1863536</v>
+      </c>
+      <c r="AK158">
+        <v>0.3421412</v>
+      </c>
+      <c r="AL158">
+        <v>0.6338356000000001</v>
+      </c>
+      <c r="AM158">
+        <v>0.248668</v>
+      </c>
+      <c r="AN158">
+        <v>0.4469389</v>
+      </c>
+      <c r="AO158">
+        <v>0.7420075</v>
+      </c>
+      <c r="AP158">
+        <v>0.318904</v>
+      </c>
+      <c r="AQ158">
+        <v>0.2447177</v>
+      </c>
+      <c r="AS158">
+        <v>0.2397151</v>
+      </c>
+      <c r="AT158">
+        <v>0.7955752</v>
+      </c>
+      <c r="AU158">
+        <v>0.2397001</v>
+      </c>
+      <c r="AV158">
+        <v>0.6823348</v>
+      </c>
+      <c r="AW158">
+        <v>1.2392881</v>
+      </c>
+      <c r="AX158">
+        <v>0.538502</v>
+      </c>
+      <c r="AY158">
+        <v>0.3144729</v>
+      </c>
+      <c r="BA158">
+        <v>0.04363</v>
+      </c>
+      <c r="BB158">
+        <v>0.2500809</v>
+      </c>
+      <c r="BC158">
+        <v>0.32738</v>
+      </c>
+      <c r="BD158">
+        <v>0.4478777</v>
+      </c>
+      <c r="BE158">
+        <v>0.5383064</v>
+      </c>
     </row>
     <row r="159" spans="1:57">
       <c r="A159" t="s">
         <v>213</v>
+      </c>
+      <c r="B159">
+        <v>0.5611033</v>
+      </c>
+      <c r="C159">
+        <v>0.8591267</v>
+      </c>
+      <c r="D159">
+        <v>0.6243001</v>
+      </c>
+      <c r="F159">
+        <v>1.0926264</v>
+      </c>
+      <c r="G159">
+        <v>0.5283916</v>
+      </c>
+      <c r="H159">
+        <v>0.3684422</v>
+      </c>
+      <c r="I159">
+        <v>0.2025765</v>
+      </c>
+      <c r="J159">
+        <v>0.0523589</v>
+      </c>
+      <c r="K159">
+        <v>0.192733</v>
+      </c>
+      <c r="L159">
+        <v>0.8951077</v>
+      </c>
+      <c r="M159">
+        <v>0.7772632</v>
+      </c>
+      <c r="O159">
+        <v>0.300904</v>
+      </c>
+      <c r="P159">
+        <v>0.5069391</v>
+      </c>
+      <c r="Q159">
+        <v>0.7949379</v>
+      </c>
+      <c r="R159">
+        <v>0.3300495</v>
+      </c>
+      <c r="S159">
+        <v>0.4941751</v>
+      </c>
+      <c r="T159">
+        <v>0.4409294</v>
+      </c>
+      <c r="U159">
+        <v>0.3190338</v>
+      </c>
+      <c r="V159">
+        <v>0.967923</v>
+      </c>
+      <c r="W159">
+        <v>0.2827807</v>
+      </c>
+      <c r="X159">
+        <v>0.1819744</v>
+      </c>
+      <c r="Y159">
+        <v>0.2546881</v>
+      </c>
+      <c r="Z159">
+        <v>0.3165739</v>
+      </c>
+      <c r="AA159">
+        <v>0.3582962</v>
+      </c>
+      <c r="AB159">
+        <v>0.5213787</v>
+      </c>
+      <c r="AD159">
+        <v>0.9429322</v>
+      </c>
+      <c r="AE159">
+        <v>0.63651</v>
+      </c>
+      <c r="AF159">
+        <v>0.4595684</v>
+      </c>
+      <c r="AG159">
+        <v>0.6499514</v>
+      </c>
+      <c r="AH159">
+        <v>0.4438158</v>
+      </c>
+      <c r="AI159">
+        <v>0.1463338</v>
+      </c>
+      <c r="AJ159">
+        <v>0.1805174</v>
+      </c>
+      <c r="AK159">
+        <v>0.3402246</v>
+      </c>
+      <c r="AL159">
+        <v>0.6773448</v>
+      </c>
+      <c r="AM159">
+        <v>0.237507</v>
+      </c>
+      <c r="AN159">
+        <v>0.4735338</v>
+      </c>
+      <c r="AO159">
+        <v>0.7271789</v>
+      </c>
+      <c r="AP159">
+        <v>0.3583078</v>
+      </c>
+      <c r="AQ159">
+        <v>0.2421707</v>
+      </c>
+      <c r="AS159">
+        <v>0.3104648</v>
+      </c>
+      <c r="AT159">
+        <v>0.8236373</v>
+      </c>
+      <c r="AU159">
+        <v>0.3234248</v>
+      </c>
+      <c r="AV159">
+        <v>0.6879534</v>
+      </c>
+      <c r="AW159">
+        <v>1.259952</v>
+      </c>
+      <c r="AX159">
+        <v>0.5459052</v>
+      </c>
+      <c r="AY159">
+        <v>0.3007294</v>
+      </c>
+      <c r="BA159">
+        <v>0.0426803</v>
+      </c>
+      <c r="BB159">
+        <v>0.2751976</v>
+      </c>
+      <c r="BC159">
+        <v>0.2959189</v>
+      </c>
+      <c r="BD159">
+        <v>0.4019261</v>
+      </c>
+      <c r="BE159">
+        <v>0.5002928</v>
+      </c>
+    </row>
+    <row r="160" spans="1:57">
+      <c r="A160" t="s">
+        <v>214</v>
+      </c>
+      <c r="B160">
+        <v>0.4240527</v>
+      </c>
+      <c r="C160">
+        <v>0.9404344</v>
+      </c>
+      <c r="D160">
+        <v>0.6352451</v>
+      </c>
+      <c r="F160">
+        <v>1.0953559</v>
+      </c>
+      <c r="G160">
+        <v>0.5202608</v>
+      </c>
+      <c r="H160">
+        <v>0.4181361</v>
+      </c>
+      <c r="I160">
+        <v>0.1423164</v>
+      </c>
+      <c r="J160">
+        <v>0.052238</v>
+      </c>
+      <c r="K160">
+        <v>0.2271029</v>
+      </c>
+      <c r="L160">
+        <v>0.8882061</v>
+      </c>
+      <c r="M160">
+        <v>0.771378</v>
+      </c>
+      <c r="O160">
+        <v>0.2897121</v>
+      </c>
+      <c r="P160">
+        <v>0.5587611</v>
+      </c>
+      <c r="Q160">
+        <v>0.7593369</v>
+      </c>
+      <c r="R160">
+        <v>0.3027191</v>
+      </c>
+      <c r="S160">
+        <v>0.5075098</v>
+      </c>
+      <c r="T160">
+        <v>0.4549161</v>
+      </c>
+      <c r="U160">
+        <v>0.3395978</v>
+      </c>
+      <c r="V160">
+        <v>0.9815476</v>
+      </c>
+      <c r="W160">
+        <v>0.3179124</v>
+      </c>
+      <c r="X160">
+        <v>0.220659</v>
+      </c>
+      <c r="Y160">
+        <v>0.2331389</v>
+      </c>
+      <c r="Z160">
+        <v>0.298351</v>
+      </c>
+      <c r="AA160">
+        <v>0.349048</v>
+      </c>
+      <c r="AB160">
+        <v>0.5579115</v>
+      </c>
+      <c r="AD160">
+        <v>1.0040769</v>
+      </c>
+      <c r="AE160">
+        <v>0.6694442</v>
+      </c>
+      <c r="AF160">
+        <v>0.5028782000000001</v>
+      </c>
+      <c r="AG160">
+        <v>0.7461628</v>
+      </c>
+      <c r="AH160">
+        <v>0.4537833</v>
+      </c>
+      <c r="AI160">
+        <v>0.2501576</v>
+      </c>
+      <c r="AJ160">
+        <v>0.2147868</v>
+      </c>
+      <c r="AK160">
+        <v>0.3850196</v>
+      </c>
+      <c r="AL160">
+        <v>0.7077557</v>
+      </c>
+      <c r="AM160">
+        <v>0.2311877</v>
+      </c>
+      <c r="AN160">
+        <v>0.4599932</v>
+      </c>
+      <c r="AO160">
+        <v>0.6469254</v>
+      </c>
+      <c r="AP160">
+        <v>0.4060721</v>
+      </c>
+      <c r="AQ160">
+        <v>0.2252238</v>
+      </c>
+      <c r="AS160">
+        <v>0.2798953</v>
+      </c>
+      <c r="AT160">
+        <v>0.9337886</v>
+      </c>
+      <c r="AU160">
+        <v>0.3596807</v>
+      </c>
+      <c r="AV160">
+        <v>0.7266966</v>
+      </c>
+      <c r="AW160">
+        <v>1.2276321</v>
+      </c>
+      <c r="AX160">
+        <v>0.4882229</v>
+      </c>
+      <c r="AY160">
+        <v>0.3342542</v>
+      </c>
+      <c r="BA160">
+        <v>0.1957147</v>
+      </c>
+      <c r="BB160">
+        <v>0.3408259</v>
+      </c>
+      <c r="BC160">
+        <v>0.2993316</v>
+      </c>
+      <c r="BD160">
+        <v>0.3946047</v>
+      </c>
+      <c r="BE160">
+        <v>0.4702342</v>
+      </c>
+    </row>
+    <row r="161" spans="1:57">
+      <c r="A161" t="s">
+        <v>215</v>
+      </c>
+      <c r="B161">
+        <v>0.3917821</v>
+      </c>
+      <c r="C161">
+        <v>0.9650643</v>
+      </c>
+      <c r="D161">
+        <v>0.656906</v>
+      </c>
+      <c r="F161">
+        <v>1.0973353</v>
+      </c>
+      <c r="G161">
+        <v>0.5371003</v>
+      </c>
+      <c r="H161">
+        <v>0.4066625</v>
+      </c>
+      <c r="I161">
+        <v>0.1393071</v>
+      </c>
+      <c r="J161">
+        <v>0.0519381</v>
+      </c>
+      <c r="K161">
+        <v>0.2249742</v>
+      </c>
+      <c r="L161">
+        <v>0.8869574</v>
+      </c>
+      <c r="M161">
+        <v>0.812882</v>
+      </c>
+      <c r="O161">
+        <v>0.3366231</v>
+      </c>
+      <c r="P161">
+        <v>0.5492506</v>
+      </c>
+      <c r="Q161">
+        <v>0.7103832</v>
+      </c>
+      <c r="R161">
+        <v>0.3217747</v>
+      </c>
+      <c r="S161">
+        <v>0.464807</v>
+      </c>
+      <c r="T161">
+        <v>0.4522959</v>
+      </c>
+      <c r="U161">
+        <v>0.3650268</v>
+      </c>
+      <c r="V161">
+        <v>0.9738699</v>
+      </c>
+      <c r="W161">
+        <v>0.3104046</v>
+      </c>
+      <c r="X161">
+        <v>0.205158</v>
+      </c>
+      <c r="Y161">
+        <v>0.2669391</v>
+      </c>
+      <c r="Z161">
+        <v>0.3078908</v>
+      </c>
+      <c r="AA161">
+        <v>0.3464276</v>
+      </c>
+      <c r="AB161">
+        <v>0.5663714</v>
+      </c>
+      <c r="AD161">
+        <v>1.0019264</v>
+      </c>
+      <c r="AE161">
+        <v>0.5770689</v>
+      </c>
+      <c r="AF161">
+        <v>0.5000974</v>
+      </c>
+      <c r="AG161">
+        <v>0.7386498</v>
+      </c>
+      <c r="AH161">
+        <v>0.5265993</v>
+      </c>
+      <c r="AI161">
+        <v>0.2513906</v>
+      </c>
+      <c r="AJ161">
+        <v>0.2192983</v>
+      </c>
+      <c r="AK161">
+        <v>0.3926401</v>
+      </c>
+      <c r="AL161">
+        <v>0.6426773</v>
+      </c>
+      <c r="AM161">
+        <v>0.2131898</v>
+      </c>
+      <c r="AN161">
+        <v>0.4409568</v>
+      </c>
+      <c r="AO161">
+        <v>0.7168515</v>
+      </c>
+      <c r="AP161">
+        <v>0.445463</v>
+      </c>
+      <c r="AQ161">
+        <v>0.2530478</v>
+      </c>
+      <c r="AS161">
+        <v>0.2349775</v>
+      </c>
+      <c r="AT161">
+        <v>0.9834652</v>
+      </c>
+      <c r="AU161">
+        <v>0.3580714</v>
+      </c>
+      <c r="AV161">
+        <v>0.7160485</v>
+      </c>
+      <c r="AW161">
+        <v>1.2036307</v>
+      </c>
+      <c r="AX161">
+        <v>0.4831863</v>
+      </c>
+      <c r="AY161">
+        <v>0.325434</v>
+      </c>
+      <c r="BA161">
+        <v>0.2946125</v>
+      </c>
+      <c r="BB161">
+        <v>0.3906838</v>
+      </c>
+      <c r="BC161">
+        <v>0.2880642</v>
+      </c>
+      <c r="BD161">
+        <v>0.3667181</v>
+      </c>
+      <c r="BE161">
+        <v>0.5485707</v>
+      </c>
+    </row>
+    <row r="162" spans="1:57">
+      <c r="A162" t="s">
+        <v>216</v>
+      </c>
+      <c r="B162">
+        <v>0.3713061</v>
+      </c>
+      <c r="C162">
+        <v>1.014715</v>
+      </c>
+      <c r="D162">
+        <v>0.6593905</v>
+      </c>
+      <c r="F162">
+        <v>1.1486295</v>
+      </c>
+      <c r="G162">
+        <v>0.5352148</v>
+      </c>
+      <c r="H162">
+        <v>0.4177261</v>
+      </c>
+      <c r="I162">
+        <v>0.1455541</v>
+      </c>
+      <c r="J162">
+        <v>0.2043151</v>
+      </c>
+      <c r="K162">
+        <v>0.2690584</v>
+      </c>
+      <c r="L162">
+        <v>0.9121327</v>
+      </c>
+      <c r="M162">
+        <v>0.8558902</v>
+      </c>
+      <c r="O162">
+        <v>0.200402</v>
+      </c>
+      <c r="P162">
+        <v>0.5623628000000001</v>
+      </c>
+      <c r="Q162">
+        <v>0.6917949</v>
+      </c>
+      <c r="R162">
+        <v>0.3343996</v>
+      </c>
+      <c r="S162">
+        <v>0.5189542</v>
+      </c>
+      <c r="T162">
+        <v>0.4945781</v>
+      </c>
+      <c r="U162">
+        <v>0.3563394</v>
+      </c>
+      <c r="V162">
+        <v>1.0042855</v>
+      </c>
+      <c r="W162">
+        <v>0.2921133</v>
+      </c>
+      <c r="X162">
+        <v>0.2231154</v>
+      </c>
+      <c r="Y162">
+        <v>0.2245509</v>
+      </c>
+      <c r="Z162">
+        <v>0.3029747</v>
+      </c>
+      <c r="AA162">
+        <v>0.3620659</v>
+      </c>
+      <c r="AB162">
+        <v>0.6303772</v>
+      </c>
+      <c r="AD162">
+        <v>1.0560431</v>
+      </c>
+      <c r="AE162">
+        <v>0.4647724</v>
+      </c>
+      <c r="AF162">
+        <v>0.481639</v>
+      </c>
+      <c r="AG162">
+        <v>0.7904405</v>
+      </c>
+      <c r="AH162">
+        <v>0.5808063</v>
+      </c>
+      <c r="AI162">
+        <v>0.2318436</v>
+      </c>
+      <c r="AJ162">
+        <v>0.2509441</v>
+      </c>
+      <c r="AK162">
+        <v>0.3593607</v>
+      </c>
+      <c r="AL162">
+        <v>0.7269596</v>
+      </c>
+      <c r="AM162">
+        <v>0.2288708</v>
+      </c>
+      <c r="AN162">
+        <v>0.4004939</v>
+      </c>
+      <c r="AO162">
+        <v>0.7533585</v>
+      </c>
+      <c r="AP162">
+        <v>0.463548</v>
+      </c>
+      <c r="AQ162">
+        <v>0.306755</v>
+      </c>
+      <c r="AS162">
+        <v>0.2634865</v>
+      </c>
+      <c r="AT162">
+        <v>0.9382819999999999</v>
+      </c>
+      <c r="AU162">
+        <v>0.3461221</v>
+      </c>
+      <c r="AV162">
+        <v>0.7411715</v>
+      </c>
+      <c r="AW162">
+        <v>1.2072639</v>
+      </c>
+      <c r="AX162">
+        <v>0.5259658</v>
+      </c>
+      <c r="AY162">
+        <v>0.3361627</v>
+      </c>
+      <c r="BA162">
+        <v>0.245851</v>
+      </c>
+      <c r="BB162">
+        <v>0.3907088</v>
+      </c>
+      <c r="BC162">
+        <v>0.2981864</v>
+      </c>
+      <c r="BD162">
+        <v>0.4301034</v>
+      </c>
+      <c r="BE162">
+        <v>0.5071620999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:57">
+      <c r="A163" t="s">
+        <v>217</v>
+      </c>
+      <c r="B163">
+        <v>0.3478376</v>
+      </c>
+      <c r="C163">
+        <v>1.0622921</v>
+      </c>
+      <c r="D163">
+        <v>0.6762614</v>
+      </c>
+      <c r="F163">
+        <v>1.085794</v>
+      </c>
+      <c r="G163">
+        <v>0.5390755</v>
+      </c>
+      <c r="H163">
+        <v>0.3810733</v>
+      </c>
+      <c r="I163">
+        <v>0.147523</v>
+      </c>
+      <c r="J163">
+        <v>0.1992985</v>
+      </c>
+      <c r="K163">
+        <v>0.3235761</v>
+      </c>
+      <c r="L163">
+        <v>0.9535094</v>
+      </c>
+      <c r="M163">
+        <v>0.930576</v>
+      </c>
+      <c r="O163">
+        <v>0.2579365</v>
+      </c>
+      <c r="P163">
+        <v>0.5798764</v>
+      </c>
+      <c r="Q163">
+        <v>0.6087522</v>
+      </c>
+      <c r="R163">
+        <v>0.3392634</v>
+      </c>
+      <c r="S163">
+        <v>0.5180094</v>
+      </c>
+      <c r="T163">
+        <v>0.4745665</v>
+      </c>
+      <c r="U163">
+        <v>0.3686123</v>
+      </c>
+      <c r="V163">
+        <v>1.0239889</v>
+      </c>
+      <c r="W163">
+        <v>0.3260429</v>
+      </c>
+      <c r="X163">
+        <v>0.2814028</v>
+      </c>
+      <c r="Y163">
+        <v>0.2324249</v>
+      </c>
+      <c r="Z163">
+        <v>0.3278229</v>
+      </c>
+      <c r="AA163">
+        <v>0.3688257</v>
+      </c>
+      <c r="AB163">
+        <v>0.6509516</v>
+      </c>
+      <c r="AD163">
+        <v>1.0467829</v>
+      </c>
+      <c r="AE163">
+        <v>0.5503531</v>
+      </c>
+      <c r="AF163">
+        <v>0.5001976</v>
+      </c>
+      <c r="AG163">
+        <v>0.6933555</v>
+      </c>
+      <c r="AH163">
+        <v>0.6570800999999999</v>
+      </c>
+      <c r="AI163">
+        <v>0.2040628</v>
+      </c>
+      <c r="AJ163">
+        <v>0.241614</v>
+      </c>
+      <c r="AK163">
+        <v>0.3825322</v>
+      </c>
+      <c r="AL163">
+        <v>0.7718969</v>
+      </c>
+      <c r="AM163">
+        <v>0.2375727</v>
+      </c>
+      <c r="AN163">
+        <v>0.3623835</v>
+      </c>
+      <c r="AO163">
+        <v>0.7690579</v>
+      </c>
+      <c r="AP163">
+        <v>0.487591</v>
+      </c>
+      <c r="AQ163">
+        <v>0.3334609</v>
+      </c>
+      <c r="AS163">
+        <v>0.2878447</v>
+      </c>
+      <c r="AT163">
+        <v>0.9413631</v>
+      </c>
+      <c r="AU163">
+        <v>0.3891169</v>
+      </c>
+      <c r="AV163">
+        <v>0.7134079</v>
+      </c>
+      <c r="AW163">
+        <v>1.1705144</v>
+      </c>
+      <c r="AX163">
+        <v>0.4617199</v>
+      </c>
+      <c r="AY163">
+        <v>0.3454924</v>
+      </c>
+      <c r="BA163">
+        <v>0.3453396</v>
+      </c>
+      <c r="BB163">
+        <v>0.4085598</v>
+      </c>
+      <c r="BC163">
+        <v>0.3488645</v>
+      </c>
+      <c r="BD163">
+        <v>0.3916704</v>
+      </c>
+      <c r="BE163">
+        <v>0.5527784</v>
+      </c>
+    </row>
+    <row r="164" spans="1:57">
+      <c r="A164" t="s">
+        <v>218</v>
+      </c>
+      <c r="B164">
+        <v>0.3353659</v>
+      </c>
+      <c r="C164">
+        <v>1.1481723</v>
+      </c>
+      <c r="D164">
+        <v>0.6606636</v>
+      </c>
+      <c r="F164">
+        <v>1.0657484</v>
+      </c>
+      <c r="G164">
+        <v>0.5457360999999999</v>
+      </c>
+      <c r="H164">
+        <v>0.4236873</v>
+      </c>
+      <c r="I164">
+        <v>0.1549731</v>
+      </c>
+      <c r="J164">
+        <v>0.1460387</v>
+      </c>
+      <c r="K164">
+        <v>0.3487945</v>
+      </c>
+      <c r="L164">
+        <v>0.9445143</v>
+      </c>
+      <c r="M164">
+        <v>0.8930287</v>
+      </c>
+      <c r="O164">
+        <v>0.3054725</v>
+      </c>
+      <c r="P164">
+        <v>0.6419296</v>
+      </c>
+      <c r="Q164">
+        <v>0.5896965</v>
+      </c>
+      <c r="R164">
+        <v>0.3901686</v>
+      </c>
+      <c r="S164">
+        <v>0.5333056</v>
+      </c>
+      <c r="T164">
+        <v>0.4619068</v>
+      </c>
+      <c r="U164">
+        <v>0.377055</v>
+      </c>
+      <c r="V164">
+        <v>1.1115011</v>
+      </c>
+      <c r="W164">
+        <v>0.3271579</v>
+      </c>
+      <c r="X164">
+        <v>0.2827171</v>
+      </c>
+      <c r="Y164">
+        <v>0.2732065</v>
+      </c>
+      <c r="Z164">
+        <v>0.3106593</v>
+      </c>
+      <c r="AA164">
+        <v>0.4355951</v>
+      </c>
+      <c r="AB164">
+        <v>0.6802778</v>
+      </c>
+      <c r="AD164">
+        <v>1.0311531</v>
+      </c>
+      <c r="AE164">
+        <v>0.4586054</v>
+      </c>
+      <c r="AF164">
+        <v>0.5350284</v>
+      </c>
+      <c r="AG164">
+        <v>0.6773145</v>
+      </c>
+      <c r="AH164">
+        <v>0.6310631</v>
+      </c>
+      <c r="AI164">
+        <v>0.2179699</v>
+      </c>
+      <c r="AJ164">
+        <v>0.2389396</v>
+      </c>
+      <c r="AK164">
+        <v>0.3186003</v>
+      </c>
+      <c r="AL164">
+        <v>0.7210258000000001</v>
+      </c>
+      <c r="AM164">
+        <v>0.2588036</v>
+      </c>
+      <c r="AN164">
+        <v>0.3405698</v>
+      </c>
+      <c r="AO164">
+        <v>0.820012</v>
+      </c>
+      <c r="AP164">
+        <v>0.5058556</v>
+      </c>
+      <c r="AQ164">
+        <v>0.3403973</v>
+      </c>
+      <c r="AS164">
+        <v>0.3266671</v>
+      </c>
+      <c r="AT164">
+        <v>0.9155909</v>
+      </c>
+      <c r="AU164">
+        <v>0.4568488</v>
+      </c>
+      <c r="AV164">
+        <v>0.650953</v>
+      </c>
+      <c r="AW164">
+        <v>1.1543834</v>
+      </c>
+      <c r="AX164">
+        <v>0.4844243</v>
+      </c>
+      <c r="AY164">
+        <v>0.3392185</v>
+      </c>
+      <c r="BA164">
+        <v>0.364994</v>
+      </c>
+      <c r="BB164">
+        <v>0.4421772</v>
+      </c>
+      <c r="BC164">
+        <v>0.3801633</v>
+      </c>
+      <c r="BD164">
+        <v>0.4216811</v>
+      </c>
+      <c r="BE164">
+        <v>0.4598822</v>
+      </c>
+    </row>
+    <row r="165" spans="1:57">
+      <c r="A165" t="s">
+        <v>219</v>
+      </c>
+      <c r="B165">
+        <v>0.2551365</v>
+      </c>
+      <c r="C165">
+        <v>1.178622</v>
+      </c>
+      <c r="D165">
+        <v>0.6196687</v>
+      </c>
+      <c r="F165">
+        <v>1.0426676</v>
+      </c>
+      <c r="G165">
+        <v>0.5453683</v>
+      </c>
+      <c r="H165">
+        <v>0.4516674</v>
+      </c>
+      <c r="I165">
+        <v>0.1735859</v>
+      </c>
+      <c r="J165">
+        <v>0.2564103</v>
+      </c>
+      <c r="K165">
+        <v>0.333053</v>
+      </c>
+      <c r="L165">
+        <v>0.9578023</v>
+      </c>
+      <c r="M165">
+        <v>0.9298948</v>
+      </c>
+      <c r="O165">
+        <v>0.3167954</v>
+      </c>
+      <c r="P165">
+        <v>0.6275597000000001</v>
+      </c>
+      <c r="Q165">
+        <v>0.5889027</v>
+      </c>
+      <c r="R165">
+        <v>0.4211896</v>
+      </c>
+      <c r="S165">
+        <v>0.583355</v>
+      </c>
+      <c r="T165">
+        <v>0.4981172</v>
+      </c>
+      <c r="U165">
+        <v>0.3585531</v>
+      </c>
+      <c r="V165">
+        <v>1.1107274</v>
+      </c>
+      <c r="W165">
+        <v>0.2934155</v>
+      </c>
+      <c r="X165">
+        <v>0.3644648</v>
+      </c>
+      <c r="Y165">
+        <v>0.2417695</v>
+      </c>
+      <c r="Z165">
+        <v>0.3272641</v>
+      </c>
+      <c r="AA165">
+        <v>0.4637628</v>
+      </c>
+      <c r="AB165">
+        <v>0.7077706</v>
+      </c>
+      <c r="AD165">
+        <v>0.9914021</v>
+      </c>
+      <c r="AE165">
+        <v>0.3058935</v>
+      </c>
+      <c r="AF165">
+        <v>0.4986217</v>
+      </c>
+      <c r="AG165">
+        <v>0.681592</v>
+      </c>
+      <c r="AH165">
+        <v>0.5979996</v>
+      </c>
+      <c r="AI165">
+        <v>0.2669452</v>
+      </c>
+      <c r="AJ165">
+        <v>0.245361</v>
+      </c>
+      <c r="AK165">
+        <v>0.3579051</v>
+      </c>
+      <c r="AL165">
+        <v>0.767719</v>
+      </c>
+      <c r="AM165">
+        <v>0.2415632</v>
+      </c>
+      <c r="AN165">
+        <v>0.3622444</v>
+      </c>
+      <c r="AO165">
+        <v>0.854223</v>
+      </c>
+      <c r="AP165">
+        <v>0.496771</v>
+      </c>
+      <c r="AQ165">
+        <v>0.3492209</v>
+      </c>
+      <c r="AS165">
+        <v>0.3004263</v>
+      </c>
+      <c r="AT165">
+        <v>0.9510303</v>
+      </c>
+      <c r="AU165">
+        <v>0.5756717</v>
+      </c>
+      <c r="AV165">
+        <v>0.6766663000000001</v>
+      </c>
+      <c r="AW165">
+        <v>1.1461405</v>
+      </c>
+      <c r="AX165">
+        <v>0.4878717</v>
+      </c>
+      <c r="AY165">
+        <v>0.3587104</v>
+      </c>
+      <c r="BA165">
+        <v>0.3687184</v>
+      </c>
+      <c r="BB165">
+        <v>0.4038599</v>
+      </c>
+      <c r="BC165">
+        <v>0.3992389</v>
+      </c>
+      <c r="BD165">
+        <v>0.4000519</v>
+      </c>
+      <c r="BE165">
+        <v>0.4968483</v>
+      </c>
+    </row>
+    <row r="166" spans="1:57">
+      <c r="A166" t="s">
+        <v>220</v>
+      </c>
+      <c r="B166">
+        <v>0.2525253</v>
+      </c>
+      <c r="C166">
+        <v>1.2216744</v>
+      </c>
+      <c r="D166">
+        <v>0.6934799</v>
+      </c>
+      <c r="F166">
+        <v>0.9621987</v>
+      </c>
+      <c r="G166">
+        <v>0.5604536</v>
+      </c>
+      <c r="H166">
+        <v>0.4199058</v>
+      </c>
+      <c r="I166">
+        <v>0.186702</v>
+      </c>
+      <c r="J166">
+        <v>0.2604167</v>
+      </c>
+      <c r="K166">
+        <v>0.3291706</v>
+      </c>
+      <c r="L166">
+        <v>0.9865317</v>
+      </c>
+      <c r="M166">
+        <v>0.983969</v>
+      </c>
+      <c r="O166">
+        <v>0.3477669</v>
+      </c>
+      <c r="P166">
+        <v>0.6676531</v>
+      </c>
+      <c r="Q166">
+        <v>0.604239</v>
+      </c>
+      <c r="R166">
+        <v>0.4607914</v>
+      </c>
+      <c r="S166">
+        <v>0.5814550000000001</v>
+      </c>
+      <c r="T166">
+        <v>0.4693925</v>
+      </c>
+      <c r="U166">
+        <v>0.3700212</v>
+      </c>
+      <c r="V166">
+        <v>1.0886447</v>
+      </c>
+      <c r="W166">
+        <v>0.2910363</v>
+      </c>
+      <c r="X166">
+        <v>0.4286064</v>
+      </c>
+      <c r="Y166">
+        <v>0.231688</v>
+      </c>
+      <c r="Z166">
+        <v>0.351829</v>
+      </c>
+      <c r="AA166">
+        <v>0.442011</v>
+      </c>
+      <c r="AB166">
+        <v>0.7053536</v>
+      </c>
+      <c r="AD166">
+        <v>1.0290949</v>
+      </c>
+      <c r="AE166">
+        <v>0.3655251</v>
+      </c>
+      <c r="AF166">
+        <v>0.5026942</v>
+      </c>
+      <c r="AG166">
+        <v>0.5602498</v>
+      </c>
+      <c r="AH166">
+        <v>0.6634685</v>
+      </c>
+      <c r="AI166">
+        <v>0.2670974</v>
+      </c>
+      <c r="AJ166">
+        <v>0.2669536</v>
+      </c>
+      <c r="AK166">
+        <v>0.3767201</v>
+      </c>
+      <c r="AL166">
+        <v>0.81584</v>
+      </c>
+      <c r="AM166">
+        <v>0.2560745</v>
+      </c>
+      <c r="AN166">
+        <v>0.3830392</v>
+      </c>
+      <c r="AO166">
+        <v>0.9189898</v>
+      </c>
+      <c r="AP166">
+        <v>0.4776423</v>
+      </c>
+      <c r="AQ166">
+        <v>0.3631939</v>
+      </c>
+      <c r="AS166">
+        <v>0.2463548</v>
+      </c>
+      <c r="AT166">
+        <v>0.8885783</v>
+      </c>
+      <c r="AU166">
+        <v>0.6178099</v>
+      </c>
+      <c r="AV166">
+        <v>0.6686856</v>
+      </c>
+      <c r="AW166">
+        <v>1.1317613</v>
+      </c>
+      <c r="AX166">
+        <v>0.4944305</v>
+      </c>
+      <c r="AY166">
+        <v>0.3501174</v>
+      </c>
+      <c r="BA166">
+        <v>0.385487</v>
+      </c>
+      <c r="BB166">
+        <v>0.3668866</v>
+      </c>
+      <c r="BC166">
+        <v>0.438608</v>
+      </c>
+      <c r="BD166">
+        <v>0.4128368</v>
+      </c>
+      <c r="BE166">
+        <v>0.4755418</v>
+      </c>
+    </row>
+    <row r="167" spans="1:57">
+      <c r="A167" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Alaska</t>
   </si>
@@ -680,6 +680,42 @@
   </si>
   <si>
     <t>15 07 2020</t>
+  </si>
+  <si>
+    <t>16 07 2020</t>
+  </si>
+  <si>
+    <t>17 07 2020</t>
+  </si>
+  <si>
+    <t>18 07 2020</t>
+  </si>
+  <si>
+    <t>19 07 2020</t>
+  </si>
+  <si>
+    <t>20 07 2020</t>
+  </si>
+  <si>
+    <t>21 07 2020</t>
+  </si>
+  <si>
+    <t>22 07 2020</t>
+  </si>
+  <si>
+    <t>23 07 2020</t>
+  </si>
+  <si>
+    <t>24 07 2020</t>
+  </si>
+  <si>
+    <t>25 07 2020</t>
+  </si>
+  <si>
+    <t>26 07 2020</t>
+  </si>
+  <si>
+    <t>27 07 2020</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE167"/>
+  <dimension ref="A1:BE179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13484,6 +13520,9 @@
       <c r="AQ141">
         <v>0.2947598</v>
       </c>
+      <c r="AR141">
+        <v>0</v>
+      </c>
       <c r="AS141">
         <v>0.4815724</v>
       </c>
@@ -13642,6 +13681,9 @@
       <c r="AQ142">
         <v>0.2981611</v>
       </c>
+      <c r="AR142">
+        <v>0</v>
+      </c>
       <c r="AS142">
         <v>0.4665762</v>
       </c>
@@ -13800,6 +13842,9 @@
       <c r="AQ143">
         <v>0.2948958</v>
       </c>
+      <c r="AR143">
+        <v>0</v>
+      </c>
       <c r="AS143">
         <v>0.3278669</v>
       </c>
@@ -13958,6 +14003,9 @@
       <c r="AQ144">
         <v>0.2739843</v>
       </c>
+      <c r="AR144">
+        <v>0</v>
+      </c>
       <c r="AS144">
         <v>0.3575959</v>
       </c>
@@ -14116,6 +14164,9 @@
       <c r="AQ145">
         <v>0.3029777</v>
       </c>
+      <c r="AR145">
+        <v>0</v>
+      </c>
       <c r="AS145">
         <v>0.3449371</v>
       </c>
@@ -14274,6 +14325,9 @@
       <c r="AQ146">
         <v>0.277503</v>
       </c>
+      <c r="AR146">
+        <v>0</v>
+      </c>
       <c r="AS146">
         <v>0.344979</v>
       </c>
@@ -14432,6 +14486,9 @@
       <c r="AQ147">
         <v>0.2961598</v>
       </c>
+      <c r="AR147">
+        <v>0</v>
+      </c>
       <c r="AS147">
         <v>0.3243032</v>
       </c>
@@ -14590,6 +14647,9 @@
       <c r="AQ148">
         <v>0.2866083</v>
       </c>
+      <c r="AR148">
+        <v>0</v>
+      </c>
       <c r="AS148">
         <v>0.3311496</v>
       </c>
@@ -14748,6 +14808,9 @@
       <c r="AQ149">
         <v>0.3196055</v>
       </c>
+      <c r="AR149">
+        <v>0</v>
+      </c>
       <c r="AS149">
         <v>0.4150404</v>
       </c>
@@ -14906,6 +14969,9 @@
       <c r="AQ150">
         <v>0.3279352</v>
       </c>
+      <c r="AR150">
+        <v>0</v>
+      </c>
       <c r="AS150">
         <v>0.4139113</v>
       </c>
@@ -15064,6 +15130,9 @@
       <c r="AQ151">
         <v>0.363451</v>
       </c>
+      <c r="AR151">
+        <v>0</v>
+      </c>
       <c r="AS151">
         <v>0.343903</v>
       </c>
@@ -15222,6 +15291,9 @@
       <c r="AQ152">
         <v>0.3394335</v>
       </c>
+      <c r="AR152">
+        <v>0.204918</v>
+      </c>
       <c r="AS152">
         <v>0.2890633</v>
       </c>
@@ -17360,7 +17432,7 @@
         <v>0.604239</v>
       </c>
       <c r="R166">
-        <v>0.4607914</v>
+        <v>0.4607695</v>
       </c>
       <c r="S166">
         <v>0.5814550000000001</v>
@@ -17399,7 +17471,7 @@
         <v>0.3655251</v>
       </c>
       <c r="AF166">
-        <v>0.5026942</v>
+        <v>0.5026675</v>
       </c>
       <c r="AG166">
         <v>0.5602498</v>
@@ -17456,7 +17528,7 @@
         <v>0.3501174</v>
       </c>
       <c r="BA166">
-        <v>0.385487</v>
+        <v>0.3852577</v>
       </c>
       <c r="BB166">
         <v>0.3668866</v>
@@ -17465,7 +17537,7 @@
         <v>0.438608</v>
       </c>
       <c r="BD166">
-        <v>0.4128368</v>
+        <v>0.4127522</v>
       </c>
       <c r="BE166">
         <v>0.4755418</v>
@@ -17474,6 +17546,1902 @@
     <row r="167" spans="1:57">
       <c r="A167" t="s">
         <v>221</v>
+      </c>
+      <c r="B167">
+        <v>0.341773</v>
+      </c>
+      <c r="C167">
+        <v>1.2566594</v>
+      </c>
+      <c r="D167">
+        <v>0.7929349999999999</v>
+      </c>
+      <c r="F167">
+        <v>0.9263047</v>
+      </c>
+      <c r="G167">
+        <v>0.5889288</v>
+      </c>
+      <c r="H167">
+        <v>0.3544097</v>
+      </c>
+      <c r="I167">
+        <v>0.2186799</v>
+      </c>
+      <c r="J167">
+        <v>0.3707824</v>
+      </c>
+      <c r="K167">
+        <v>0.2764595</v>
+      </c>
+      <c r="L167">
+        <v>0.9720358</v>
+      </c>
+      <c r="M167">
+        <v>0.9862273</v>
+      </c>
+      <c r="O167">
+        <v>0.3492466</v>
+      </c>
+      <c r="P167">
+        <v>0.6575448</v>
+      </c>
+      <c r="Q167">
+        <v>0.6349861999999999</v>
+      </c>
+      <c r="R167">
+        <v>0.4877335</v>
+      </c>
+      <c r="S167">
+        <v>0.5685168</v>
+      </c>
+      <c r="T167">
+        <v>0.5475067</v>
+      </c>
+      <c r="U167">
+        <v>0.3608262</v>
+      </c>
+      <c r="V167">
+        <v>1.0836167</v>
+      </c>
+      <c r="W167">
+        <v>0.2578017</v>
+      </c>
+      <c r="X167">
+        <v>0.433118</v>
+      </c>
+      <c r="Y167">
+        <v>0.2288431</v>
+      </c>
+      <c r="Z167">
+        <v>0.368473</v>
+      </c>
+      <c r="AA167">
+        <v>0.4672927</v>
+      </c>
+      <c r="AB167">
+        <v>0.6503254000000001</v>
+      </c>
+      <c r="AD167">
+        <v>1.0026099</v>
+      </c>
+      <c r="AE167">
+        <v>0.4244567</v>
+      </c>
+      <c r="AF167">
+        <v>0.4919115</v>
+      </c>
+      <c r="AG167">
+        <v>0.3249753</v>
+      </c>
+      <c r="AH167">
+        <v>0.6565216</v>
+      </c>
+      <c r="AI167">
+        <v>0.2059135</v>
+      </c>
+      <c r="AJ167">
+        <v>0.2753176</v>
+      </c>
+      <c r="AK167">
+        <v>0.3223832</v>
+      </c>
+      <c r="AL167">
+        <v>0.7241044</v>
+      </c>
+      <c r="AM167">
+        <v>0.269455</v>
+      </c>
+      <c r="AN167">
+        <v>0.3919195</v>
+      </c>
+      <c r="AO167">
+        <v>1.0194324</v>
+      </c>
+      <c r="AP167">
+        <v>0.4724846</v>
+      </c>
+      <c r="AQ167">
+        <v>0.3886445</v>
+      </c>
+      <c r="AS167">
+        <v>0.3174649</v>
+      </c>
+      <c r="AT167">
+        <v>0.84543</v>
+      </c>
+      <c r="AU167">
+        <v>0.6841448999999999</v>
+      </c>
+      <c r="AV167">
+        <v>0.7046362</v>
+      </c>
+      <c r="AW167">
+        <v>1.1301814</v>
+      </c>
+      <c r="AX167">
+        <v>0.5136288</v>
+      </c>
+      <c r="AY167">
+        <v>0.354982</v>
+      </c>
+      <c r="BA167">
+        <v>0.3047615</v>
+      </c>
+      <c r="BB167">
+        <v>0.3327238</v>
+      </c>
+      <c r="BC167">
+        <v>0.4854545</v>
+      </c>
+      <c r="BD167">
+        <v>0.4192117</v>
+      </c>
+      <c r="BE167">
+        <v>0.5271432</v>
+      </c>
+    </row>
+    <row r="168" spans="1:57">
+      <c r="A168" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168">
+        <v>0.32822</v>
+      </c>
+      <c r="C168">
+        <v>1.2261127</v>
+      </c>
+      <c r="D168">
+        <v>0.7168617</v>
+      </c>
+      <c r="F168">
+        <v>0.9413713</v>
+      </c>
+      <c r="G168">
+        <v>0.6101378</v>
+      </c>
+      <c r="H168">
+        <v>0.3889445</v>
+      </c>
+      <c r="I168">
+        <v>0.217509</v>
+      </c>
+      <c r="J168">
+        <v>0.3749531</v>
+      </c>
+      <c r="K168">
+        <v>0.2951902</v>
+      </c>
+      <c r="L168">
+        <v>1.008828</v>
+      </c>
+      <c r="M168">
+        <v>0.9774819</v>
+      </c>
+      <c r="O168">
+        <v>0.3149203</v>
+      </c>
+      <c r="P168">
+        <v>0.664999</v>
+      </c>
+      <c r="Q168">
+        <v>0.7642823</v>
+      </c>
+      <c r="R168">
+        <v>0.4502524</v>
+      </c>
+      <c r="S168">
+        <v>0.5841562</v>
+      </c>
+      <c r="T168">
+        <v>0.5949612</v>
+      </c>
+      <c r="U168">
+        <v>0.3880191</v>
+      </c>
+      <c r="V168">
+        <v>1.0827691</v>
+      </c>
+      <c r="W168">
+        <v>0.235888</v>
+      </c>
+      <c r="X168">
+        <v>0.3861476</v>
+      </c>
+      <c r="Y168">
+        <v>0.182909</v>
+      </c>
+      <c r="Z168">
+        <v>0.371573</v>
+      </c>
+      <c r="AA168">
+        <v>0.4537619</v>
+      </c>
+      <c r="AB168">
+        <v>0.6778539</v>
+      </c>
+      <c r="AD168">
+        <v>1.0227782</v>
+      </c>
+      <c r="AE168">
+        <v>0.4639778</v>
+      </c>
+      <c r="AF168">
+        <v>0.5120893</v>
+      </c>
+      <c r="AG168">
+        <v>0.3349121</v>
+      </c>
+      <c r="AH168">
+        <v>0.6229827999999999</v>
+      </c>
+      <c r="AI168">
+        <v>0.2109425</v>
+      </c>
+      <c r="AJ168">
+        <v>0.2626159</v>
+      </c>
+      <c r="AK168">
+        <v>0.3405828</v>
+      </c>
+      <c r="AL168">
+        <v>0.8825842</v>
+      </c>
+      <c r="AM168">
+        <v>0.2990288</v>
+      </c>
+      <c r="AN168">
+        <v>0.4208525</v>
+      </c>
+      <c r="AO168">
+        <v>0.9681229</v>
+      </c>
+      <c r="AP168">
+        <v>0.4033525</v>
+      </c>
+      <c r="AQ168">
+        <v>0.3628866</v>
+      </c>
+      <c r="AS168">
+        <v>0.2977105</v>
+      </c>
+      <c r="AT168">
+        <v>0.7761497000000001</v>
+      </c>
+      <c r="AU168">
+        <v>0.7675257</v>
+      </c>
+      <c r="AV168">
+        <v>0.7086322</v>
+      </c>
+      <c r="AW168">
+        <v>1.1508534</v>
+      </c>
+      <c r="AX168">
+        <v>0.5787517</v>
+      </c>
+      <c r="AY168">
+        <v>0.3723755</v>
+      </c>
+      <c r="BA168">
+        <v>0.2703018</v>
+      </c>
+      <c r="BB168">
+        <v>0.2646637</v>
+      </c>
+      <c r="BC168">
+        <v>0.5239889</v>
+      </c>
+      <c r="BD168">
+        <v>0.4396463</v>
+      </c>
+      <c r="BE168">
+        <v>0.4456514</v>
+      </c>
+    </row>
+    <row r="169" spans="1:57">
+      <c r="A169" t="s">
+        <v>223</v>
+      </c>
+      <c r="B169">
+        <v>0.3126727</v>
+      </c>
+      <c r="C169">
+        <v>1.2055973</v>
+      </c>
+      <c r="D169">
+        <v>0.7425772</v>
+      </c>
+      <c r="F169">
+        <v>0.8676970000000001</v>
+      </c>
+      <c r="G169">
+        <v>0.6285748</v>
+      </c>
+      <c r="H169">
+        <v>0.3820686</v>
+      </c>
+      <c r="I169">
+        <v>0.2012967</v>
+      </c>
+      <c r="J169">
+        <v>0.2229654</v>
+      </c>
+      <c r="K169">
+        <v>0.2963167</v>
+      </c>
+      <c r="L169">
+        <v>1.0076204</v>
+      </c>
+      <c r="M169">
+        <v>0.9889841</v>
+      </c>
+      <c r="O169">
+        <v>0.3149203</v>
+      </c>
+      <c r="P169">
+        <v>0.7225163999999999</v>
+      </c>
+      <c r="Q169">
+        <v>0.7852096</v>
+      </c>
+      <c r="R169">
+        <v>0.4233255</v>
+      </c>
+      <c r="S169">
+        <v>0.5357602</v>
+      </c>
+      <c r="T169">
+        <v>0.5976751</v>
+      </c>
+      <c r="U169">
+        <v>0.4508829</v>
+      </c>
+      <c r="V169">
+        <v>1.1243597</v>
+      </c>
+      <c r="W169">
+        <v>0.247856</v>
+      </c>
+      <c r="X169">
+        <v>0.3765473</v>
+      </c>
+      <c r="Y169">
+        <v>0.2152751</v>
+      </c>
+      <c r="Z169">
+        <v>0.378928</v>
+      </c>
+      <c r="AA169">
+        <v>0.4218975</v>
+      </c>
+      <c r="AB169">
+        <v>0.6292582</v>
+      </c>
+      <c r="AD169">
+        <v>0.9645577</v>
+      </c>
+      <c r="AE169">
+        <v>0.5575597</v>
+      </c>
+      <c r="AF169">
+        <v>0.5638604</v>
+      </c>
+      <c r="AG169">
+        <v>0.3230514</v>
+      </c>
+      <c r="AH169">
+        <v>0.6054585</v>
+      </c>
+      <c r="AI169">
+        <v>0.2550554</v>
+      </c>
+      <c r="AJ169">
+        <v>0.2620981</v>
+      </c>
+      <c r="AK169">
+        <v>0.441519</v>
+      </c>
+      <c r="AL169">
+        <v>0.9242171</v>
+      </c>
+      <c r="AM169">
+        <v>0.2882059</v>
+      </c>
+      <c r="AN169">
+        <v>0.4517507</v>
+      </c>
+      <c r="AO169">
+        <v>0.917976</v>
+      </c>
+      <c r="AP169">
+        <v>0.3672382</v>
+      </c>
+      <c r="AQ169">
+        <v>0.3267298</v>
+      </c>
+      <c r="AS169">
+        <v>0.3449181</v>
+      </c>
+      <c r="AT169">
+        <v>0.7710247</v>
+      </c>
+      <c r="AU169">
+        <v>0.8522253</v>
+      </c>
+      <c r="AV169">
+        <v>0.7093818</v>
+      </c>
+      <c r="AW169">
+        <v>1.1310636</v>
+      </c>
+      <c r="AX169">
+        <v>0.5856045</v>
+      </c>
+      <c r="AY169">
+        <v>0.4206936</v>
+      </c>
+      <c r="BA169">
+        <v>0.3358017</v>
+      </c>
+      <c r="BB169">
+        <v>0.2905663</v>
+      </c>
+      <c r="BC169">
+        <v>0.5331326</v>
+      </c>
+      <c r="BD169">
+        <v>0.4343095</v>
+      </c>
+      <c r="BE169">
+        <v>0.3989535</v>
+      </c>
+    </row>
+    <row r="170" spans="1:57">
+      <c r="A170" t="s">
+        <v>224</v>
+      </c>
+      <c r="B170">
+        <v>0.3598814</v>
+      </c>
+      <c r="C170">
+        <v>1.1956612</v>
+      </c>
+      <c r="D170">
+        <v>0.8438283</v>
+      </c>
+      <c r="F170">
+        <v>0.8082465</v>
+      </c>
+      <c r="G170">
+        <v>0.6166928</v>
+      </c>
+      <c r="H170">
+        <v>0.3931182</v>
+      </c>
+      <c r="I170">
+        <v>0.2500902</v>
+      </c>
+      <c r="J170">
+        <v>0.3302752</v>
+      </c>
+      <c r="K170">
+        <v>0.3487216</v>
+      </c>
+      <c r="L170">
+        <v>0.9975483000000001</v>
+      </c>
+      <c r="M170">
+        <v>0.9341188</v>
+      </c>
+      <c r="O170">
+        <v>0.4079104</v>
+      </c>
+      <c r="P170">
+        <v>0.7906751</v>
+      </c>
+      <c r="Q170">
+        <v>0.8435219</v>
+      </c>
+      <c r="R170">
+        <v>0.436635</v>
+      </c>
+      <c r="S170">
+        <v>0.5868096</v>
+      </c>
+      <c r="T170">
+        <v>0.7069315</v>
+      </c>
+      <c r="U170">
+        <v>0.4598716</v>
+      </c>
+      <c r="V170">
+        <v>1.1668852</v>
+      </c>
+      <c r="W170">
+        <v>0.202792</v>
+      </c>
+      <c r="X170">
+        <v>0.3885535</v>
+      </c>
+      <c r="Y170">
+        <v>0.233876</v>
+      </c>
+      <c r="Z170">
+        <v>0.377953</v>
+      </c>
+      <c r="AA170">
+        <v>0.437943</v>
+      </c>
+      <c r="AB170">
+        <v>0.6056939</v>
+      </c>
+      <c r="AD170">
+        <v>0.9520867</v>
+      </c>
+      <c r="AE170">
+        <v>0.5561095</v>
+      </c>
+      <c r="AF170">
+        <v>0.5744133</v>
+      </c>
+      <c r="AG170">
+        <v>0.3255617</v>
+      </c>
+      <c r="AH170">
+        <v>0.5380220999999999</v>
+      </c>
+      <c r="AI170">
+        <v>0.2808745</v>
+      </c>
+      <c r="AJ170">
+        <v>0.2465846</v>
+      </c>
+      <c r="AK170">
+        <v>0.4511404</v>
+      </c>
+      <c r="AL170">
+        <v>0.9457756</v>
+      </c>
+      <c r="AM170">
+        <v>0.282493</v>
+      </c>
+      <c r="AN170">
+        <v>0.4707264</v>
+      </c>
+      <c r="AO170">
+        <v>0.9362608</v>
+      </c>
+      <c r="AP170">
+        <v>0.3820254</v>
+      </c>
+      <c r="AQ170">
+        <v>0.3082334</v>
+      </c>
+      <c r="AS170">
+        <v>0.337854</v>
+      </c>
+      <c r="AT170">
+        <v>0.8337567</v>
+      </c>
+      <c r="AU170">
+        <v>0.8241428</v>
+      </c>
+      <c r="AV170">
+        <v>0.7244474</v>
+      </c>
+      <c r="AW170">
+        <v>1.1233924</v>
+      </c>
+      <c r="AX170">
+        <v>0.5723725</v>
+      </c>
+      <c r="AY170">
+        <v>0.4470069</v>
+      </c>
+      <c r="BA170">
+        <v>0.2788142</v>
+      </c>
+      <c r="BB170">
+        <v>0.2789436</v>
+      </c>
+      <c r="BC170">
+        <v>0.4898894</v>
+      </c>
+      <c r="BD170">
+        <v>0.5424748</v>
+      </c>
+      <c r="BE170">
+        <v>0.424337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:57">
+      <c r="A171" t="s">
+        <v>225</v>
+      </c>
+      <c r="B171">
+        <v>0.2823616</v>
+      </c>
+      <c r="C171">
+        <v>1.1681985</v>
+      </c>
+      <c r="D171">
+        <v>0.8973437</v>
+      </c>
+      <c r="F171">
+        <v>0.8227393</v>
+      </c>
+      <c r="G171">
+        <v>0.6302464</v>
+      </c>
+      <c r="H171">
+        <v>0.4344099</v>
+      </c>
+      <c r="I171">
+        <v>0.2519855</v>
+      </c>
+      <c r="J171">
+        <v>0.3659833</v>
+      </c>
+      <c r="K171">
+        <v>0.3399861</v>
+      </c>
+      <c r="L171">
+        <v>1.0260311</v>
+      </c>
+      <c r="M171">
+        <v>0.9317971</v>
+      </c>
+      <c r="O171">
+        <v>0.3788622</v>
+      </c>
+      <c r="P171">
+        <v>0.745453</v>
+      </c>
+      <c r="Q171">
+        <v>0.859127</v>
+      </c>
+      <c r="R171">
+        <v>0.3994744</v>
+      </c>
+      <c r="S171">
+        <v>0.6116346</v>
+      </c>
+      <c r="T171">
+        <v>0.8264825</v>
+      </c>
+      <c r="U171">
+        <v>0.5006718999999999</v>
+      </c>
+      <c r="V171">
+        <v>1.1452392</v>
+      </c>
+      <c r="W171">
+        <v>0.2125472</v>
+      </c>
+      <c r="X171">
+        <v>0.4121376</v>
+      </c>
+      <c r="Y171">
+        <v>0.3020997</v>
+      </c>
+      <c r="Z171">
+        <v>0.3951246</v>
+      </c>
+      <c r="AA171">
+        <v>0.3731001</v>
+      </c>
+      <c r="AB171">
+        <v>0.5584507</v>
+      </c>
+      <c r="AD171">
+        <v>1.0220032</v>
+      </c>
+      <c r="AE171">
+        <v>0.5293247</v>
+      </c>
+      <c r="AF171">
+        <v>0.5705687</v>
+      </c>
+      <c r="AG171">
+        <v>0.4479175</v>
+      </c>
+      <c r="AH171">
+        <v>0.541212</v>
+      </c>
+      <c r="AI171">
+        <v>0.2662527</v>
+      </c>
+      <c r="AJ171">
+        <v>0.2871282</v>
+      </c>
+      <c r="AK171">
+        <v>0.4947525</v>
+      </c>
+      <c r="AL171">
+        <v>0.9768486</v>
+      </c>
+      <c r="AM171">
+        <v>0.2600449</v>
+      </c>
+      <c r="AN171">
+        <v>0.5036026</v>
+      </c>
+      <c r="AO171">
+        <v>0.9655842</v>
+      </c>
+      <c r="AP171">
+        <v>0.3569009</v>
+      </c>
+      <c r="AQ171">
+        <v>0.311568</v>
+      </c>
+      <c r="AS171">
+        <v>0.2986507</v>
+      </c>
+      <c r="AT171">
+        <v>0.8691163</v>
+      </c>
+      <c r="AU171">
+        <v>0.7858335</v>
+      </c>
+      <c r="AV171">
+        <v>0.7325813</v>
+      </c>
+      <c r="AW171">
+        <v>1.1462383</v>
+      </c>
+      <c r="AX171">
+        <v>0.5495241</v>
+      </c>
+      <c r="AY171">
+        <v>0.4806057</v>
+      </c>
+      <c r="BA171">
+        <v>0.2890607</v>
+      </c>
+      <c r="BB171">
+        <v>0.2620507</v>
+      </c>
+      <c r="BC171">
+        <v>0.4461276</v>
+      </c>
+      <c r="BD171">
+        <v>0.52986</v>
+      </c>
+      <c r="BE171">
+        <v>0.4111821</v>
+      </c>
+    </row>
+    <row r="172" spans="1:57">
+      <c r="A172" t="s">
+        <v>226</v>
+      </c>
+      <c r="B172">
+        <v>0.3663254</v>
+      </c>
+      <c r="C172">
+        <v>1.1749546</v>
+      </c>
+      <c r="D172">
+        <v>0.9173226</v>
+      </c>
+      <c r="F172">
+        <v>0.8095007</v>
+      </c>
+      <c r="G172">
+        <v>0.6437744</v>
+      </c>
+      <c r="H172">
+        <v>0.4450703</v>
+      </c>
+      <c r="I172">
+        <v>0.2321095</v>
+      </c>
+      <c r="J172">
+        <v>0.2616233</v>
+      </c>
+      <c r="K172">
+        <v>0.3537846</v>
+      </c>
+      <c r="L172">
+        <v>0.991794</v>
+      </c>
+      <c r="M172">
+        <v>0.9033299</v>
+      </c>
+      <c r="O172">
+        <v>0.3701488</v>
+      </c>
+      <c r="P172">
+        <v>0.7782013</v>
+      </c>
+      <c r="Q172">
+        <v>1.0225899</v>
+      </c>
+      <c r="R172">
+        <v>0.3761221</v>
+      </c>
+      <c r="S172">
+        <v>0.5789115</v>
+      </c>
+      <c r="T172">
+        <v>0.8635643</v>
+      </c>
+      <c r="U172">
+        <v>0.5693699</v>
+      </c>
+      <c r="V172">
+        <v>1.1656227</v>
+      </c>
+      <c r="W172">
+        <v>0.2490463</v>
+      </c>
+      <c r="X172">
+        <v>0.3861523</v>
+      </c>
+      <c r="Y172">
+        <v>0.3397555</v>
+      </c>
+      <c r="Z172">
+        <v>0.3699937</v>
+      </c>
+      <c r="AA172">
+        <v>0.369212</v>
+      </c>
+      <c r="AB172">
+        <v>0.5443384</v>
+      </c>
+      <c r="AD172">
+        <v>0.9344706</v>
+      </c>
+      <c r="AE172">
+        <v>0.4944964</v>
+      </c>
+      <c r="AF172">
+        <v>0.5606148</v>
+      </c>
+      <c r="AG172">
+        <v>0.528592</v>
+      </c>
+      <c r="AH172">
+        <v>0.621826</v>
+      </c>
+      <c r="AI172">
+        <v>0.1909579</v>
+      </c>
+      <c r="AJ172">
+        <v>0.3100042</v>
+      </c>
+      <c r="AK172">
+        <v>0.4601943</v>
+      </c>
+      <c r="AL172">
+        <v>0.8947124</v>
+      </c>
+      <c r="AM172">
+        <v>0.2676404</v>
+      </c>
+      <c r="AN172">
+        <v>0.4923289</v>
+      </c>
+      <c r="AO172">
+        <v>1.063448</v>
+      </c>
+      <c r="AP172">
+        <v>0.3348554</v>
+      </c>
+      <c r="AQ172">
+        <v>0.3105984</v>
+      </c>
+      <c r="AS172">
+        <v>0.3570246</v>
+      </c>
+      <c r="AT172">
+        <v>0.8809247</v>
+      </c>
+      <c r="AU172">
+        <v>0.6948047000000001</v>
+      </c>
+      <c r="AV172">
+        <v>0.7603219</v>
+      </c>
+      <c r="AW172">
+        <v>1.1184569</v>
+      </c>
+      <c r="AX172">
+        <v>0.5121137</v>
+      </c>
+      <c r="AY172">
+        <v>0.4773409</v>
+      </c>
+      <c r="BA172">
+        <v>0.2980939</v>
+      </c>
+      <c r="BB172">
+        <v>0.2787225</v>
+      </c>
+      <c r="BC172">
+        <v>0.4668693</v>
+      </c>
+      <c r="BD172">
+        <v>0.5295914</v>
+      </c>
+      <c r="BE172">
+        <v>0.5192345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:57">
+      <c r="A173" t="s">
+        <v>227</v>
+      </c>
+      <c r="B173">
+        <v>0.4311544</v>
+      </c>
+      <c r="C173">
+        <v>1.2162318</v>
+      </c>
+      <c r="D173">
+        <v>0.9334581</v>
+      </c>
+      <c r="F173">
+        <v>0.8071188</v>
+      </c>
+      <c r="G173">
+        <v>0.6598135000000001</v>
+      </c>
+      <c r="H173">
+        <v>0.4631628</v>
+      </c>
+      <c r="I173">
+        <v>0.219108</v>
+      </c>
+      <c r="J173">
+        <v>0.2606989</v>
+      </c>
+      <c r="K173">
+        <v>0.3033765</v>
+      </c>
+      <c r="L173">
+        <v>0.9615124</v>
+      </c>
+      <c r="M173">
+        <v>0.8941962</v>
+      </c>
+      <c r="O173">
+        <v>0.3830998</v>
+      </c>
+      <c r="P173">
+        <v>0.8097555</v>
+      </c>
+      <c r="Q173">
+        <v>1.0265587</v>
+      </c>
+      <c r="R173">
+        <v>0.3484057</v>
+      </c>
+      <c r="S173">
+        <v>0.519995</v>
+      </c>
+      <c r="T173">
+        <v>0.8718514000000001</v>
+      </c>
+      <c r="U173">
+        <v>0.5720491</v>
+      </c>
+      <c r="V173">
+        <v>1.1705421</v>
+      </c>
+      <c r="W173">
+        <v>0.2908251</v>
+      </c>
+      <c r="X173">
+        <v>0.3666988</v>
+      </c>
+      <c r="Y173">
+        <v>0.3674676</v>
+      </c>
+      <c r="Z173">
+        <v>0.3432991</v>
+      </c>
+      <c r="AA173">
+        <v>0.333532</v>
+      </c>
+      <c r="AB173">
+        <v>0.539219</v>
+      </c>
+      <c r="AD173">
+        <v>0.9610545</v>
+      </c>
+      <c r="AE173">
+        <v>0.4982951</v>
+      </c>
+      <c r="AF173">
+        <v>0.6168738</v>
+      </c>
+      <c r="AG173">
+        <v>0.623533</v>
+      </c>
+      <c r="AH173">
+        <v>0.6455905</v>
+      </c>
+      <c r="AI173">
+        <v>0.2047798</v>
+      </c>
+      <c r="AJ173">
+        <v>0.294991</v>
+      </c>
+      <c r="AK173">
+        <v>0.4313454</v>
+      </c>
+      <c r="AL173">
+        <v>0.9461596</v>
+      </c>
+      <c r="AM173">
+        <v>0.2808532</v>
+      </c>
+      <c r="AN173">
+        <v>0.4835097</v>
+      </c>
+      <c r="AO173">
+        <v>0.9500062</v>
+      </c>
+      <c r="AP173">
+        <v>0.3321938</v>
+      </c>
+      <c r="AQ173">
+        <v>0.3472892</v>
+      </c>
+      <c r="AS173">
+        <v>0.3938175</v>
+      </c>
+      <c r="AT173">
+        <v>0.9586416</v>
+      </c>
+      <c r="AU173">
+        <v>0.6562036999999999</v>
+      </c>
+      <c r="AV173">
+        <v>0.7902175</v>
+      </c>
+      <c r="AW173">
+        <v>1.1235917</v>
+      </c>
+      <c r="AX173">
+        <v>0.5510695</v>
+      </c>
+      <c r="AY173">
+        <v>0.5131407</v>
+      </c>
+      <c r="BA173">
+        <v>0.3576387</v>
+      </c>
+      <c r="BB173">
+        <v>0.2757118</v>
+      </c>
+      <c r="BC173">
+        <v>0.458805</v>
+      </c>
+      <c r="BD173">
+        <v>0.5435693</v>
+      </c>
+      <c r="BE173">
+        <v>0.5049635</v>
+      </c>
+    </row>
+    <row r="174" spans="1:57">
+      <c r="A174" t="s">
+        <v>228</v>
+      </c>
+      <c r="B174">
+        <v>0.3493659</v>
+      </c>
+      <c r="C174">
+        <v>1.1766779</v>
+      </c>
+      <c r="D174">
+        <v>0.9132798</v>
+      </c>
+      <c r="F174">
+        <v>0.7362999</v>
+      </c>
+      <c r="G174">
+        <v>0.6298643</v>
+      </c>
+      <c r="H174">
+        <v>0.4975196</v>
+      </c>
+      <c r="I174">
+        <v>0.2548586</v>
+      </c>
+      <c r="J174">
+        <v>0.3218664</v>
+      </c>
+      <c r="K174">
+        <v>0.4071187</v>
+      </c>
+      <c r="L174">
+        <v>0.9583563</v>
+      </c>
+      <c r="M174">
+        <v>0.9041342999999999</v>
+      </c>
+      <c r="O174">
+        <v>0.4367179</v>
+      </c>
+      <c r="P174">
+        <v>0.8390881</v>
+      </c>
+      <c r="Q174">
+        <v>0.9858989</v>
+      </c>
+      <c r="R174">
+        <v>0.3578846</v>
+      </c>
+      <c r="S174">
+        <v>0.5164308</v>
+      </c>
+      <c r="T174">
+        <v>0.8429375</v>
+      </c>
+      <c r="U174">
+        <v>0.6274356</v>
+      </c>
+      <c r="V174">
+        <v>1.2048475</v>
+      </c>
+      <c r="W174">
+        <v>0.2992181</v>
+      </c>
+      <c r="X174">
+        <v>0.379638</v>
+      </c>
+      <c r="Y174">
+        <v>0.4139524</v>
+      </c>
+      <c r="Z174">
+        <v>0.3626679</v>
+      </c>
+      <c r="AA174">
+        <v>0.3461277</v>
+      </c>
+      <c r="AB174">
+        <v>0.506098</v>
+      </c>
+      <c r="AD174">
+        <v>1.0288125</v>
+      </c>
+      <c r="AE174">
+        <v>0.4522709</v>
+      </c>
+      <c r="AF174">
+        <v>0.6142458</v>
+      </c>
+      <c r="AG174">
+        <v>0.6960267999999999</v>
+      </c>
+      <c r="AH174">
+        <v>0.6988572</v>
+      </c>
+      <c r="AI174">
+        <v>0.156232</v>
+      </c>
+      <c r="AJ174">
+        <v>0.2901051</v>
+      </c>
+      <c r="AK174">
+        <v>0.5371747</v>
+      </c>
+      <c r="AL174">
+        <v>0.9003523</v>
+      </c>
+      <c r="AM174">
+        <v>0.2857264</v>
+      </c>
+      <c r="AN174">
+        <v>0.5117202</v>
+      </c>
+      <c r="AO174">
+        <v>0.9451656000000001</v>
+      </c>
+      <c r="AP174">
+        <v>0.3255135</v>
+      </c>
+      <c r="AQ174">
+        <v>0.354833</v>
+      </c>
+      <c r="AS174">
+        <v>0.3657708</v>
+      </c>
+      <c r="AT174">
+        <v>0.9389272</v>
+      </c>
+      <c r="AU174">
+        <v>0.540481</v>
+      </c>
+      <c r="AV174">
+        <v>0.7440373</v>
+      </c>
+      <c r="AW174">
+        <v>1.0894803</v>
+      </c>
+      <c r="AX174">
+        <v>0.6080795</v>
+      </c>
+      <c r="AY174">
+        <v>0.5154941</v>
+      </c>
+      <c r="BA174">
+        <v>0.3658535</v>
+      </c>
+      <c r="BB174">
+        <v>0.258785</v>
+      </c>
+      <c r="BC174">
+        <v>0.420394</v>
+      </c>
+      <c r="BD174">
+        <v>0.566419</v>
+      </c>
+      <c r="BE174">
+        <v>0.5040834</v>
+      </c>
+    </row>
+    <row r="175" spans="1:57">
+      <c r="A175" t="s">
+        <v>229</v>
+      </c>
+      <c r="B175">
+        <v>0.3398301</v>
+      </c>
+      <c r="C175">
+        <v>1.2531919</v>
+      </c>
+      <c r="D175">
+        <v>1.0013633</v>
+      </c>
+      <c r="F175">
+        <v>0.7246610999999999</v>
+      </c>
+      <c r="G175">
+        <v>0.6236658</v>
+      </c>
+      <c r="H175">
+        <v>0.4964358</v>
+      </c>
+      <c r="I175">
+        <v>0.2976818</v>
+      </c>
+      <c r="J175">
+        <v>0.3166083</v>
+      </c>
+      <c r="K175">
+        <v>0.5059401</v>
+      </c>
+      <c r="L175">
+        <v>0.9092647</v>
+      </c>
+      <c r="M175">
+        <v>0.8672536</v>
+      </c>
+      <c r="O175">
+        <v>0.4652799</v>
+      </c>
+      <c r="P175">
+        <v>0.8751603</v>
+      </c>
+      <c r="Q175">
+        <v>0.9687802</v>
+      </c>
+      <c r="R175">
+        <v>0.3955664</v>
+      </c>
+      <c r="S175">
+        <v>0.5115715</v>
+      </c>
+      <c r="T175">
+        <v>0.825147</v>
+      </c>
+      <c r="U175">
+        <v>0.5613104</v>
+      </c>
+      <c r="V175">
+        <v>1.2618998</v>
+      </c>
+      <c r="W175">
+        <v>0.3130324</v>
+      </c>
+      <c r="X175">
+        <v>0.4000047</v>
+      </c>
+      <c r="Y175">
+        <v>0.4214182</v>
+      </c>
+      <c r="Z175">
+        <v>0.3615103</v>
+      </c>
+      <c r="AA175">
+        <v>0.3370392</v>
+      </c>
+      <c r="AB175">
+        <v>0.5715434</v>
+      </c>
+      <c r="AD175">
+        <v>1.0943997</v>
+      </c>
+      <c r="AE175">
+        <v>0.4497765</v>
+      </c>
+      <c r="AF175">
+        <v>0.6016577</v>
+      </c>
+      <c r="AG175">
+        <v>0.6841741</v>
+      </c>
+      <c r="AH175">
+        <v>0.6986785</v>
+      </c>
+      <c r="AI175">
+        <v>0.1967966</v>
+      </c>
+      <c r="AJ175">
+        <v>0.2919667</v>
+      </c>
+      <c r="AK175">
+        <v>0.5573229</v>
+      </c>
+      <c r="AL175">
+        <v>0.7227473</v>
+      </c>
+      <c r="AM175">
+        <v>0.297052</v>
+      </c>
+      <c r="AN175">
+        <v>0.5006813</v>
+      </c>
+      <c r="AO175">
+        <v>0.895157</v>
+      </c>
+      <c r="AP175">
+        <v>0.318834</v>
+      </c>
+      <c r="AQ175">
+        <v>0.3625832</v>
+      </c>
+      <c r="AS175">
+        <v>0.3854046</v>
+      </c>
+      <c r="AT175">
+        <v>1.0109233</v>
+      </c>
+      <c r="AU175">
+        <v>0.5212966</v>
+      </c>
+      <c r="AV175">
+        <v>0.7602448000000001</v>
+      </c>
+      <c r="AW175">
+        <v>1.0471155</v>
+      </c>
+      <c r="AX175">
+        <v>0.60558</v>
+      </c>
+      <c r="AY175">
+        <v>0.5405541</v>
+      </c>
+      <c r="BA175">
+        <v>0.2969949</v>
+      </c>
+      <c r="BB175">
+        <v>0.2968605</v>
+      </c>
+      <c r="BC175">
+        <v>0.4262041</v>
+      </c>
+      <c r="BD175">
+        <v>0.572133</v>
+      </c>
+      <c r="BE175">
+        <v>0.6559333000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:57">
+      <c r="A176" t="s">
+        <v>230</v>
+      </c>
+      <c r="B176">
+        <v>0.414256</v>
+      </c>
+      <c r="C176">
+        <v>1.2423365</v>
+      </c>
+      <c r="D176">
+        <v>0.9887149</v>
+      </c>
+      <c r="F176">
+        <v>0.7186816</v>
+      </c>
+      <c r="G176">
+        <v>0.6000295</v>
+      </c>
+      <c r="H176">
+        <v>0.4500047</v>
+      </c>
+      <c r="I176">
+        <v>0.3263451</v>
+      </c>
+      <c r="J176">
+        <v>0.3226318</v>
+      </c>
+      <c r="K176">
+        <v>0.5042702</v>
+      </c>
+      <c r="L176">
+        <v>0.8938872</v>
+      </c>
+      <c r="M176">
+        <v>0.8748497</v>
+      </c>
+      <c r="O176">
+        <v>0.4961992</v>
+      </c>
+      <c r="P176">
+        <v>0.8828394000000001</v>
+      </c>
+      <c r="Q176">
+        <v>0.9980056</v>
+      </c>
+      <c r="R176">
+        <v>0.4266108</v>
+      </c>
+      <c r="S176">
+        <v>0.543408</v>
+      </c>
+      <c r="T176">
+        <v>0.8252948</v>
+      </c>
+      <c r="U176">
+        <v>0.4867612</v>
+      </c>
+      <c r="V176">
+        <v>1.2306878</v>
+      </c>
+      <c r="W176">
+        <v>0.2718623</v>
+      </c>
+      <c r="X176">
+        <v>0.415543</v>
+      </c>
+      <c r="Y176">
+        <v>0.4101327</v>
+      </c>
+      <c r="Z176">
+        <v>0.372008</v>
+      </c>
+      <c r="AA176">
+        <v>0.3314284</v>
+      </c>
+      <c r="AB176">
+        <v>0.5878631</v>
+      </c>
+      <c r="AD176">
+        <v>1.1467423</v>
+      </c>
+      <c r="AE176">
+        <v>0.5027235</v>
+      </c>
+      <c r="AF176">
+        <v>0.5577587000000001</v>
+      </c>
+      <c r="AG176">
+        <v>0.6849961</v>
+      </c>
+      <c r="AH176">
+        <v>0.6512809000000001</v>
+      </c>
+      <c r="AI176">
+        <v>0.1419618</v>
+      </c>
+      <c r="AJ176">
+        <v>0.2718259</v>
+      </c>
+      <c r="AK176">
+        <v>0.4896183</v>
+      </c>
+      <c r="AL176">
+        <v>0.6428192</v>
+      </c>
+      <c r="AM176">
+        <v>0.3143855</v>
+      </c>
+      <c r="AN176">
+        <v>0.5136087</v>
+      </c>
+      <c r="AO176">
+        <v>0.9841121</v>
+      </c>
+      <c r="AP176">
+        <v>0.3465098</v>
+      </c>
+      <c r="AQ176">
+        <v>0.3686212</v>
+      </c>
+      <c r="AS176">
+        <v>0.360058</v>
+      </c>
+      <c r="AT176">
+        <v>1.0190607</v>
+      </c>
+      <c r="AU176">
+        <v>0.4652562</v>
+      </c>
+      <c r="AV176">
+        <v>0.7159346</v>
+      </c>
+      <c r="AW176">
+        <v>1.0045792</v>
+      </c>
+      <c r="AX176">
+        <v>0.6453464</v>
+      </c>
+      <c r="AY176">
+        <v>0.4807278</v>
+      </c>
+      <c r="BA176">
+        <v>0.2356778</v>
+      </c>
+      <c r="BB176">
+        <v>0.3103498</v>
+      </c>
+      <c r="BC176">
+        <v>0.4086402</v>
+      </c>
+      <c r="BD176">
+        <v>0.5767569</v>
+      </c>
+      <c r="BE176">
+        <v>0.9433857</v>
+      </c>
+    </row>
+    <row r="177" spans="1:57">
+      <c r="A177" t="s">
+        <v>231</v>
+      </c>
+      <c r="B177">
+        <v>0.4798648</v>
+      </c>
+      <c r="C177">
+        <v>1.220612</v>
+      </c>
+      <c r="D177">
+        <v>0.8292247</v>
+      </c>
+      <c r="F177">
+        <v>0.7614059</v>
+      </c>
+      <c r="G177">
+        <v>0.6358598</v>
+      </c>
+      <c r="H177">
+        <v>0.4884764</v>
+      </c>
+      <c r="I177">
+        <v>0.2528237</v>
+      </c>
+      <c r="J177">
+        <v>0.2172196</v>
+      </c>
+      <c r="K177">
+        <v>0.5107914</v>
+      </c>
+      <c r="L177">
+        <v>0.855877</v>
+      </c>
+      <c r="M177">
+        <v>0.9258073</v>
+      </c>
+      <c r="O177">
+        <v>0.337341</v>
+      </c>
+      <c r="P177">
+        <v>0.8400848</v>
+      </c>
+      <c r="Q177">
+        <v>0.9364643</v>
+      </c>
+      <c r="R177">
+        <v>0.4306724</v>
+      </c>
+      <c r="S177">
+        <v>0.4781031</v>
+      </c>
+      <c r="T177">
+        <v>0.7202368</v>
+      </c>
+      <c r="U177">
+        <v>0.5241937</v>
+      </c>
+      <c r="V177">
+        <v>1.2424543</v>
+      </c>
+      <c r="W177">
+        <v>0.2892136</v>
+      </c>
+      <c r="X177">
+        <v>0.3821775</v>
+      </c>
+      <c r="Y177">
+        <v>0.4595731</v>
+      </c>
+      <c r="Z177">
+        <v>0.353758</v>
+      </c>
+      <c r="AA177">
+        <v>0.3544952</v>
+      </c>
+      <c r="AB177">
+        <v>0.6235153</v>
+      </c>
+      <c r="AD177">
+        <v>1.1842976</v>
+      </c>
+      <c r="AE177">
+        <v>0.4249359</v>
+      </c>
+      <c r="AF177">
+        <v>0.518829</v>
+      </c>
+      <c r="AG177">
+        <v>0.8496385</v>
+      </c>
+      <c r="AH177">
+        <v>0.6988431000000001</v>
+      </c>
+      <c r="AI177">
+        <v>0.1880589</v>
+      </c>
+      <c r="AJ177">
+        <v>0.2771701</v>
+      </c>
+      <c r="AK177">
+        <v>0.5079577</v>
+      </c>
+      <c r="AL177">
+        <v>0.5585957</v>
+      </c>
+      <c r="AM177">
+        <v>0.3266233</v>
+      </c>
+      <c r="AN177">
+        <v>0.5246284</v>
+      </c>
+      <c r="AO177">
+        <v>0.9796866</v>
+      </c>
+      <c r="AP177">
+        <v>0.3309287</v>
+      </c>
+      <c r="AQ177">
+        <v>0.3664804</v>
+      </c>
+      <c r="AS177">
+        <v>0.3549427</v>
+      </c>
+      <c r="AT177">
+        <v>0.9778276</v>
+      </c>
+      <c r="AU177">
+        <v>0.548881</v>
+      </c>
+      <c r="AV177">
+        <v>0.7204678</v>
+      </c>
+      <c r="AW177">
+        <v>0.9860442</v>
+      </c>
+      <c r="AX177">
+        <v>0.6246528</v>
+      </c>
+      <c r="AY177">
+        <v>0.4826016</v>
+      </c>
+      <c r="BA177">
+        <v>0.2460255</v>
+      </c>
+      <c r="BB177">
+        <v>0.337988</v>
+      </c>
+      <c r="BC177">
+        <v>0.4877105</v>
+      </c>
+      <c r="BD177">
+        <v>0.5486738</v>
+      </c>
+      <c r="BE177">
+        <v>0.9678905</v>
+      </c>
+    </row>
+    <row r="178" spans="1:57">
+      <c r="A178" t="s">
+        <v>232</v>
+      </c>
+      <c r="B178">
+        <v>0.6197284</v>
+      </c>
+      <c r="C178">
+        <v>1.2583911</v>
+      </c>
+      <c r="D178">
+        <v>0.8500372</v>
+      </c>
+      <c r="F178">
+        <v>0.7167557</v>
+      </c>
+      <c r="G178">
+        <v>0.6349431</v>
+      </c>
+      <c r="H178">
+        <v>0.4344484</v>
+      </c>
+      <c r="I178">
+        <v>0.2310623</v>
+      </c>
+      <c r="J178">
+        <v>0.1815981</v>
+      </c>
+      <c r="K178">
+        <v>0.5118871</v>
+      </c>
+      <c r="L178">
+        <v>0.8289285</v>
+      </c>
+      <c r="M178">
+        <v>0.934199</v>
+      </c>
+      <c r="O178">
+        <v>0.4025919</v>
+      </c>
+      <c r="P178">
+        <v>0.8336891</v>
+      </c>
+      <c r="Q178">
+        <v>0.9415076</v>
+      </c>
+      <c r="R178">
+        <v>0.4471744</v>
+      </c>
+      <c r="S178">
+        <v>0.4106372</v>
+      </c>
+      <c r="T178">
+        <v>0.6101491</v>
+      </c>
+      <c r="U178">
+        <v>0.4795031</v>
+      </c>
+      <c r="V178">
+        <v>1.2018311</v>
+      </c>
+      <c r="W178">
+        <v>0.2446163</v>
+      </c>
+      <c r="X178">
+        <v>0.3878511</v>
+      </c>
+      <c r="Y178">
+        <v>0.3194672</v>
+      </c>
+      <c r="Z178">
+        <v>0.3727983</v>
+      </c>
+      <c r="AA178">
+        <v>0.4164294</v>
+      </c>
+      <c r="AB178">
+        <v>0.6483316</v>
+      </c>
+      <c r="AD178">
+        <v>1.0979422</v>
+      </c>
+      <c r="AE178">
+        <v>0.5212454</v>
+      </c>
+      <c r="AF178">
+        <v>0.5029323999999999</v>
+      </c>
+      <c r="AG178">
+        <v>0.7196106</v>
+      </c>
+      <c r="AH178">
+        <v>0.7200622</v>
+      </c>
+      <c r="AI178">
+        <v>0.1663374</v>
+      </c>
+      <c r="AJ178">
+        <v>0.2990788</v>
+      </c>
+      <c r="AK178">
+        <v>0.4657914</v>
+      </c>
+      <c r="AL178">
+        <v>0.5144377</v>
+      </c>
+      <c r="AM178">
+        <v>0.3321728</v>
+      </c>
+      <c r="AN178">
+        <v>0.5282149</v>
+      </c>
+      <c r="AO178">
+        <v>0.8844345</v>
+      </c>
+      <c r="AP178">
+        <v>0.3225103</v>
+      </c>
+      <c r="AQ178">
+        <v>0.3877436</v>
+      </c>
+      <c r="AS178">
+        <v>0.4402568</v>
+      </c>
+      <c r="AT178">
+        <v>0.9455927</v>
+      </c>
+      <c r="AU178">
+        <v>0.528643</v>
+      </c>
+      <c r="AV178">
+        <v>0.7224772</v>
+      </c>
+      <c r="AW178">
+        <v>0.9666637</v>
+      </c>
+      <c r="AX178">
+        <v>0.6629051</v>
+      </c>
+      <c r="AY178">
+        <v>0.4471647</v>
+      </c>
+      <c r="BA178">
+        <v>0.2875354</v>
+      </c>
+      <c r="BB178">
+        <v>0.352353</v>
+      </c>
+      <c r="BC178">
+        <v>0.4903049</v>
+      </c>
+      <c r="BD178">
+        <v>0.5055967</v>
+      </c>
+      <c r="BE178">
+        <v>0.8899183000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:57">
+      <c r="A179" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Alaska</t>
   </si>
@@ -716,6 +716,33 @@
   </si>
   <si>
     <t>27 07 2020</t>
+  </si>
+  <si>
+    <t>28 07 2020</t>
+  </si>
+  <si>
+    <t>29 07 2020</t>
+  </si>
+  <si>
+    <t>30 07 2020</t>
+  </si>
+  <si>
+    <t>31 07 2020</t>
+  </si>
+  <si>
+    <t>01 08 2020</t>
+  </si>
+  <si>
+    <t>02 08 2020</t>
+  </si>
+  <si>
+    <t>03 08 2020</t>
+  </si>
+  <si>
+    <t>04 08 2020</t>
+  </si>
+  <si>
+    <t>05 08 2020</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE179"/>
+  <dimension ref="A1:BE188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15452,6 +15479,9 @@
       <c r="AQ153">
         <v>0.3523764</v>
       </c>
+      <c r="AR153">
+        <v>0.2155172</v>
+      </c>
       <c r="AS153">
         <v>0.2133342</v>
       </c>
@@ -15610,6 +15640,9 @@
       <c r="AQ154">
         <v>0.3299203</v>
       </c>
+      <c r="AR154">
+        <v>0.2403846</v>
+      </c>
       <c r="AS154">
         <v>0.2633665</v>
       </c>
@@ -15768,6 +15801,9 @@
       <c r="AQ155">
         <v>0.3159407</v>
       </c>
+      <c r="AR155">
+        <v>0.245098</v>
+      </c>
       <c r="AS155">
         <v>0.2028782</v>
       </c>
@@ -15926,6 +15962,9 @@
       <c r="AQ156">
         <v>0.2747991</v>
       </c>
+      <c r="AR156">
+        <v>0.2252252</v>
+      </c>
       <c r="AS156">
         <v>0.1681836</v>
       </c>
@@ -16084,6 +16123,9 @@
       <c r="AQ157">
         <v>0.2674866</v>
       </c>
+      <c r="AR157">
+        <v>0.2173913</v>
+      </c>
       <c r="AS157">
         <v>0.1596018</v>
       </c>
@@ -16242,6 +16284,9 @@
       <c r="AQ158">
         <v>0.2447177</v>
       </c>
+      <c r="AR158">
+        <v>0.2272727</v>
+      </c>
       <c r="AS158">
         <v>0.2397151</v>
       </c>
@@ -16400,6 +16445,9 @@
       <c r="AQ159">
         <v>0.2421707</v>
       </c>
+      <c r="AR159">
+        <v>0</v>
+      </c>
       <c r="AS159">
         <v>0.3104648</v>
       </c>
@@ -16558,6 +16606,9 @@
       <c r="AQ160">
         <v>0.2252238</v>
       </c>
+      <c r="AR160">
+        <v>0</v>
+      </c>
       <c r="AS160">
         <v>0.2798953</v>
       </c>
@@ -19316,7 +19367,7 @@
         <v>0.8289285</v>
       </c>
       <c r="M178">
-        <v>0.934199</v>
+        <v>0.9341245</v>
       </c>
       <c r="O178">
         <v>0.4025919</v>
@@ -19337,13 +19388,13 @@
         <v>0.6101491</v>
       </c>
       <c r="U178">
-        <v>0.4795031</v>
+        <v>0.4794321</v>
       </c>
       <c r="V178">
         <v>1.2018311</v>
       </c>
       <c r="W178">
-        <v>0.2446163</v>
+        <v>0.2445872</v>
       </c>
       <c r="X178">
         <v>0.3878511</v>
@@ -19394,7 +19445,7 @@
         <v>0.5282149</v>
       </c>
       <c r="AO178">
-        <v>0.8844345</v>
+        <v>0.8842949</v>
       </c>
       <c r="AP178">
         <v>0.3225103</v>
@@ -19412,10 +19463,10 @@
         <v>0.528643</v>
       </c>
       <c r="AV178">
-        <v>0.7224772</v>
+        <v>0.7224034</v>
       </c>
       <c r="AW178">
-        <v>0.9666637</v>
+        <v>0.9666351</v>
       </c>
       <c r="AX178">
         <v>0.6629051</v>
@@ -19427,7 +19478,7 @@
         <v>0.2875354</v>
       </c>
       <c r="BB178">
-        <v>0.352353</v>
+        <v>0.3523222</v>
       </c>
       <c r="BC178">
         <v>0.4903049</v>
@@ -19442,6 +19493,1275 @@
     <row r="179" spans="1:57">
       <c r="A179" t="s">
         <v>233</v>
+      </c>
+      <c r="B179">
+        <v>0.5248316</v>
+      </c>
+      <c r="C179">
+        <v>1.212313</v>
+      </c>
+      <c r="D179">
+        <v>0.8538848999999999</v>
+      </c>
+      <c r="F179">
+        <v>0.7013397</v>
+      </c>
+      <c r="G179">
+        <v>0.6103184</v>
+      </c>
+      <c r="H179">
+        <v>0.4242801</v>
+      </c>
+      <c r="I179">
+        <v>0.2509629</v>
+      </c>
+      <c r="J179">
+        <v>0.286212</v>
+      </c>
+      <c r="K179">
+        <v>0.5529746</v>
+      </c>
+      <c r="L179">
+        <v>0.8730049</v>
+      </c>
+      <c r="M179">
+        <v>0.9511316</v>
+      </c>
+      <c r="O179">
+        <v>0.3784477</v>
+      </c>
+      <c r="P179">
+        <v>0.8039177</v>
+      </c>
+      <c r="Q179">
+        <v>0.8396976</v>
+      </c>
+      <c r="R179">
+        <v>0.4702863</v>
+      </c>
+      <c r="S179">
+        <v>0.4288657</v>
+      </c>
+      <c r="T179">
+        <v>0.5213249</v>
+      </c>
+      <c r="U179">
+        <v>0.4121954</v>
+      </c>
+      <c r="V179">
+        <v>1.1911954</v>
+      </c>
+      <c r="W179">
+        <v>0.2371935</v>
+      </c>
+      <c r="X179">
+        <v>0.3572759</v>
+      </c>
+      <c r="Y179">
+        <v>0.2259051</v>
+      </c>
+      <c r="Z179">
+        <v>0.4646143</v>
+      </c>
+      <c r="AA179">
+        <v>0.3744387</v>
+      </c>
+      <c r="AB179">
+        <v>0.6519963</v>
+      </c>
+      <c r="AD179">
+        <v>1.1971962</v>
+      </c>
+      <c r="AE179">
+        <v>0.520822</v>
+      </c>
+      <c r="AF179">
+        <v>0.4952999</v>
+      </c>
+      <c r="AG179">
+        <v>0.8563452</v>
+      </c>
+      <c r="AH179">
+        <v>0.7149718</v>
+      </c>
+      <c r="AI179">
+        <v>0.2458613</v>
+      </c>
+      <c r="AJ179">
+        <v>0.2944996</v>
+      </c>
+      <c r="AK179">
+        <v>0.5572198</v>
+      </c>
+      <c r="AL179">
+        <v>0.5250286</v>
+      </c>
+      <c r="AM179">
+        <v>0.3309999</v>
+      </c>
+      <c r="AN179">
+        <v>0.5566467</v>
+      </c>
+      <c r="AO179">
+        <v>0.8032484</v>
+      </c>
+      <c r="AP179">
+        <v>0.3961243</v>
+      </c>
+      <c r="AQ179">
+        <v>0.3865759</v>
+      </c>
+      <c r="AS179">
+        <v>0.3897981</v>
+      </c>
+      <c r="AT179">
+        <v>0.9437637</v>
+      </c>
+      <c r="AU179">
+        <v>0.431679</v>
+      </c>
+      <c r="AV179">
+        <v>0.7412112</v>
+      </c>
+      <c r="AW179">
+        <v>0.9249517</v>
+      </c>
+      <c r="AX179">
+        <v>0.6245039999999999</v>
+      </c>
+      <c r="AY179">
+        <v>0.4340576</v>
+      </c>
+      <c r="BA179">
+        <v>0.3722836</v>
+      </c>
+      <c r="BB179">
+        <v>0.3380064</v>
+      </c>
+      <c r="BC179">
+        <v>0.4527238</v>
+      </c>
+      <c r="BD179">
+        <v>0.5393454</v>
+      </c>
+      <c r="BE179">
+        <v>0.7196131</v>
+      </c>
+    </row>
+    <row r="180" spans="1:57">
+      <c r="A180" t="s">
+        <v>234</v>
+      </c>
+      <c r="B180">
+        <v>0.3852219</v>
+      </c>
+      <c r="C180">
+        <v>1.1438661</v>
+      </c>
+      <c r="D180">
+        <v>0.8384449</v>
+      </c>
+      <c r="F180">
+        <v>0.6444778</v>
+      </c>
+      <c r="G180">
+        <v>0.6354145</v>
+      </c>
+      <c r="H180">
+        <v>0.3995012</v>
+      </c>
+      <c r="I180">
+        <v>0.2818689</v>
+      </c>
+      <c r="J180">
+        <v>0.288558</v>
+      </c>
+      <c r="K180">
+        <v>0.5532305</v>
+      </c>
+      <c r="L180">
+        <v>0.8587176</v>
+      </c>
+      <c r="M180">
+        <v>0.9803891</v>
+      </c>
+      <c r="O180">
+        <v>0.2930057</v>
+      </c>
+      <c r="P180">
+        <v>0.7782866000000001</v>
+      </c>
+      <c r="Q180">
+        <v>0.8125331</v>
+      </c>
+      <c r="R180">
+        <v>0.4315586</v>
+      </c>
+      <c r="S180">
+        <v>0.4717795</v>
+      </c>
+      <c r="T180">
+        <v>0.5406936</v>
+      </c>
+      <c r="U180">
+        <v>0.4612975</v>
+      </c>
+      <c r="V180">
+        <v>1.1717163</v>
+      </c>
+      <c r="W180">
+        <v>0.1985704</v>
+      </c>
+      <c r="X180">
+        <v>0.3636416</v>
+      </c>
+      <c r="Y180">
+        <v>0.2052703</v>
+      </c>
+      <c r="Z180">
+        <v>0.4946733</v>
+      </c>
+      <c r="AA180">
+        <v>0.4402342</v>
+      </c>
+      <c r="AB180">
+        <v>0.6325896</v>
+      </c>
+      <c r="AD180">
+        <v>1.1754554</v>
+      </c>
+      <c r="AE180">
+        <v>0.4812375</v>
+      </c>
+      <c r="AF180">
+        <v>0.5120221</v>
+      </c>
+      <c r="AG180">
+        <v>1.0294477</v>
+      </c>
+      <c r="AH180">
+        <v>0.6722232</v>
+      </c>
+      <c r="AI180">
+        <v>0.275387</v>
+      </c>
+      <c r="AJ180">
+        <v>0.3036089</v>
+      </c>
+      <c r="AK180">
+        <v>0.563046</v>
+      </c>
+      <c r="AL180">
+        <v>0.4900312</v>
+      </c>
+      <c r="AM180">
+        <v>0.3119919</v>
+      </c>
+      <c r="AN180">
+        <v>0.5461734</v>
+      </c>
+      <c r="AO180">
+        <v>0.9184307</v>
+      </c>
+      <c r="AP180">
+        <v>0.3698854</v>
+      </c>
+      <c r="AQ180">
+        <v>0.3291252</v>
+      </c>
+      <c r="AS180">
+        <v>0.3879592</v>
+      </c>
+      <c r="AT180">
+        <v>0.8829156</v>
+      </c>
+      <c r="AU180">
+        <v>0.4347915</v>
+      </c>
+      <c r="AV180">
+        <v>0.7301528</v>
+      </c>
+      <c r="AW180">
+        <v>0.8864405</v>
+      </c>
+      <c r="AX180">
+        <v>0.5597618</v>
+      </c>
+      <c r="AY180">
+        <v>0.4106016</v>
+      </c>
+      <c r="BA180">
+        <v>0.3801402</v>
+      </c>
+      <c r="BB180">
+        <v>0.3602823</v>
+      </c>
+      <c r="BC180">
+        <v>0.4490463</v>
+      </c>
+      <c r="BD180">
+        <v>0.4775579</v>
+      </c>
+      <c r="BE180">
+        <v>0.8478426</v>
+      </c>
+    </row>
+    <row r="181" spans="1:57">
+      <c r="A181" t="s">
+        <v>235</v>
+      </c>
+      <c r="B181">
+        <v>0.5402273</v>
+      </c>
+      <c r="C181">
+        <v>1.0903966</v>
+      </c>
+      <c r="D181">
+        <v>0.7844236999999999</v>
+      </c>
+      <c r="F181">
+        <v>0.6648596</v>
+      </c>
+      <c r="G181">
+        <v>0.6432824</v>
+      </c>
+      <c r="H181">
+        <v>0.4009179</v>
+      </c>
+      <c r="I181">
+        <v>0.2197542</v>
+      </c>
+      <c r="J181">
+        <v>0.1139818</v>
+      </c>
+      <c r="K181">
+        <v>0.4117909</v>
+      </c>
+      <c r="L181">
+        <v>0.8617093</v>
+      </c>
+      <c r="M181">
+        <v>1.0331518</v>
+      </c>
+      <c r="O181">
+        <v>0.2680251</v>
+      </c>
+      <c r="P181">
+        <v>0.7276541</v>
+      </c>
+      <c r="Q181">
+        <v>0.8919244</v>
+      </c>
+      <c r="R181">
+        <v>0.4616245</v>
+      </c>
+      <c r="S181">
+        <v>0.4825277</v>
+      </c>
+      <c r="T181">
+        <v>0.45925</v>
+      </c>
+      <c r="U181">
+        <v>0.4499493</v>
+      </c>
+      <c r="V181">
+        <v>1.1165638</v>
+      </c>
+      <c r="W181">
+        <v>0.2054785</v>
+      </c>
+      <c r="X181">
+        <v>0.3437636</v>
+      </c>
+      <c r="Y181">
+        <v>0.1338878</v>
+      </c>
+      <c r="Z181">
+        <v>0.5191832</v>
+      </c>
+      <c r="AA181">
+        <v>0.4352785</v>
+      </c>
+      <c r="AB181">
+        <v>0.6735883</v>
+      </c>
+      <c r="AD181">
+        <v>1.189163</v>
+      </c>
+      <c r="AE181">
+        <v>0.5393945999999999</v>
+      </c>
+      <c r="AF181">
+        <v>0.5343337</v>
+      </c>
+      <c r="AG181">
+        <v>1.0360806</v>
+      </c>
+      <c r="AH181">
+        <v>0.6113571</v>
+      </c>
+      <c r="AI181">
+        <v>0.282106</v>
+      </c>
+      <c r="AJ181">
+        <v>0.2888616</v>
+      </c>
+      <c r="AK181">
+        <v>0.4959295</v>
+      </c>
+      <c r="AL181">
+        <v>0.618947</v>
+      </c>
+      <c r="AM181">
+        <v>0.3218038</v>
+      </c>
+      <c r="AN181">
+        <v>0.5130676</v>
+      </c>
+      <c r="AO181">
+        <v>0.8858655</v>
+      </c>
+      <c r="AP181">
+        <v>0.3767333</v>
+      </c>
+      <c r="AQ181">
+        <v>0.3095264</v>
+      </c>
+      <c r="AS181">
+        <v>0.3898234</v>
+      </c>
+      <c r="AT181">
+        <v>0.8669355</v>
+      </c>
+      <c r="AU181">
+        <v>0.5540519</v>
+      </c>
+      <c r="AV181">
+        <v>0.7498977999999999</v>
+      </c>
+      <c r="AW181">
+        <v>0.8902594</v>
+      </c>
+      <c r="AX181">
+        <v>0.5577701</v>
+      </c>
+      <c r="AY181">
+        <v>0.3811209</v>
+      </c>
+      <c r="BA181">
+        <v>0.3213503</v>
+      </c>
+      <c r="BB181">
+        <v>0.3479924</v>
+      </c>
+      <c r="BC181">
+        <v>0.5186669</v>
+      </c>
+      <c r="BD181">
+        <v>0.5486291</v>
+      </c>
+      <c r="BE181">
+        <v>0.8803368</v>
+      </c>
+    </row>
+    <row r="182" spans="1:57">
+      <c r="A182" t="s">
+        <v>236</v>
+      </c>
+      <c r="B182">
+        <v>0.647823</v>
+      </c>
+      <c r="C182">
+        <v>1.0539639</v>
+      </c>
+      <c r="D182">
+        <v>0.7204587</v>
+      </c>
+      <c r="F182">
+        <v>0.6121416</v>
+      </c>
+      <c r="G182">
+        <v>0.6344083</v>
+      </c>
+      <c r="H182">
+        <v>0.4023165</v>
+      </c>
+      <c r="I182">
+        <v>0.188324</v>
+      </c>
+      <c r="J182">
+        <v>0.1147959</v>
+      </c>
+      <c r="K182">
+        <v>0.3444314</v>
+      </c>
+      <c r="L182">
+        <v>0.8676807</v>
+      </c>
+      <c r="M182">
+        <v>1.07292</v>
+      </c>
+      <c r="O182">
+        <v>0.2414923</v>
+      </c>
+      <c r="P182">
+        <v>0.7027792</v>
+      </c>
+      <c r="Q182">
+        <v>0.7457607000000001</v>
+      </c>
+      <c r="R182">
+        <v>0.4579933</v>
+      </c>
+      <c r="S182">
+        <v>0.5132407</v>
+      </c>
+      <c r="T182">
+        <v>0.4218282</v>
+      </c>
+      <c r="U182">
+        <v>0.54832</v>
+      </c>
+      <c r="V182">
+        <v>1.047941</v>
+      </c>
+      <c r="W182">
+        <v>0.2044087</v>
+      </c>
+      <c r="X182">
+        <v>0.3394891</v>
+      </c>
+      <c r="Y182">
+        <v>0.1361392</v>
+      </c>
+      <c r="Z182">
+        <v>0.5166516</v>
+      </c>
+      <c r="AA182">
+        <v>0.5155669000000001</v>
+      </c>
+      <c r="AB182">
+        <v>0.5835835</v>
+      </c>
+      <c r="AD182">
+        <v>1.1205245</v>
+      </c>
+      <c r="AE182">
+        <v>0.6256931</v>
+      </c>
+      <c r="AF182">
+        <v>0.5543896</v>
+      </c>
+      <c r="AG182">
+        <v>1.0013839</v>
+      </c>
+      <c r="AH182">
+        <v>0.5865977</v>
+      </c>
+      <c r="AI182">
+        <v>0.2685616</v>
+      </c>
+      <c r="AJ182">
+        <v>0.3089803</v>
+      </c>
+      <c r="AK182">
+        <v>0.483274</v>
+      </c>
+      <c r="AL182">
+        <v>0.6831631</v>
+      </c>
+      <c r="AM182">
+        <v>0.2981458</v>
+      </c>
+      <c r="AN182">
+        <v>0.5337483</v>
+      </c>
+      <c r="AO182">
+        <v>0.8798565</v>
+      </c>
+      <c r="AP182">
+        <v>0.4350771</v>
+      </c>
+      <c r="AQ182">
+        <v>0.3287845</v>
+      </c>
+      <c r="AS182">
+        <v>0.383964</v>
+      </c>
+      <c r="AT182">
+        <v>0.773935</v>
+      </c>
+      <c r="AU182">
+        <v>0.49758</v>
+      </c>
+      <c r="AV182">
+        <v>0.7289563999999999</v>
+      </c>
+      <c r="AW182">
+        <v>0.8816857</v>
+      </c>
+      <c r="AX182">
+        <v>0.5726809</v>
+      </c>
+      <c r="AY182">
+        <v>0.3740717</v>
+      </c>
+      <c r="BA182">
+        <v>0.4152631</v>
+      </c>
+      <c r="BB182">
+        <v>0.3471397</v>
+      </c>
+      <c r="BC182">
+        <v>0.5014328</v>
+      </c>
+      <c r="BD182">
+        <v>0.550752</v>
+      </c>
+      <c r="BE182">
+        <v>0.7411326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:57">
+      <c r="A183" t="s">
+        <v>237</v>
+      </c>
+      <c r="B183">
+        <v>0.6653439</v>
+      </c>
+      <c r="C183">
+        <v>1.0455662</v>
+      </c>
+      <c r="D183">
+        <v>0.7400926</v>
+      </c>
+      <c r="F183">
+        <v>0.5941626</v>
+      </c>
+      <c r="G183">
+        <v>0.6399652</v>
+      </c>
+      <c r="H183">
+        <v>0.4321611</v>
+      </c>
+      <c r="I183">
+        <v>0.1862579</v>
+      </c>
+      <c r="J183">
+        <v>0.1133121</v>
+      </c>
+      <c r="K183">
+        <v>0.3673204</v>
+      </c>
+      <c r="L183">
+        <v>0.8392395</v>
+      </c>
+      <c r="M183">
+        <v>1.0903209</v>
+      </c>
+      <c r="O183">
+        <v>0.2133211</v>
+      </c>
+      <c r="P183">
+        <v>0.6377775</v>
+      </c>
+      <c r="Q183">
+        <v>0.7782686</v>
+      </c>
+      <c r="R183">
+        <v>0.4636993</v>
+      </c>
+      <c r="S183">
+        <v>0.5391241</v>
+      </c>
+      <c r="T183">
+        <v>0.4247705</v>
+      </c>
+      <c r="U183">
+        <v>0.6401936</v>
+      </c>
+      <c r="V183">
+        <v>1.0615493</v>
+      </c>
+      <c r="W183">
+        <v>0.2159326</v>
+      </c>
+      <c r="X183">
+        <v>0.3196161</v>
+      </c>
+      <c r="Y183">
+        <v>0.1271579</v>
+      </c>
+      <c r="Z183">
+        <v>0.4962813</v>
+      </c>
+      <c r="AA183">
+        <v>0.5634726</v>
+      </c>
+      <c r="AB183">
+        <v>0.5157739</v>
+      </c>
+      <c r="AD183">
+        <v>1.2068702</v>
+      </c>
+      <c r="AE183">
+        <v>0.585122</v>
+      </c>
+      <c r="AF183">
+        <v>0.5622837000000001</v>
+      </c>
+      <c r="AG183">
+        <v>1.0050089</v>
+      </c>
+      <c r="AH183">
+        <v>0.5968405</v>
+      </c>
+      <c r="AI183">
+        <v>0.3492996</v>
+      </c>
+      <c r="AJ183">
+        <v>0.3434478</v>
+      </c>
+      <c r="AK183">
+        <v>0.4611194</v>
+      </c>
+      <c r="AL183">
+        <v>0.6423428</v>
+      </c>
+      <c r="AM183">
+        <v>0.2757025</v>
+      </c>
+      <c r="AN183">
+        <v>0.5629174</v>
+      </c>
+      <c r="AO183">
+        <v>0.7903992</v>
+      </c>
+      <c r="AP183">
+        <v>0.5092869</v>
+      </c>
+      <c r="AQ183">
+        <v>0.3670359</v>
+      </c>
+      <c r="AS183">
+        <v>0.3735477</v>
+      </c>
+      <c r="AT183">
+        <v>0.8289143</v>
+      </c>
+      <c r="AU183">
+        <v>0.5563715</v>
+      </c>
+      <c r="AV183">
+        <v>0.8296396</v>
+      </c>
+      <c r="AW183">
+        <v>0.8607769</v>
+      </c>
+      <c r="AX183">
+        <v>0.5205376</v>
+      </c>
+      <c r="AY183">
+        <v>0.3835031</v>
+      </c>
+      <c r="BA183">
+        <v>0.5114933</v>
+      </c>
+      <c r="BB183">
+        <v>0.3432314</v>
+      </c>
+      <c r="BC183">
+        <v>0.5063105</v>
+      </c>
+      <c r="BD183">
+        <v>0.4987776</v>
+      </c>
+      <c r="BE183">
+        <v>0.5429049</v>
+      </c>
+    </row>
+    <row r="184" spans="1:57">
+      <c r="A184" t="s">
+        <v>238</v>
+      </c>
+      <c r="B184">
+        <v>0.7337373</v>
+      </c>
+      <c r="C184">
+        <v>1.0691739</v>
+      </c>
+      <c r="D184">
+        <v>0.8235914</v>
+      </c>
+      <c r="F184">
+        <v>0.5135164</v>
+      </c>
+      <c r="G184">
+        <v>0.6509644999999999</v>
+      </c>
+      <c r="H184">
+        <v>0.4041627</v>
+      </c>
+      <c r="I184">
+        <v>0.1993346</v>
+      </c>
+      <c r="J184">
+        <v>0.1315061</v>
+      </c>
+      <c r="K184">
+        <v>0.2601787</v>
+      </c>
+      <c r="L184">
+        <v>0.8419316999999999</v>
+      </c>
+      <c r="M184">
+        <v>1.0990987</v>
+      </c>
+      <c r="O184">
+        <v>0.2692539</v>
+      </c>
+      <c r="P184">
+        <v>0.601369</v>
+      </c>
+      <c r="Q184">
+        <v>0.8525862</v>
+      </c>
+      <c r="R184">
+        <v>0.4522455</v>
+      </c>
+      <c r="S184">
+        <v>0.6161093</v>
+      </c>
+      <c r="T184">
+        <v>0.3465708</v>
+      </c>
+      <c r="U184">
+        <v>0.7039264</v>
+      </c>
+      <c r="V184">
+        <v>0.9794647</v>
+      </c>
+      <c r="W184">
+        <v>0.2021601</v>
+      </c>
+      <c r="X184">
+        <v>0.3082337</v>
+      </c>
+      <c r="Y184">
+        <v>0.0564831</v>
+      </c>
+      <c r="Z184">
+        <v>0.4813592</v>
+      </c>
+      <c r="AA184">
+        <v>0.6096499</v>
+      </c>
+      <c r="AB184">
+        <v>0.4883653</v>
+      </c>
+      <c r="AD184">
+        <v>1.1372292</v>
+      </c>
+      <c r="AE184">
+        <v>0.6592988</v>
+      </c>
+      <c r="AF184">
+        <v>0.5565145</v>
+      </c>
+      <c r="AG184">
+        <v>0.9566281</v>
+      </c>
+      <c r="AH184">
+        <v>0.6571862000000001</v>
+      </c>
+      <c r="AI184">
+        <v>0.3363014</v>
+      </c>
+      <c r="AJ184">
+        <v>0.3415756</v>
+      </c>
+      <c r="AK184">
+        <v>0.373749</v>
+      </c>
+      <c r="AL184">
+        <v>0.7218037</v>
+      </c>
+      <c r="AM184">
+        <v>0.2725357</v>
+      </c>
+      <c r="AN184">
+        <v>0.5641993</v>
+      </c>
+      <c r="AO184">
+        <v>0.8283014</v>
+      </c>
+      <c r="AP184">
+        <v>0.4837814</v>
+      </c>
+      <c r="AQ184">
+        <v>0.3881674</v>
+      </c>
+      <c r="AS184">
+        <v>0.3849761</v>
+      </c>
+      <c r="AT184">
+        <v>0.8396607</v>
+      </c>
+      <c r="AU184">
+        <v>0.5117436</v>
+      </c>
+      <c r="AV184">
+        <v>0.877451</v>
+      </c>
+      <c r="AW184">
+        <v>0.8609422</v>
+      </c>
+      <c r="AX184">
+        <v>0.5434701</v>
+      </c>
+      <c r="AY184">
+        <v>0.3692099</v>
+      </c>
+      <c r="BA184">
+        <v>0.4366743</v>
+      </c>
+      <c r="BB184">
+        <v>0.301121</v>
+      </c>
+      <c r="BC184">
+        <v>0.4445167</v>
+      </c>
+      <c r="BD184">
+        <v>0.5615816</v>
+      </c>
+      <c r="BE184">
+        <v>0.4663869</v>
+      </c>
+    </row>
+    <row r="185" spans="1:57">
+      <c r="A185" t="s">
+        <v>239</v>
+      </c>
+      <c r="B185">
+        <v>0.7071153</v>
+      </c>
+      <c r="C185">
+        <v>1.0737752</v>
+      </c>
+      <c r="D185">
+        <v>0.7833976</v>
+      </c>
+      <c r="F185">
+        <v>0.5236605</v>
+      </c>
+      <c r="G185">
+        <v>0.6329932</v>
+      </c>
+      <c r="H185">
+        <v>0.4169433</v>
+      </c>
+      <c r="I185">
+        <v>0.2208385</v>
+      </c>
+      <c r="J185">
+        <v>0.2472103</v>
+      </c>
+      <c r="K185">
+        <v>0.4275793</v>
+      </c>
+      <c r="L185">
+        <v>0.8311790999999999</v>
+      </c>
+      <c r="M185">
+        <v>1.1077173</v>
+      </c>
+      <c r="O185">
+        <v>0.2451865</v>
+      </c>
+      <c r="P185">
+        <v>0.6152466</v>
+      </c>
+      <c r="Q185">
+        <v>0.7756389</v>
+      </c>
+      <c r="R185">
+        <v>0.4527189</v>
+      </c>
+      <c r="S185">
+        <v>0.6685207</v>
+      </c>
+      <c r="T185">
+        <v>0.3746816</v>
+      </c>
+      <c r="U185">
+        <v>0.7220658</v>
+      </c>
+      <c r="V185">
+        <v>1.0131189</v>
+      </c>
+      <c r="W185">
+        <v>0.232009</v>
+      </c>
+      <c r="X185">
+        <v>0.319815</v>
+      </c>
+      <c r="Y185">
+        <v>0.081543</v>
+      </c>
+      <c r="Z185">
+        <v>0.5147445</v>
+      </c>
+      <c r="AA185">
+        <v>0.5289835000000001</v>
+      </c>
+      <c r="AB185">
+        <v>0.5463573</v>
+      </c>
+      <c r="AD185">
+        <v>1.1786656</v>
+      </c>
+      <c r="AE185">
+        <v>0.6197173</v>
+      </c>
+      <c r="AF185">
+        <v>0.5613074</v>
+      </c>
+      <c r="AG185">
+        <v>1.1299567</v>
+      </c>
+      <c r="AH185">
+        <v>0.6818988</v>
+      </c>
+      <c r="AI185">
+        <v>0.3320492</v>
+      </c>
+      <c r="AJ185">
+        <v>0.2788197</v>
+      </c>
+      <c r="AK185">
+        <v>0.4277172</v>
+      </c>
+      <c r="AL185">
+        <v>0.7542908</v>
+      </c>
+      <c r="AM185">
+        <v>0.3140345</v>
+      </c>
+      <c r="AN185">
+        <v>0.5514277</v>
+      </c>
+      <c r="AO185">
+        <v>0.8353341</v>
+      </c>
+      <c r="AP185">
+        <v>0.4504935</v>
+      </c>
+      <c r="AQ185">
+        <v>0.3695224</v>
+      </c>
+      <c r="AS185">
+        <v>0.3680153</v>
+      </c>
+      <c r="AT185">
+        <v>0.85522</v>
+      </c>
+      <c r="AU185">
+        <v>0.6758507</v>
+      </c>
+      <c r="AV185">
+        <v>0.8749504</v>
+      </c>
+      <c r="AW185">
+        <v>0.8850225</v>
+      </c>
+      <c r="AX185">
+        <v>0.5624533</v>
+      </c>
+      <c r="AY185">
+        <v>0.3688266</v>
+      </c>
+      <c r="BA185">
+        <v>0.3916166</v>
+      </c>
+      <c r="BB185">
+        <v>0.2835486</v>
+      </c>
+      <c r="BC185">
+        <v>0.4767237</v>
+      </c>
+      <c r="BD185">
+        <v>0.5463871</v>
+      </c>
+      <c r="BE185">
+        <v>0.4379936</v>
+      </c>
+    </row>
+    <row r="186" spans="1:57">
+      <c r="A186" t="s">
+        <v>240</v>
+      </c>
+      <c r="B186">
+        <v>0.7807181</v>
+      </c>
+      <c r="C186">
+        <v>1.0462526</v>
+      </c>
+      <c r="D186">
+        <v>0.8035135</v>
+      </c>
+      <c r="F186">
+        <v>0.4999616</v>
+      </c>
+      <c r="G186">
+        <v>0.6592538</v>
+      </c>
+      <c r="H186">
+        <v>0.4104711</v>
+      </c>
+      <c r="I186">
+        <v>0.2133732</v>
+      </c>
+      <c r="J186">
+        <v>0.2573238</v>
+      </c>
+      <c r="K186">
+        <v>0.3937372</v>
+      </c>
+      <c r="L186">
+        <v>0.7886992</v>
+      </c>
+      <c r="M186">
+        <v>1.0524196</v>
+      </c>
+      <c r="O186">
+        <v>0.2070064</v>
+      </c>
+      <c r="P186">
+        <v>0.6401834</v>
+      </c>
+      <c r="Q186">
+        <v>0.9024922</v>
+      </c>
+      <c r="R186">
+        <v>0.4252655</v>
+      </c>
+      <c r="S186">
+        <v>0.7135096</v>
+      </c>
+      <c r="T186">
+        <v>0.4358924</v>
+      </c>
+      <c r="U186">
+        <v>0.766464</v>
+      </c>
+      <c r="V186">
+        <v>0.9307893</v>
+      </c>
+      <c r="W186">
+        <v>0.2397688</v>
+      </c>
+      <c r="X186">
+        <v>0.3155382</v>
+      </c>
+      <c r="Y186">
+        <v>0.1128086</v>
+      </c>
+      <c r="Z186">
+        <v>0.4349477</v>
+      </c>
+      <c r="AA186">
+        <v>0.5576414</v>
+      </c>
+      <c r="AB186">
+        <v>0.5216417</v>
+      </c>
+      <c r="AD186">
+        <v>1.2224889</v>
+      </c>
+      <c r="AE186">
+        <v>0.6884428</v>
+      </c>
+      <c r="AF186">
+        <v>0.5950555</v>
+      </c>
+      <c r="AG186">
+        <v>1.0107168</v>
+      </c>
+      <c r="AH186">
+        <v>0.6040753</v>
+      </c>
+      <c r="AI186">
+        <v>0.2592929</v>
+      </c>
+      <c r="AJ186">
+        <v>0.2625301</v>
+      </c>
+      <c r="AK186">
+        <v>0.3788708</v>
+      </c>
+      <c r="AL186">
+        <v>0.8592483</v>
+      </c>
+      <c r="AM186">
+        <v>0.2985399</v>
+      </c>
+      <c r="AN186">
+        <v>0.517974</v>
+      </c>
+      <c r="AO186">
+        <v>0.8302994</v>
+      </c>
+      <c r="AP186">
+        <v>0.3725367</v>
+      </c>
+      <c r="AQ186">
+        <v>0.3837196</v>
+      </c>
+      <c r="AS186">
+        <v>0.3520063</v>
+      </c>
+      <c r="AT186">
+        <v>0.8879481</v>
+      </c>
+      <c r="AU186">
+        <v>0.7488973</v>
+      </c>
+      <c r="AV186">
+        <v>0.8239841</v>
+      </c>
+      <c r="AW186">
+        <v>0.895998</v>
+      </c>
+      <c r="AX186">
+        <v>0.5633666000000001</v>
+      </c>
+      <c r="AY186">
+        <v>0.3776351</v>
+      </c>
+      <c r="BA186">
+        <v>0.3877404</v>
+      </c>
+      <c r="BB186">
+        <v>0.3001878</v>
+      </c>
+      <c r="BC186">
+        <v>0.4494349</v>
+      </c>
+      <c r="BD186">
+        <v>0.4668688</v>
+      </c>
+      <c r="BE186">
+        <v>0.4889031</v>
+      </c>
+    </row>
+    <row r="187" spans="1:57">
+      <c r="A187" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:57">
+      <c r="A188" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Alaska</t>
   </si>
@@ -743,6 +743,21 @@
   </si>
   <si>
     <t>05 08 2020</t>
+  </si>
+  <si>
+    <t>06 08 2020</t>
+  </si>
+  <si>
+    <t>07 08 2020</t>
+  </si>
+  <si>
+    <t>08 08 2020</t>
+  </si>
+  <si>
+    <t>09 08 2020</t>
+  </si>
+  <si>
+    <t>10 08 2020</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE188"/>
+  <dimension ref="A1:BE193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16767,6 +16782,9 @@
       <c r="AQ161">
         <v>0.2530478</v>
       </c>
+      <c r="AR161">
+        <v>0</v>
+      </c>
       <c r="AS161">
         <v>0.2349775</v>
       </c>
@@ -16925,6 +16943,9 @@
       <c r="AQ162">
         <v>0.306755</v>
       </c>
+      <c r="AR162">
+        <v>0</v>
+      </c>
       <c r="AS162">
         <v>0.2634865</v>
       </c>
@@ -17083,6 +17104,9 @@
       <c r="AQ163">
         <v>0.3334609</v>
       </c>
+      <c r="AR163">
+        <v>0</v>
+      </c>
       <c r="AS163">
         <v>0.2878447</v>
       </c>
@@ -17241,6 +17265,9 @@
       <c r="AQ164">
         <v>0.3403973</v>
       </c>
+      <c r="AR164">
+        <v>0</v>
+      </c>
       <c r="AS164">
         <v>0.3266671</v>
       </c>
@@ -17399,6 +17426,9 @@
       <c r="AQ165">
         <v>0.3492209</v>
       </c>
+      <c r="AR165">
+        <v>0</v>
+      </c>
       <c r="AS165">
         <v>0.3004263</v>
       </c>
@@ -20658,7 +20688,7 @@
         <v>0.9307893</v>
       </c>
       <c r="W186">
-        <v>0.2397688</v>
+        <v>0.2397402</v>
       </c>
       <c r="X186">
         <v>0.3155382</v>
@@ -20673,7 +20703,7 @@
         <v>0.5576414</v>
       </c>
       <c r="AB186">
-        <v>0.5216417</v>
+        <v>0.521579</v>
       </c>
       <c r="AD186">
         <v>1.2224889</v>
@@ -20733,7 +20763,7 @@
         <v>0.895998</v>
       </c>
       <c r="AX186">
-        <v>0.5633666000000001</v>
+        <v>0.5632424</v>
       </c>
       <c r="AY186">
         <v>0.3776351</v>
@@ -20758,10 +20788,953 @@
       <c r="A187" t="s">
         <v>241</v>
       </c>
+      <c r="B187">
+        <v>0.7706482</v>
+      </c>
+      <c r="C187">
+        <v>1.0747404</v>
+      </c>
+      <c r="D187">
+        <v>0.8627179</v>
+      </c>
+      <c r="F187">
+        <v>0.5260119</v>
+      </c>
+      <c r="G187">
+        <v>0.6129663</v>
+      </c>
+      <c r="H187">
+        <v>0.4477917</v>
+      </c>
+      <c r="I187">
+        <v>0.1982289</v>
+      </c>
+      <c r="J187">
+        <v>0.3866147</v>
+      </c>
+      <c r="K187">
+        <v>0.3839011</v>
+      </c>
+      <c r="L187">
+        <v>0.7944189</v>
+      </c>
+      <c r="M187">
+        <v>1.0713259</v>
+      </c>
+      <c r="O187">
+        <v>0.2313218</v>
+      </c>
+      <c r="P187">
+        <v>0.6334751</v>
+      </c>
+      <c r="Q187">
+        <v>0.8248092</v>
+      </c>
+      <c r="R187">
+        <v>0.4381793</v>
+      </c>
+      <c r="S187">
+        <v>0.7617185</v>
+      </c>
+      <c r="T187">
+        <v>0.4314932</v>
+      </c>
+      <c r="U187">
+        <v>0.7503078</v>
+      </c>
+      <c r="V187">
+        <v>0.9191148</v>
+      </c>
+      <c r="W187">
+        <v>0.2454354</v>
+      </c>
+      <c r="X187">
+        <v>0.3284039</v>
+      </c>
+      <c r="Y187">
+        <v>0.1444822</v>
+      </c>
+      <c r="Z187">
+        <v>0.4065119</v>
+      </c>
+      <c r="AA187">
+        <v>0.5233405</v>
+      </c>
+      <c r="AB187">
+        <v>0.5263476</v>
+      </c>
+      <c r="AD187">
+        <v>1.2512355</v>
+      </c>
+      <c r="AE187">
+        <v>0.6959152</v>
+      </c>
+      <c r="AF187">
+        <v>0.5438054</v>
+      </c>
+      <c r="AG187">
+        <v>0.731121</v>
+      </c>
+      <c r="AH187">
+        <v>0.5343529</v>
+      </c>
+      <c r="AI187">
+        <v>0.2655847</v>
+      </c>
+      <c r="AJ187">
+        <v>0.269384</v>
+      </c>
+      <c r="AK187">
+        <v>0.3711103</v>
+      </c>
+      <c r="AL187">
+        <v>0.7896223</v>
+      </c>
+      <c r="AM187">
+        <v>0.3016572</v>
+      </c>
+      <c r="AN187">
+        <v>0.5504335</v>
+      </c>
+      <c r="AO187">
+        <v>0.8448928</v>
+      </c>
+      <c r="AP187">
+        <v>0.4290838</v>
+      </c>
+      <c r="AQ187">
+        <v>0.3967968</v>
+      </c>
+      <c r="AS187">
+        <v>0.3520547</v>
+      </c>
+      <c r="AT187">
+        <v>0.8696123</v>
+      </c>
+      <c r="AU187">
+        <v>0.6601548</v>
+      </c>
+      <c r="AV187">
+        <v>0.7979453</v>
+      </c>
+      <c r="AW187">
+        <v>0.8823458</v>
+      </c>
+      <c r="AX187">
+        <v>0.7155079</v>
+      </c>
+      <c r="AY187">
+        <v>0.3758389</v>
+      </c>
+      <c r="BA187">
+        <v>0.3143269</v>
+      </c>
+      <c r="BB187">
+        <v>0.3249641</v>
+      </c>
+      <c r="BC187">
+        <v>0.4484319</v>
+      </c>
+      <c r="BD187">
+        <v>0.5586362</v>
+      </c>
+      <c r="BE187">
+        <v>0.3849901</v>
+      </c>
     </row>
     <row r="188" spans="1:57">
       <c r="A188" t="s">
         <v>242</v>
+      </c>
+      <c r="B188">
+        <v>0.6222077</v>
+      </c>
+      <c r="C188">
+        <v>1.1049594</v>
+      </c>
+      <c r="D188">
+        <v>0.9409361000000001</v>
+      </c>
+      <c r="F188">
+        <v>0.5492688999999999</v>
+      </c>
+      <c r="G188">
+        <v>0.6090681999999999</v>
+      </c>
+      <c r="H188">
+        <v>0.4397249</v>
+      </c>
+      <c r="I188">
+        <v>0.2118586</v>
+      </c>
+      <c r="J188">
+        <v>0.3795127</v>
+      </c>
+      <c r="K188">
+        <v>0.3929257</v>
+      </c>
+      <c r="L188">
+        <v>0.7971125</v>
+      </c>
+      <c r="M188">
+        <v>0.9966641000000001</v>
+      </c>
+      <c r="O188">
+        <v>0.2653214</v>
+      </c>
+      <c r="P188">
+        <v>0.6787479</v>
+      </c>
+      <c r="Q188">
+        <v>0.6725427</v>
+      </c>
+      <c r="R188">
+        <v>0.4053907</v>
+      </c>
+      <c r="S188">
+        <v>0.765066</v>
+      </c>
+      <c r="T188">
+        <v>0.493918</v>
+      </c>
+      <c r="U188">
+        <v>0.7634209</v>
+      </c>
+      <c r="V188">
+        <v>0.9437991999999999</v>
+      </c>
+      <c r="W188">
+        <v>0.210075</v>
+      </c>
+      <c r="X188">
+        <v>0.3547551</v>
+      </c>
+      <c r="Y188">
+        <v>0.168474</v>
+      </c>
+      <c r="Z188">
+        <v>0.3666347</v>
+      </c>
+      <c r="AA188">
+        <v>0.4810061</v>
+      </c>
+      <c r="AB188">
+        <v>0.5408695</v>
+      </c>
+      <c r="AD188">
+        <v>1.238058</v>
+      </c>
+      <c r="AE188">
+        <v>0.6309034</v>
+      </c>
+      <c r="AF188">
+        <v>0.4891202</v>
+      </c>
+      <c r="AG188">
+        <v>0.6871271</v>
+      </c>
+      <c r="AH188">
+        <v>0.6593978</v>
+      </c>
+      <c r="AI188">
+        <v>0.2662589</v>
+      </c>
+      <c r="AJ188">
+        <v>0.2750623</v>
+      </c>
+      <c r="AK188">
+        <v>0.4168336</v>
+      </c>
+      <c r="AL188">
+        <v>0.8922888</v>
+      </c>
+      <c r="AM188">
+        <v>0.2997227</v>
+      </c>
+      <c r="AN188">
+        <v>0.5615269000000001</v>
+      </c>
+      <c r="AO188">
+        <v>0.7753684</v>
+      </c>
+      <c r="AP188">
+        <v>0.41179</v>
+      </c>
+      <c r="AQ188">
+        <v>0.4196312</v>
+      </c>
+      <c r="AS188">
+        <v>0.3680654</v>
+      </c>
+      <c r="AT188">
+        <v>0.8293342</v>
+      </c>
+      <c r="AU188">
+        <v>0.5316519</v>
+      </c>
+      <c r="AV188">
+        <v>0.8571844</v>
+      </c>
+      <c r="AW188">
+        <v>0.8666388</v>
+      </c>
+      <c r="AX188">
+        <v>0.7392512999999999</v>
+      </c>
+      <c r="AY188">
+        <v>0.3551541</v>
+      </c>
+      <c r="BA188">
+        <v>0.2925245</v>
+      </c>
+      <c r="BB188">
+        <v>0.3518469</v>
+      </c>
+      <c r="BC188">
+        <v>0.4317481</v>
+      </c>
+      <c r="BD188">
+        <v>0.5062924</v>
+      </c>
+      <c r="BE188">
+        <v>0.5638477</v>
+      </c>
+    </row>
+    <row r="189" spans="1:57">
+      <c r="A189" t="s">
+        <v>243</v>
+      </c>
+      <c r="B189">
+        <v>0.551874</v>
+      </c>
+      <c r="C189">
+        <v>1.0804101</v>
+      </c>
+      <c r="D189">
+        <v>1.0257964</v>
+      </c>
+      <c r="F189">
+        <v>0.5780661</v>
+      </c>
+      <c r="G189">
+        <v>0.6025559</v>
+      </c>
+      <c r="H189">
+        <v>0.4898532</v>
+      </c>
+      <c r="I189">
+        <v>0.2101459</v>
+      </c>
+      <c r="J189">
+        <v>0.3739316</v>
+      </c>
+      <c r="K189">
+        <v>0.3512286</v>
+      </c>
+      <c r="L189">
+        <v>0.8047428</v>
+      </c>
+      <c r="M189">
+        <v>0.9818199</v>
+      </c>
+      <c r="O189">
+        <v>0.3014866</v>
+      </c>
+      <c r="P189">
+        <v>0.6305322</v>
+      </c>
+      <c r="Q189">
+        <v>0.7230349</v>
+      </c>
+      <c r="R189">
+        <v>0.3863911</v>
+      </c>
+      <c r="S189">
+        <v>0.8095795</v>
+      </c>
+      <c r="T189">
+        <v>0.5771533</v>
+      </c>
+      <c r="U189">
+        <v>0.7120023</v>
+      </c>
+      <c r="V189">
+        <v>0.9304756</v>
+      </c>
+      <c r="W189">
+        <v>0.2247739</v>
+      </c>
+      <c r="X189">
+        <v>0.3917763</v>
+      </c>
+      <c r="Y189">
+        <v>0.2402497</v>
+      </c>
+      <c r="Z189">
+        <v>0.3624451</v>
+      </c>
+      <c r="AA189">
+        <v>0.4622122</v>
+      </c>
+      <c r="AB189">
+        <v>0.5569484</v>
+      </c>
+      <c r="AD189">
+        <v>1.1402197</v>
+      </c>
+      <c r="AE189">
+        <v>0.5155343</v>
+      </c>
+      <c r="AF189">
+        <v>0.4821387</v>
+      </c>
+      <c r="AG189">
+        <v>0.6611301000000001</v>
+      </c>
+      <c r="AH189">
+        <v>0.6986959</v>
+      </c>
+      <c r="AI189">
+        <v>0.2342568</v>
+      </c>
+      <c r="AJ189">
+        <v>0.2500344</v>
+      </c>
+      <c r="AK189">
+        <v>0.4413924</v>
+      </c>
+      <c r="AL189">
+        <v>0.8859320000000001</v>
+      </c>
+      <c r="AM189">
+        <v>0.2920533</v>
+      </c>
+      <c r="AN189">
+        <v>0.5373564</v>
+      </c>
+      <c r="AO189">
+        <v>0.8141426</v>
+      </c>
+      <c r="AP189">
+        <v>0.4393726</v>
+      </c>
+      <c r="AQ189">
+        <v>0.4292374</v>
+      </c>
+      <c r="AS189">
+        <v>0.4085431</v>
+      </c>
+      <c r="AT189">
+        <v>0.8521338000000001</v>
+      </c>
+      <c r="AU189">
+        <v>0.6612569</v>
+      </c>
+      <c r="AV189">
+        <v>0.9006024</v>
+      </c>
+      <c r="AW189">
+        <v>0.86879</v>
+      </c>
+      <c r="AX189">
+        <v>0.7330361</v>
+      </c>
+      <c r="AY189">
+        <v>0.3460075</v>
+      </c>
+      <c r="BA189">
+        <v>0.2121088</v>
+      </c>
+      <c r="BB189">
+        <v>0.3809404</v>
+      </c>
+      <c r="BC189">
+        <v>0.4360582</v>
+      </c>
+      <c r="BD189">
+        <v>0.4962312</v>
+      </c>
+      <c r="BE189">
+        <v>0.6252844</v>
+      </c>
+    </row>
+    <row r="190" spans="1:57">
+      <c r="A190" t="s">
+        <v>244</v>
+      </c>
+      <c r="B190">
+        <v>0.540368</v>
+      </c>
+      <c r="C190">
+        <v>1.0566916</v>
+      </c>
+      <c r="D190">
+        <v>1.0606262</v>
+      </c>
+      <c r="F190">
+        <v>0.5906045</v>
+      </c>
+      <c r="G190">
+        <v>0.6166904</v>
+      </c>
+      <c r="H190">
+        <v>0.523881</v>
+      </c>
+      <c r="I190">
+        <v>0.1969639</v>
+      </c>
+      <c r="J190">
+        <v>0.4275905</v>
+      </c>
+      <c r="K190">
+        <v>0.285766</v>
+      </c>
+      <c r="L190">
+        <v>0.8455557</v>
+      </c>
+      <c r="M190">
+        <v>0.8922334</v>
+      </c>
+      <c r="O190">
+        <v>0.3118699</v>
+      </c>
+      <c r="P190">
+        <v>0.6711317999999999</v>
+      </c>
+      <c r="Q190">
+        <v>0.6170201</v>
+      </c>
+      <c r="R190">
+        <v>0.3786965</v>
+      </c>
+      <c r="S190">
+        <v>0.726671</v>
+      </c>
+      <c r="T190">
+        <v>0.5531682</v>
+      </c>
+      <c r="U190">
+        <v>0.6646034</v>
+      </c>
+      <c r="V190">
+        <v>0.9166421</v>
+      </c>
+      <c r="W190">
+        <v>0.256161</v>
+      </c>
+      <c r="X190">
+        <v>0.4083748</v>
+      </c>
+      <c r="Y190">
+        <v>0.2705828</v>
+      </c>
+      <c r="Z190">
+        <v>0.3734695</v>
+      </c>
+      <c r="AA190">
+        <v>0.4426351</v>
+      </c>
+      <c r="AB190">
+        <v>0.5443052</v>
+      </c>
+      <c r="AD190">
+        <v>1.0045987</v>
+      </c>
+      <c r="AE190">
+        <v>0.583829</v>
+      </c>
+      <c r="AF190">
+        <v>0.4547718</v>
+      </c>
+      <c r="AG190">
+        <v>0.61006</v>
+      </c>
+      <c r="AH190">
+        <v>0.7439161</v>
+      </c>
+      <c r="AI190">
+        <v>0.187423</v>
+      </c>
+      <c r="AJ190">
+        <v>0.2395343</v>
+      </c>
+      <c r="AK190">
+        <v>0.490603</v>
+      </c>
+      <c r="AL190">
+        <v>0.9910118</v>
+      </c>
+      <c r="AM190">
+        <v>0.3120307</v>
+      </c>
+      <c r="AN190">
+        <v>0.4698043</v>
+      </c>
+      <c r="AO190">
+        <v>0.9317981</v>
+      </c>
+      <c r="AP190">
+        <v>0.3611285</v>
+      </c>
+      <c r="AQ190">
+        <v>0.3900007</v>
+      </c>
+      <c r="AS190">
+        <v>0.4547196</v>
+      </c>
+      <c r="AT190">
+        <v>0.7753594</v>
+      </c>
+      <c r="AU190">
+        <v>0.7374224</v>
+      </c>
+      <c r="AV190">
+        <v>0.8449458</v>
+      </c>
+      <c r="AW190">
+        <v>0.8751668</v>
+      </c>
+      <c r="AX190">
+        <v>0.7550006</v>
+      </c>
+      <c r="AY190">
+        <v>0.3560628</v>
+      </c>
+      <c r="BA190">
+        <v>0.1912551</v>
+      </c>
+      <c r="BB190">
+        <v>0.3538337</v>
+      </c>
+      <c r="BC190">
+        <v>0.4570301</v>
+      </c>
+      <c r="BD190">
+        <v>0.5652455</v>
+      </c>
+      <c r="BE190">
+        <v>0.6295581</v>
+      </c>
+    </row>
+    <row r="191" spans="1:57">
+      <c r="A191" t="s">
+        <v>245</v>
+      </c>
+      <c r="B191">
+        <v>0.3641026</v>
+      </c>
+      <c r="C191">
+        <v>1.0479719</v>
+      </c>
+      <c r="D191">
+        <v>0.9863653999999999</v>
+      </c>
+      <c r="F191">
+        <v>0.644419</v>
+      </c>
+      <c r="G191">
+        <v>0.5825778</v>
+      </c>
+      <c r="H191">
+        <v>0.516474</v>
+      </c>
+      <c r="I191">
+        <v>0.2170271</v>
+      </c>
+      <c r="J191">
+        <v>0.414452</v>
+      </c>
+      <c r="K191">
+        <v>0.2667991</v>
+      </c>
+      <c r="L191">
+        <v>0.8560371</v>
+      </c>
+      <c r="M191">
+        <v>0.8454731</v>
+      </c>
+      <c r="O191">
+        <v>0.2544888</v>
+      </c>
+      <c r="P191">
+        <v>0.709392</v>
+      </c>
+      <c r="Q191">
+        <v>0.6336109</v>
+      </c>
+      <c r="R191">
+        <v>0.3583651</v>
+      </c>
+      <c r="S191">
+        <v>0.7151824</v>
+      </c>
+      <c r="T191">
+        <v>0.6248129</v>
+      </c>
+      <c r="U191">
+        <v>0.6392428999999999</v>
+      </c>
+      <c r="V191">
+        <v>0.9197682</v>
+      </c>
+      <c r="W191">
+        <v>0.2394377</v>
+      </c>
+      <c r="X191">
+        <v>0.4189852</v>
+      </c>
+      <c r="Y191">
+        <v>0.3282813</v>
+      </c>
+      <c r="Z191">
+        <v>0.3894176</v>
+      </c>
+      <c r="AA191">
+        <v>0.3828095</v>
+      </c>
+      <c r="AB191">
+        <v>0.5625018000000001</v>
+      </c>
+      <c r="AD191">
+        <v>1.0410507</v>
+      </c>
+      <c r="AE191">
+        <v>0.5416394</v>
+      </c>
+      <c r="AF191">
+        <v>0.4503453</v>
+      </c>
+      <c r="AG191">
+        <v>0.605676</v>
+      </c>
+      <c r="AH191">
+        <v>0.694115</v>
+      </c>
+      <c r="AI191">
+        <v>0.2044127</v>
+      </c>
+      <c r="AJ191">
+        <v>0.2275536</v>
+      </c>
+      <c r="AK191">
+        <v>0.5519066</v>
+      </c>
+      <c r="AL191">
+        <v>0.8551242</v>
+      </c>
+      <c r="AM191">
+        <v>0.3323757</v>
+      </c>
+      <c r="AN191">
+        <v>0.4706638</v>
+      </c>
+      <c r="AO191">
+        <v>0.8388129</v>
+      </c>
+      <c r="AP191">
+        <v>0.3619326</v>
+      </c>
+      <c r="AQ191">
+        <v>0.3975702</v>
+      </c>
+      <c r="AS191">
+        <v>0.3812873</v>
+      </c>
+      <c r="AT191">
+        <v>0.7181695</v>
+      </c>
+      <c r="AU191">
+        <v>0.6336033</v>
+      </c>
+      <c r="AV191">
+        <v>0.7763442</v>
+      </c>
+      <c r="AW191">
+        <v>0.8662567</v>
+      </c>
+      <c r="AX191">
+        <v>0.7297778</v>
+      </c>
+      <c r="AY191">
+        <v>0.349025</v>
+      </c>
+      <c r="BA191">
+        <v>0.349852</v>
+      </c>
+      <c r="BB191">
+        <v>0.4204973</v>
+      </c>
+      <c r="BC191">
+        <v>0.4982771</v>
+      </c>
+      <c r="BD191">
+        <v>0.5070611</v>
+      </c>
+      <c r="BE191">
+        <v>0.7403053000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:57">
+      <c r="A192" t="s">
+        <v>246</v>
+      </c>
+      <c r="B192">
+        <v>0.2456685</v>
+      </c>
+      <c r="C192">
+        <v>0.9725371</v>
+      </c>
+      <c r="D192">
+        <v>1.020749</v>
+      </c>
+      <c r="F192">
+        <v>0.592551</v>
+      </c>
+      <c r="G192">
+        <v>0.5855538</v>
+      </c>
+      <c r="H192">
+        <v>0.5028406</v>
+      </c>
+      <c r="I192">
+        <v>0.2211346</v>
+      </c>
+      <c r="J192">
+        <v>0.4079472</v>
+      </c>
+      <c r="K192">
+        <v>0.1861898</v>
+      </c>
+      <c r="L192">
+        <v>0.8447808999999999</v>
+      </c>
+      <c r="M192">
+        <v>0.8632393</v>
+      </c>
+      <c r="O192">
+        <v>0.2007526</v>
+      </c>
+      <c r="P192">
+        <v>0.7719701</v>
+      </c>
+      <c r="Q192">
+        <v>0.6905261</v>
+      </c>
+      <c r="R192">
+        <v>0.3653075</v>
+      </c>
+      <c r="S192">
+        <v>0.7025532</v>
+      </c>
+      <c r="T192">
+        <v>0.6146201999999999</v>
+      </c>
+      <c r="U192">
+        <v>0.651094</v>
+      </c>
+      <c r="V192">
+        <v>0.9316137</v>
+      </c>
+      <c r="W192">
+        <v>0.2467015</v>
+      </c>
+      <c r="X192">
+        <v>0.3535126</v>
+      </c>
+      <c r="Y192">
+        <v>0.3303429</v>
+      </c>
+      <c r="Z192">
+        <v>0.3373501</v>
+      </c>
+      <c r="AA192">
+        <v>0.4687031</v>
+      </c>
+      <c r="AB192">
+        <v>0.4925223</v>
+      </c>
+      <c r="AD192">
+        <v>0.9922663</v>
+      </c>
+      <c r="AE192">
+        <v>0.5616643</v>
+      </c>
+      <c r="AF192">
+        <v>0.4794961</v>
+      </c>
+      <c r="AG192">
+        <v>0.4251007</v>
+      </c>
+      <c r="AH192">
+        <v>0.7934407</v>
+      </c>
+      <c r="AI192">
+        <v>0.2078158</v>
+      </c>
+      <c r="AJ192">
+        <v>0.2208834</v>
+      </c>
+      <c r="AK192">
+        <v>0.5273097</v>
+      </c>
+      <c r="AL192">
+        <v>0.9539199</v>
+      </c>
+      <c r="AM192">
+        <v>0.2990891</v>
+      </c>
+      <c r="AN192">
+        <v>0.4820458</v>
+      </c>
+      <c r="AO192">
+        <v>0.8749355</v>
+      </c>
+      <c r="AP192">
+        <v>0.388931</v>
+      </c>
+      <c r="AQ192">
+        <v>0.3730561</v>
+      </c>
+      <c r="AS192">
+        <v>0.3134193</v>
+      </c>
+      <c r="AT192">
+        <v>0.6887392</v>
+      </c>
+      <c r="AU192">
+        <v>0.5093202999999999</v>
+      </c>
+      <c r="AV192">
+        <v>0.8066594</v>
+      </c>
+      <c r="AW192">
+        <v>0.8137744</v>
+      </c>
+      <c r="AX192">
+        <v>0.6710095</v>
+      </c>
+      <c r="AY192">
+        <v>0.400954</v>
+      </c>
+      <c r="BA192">
+        <v>0.350839</v>
+      </c>
+      <c r="BB192">
+        <v>0.4197172</v>
+      </c>
+      <c r="BC192">
+        <v>0.4943137</v>
+      </c>
+      <c r="BD192">
+        <v>0.6071561</v>
+      </c>
+      <c r="BE192">
+        <v>0.9565684</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Alaska</t>
   </si>
@@ -758,6 +758,27 @@
   </si>
   <si>
     <t>10 08 2020</t>
+  </si>
+  <si>
+    <t>11 08 2020</t>
+  </si>
+  <si>
+    <t>12 08 2020</t>
+  </si>
+  <si>
+    <t>13 08 2020</t>
+  </si>
+  <si>
+    <t>14 08 2020</t>
+  </si>
+  <si>
+    <t>15 08 2020</t>
+  </si>
+  <si>
+    <t>16 08 2020</t>
+  </si>
+  <si>
+    <t>17 08 2020</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE193"/>
+  <dimension ref="A1:BE200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17587,6 +17608,9 @@
       <c r="AQ166">
         <v>0.3631939</v>
       </c>
+      <c r="AR166">
+        <v>0</v>
+      </c>
       <c r="AS166">
         <v>0.2463548</v>
       </c>
@@ -17745,6 +17769,9 @@
       <c r="AQ167">
         <v>0.3886445</v>
       </c>
+      <c r="AR167">
+        <v>0</v>
+      </c>
       <c r="AS167">
         <v>0.3174649</v>
       </c>
@@ -17903,6 +17930,9 @@
       <c r="AQ168">
         <v>0.3628866</v>
       </c>
+      <c r="AR168">
+        <v>0</v>
+      </c>
       <c r="AS168">
         <v>0.2977105</v>
       </c>
@@ -21591,7 +21621,7 @@
         <v>0.592551</v>
       </c>
       <c r="G192">
-        <v>0.5855538</v>
+        <v>0.5855221</v>
       </c>
       <c r="H192">
         <v>0.5028406</v>
@@ -21669,7 +21699,7 @@
         <v>0.7934407</v>
       </c>
       <c r="AI192">
-        <v>0.2078158</v>
+        <v>0.207739</v>
       </c>
       <c r="AJ192">
         <v>0.2208834</v>
@@ -21708,7 +21738,7 @@
         <v>0.8066594</v>
       </c>
       <c r="AW192">
-        <v>0.8137744</v>
+        <v>0.8137479</v>
       </c>
       <c r="AX192">
         <v>0.6710095</v>
@@ -21720,7 +21750,7 @@
         <v>0.350839</v>
       </c>
       <c r="BB192">
-        <v>0.4197172</v>
+        <v>0.4196788</v>
       </c>
       <c r="BC192">
         <v>0.4943137</v>
@@ -21732,9 +21762,1115 @@
         <v>0.9565684</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:57">
       <c r="A193" t="s">
         <v>247</v>
+      </c>
+      <c r="B193">
+        <v>0.2533333</v>
+      </c>
+      <c r="C193">
+        <v>0.9677854</v>
+      </c>
+      <c r="D193">
+        <v>0.9594587</v>
+      </c>
+      <c r="F193">
+        <v>0.5860857</v>
+      </c>
+      <c r="G193">
+        <v>0.5526917</v>
+      </c>
+      <c r="H193">
+        <v>0.4741085</v>
+      </c>
+      <c r="I193">
+        <v>0.2218402</v>
+      </c>
+      <c r="J193">
+        <v>0.2884032</v>
+      </c>
+      <c r="K193">
+        <v>0.1827929</v>
+      </c>
+      <c r="L193">
+        <v>0.8118982</v>
+      </c>
+      <c r="M193">
+        <v>0.8722385</v>
+      </c>
+      <c r="O193">
+        <v>0.1934902</v>
+      </c>
+      <c r="P193">
+        <v>0.7851693</v>
+      </c>
+      <c r="Q193">
+        <v>0.4980506</v>
+      </c>
+      <c r="R193">
+        <v>0.4205847</v>
+      </c>
+      <c r="S193">
+        <v>0.6903698</v>
+      </c>
+      <c r="T193">
+        <v>0.599366</v>
+      </c>
+      <c r="U193">
+        <v>0.6695485</v>
+      </c>
+      <c r="V193">
+        <v>1.0114849</v>
+      </c>
+      <c r="W193">
+        <v>0.269648</v>
+      </c>
+      <c r="X193">
+        <v>0.3697466</v>
+      </c>
+      <c r="Y193">
+        <v>0.3096986</v>
+      </c>
+      <c r="Z193">
+        <v>0.35354</v>
+      </c>
+      <c r="AA193">
+        <v>0.4782901</v>
+      </c>
+      <c r="AB193">
+        <v>0.5433414</v>
+      </c>
+      <c r="AD193">
+        <v>1.011706</v>
+      </c>
+      <c r="AE193">
+        <v>0.6755603</v>
+      </c>
+      <c r="AF193">
+        <v>0.4868396</v>
+      </c>
+      <c r="AG193">
+        <v>0.3121525</v>
+      </c>
+      <c r="AH193">
+        <v>0.9308278</v>
+      </c>
+      <c r="AI193">
+        <v>0.2841844</v>
+      </c>
+      <c r="AJ193">
+        <v>0.2216781</v>
+      </c>
+      <c r="AK193">
+        <v>0.5078058</v>
+      </c>
+      <c r="AL193">
+        <v>0.824523</v>
+      </c>
+      <c r="AM193">
+        <v>0.3328245</v>
+      </c>
+      <c r="AN193">
+        <v>0.4718477</v>
+      </c>
+      <c r="AO193">
+        <v>0.8155948</v>
+      </c>
+      <c r="AP193">
+        <v>0.4733115</v>
+      </c>
+      <c r="AQ193">
+        <v>0.4183365</v>
+      </c>
+      <c r="AS193">
+        <v>0.3529703</v>
+      </c>
+      <c r="AT193">
+        <v>0.6371363</v>
+      </c>
+      <c r="AU193">
+        <v>0.4268126</v>
+      </c>
+      <c r="AV193">
+        <v>0.8586207</v>
+      </c>
+      <c r="AW193">
+        <v>0.8211131</v>
+      </c>
+      <c r="AX193">
+        <v>0.7168877</v>
+      </c>
+      <c r="AY193">
+        <v>0.3987042</v>
+      </c>
+      <c r="BA193">
+        <v>0.3173363</v>
+      </c>
+      <c r="BB193">
+        <v>0.415702</v>
+      </c>
+      <c r="BC193">
+        <v>0.5220647</v>
+      </c>
+      <c r="BD193">
+        <v>0.6944238</v>
+      </c>
+      <c r="BE193">
+        <v>0.8915836</v>
+      </c>
+    </row>
+    <row r="194" spans="1:57">
+      <c r="A194" t="s">
+        <v>248</v>
+      </c>
+      <c r="B194">
+        <v>0.2764094</v>
+      </c>
+      <c r="C194">
+        <v>0.9868111000000001</v>
+      </c>
+      <c r="D194">
+        <v>0.9582995</v>
+      </c>
+      <c r="F194">
+        <v>0.66605</v>
+      </c>
+      <c r="G194">
+        <v>0.5721202</v>
+      </c>
+      <c r="H194">
+        <v>0.4710537</v>
+      </c>
+      <c r="I194">
+        <v>0.2541164</v>
+      </c>
+      <c r="J194">
+        <v>0.2962963</v>
+      </c>
+      <c r="K194">
+        <v>0.1856897</v>
+      </c>
+      <c r="L194">
+        <v>0.7768072</v>
+      </c>
+      <c r="M194">
+        <v>0.7843113</v>
+      </c>
+      <c r="O194">
+        <v>0.1873082</v>
+      </c>
+      <c r="P194">
+        <v>0.7305501</v>
+      </c>
+      <c r="Q194">
+        <v>0.6015201</v>
+      </c>
+      <c r="R194">
+        <v>0.4658253</v>
+      </c>
+      <c r="S194">
+        <v>0.6596693</v>
+      </c>
+      <c r="T194">
+        <v>0.6424748</v>
+      </c>
+      <c r="U194">
+        <v>0.6715308</v>
+      </c>
+      <c r="V194">
+        <v>0.9944455</v>
+      </c>
+      <c r="W194">
+        <v>0.2577387</v>
+      </c>
+      <c r="X194">
+        <v>0.3423703</v>
+      </c>
+      <c r="Y194">
+        <v>0.274443</v>
+      </c>
+      <c r="Z194">
+        <v>0.3707655</v>
+      </c>
+      <c r="AA194">
+        <v>0.5212979</v>
+      </c>
+      <c r="AB194">
+        <v>0.5408301</v>
+      </c>
+      <c r="AD194">
+        <v>0.9161726</v>
+      </c>
+      <c r="AE194">
+        <v>0.6111199</v>
+      </c>
+      <c r="AF194">
+        <v>0.4603646</v>
+      </c>
+      <c r="AG194">
+        <v>0.3466715</v>
+      </c>
+      <c r="AH194">
+        <v>0.9933269</v>
+      </c>
+      <c r="AI194">
+        <v>0.2501647</v>
+      </c>
+      <c r="AJ194">
+        <v>0.2160001</v>
+      </c>
+      <c r="AK194">
+        <v>0.5084424</v>
+      </c>
+      <c r="AL194">
+        <v>0.8773133</v>
+      </c>
+      <c r="AM194">
+        <v>0.3311637</v>
+      </c>
+      <c r="AN194">
+        <v>0.4482705</v>
+      </c>
+      <c r="AO194">
+        <v>0.7757858</v>
+      </c>
+      <c r="AP194">
+        <v>0.4201979</v>
+      </c>
+      <c r="AQ194">
+        <v>0.4250822</v>
+      </c>
+      <c r="AS194">
+        <v>0.3064956</v>
+      </c>
+      <c r="AT194">
+        <v>0.626865</v>
+      </c>
+      <c r="AU194">
+        <v>0.433414</v>
+      </c>
+      <c r="AV194">
+        <v>0.8664789000000001</v>
+      </c>
+      <c r="AW194">
+        <v>0.8294469</v>
+      </c>
+      <c r="AX194">
+        <v>0.6366029</v>
+      </c>
+      <c r="AY194">
+        <v>0.4429594</v>
+      </c>
+      <c r="BA194">
+        <v>0.3064496</v>
+      </c>
+      <c r="BB194">
+        <v>0.3818336</v>
+      </c>
+      <c r="BC194">
+        <v>0.5039098</v>
+      </c>
+      <c r="BD194">
+        <v>0.632173</v>
+      </c>
+      <c r="BE194">
+        <v>0.8683086</v>
+      </c>
+    </row>
+    <row r="195" spans="1:57">
+      <c r="A195" t="s">
+        <v>249</v>
+      </c>
+      <c r="B195">
+        <v>0.2986757</v>
+      </c>
+      <c r="C195">
+        <v>0.994972</v>
+      </c>
+      <c r="D195">
+        <v>0.8914474</v>
+      </c>
+      <c r="F195">
+        <v>0.641869</v>
+      </c>
+      <c r="G195">
+        <v>0.5742868</v>
+      </c>
+      <c r="H195">
+        <v>0.5030085</v>
+      </c>
+      <c r="I195">
+        <v>0.24567</v>
+      </c>
+      <c r="J195">
+        <v>0.3026863</v>
+      </c>
+      <c r="K195">
+        <v>0.2060158</v>
+      </c>
+      <c r="L195">
+        <v>0.7348446</v>
+      </c>
+      <c r="M195">
+        <v>0.868254</v>
+      </c>
+      <c r="O195">
+        <v>0.1707007</v>
+      </c>
+      <c r="P195">
+        <v>0.661643</v>
+      </c>
+      <c r="Q195">
+        <v>0.6552093</v>
+      </c>
+      <c r="R195">
+        <v>0.4531449</v>
+      </c>
+      <c r="S195">
+        <v>0.6744028</v>
+      </c>
+      <c r="T195">
+        <v>0.6674078</v>
+      </c>
+      <c r="U195">
+        <v>0.6483692</v>
+      </c>
+      <c r="V195">
+        <v>0.9425235</v>
+      </c>
+      <c r="W195">
+        <v>0.2707611</v>
+      </c>
+      <c r="X195">
+        <v>0.3753943</v>
+      </c>
+      <c r="Y195">
+        <v>0.2774169</v>
+      </c>
+      <c r="Z195">
+        <v>0.3866196</v>
+      </c>
+      <c r="AA195">
+        <v>0.5662248</v>
+      </c>
+      <c r="AB195">
+        <v>0.5227462</v>
+      </c>
+      <c r="AD195">
+        <v>0.933219</v>
+      </c>
+      <c r="AE195">
+        <v>0.5873062</v>
+      </c>
+      <c r="AF195">
+        <v>0.4954104</v>
+      </c>
+      <c r="AG195">
+        <v>0.4338604</v>
+      </c>
+      <c r="AH195">
+        <v>0.8875032</v>
+      </c>
+      <c r="AI195">
+        <v>0.2543644</v>
+      </c>
+      <c r="AJ195">
+        <v>0.2090971</v>
+      </c>
+      <c r="AK195">
+        <v>0.4561835</v>
+      </c>
+      <c r="AL195">
+        <v>0.6839326999999999</v>
+      </c>
+      <c r="AM195">
+        <v>0.3132796</v>
+      </c>
+      <c r="AN195">
+        <v>0.4887202</v>
+      </c>
+      <c r="AO195">
+        <v>0.7783167</v>
+      </c>
+      <c r="AP195">
+        <v>0.4533425</v>
+      </c>
+      <c r="AQ195">
+        <v>0.4534297</v>
+      </c>
+      <c r="AS195">
+        <v>0.2657048</v>
+      </c>
+      <c r="AT195">
+        <v>0.67862</v>
+      </c>
+      <c r="AU195">
+        <v>0.6265219</v>
+      </c>
+      <c r="AV195">
+        <v>0.8082175</v>
+      </c>
+      <c r="AW195">
+        <v>0.8213824</v>
+      </c>
+      <c r="AX195">
+        <v>0.5917479</v>
+      </c>
+      <c r="AY195">
+        <v>0.4867049</v>
+      </c>
+      <c r="BA195">
+        <v>0.3981358</v>
+      </c>
+      <c r="BB195">
+        <v>0.4223112</v>
+      </c>
+      <c r="BC195">
+        <v>0.5387677</v>
+      </c>
+      <c r="BD195">
+        <v>0.5718478</v>
+      </c>
+      <c r="BE195">
+        <v>0.7058314999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:57">
+      <c r="A196" t="s">
+        <v>250</v>
+      </c>
+      <c r="B196">
+        <v>0.2623991</v>
+      </c>
+      <c r="C196">
+        <v>0.998414</v>
+      </c>
+      <c r="D196">
+        <v>0.7592411</v>
+      </c>
+      <c r="F196">
+        <v>0.6292977</v>
+      </c>
+      <c r="G196">
+        <v>0.5801219</v>
+      </c>
+      <c r="H196">
+        <v>0.4552175</v>
+      </c>
+      <c r="I196">
+        <v>0.2259349</v>
+      </c>
+      <c r="J196">
+        <v>0.3051106</v>
+      </c>
+      <c r="K196">
+        <v>0.2570456</v>
+      </c>
+      <c r="L196">
+        <v>0.7438118</v>
+      </c>
+      <c r="M196">
+        <v>0.8965232</v>
+      </c>
+      <c r="O196">
+        <v>0.203869</v>
+      </c>
+      <c r="P196">
+        <v>0.6634154</v>
+      </c>
+      <c r="Q196">
+        <v>0.6481059</v>
+      </c>
+      <c r="R196">
+        <v>0.4648753</v>
+      </c>
+      <c r="S196">
+        <v>0.6474597</v>
+      </c>
+      <c r="T196">
+        <v>0.5775492</v>
+      </c>
+      <c r="U196">
+        <v>0.6768379</v>
+      </c>
+      <c r="V196">
+        <v>0.9511411</v>
+      </c>
+      <c r="W196">
+        <v>0.2530825</v>
+      </c>
+      <c r="X196">
+        <v>0.3520323</v>
+      </c>
+      <c r="Y196">
+        <v>0.2941067</v>
+      </c>
+      <c r="Z196">
+        <v>0.4029897</v>
+      </c>
+      <c r="AA196">
+        <v>0.5696909</v>
+      </c>
+      <c r="AB196">
+        <v>0.5198987</v>
+      </c>
+      <c r="AD196">
+        <v>0.9443015</v>
+      </c>
+      <c r="AE196">
+        <v>0.7318568</v>
+      </c>
+      <c r="AF196">
+        <v>0.449047</v>
+      </c>
+      <c r="AG196">
+        <v>0.4690289</v>
+      </c>
+      <c r="AH196">
+        <v>0.878115</v>
+      </c>
+      <c r="AI196">
+        <v>0.2547254</v>
+      </c>
+      <c r="AJ196">
+        <v>0.2219141</v>
+      </c>
+      <c r="AK196">
+        <v>0.4313413</v>
+      </c>
+      <c r="AL196">
+        <v>0.7090187999999999</v>
+      </c>
+      <c r="AM196">
+        <v>0.3437842</v>
+      </c>
+      <c r="AN196">
+        <v>0.5252654</v>
+      </c>
+      <c r="AO196">
+        <v>0.7865739</v>
+      </c>
+      <c r="AP196">
+        <v>0.4210739</v>
+      </c>
+      <c r="AQ196">
+        <v>0.4344144</v>
+      </c>
+      <c r="AS196">
+        <v>0.2532907</v>
+      </c>
+      <c r="AT196">
+        <v>0.7133047</v>
+      </c>
+      <c r="AU196">
+        <v>0.4713272</v>
+      </c>
+      <c r="AV196">
+        <v>0.8100362</v>
+      </c>
+      <c r="AW196">
+        <v>0.7698126</v>
+      </c>
+      <c r="AX196">
+        <v>0.6013991</v>
+      </c>
+      <c r="AY196">
+        <v>0.4732275</v>
+      </c>
+      <c r="BA196">
+        <v>0.4031291</v>
+      </c>
+      <c r="BB196">
+        <v>0.3996197</v>
+      </c>
+      <c r="BC196">
+        <v>0.5478204</v>
+      </c>
+      <c r="BD196">
+        <v>0.5769803999999999</v>
+      </c>
+      <c r="BE196">
+        <v>0.6534792</v>
+      </c>
+    </row>
+    <row r="197" spans="1:57">
+      <c r="A197" t="s">
+        <v>251</v>
+      </c>
+      <c r="B197">
+        <v>0.3165138</v>
+      </c>
+      <c r="C197">
+        <v>1.0854274</v>
+      </c>
+      <c r="D197">
+        <v>0.7002502</v>
+      </c>
+      <c r="F197">
+        <v>0.6459673</v>
+      </c>
+      <c r="G197">
+        <v>0.5599480999999999</v>
+      </c>
+      <c r="H197">
+        <v>0.3754125</v>
+      </c>
+      <c r="I197">
+        <v>0.2297438</v>
+      </c>
+      <c r="J197">
+        <v>0.251938</v>
+      </c>
+      <c r="K197">
+        <v>0.3583174</v>
+      </c>
+      <c r="L197">
+        <v>0.705583</v>
+      </c>
+      <c r="M197">
+        <v>0.9190444</v>
+      </c>
+      <c r="O197">
+        <v>0.1947547</v>
+      </c>
+      <c r="P197">
+        <v>0.6795685</v>
+      </c>
+      <c r="Q197">
+        <v>0.6717537</v>
+      </c>
+      <c r="R197">
+        <v>0.4674359</v>
+      </c>
+      <c r="S197">
+        <v>0.6871624</v>
+      </c>
+      <c r="T197">
+        <v>0.627196</v>
+      </c>
+      <c r="U197">
+        <v>0.6264421999999999</v>
+      </c>
+      <c r="V197">
+        <v>0.9422551</v>
+      </c>
+      <c r="W197">
+        <v>0.2612901</v>
+      </c>
+      <c r="X197">
+        <v>0.3329156</v>
+      </c>
+      <c r="Y197">
+        <v>0.2611752</v>
+      </c>
+      <c r="Z197">
+        <v>0.3943563</v>
+      </c>
+      <c r="AA197">
+        <v>0.5849243</v>
+      </c>
+      <c r="AB197">
+        <v>0.5968509</v>
+      </c>
+      <c r="AD197">
+        <v>0.9769676</v>
+      </c>
+      <c r="AE197">
+        <v>0.5527165000000001</v>
+      </c>
+      <c r="AF197">
+        <v>0.4730265</v>
+      </c>
+      <c r="AG197">
+        <v>0.4792717</v>
+      </c>
+      <c r="AH197">
+        <v>0.8101564</v>
+      </c>
+      <c r="AI197">
+        <v>0.2559726</v>
+      </c>
+      <c r="AJ197">
+        <v>0.2270597</v>
+      </c>
+      <c r="AK197">
+        <v>0.3967432</v>
+      </c>
+      <c r="AL197">
+        <v>0.6711781</v>
+      </c>
+      <c r="AM197">
+        <v>0.3345428</v>
+      </c>
+      <c r="AN197">
+        <v>0.5756863</v>
+      </c>
+      <c r="AO197">
+        <v>0.6567484</v>
+      </c>
+      <c r="AP197">
+        <v>0.3954896</v>
+      </c>
+      <c r="AQ197">
+        <v>0.4335021</v>
+      </c>
+      <c r="AS197">
+        <v>0.2567603</v>
+      </c>
+      <c r="AT197">
+        <v>0.7663878</v>
+      </c>
+      <c r="AU197">
+        <v>0.2731067</v>
+      </c>
+      <c r="AV197">
+        <v>0.7819377</v>
+      </c>
+      <c r="AW197">
+        <v>0.7426983</v>
+      </c>
+      <c r="AX197">
+        <v>0.6499133</v>
+      </c>
+      <c r="AY197">
+        <v>0.4695159</v>
+      </c>
+      <c r="BA197">
+        <v>0.3892729</v>
+      </c>
+      <c r="BB197">
+        <v>0.4259335</v>
+      </c>
+      <c r="BC197">
+        <v>0.5100207</v>
+      </c>
+      <c r="BD197">
+        <v>0.4978196</v>
+      </c>
+      <c r="BE197">
+        <v>0.5598585</v>
+      </c>
+    </row>
+    <row r="198" spans="1:57">
+      <c r="A198" t="s">
+        <v>252</v>
+      </c>
+      <c r="B198">
+        <v>0.3295129</v>
+      </c>
+      <c r="C198">
+        <v>1.0958915</v>
+      </c>
+      <c r="D198">
+        <v>0.6623353</v>
+      </c>
+      <c r="F198">
+        <v>0.6450047</v>
+      </c>
+      <c r="G198">
+        <v>0.555468</v>
+      </c>
+      <c r="H198">
+        <v>0.3899299</v>
+      </c>
+      <c r="I198">
+        <v>0.2080339</v>
+      </c>
+      <c r="J198">
+        <v>0.2570186</v>
+      </c>
+      <c r="K198">
+        <v>0.4053999</v>
+      </c>
+      <c r="L198">
+        <v>0.687362</v>
+      </c>
+      <c r="M198">
+        <v>0.9430699</v>
+      </c>
+      <c r="O198">
+        <v>0.3981009</v>
+      </c>
+      <c r="P198">
+        <v>0.6049089</v>
+      </c>
+      <c r="Q198">
+        <v>0.6358374</v>
+      </c>
+      <c r="R198">
+        <v>0.4766209</v>
+      </c>
+      <c r="S198">
+        <v>0.6948769</v>
+      </c>
+      <c r="T198">
+        <v>0.5911008</v>
+      </c>
+      <c r="U198">
+        <v>0.571309</v>
+      </c>
+      <c r="V198">
+        <v>1.0499496</v>
+      </c>
+      <c r="W198">
+        <v>0.3266583</v>
+      </c>
+      <c r="X198">
+        <v>0.3324555</v>
+      </c>
+      <c r="Y198">
+        <v>0.1864575</v>
+      </c>
+      <c r="Z198">
+        <v>0.4268539</v>
+      </c>
+      <c r="AA198">
+        <v>0.5362803</v>
+      </c>
+      <c r="AB198">
+        <v>0.5427921999999999</v>
+      </c>
+      <c r="AD198">
+        <v>0.993806</v>
+      </c>
+      <c r="AE198">
+        <v>0.6071263</v>
+      </c>
+      <c r="AF198">
+        <v>0.4576763</v>
+      </c>
+      <c r="AG198">
+        <v>0.5235104</v>
+      </c>
+      <c r="AH198">
+        <v>0.7908708</v>
+      </c>
+      <c r="AI198">
+        <v>0.2465377</v>
+      </c>
+      <c r="AJ198">
+        <v>0.2318847</v>
+      </c>
+      <c r="AK198">
+        <v>0.460565</v>
+      </c>
+      <c r="AL198">
+        <v>0.8057521</v>
+      </c>
+      <c r="AM198">
+        <v>0.3070501</v>
+      </c>
+      <c r="AN198">
+        <v>0.5656149</v>
+      </c>
+      <c r="AO198">
+        <v>0.6696672</v>
+      </c>
+      <c r="AP198">
+        <v>0.3821267</v>
+      </c>
+      <c r="AQ198">
+        <v>0.4202235</v>
+      </c>
+      <c r="AS198">
+        <v>0.2535806</v>
+      </c>
+      <c r="AT198">
+        <v>0.7884158</v>
+      </c>
+      <c r="AU198">
+        <v>0.3134851</v>
+      </c>
+      <c r="AV198">
+        <v>0.7873492</v>
+      </c>
+      <c r="AW198">
+        <v>0.7304414</v>
+      </c>
+      <c r="AX198">
+        <v>0.6917541</v>
+      </c>
+      <c r="AY198">
+        <v>0.5414987999999999</v>
+      </c>
+      <c r="BA198">
+        <v>0.2208477</v>
+      </c>
+      <c r="BB198">
+        <v>0.4166878</v>
+      </c>
+      <c r="BC198">
+        <v>0.4132926</v>
+      </c>
+      <c r="BD198">
+        <v>0.4818452</v>
+      </c>
+      <c r="BE198">
+        <v>0.5276143</v>
+      </c>
+    </row>
+    <row r="199" spans="1:57">
+      <c r="A199" t="s">
+        <v>253</v>
+      </c>
+      <c r="B199">
+        <v>0.3535354</v>
+      </c>
+      <c r="C199">
+        <v>1.0831161</v>
+      </c>
+      <c r="D199">
+        <v>0.6764324</v>
+      </c>
+      <c r="F199">
+        <v>0.6929037</v>
+      </c>
+      <c r="G199">
+        <v>0.5446897000000001</v>
+      </c>
+      <c r="H199">
+        <v>0.3929848</v>
+      </c>
+      <c r="I199">
+        <v>0.1751877</v>
+      </c>
+      <c r="J199">
+        <v>0.2591707</v>
+      </c>
+      <c r="K199">
+        <v>0.3399918</v>
+      </c>
+      <c r="L199">
+        <v>0.6951433</v>
+      </c>
+      <c r="M199">
+        <v>0.9328918</v>
+      </c>
+      <c r="O199">
+        <v>0.4293036</v>
+      </c>
+      <c r="P199">
+        <v>0.6063935</v>
+      </c>
+      <c r="Q199">
+        <v>0.7116460999999999</v>
+      </c>
+      <c r="R199">
+        <v>0.4540979</v>
+      </c>
+      <c r="S199">
+        <v>0.7939479</v>
+      </c>
+      <c r="T199">
+        <v>0.601593</v>
+      </c>
+      <c r="U199">
+        <v>0.6104334</v>
+      </c>
+      <c r="V199">
+        <v>1.0405785</v>
+      </c>
+      <c r="W199">
+        <v>0.2997568</v>
+      </c>
+      <c r="X199">
+        <v>0.3764259</v>
+      </c>
+      <c r="Y199">
+        <v>0.200538</v>
+      </c>
+      <c r="Z199">
+        <v>0.4368032</v>
+      </c>
+      <c r="AA199">
+        <v>0.4654381</v>
+      </c>
+      <c r="AB199">
+        <v>0.6302356</v>
+      </c>
+      <c r="AD199">
+        <v>1.0833467</v>
+      </c>
+      <c r="AE199">
+        <v>0.63878</v>
+      </c>
+      <c r="AF199">
+        <v>0.4487738</v>
+      </c>
+      <c r="AG199">
+        <v>0.6248115</v>
+      </c>
+      <c r="AH199">
+        <v>0.6173721</v>
+      </c>
+      <c r="AI199">
+        <v>0.2736949</v>
+      </c>
+      <c r="AJ199">
+        <v>0.2576313</v>
+      </c>
+      <c r="AK199">
+        <v>0.4364019</v>
+      </c>
+      <c r="AL199">
+        <v>0.6772361</v>
+      </c>
+      <c r="AM199">
+        <v>0.3096298</v>
+      </c>
+      <c r="AN199">
+        <v>0.5404335</v>
+      </c>
+      <c r="AO199">
+        <v>0.6369735</v>
+      </c>
+      <c r="AP199">
+        <v>0.3947716</v>
+      </c>
+      <c r="AQ199">
+        <v>0.4498156</v>
+      </c>
+      <c r="AS199">
+        <v>0.3840788</v>
+      </c>
+      <c r="AT199">
+        <v>0.7512178</v>
+      </c>
+      <c r="AU199">
+        <v>0.2991194</v>
+      </c>
+      <c r="AV199">
+        <v>0.7413119</v>
+      </c>
+      <c r="AW199">
+        <v>0.705906</v>
+      </c>
+      <c r="AX199">
+        <v>0.7178339</v>
+      </c>
+      <c r="AY199">
+        <v>0.5042001</v>
+      </c>
+      <c r="BA199">
+        <v>0.1834859</v>
+      </c>
+      <c r="BB199">
+        <v>0.4153139</v>
+      </c>
+      <c r="BC199">
+        <v>0.4200087</v>
+      </c>
+      <c r="BD199">
+        <v>0.4222172</v>
+      </c>
+      <c r="BE199">
+        <v>0.3475469</v>
+      </c>
+    </row>
+    <row r="200" spans="1:57">
+      <c r="A200" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Alaska</t>
   </si>
@@ -779,6 +779,30 @@
   </si>
   <si>
     <t>17 08 2020</t>
+  </si>
+  <si>
+    <t>18 08 2020</t>
+  </si>
+  <si>
+    <t>19 08 2020</t>
+  </si>
+  <si>
+    <t>20 08 2020</t>
+  </si>
+  <si>
+    <t>21 08 2020</t>
+  </si>
+  <si>
+    <t>22 08 2020</t>
+  </si>
+  <si>
+    <t>23 08 2020</t>
+  </si>
+  <si>
+    <t>24 08 2020</t>
+  </si>
+  <si>
+    <t>25 08 2020</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE200"/>
+  <dimension ref="A1:BE208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22727,7 +22751,7 @@
         <v>0.6929037</v>
       </c>
       <c r="G199">
-        <v>0.5446897000000001</v>
+        <v>0.5446734</v>
       </c>
       <c r="H199">
         <v>0.3929848</v>
@@ -22766,7 +22790,7 @@
         <v>0.601593</v>
       </c>
       <c r="U199">
-        <v>0.6104334</v>
+        <v>0.6103289</v>
       </c>
       <c r="V199">
         <v>1.0405785</v>
@@ -22871,6 +22895,1117 @@
     <row r="200" spans="1:57">
       <c r="A200" t="s">
         <v>254</v>
+      </c>
+      <c r="B200">
+        <v>0.4047853</v>
+      </c>
+      <c r="C200">
+        <v>1.1029643</v>
+      </c>
+      <c r="D200">
+        <v>0.6807266</v>
+      </c>
+      <c r="F200">
+        <v>0.7336025</v>
+      </c>
+      <c r="G200">
+        <v>0.5477414</v>
+      </c>
+      <c r="H200">
+        <v>0.4441322</v>
+      </c>
+      <c r="I200">
+        <v>0.1490105</v>
+      </c>
+      <c r="J200">
+        <v>0.2616747</v>
+      </c>
+      <c r="K200">
+        <v>0.3301592</v>
+      </c>
+      <c r="L200">
+        <v>0.7173486</v>
+      </c>
+      <c r="M200">
+        <v>0.9665268</v>
+      </c>
+      <c r="O200">
+        <v>0.5133129</v>
+      </c>
+      <c r="P200">
+        <v>0.6639978</v>
+      </c>
+      <c r="Q200">
+        <v>0.7683105</v>
+      </c>
+      <c r="R200">
+        <v>0.4261091</v>
+      </c>
+      <c r="S200">
+        <v>0.798144</v>
+      </c>
+      <c r="T200">
+        <v>0.6231455</v>
+      </c>
+      <c r="U200">
+        <v>0.6128055</v>
+      </c>
+      <c r="V200">
+        <v>1.0070671</v>
+      </c>
+      <c r="W200">
+        <v>0.2660783</v>
+      </c>
+      <c r="X200">
+        <v>0.3578887</v>
+      </c>
+      <c r="Y200">
+        <v>0.2237744</v>
+      </c>
+      <c r="Z200">
+        <v>0.4165883</v>
+      </c>
+      <c r="AA200">
+        <v>0.4319993</v>
+      </c>
+      <c r="AB200">
+        <v>0.5782555</v>
+      </c>
+      <c r="AD200">
+        <v>1.1105631</v>
+      </c>
+      <c r="AE200">
+        <v>0.5049285</v>
+      </c>
+      <c r="AF200">
+        <v>0.453165</v>
+      </c>
+      <c r="AG200">
+        <v>0.6911835</v>
+      </c>
+      <c r="AH200">
+        <v>0.680644</v>
+      </c>
+      <c r="AI200">
+        <v>0.1889782</v>
+      </c>
+      <c r="AJ200">
+        <v>0.2660204</v>
+      </c>
+      <c r="AK200">
+        <v>0.4510177</v>
+      </c>
+      <c r="AL200">
+        <v>0.7194225</v>
+      </c>
+      <c r="AM200">
+        <v>0.3143743</v>
+      </c>
+      <c r="AN200">
+        <v>0.5443116</v>
+      </c>
+      <c r="AO200">
+        <v>0.6590832</v>
+      </c>
+      <c r="AP200">
+        <v>0.3919441</v>
+      </c>
+      <c r="AQ200">
+        <v>0.3943336</v>
+      </c>
+      <c r="AS200">
+        <v>0.3545821</v>
+      </c>
+      <c r="AT200">
+        <v>0.7990294999999999</v>
+      </c>
+      <c r="AU200">
+        <v>0.3915695</v>
+      </c>
+      <c r="AV200">
+        <v>0.6717266</v>
+      </c>
+      <c r="AW200">
+        <v>0.6926722</v>
+      </c>
+      <c r="AX200">
+        <v>0.692263</v>
+      </c>
+      <c r="AY200">
+        <v>0.4782376</v>
+      </c>
+      <c r="BA200">
+        <v>0.1392754</v>
+      </c>
+      <c r="BB200">
+        <v>0.4137513</v>
+      </c>
+      <c r="BC200">
+        <v>0.4275651</v>
+      </c>
+      <c r="BD200">
+        <v>0.3814741</v>
+      </c>
+      <c r="BE200">
+        <v>0.3808559</v>
+      </c>
+    </row>
+    <row r="201" spans="1:57">
+      <c r="A201" t="s">
+        <v>255</v>
+      </c>
+      <c r="B201">
+        <v>0.4921588</v>
+      </c>
+      <c r="C201">
+        <v>1.0643424</v>
+      </c>
+      <c r="D201">
+        <v>0.6356991</v>
+      </c>
+      <c r="F201">
+        <v>0.6563658999999999</v>
+      </c>
+      <c r="G201">
+        <v>0.5165051000000001</v>
+      </c>
+      <c r="H201">
+        <v>0.4238525</v>
+      </c>
+      <c r="I201">
+        <v>0.1445852</v>
+      </c>
+      <c r="J201">
+        <v>0.1230012</v>
+      </c>
+      <c r="K201">
+        <v>0.3613161</v>
+      </c>
+      <c r="L201">
+        <v>0.686524</v>
+      </c>
+      <c r="M201">
+        <v>1.0113092</v>
+      </c>
+      <c r="O201">
+        <v>0.4808618</v>
+      </c>
+      <c r="P201">
+        <v>0.7981363</v>
+      </c>
+      <c r="Q201">
+        <v>0.7951613</v>
+      </c>
+      <c r="R201">
+        <v>0.3851701</v>
+      </c>
+      <c r="S201">
+        <v>0.7960521</v>
+      </c>
+      <c r="T201">
+        <v>0.7347946</v>
+      </c>
+      <c r="U201">
+        <v>0.6360099</v>
+      </c>
+      <c r="V201">
+        <v>1.0192065</v>
+      </c>
+      <c r="W201">
+        <v>0.2693894</v>
+      </c>
+      <c r="X201">
+        <v>0.383336</v>
+      </c>
+      <c r="Y201">
+        <v>0.213134</v>
+      </c>
+      <c r="Z201">
+        <v>0.4490157</v>
+      </c>
+      <c r="AA201">
+        <v>0.3885677</v>
+      </c>
+      <c r="AB201">
+        <v>0.62588</v>
+      </c>
+      <c r="AD201">
+        <v>1.0763115</v>
+      </c>
+      <c r="AE201">
+        <v>0.5664476000000001</v>
+      </c>
+      <c r="AF201">
+        <v>0.4807025</v>
+      </c>
+      <c r="AG201">
+        <v>0.6790136</v>
+      </c>
+      <c r="AH201">
+        <v>0.6508283</v>
+      </c>
+      <c r="AI201">
+        <v>0.2182613</v>
+      </c>
+      <c r="AJ201">
+        <v>0.2332097</v>
+      </c>
+      <c r="AK201">
+        <v>0.3861522</v>
+      </c>
+      <c r="AL201">
+        <v>0.6263351</v>
+      </c>
+      <c r="AM201">
+        <v>0.3118155</v>
+      </c>
+      <c r="AN201">
+        <v>0.5439827</v>
+      </c>
+      <c r="AO201">
+        <v>0.6369738</v>
+      </c>
+      <c r="AP201">
+        <v>0.4281315</v>
+      </c>
+      <c r="AQ201">
+        <v>0.390042</v>
+      </c>
+      <c r="AS201">
+        <v>0.3670048</v>
+      </c>
+      <c r="AT201">
+        <v>0.7589256</v>
+      </c>
+      <c r="AU201">
+        <v>0.5472068</v>
+      </c>
+      <c r="AV201">
+        <v>0.6903181</v>
+      </c>
+      <c r="AW201">
+        <v>0.6837459</v>
+      </c>
+      <c r="AX201">
+        <v>0.6407502</v>
+      </c>
+      <c r="AY201">
+        <v>0.446654</v>
+      </c>
+      <c r="BA201">
+        <v>0.1757628</v>
+      </c>
+      <c r="BB201">
+        <v>0.4068253</v>
+      </c>
+      <c r="BC201">
+        <v>0.4831073</v>
+      </c>
+      <c r="BD201">
+        <v>0.4451979</v>
+      </c>
+      <c r="BE201">
+        <v>0.50065</v>
+      </c>
+    </row>
+    <row r="202" spans="1:57">
+      <c r="A202" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202">
+        <v>0.555</v>
+      </c>
+      <c r="C202">
+        <v>1.0669742</v>
+      </c>
+      <c r="D202">
+        <v>0.5781856</v>
+      </c>
+      <c r="F202">
+        <v>0.6653272</v>
+      </c>
+      <c r="G202">
+        <v>0.5322966</v>
+      </c>
+      <c r="H202">
+        <v>0.410507</v>
+      </c>
+      <c r="I202">
+        <v>0.1779487</v>
+      </c>
+      <c r="J202">
+        <v>0.1240695</v>
+      </c>
+      <c r="K202">
+        <v>0.306788</v>
+      </c>
+      <c r="L202">
+        <v>0.7040899</v>
+      </c>
+      <c r="M202">
+        <v>0.8874875</v>
+      </c>
+      <c r="O202">
+        <v>0.4887067</v>
+      </c>
+      <c r="P202">
+        <v>0.8437114999999999</v>
+      </c>
+      <c r="Q202">
+        <v>0.9578727</v>
+      </c>
+      <c r="R202">
+        <v>0.4132225</v>
+      </c>
+      <c r="S202">
+        <v>0.7855347</v>
+      </c>
+      <c r="T202">
+        <v>0.7426700000000001</v>
+      </c>
+      <c r="U202">
+        <v>0.6882355999999999</v>
+      </c>
+      <c r="V202">
+        <v>1.1224403</v>
+      </c>
+      <c r="W202">
+        <v>0.2774423</v>
+      </c>
+      <c r="X202">
+        <v>0.3480744</v>
+      </c>
+      <c r="Y202">
+        <v>0.2240533</v>
+      </c>
+      <c r="Z202">
+        <v>0.4703502</v>
+      </c>
+      <c r="AA202">
+        <v>0.3608298</v>
+      </c>
+      <c r="AB202">
+        <v>0.6657531</v>
+      </c>
+      <c r="AD202">
+        <v>1.0948521</v>
+      </c>
+      <c r="AE202">
+        <v>0.5579843</v>
+      </c>
+      <c r="AF202">
+        <v>0.4968115</v>
+      </c>
+      <c r="AG202">
+        <v>0.7347013999999999</v>
+      </c>
+      <c r="AH202">
+        <v>0.7234692</v>
+      </c>
+      <c r="AI202">
+        <v>0.3012102</v>
+      </c>
+      <c r="AJ202">
+        <v>0.2556868</v>
+      </c>
+      <c r="AK202">
+        <v>0.4039599</v>
+      </c>
+      <c r="AL202">
+        <v>0.5959876</v>
+      </c>
+      <c r="AM202">
+        <v>0.3285346</v>
+      </c>
+      <c r="AN202">
+        <v>0.4767433</v>
+      </c>
+      <c r="AO202">
+        <v>0.6641992</v>
+      </c>
+      <c r="AP202">
+        <v>0.4525957</v>
+      </c>
+      <c r="AQ202">
+        <v>0.3477199</v>
+      </c>
+      <c r="AS202">
+        <v>0.4329054</v>
+      </c>
+      <c r="AT202">
+        <v>0.7585933</v>
+      </c>
+      <c r="AU202">
+        <v>0.4441092</v>
+      </c>
+      <c r="AV202">
+        <v>0.6927337</v>
+      </c>
+      <c r="AW202">
+        <v>0.6852665999999999</v>
+      </c>
+      <c r="AX202">
+        <v>0.6927569</v>
+      </c>
+      <c r="AY202">
+        <v>0.4587121</v>
+      </c>
+      <c r="BA202">
+        <v>0.08498559999999999</v>
+      </c>
+      <c r="BB202">
+        <v>0.3723756</v>
+      </c>
+      <c r="BC202">
+        <v>0.4190395</v>
+      </c>
+      <c r="BD202">
+        <v>0.5484771000000001</v>
+      </c>
+      <c r="BE202">
+        <v>0.4162067</v>
+      </c>
+    </row>
+    <row r="203" spans="1:57">
+      <c r="A203" t="s">
+        <v>257</v>
+      </c>
+      <c r="B203">
+        <v>0.7377939999999999</v>
+      </c>
+      <c r="C203">
+        <v>1.0597842</v>
+      </c>
+      <c r="D203">
+        <v>0.7647505</v>
+      </c>
+      <c r="F203">
+        <v>0.7106584</v>
+      </c>
+      <c r="G203">
+        <v>0.5266883</v>
+      </c>
+      <c r="H203">
+        <v>0.4227711</v>
+      </c>
+      <c r="I203">
+        <v>0.1705545</v>
+      </c>
+      <c r="J203">
+        <v>0.1278772</v>
+      </c>
+      <c r="K203">
+        <v>0.3092179</v>
+      </c>
+      <c r="L203">
+        <v>0.6498813</v>
+      </c>
+      <c r="M203">
+        <v>0.9110343</v>
+      </c>
+      <c r="O203">
+        <v>0.4356543</v>
+      </c>
+      <c r="P203">
+        <v>0.88866</v>
+      </c>
+      <c r="Q203">
+        <v>1.0728105</v>
+      </c>
+      <c r="R203">
+        <v>0.4238124</v>
+      </c>
+      <c r="S203">
+        <v>0.7387834</v>
+      </c>
+      <c r="T203">
+        <v>0.7949887</v>
+      </c>
+      <c r="U203">
+        <v>0.6673875</v>
+      </c>
+      <c r="V203">
+        <v>1.1693106</v>
+      </c>
+      <c r="W203">
+        <v>0.308831</v>
+      </c>
+      <c r="X203">
+        <v>0.3614437</v>
+      </c>
+      <c r="Y203">
+        <v>0.211205</v>
+      </c>
+      <c r="Z203">
+        <v>0.4581249</v>
+      </c>
+      <c r="AA203">
+        <v>0.3574208</v>
+      </c>
+      <c r="AB203">
+        <v>0.6351087</v>
+      </c>
+      <c r="AD203">
+        <v>1.0972169</v>
+      </c>
+      <c r="AE203">
+        <v>0.6391864</v>
+      </c>
+      <c r="AF203">
+        <v>0.5167403</v>
+      </c>
+      <c r="AG203">
+        <v>0.6422848</v>
+      </c>
+      <c r="AH203">
+        <v>0.8304295</v>
+      </c>
+      <c r="AI203">
+        <v>0.3285427</v>
+      </c>
+      <c r="AJ203">
+        <v>0.2759627</v>
+      </c>
+      <c r="AK203">
+        <v>0.4631256</v>
+      </c>
+      <c r="AL203">
+        <v>0.5479685</v>
+      </c>
+      <c r="AM203">
+        <v>0.3210486</v>
+      </c>
+      <c r="AN203">
+        <v>0.4532837</v>
+      </c>
+      <c r="AO203">
+        <v>0.719542</v>
+      </c>
+      <c r="AP203">
+        <v>0.3929036</v>
+      </c>
+      <c r="AQ203">
+        <v>0.3352904</v>
+      </c>
+      <c r="AS203">
+        <v>0.372028</v>
+      </c>
+      <c r="AT203">
+        <v>0.7966444</v>
+      </c>
+      <c r="AU203">
+        <v>0.7538283</v>
+      </c>
+      <c r="AV203">
+        <v>0.6397855</v>
+      </c>
+      <c r="AW203">
+        <v>0.7054222</v>
+      </c>
+      <c r="AX203">
+        <v>0.6306071</v>
+      </c>
+      <c r="AY203">
+        <v>0.4779283</v>
+      </c>
+      <c r="BA203">
+        <v>0.1572923</v>
+      </c>
+      <c r="BB203">
+        <v>0.3579087</v>
+      </c>
+      <c r="BC203">
+        <v>0.4056082</v>
+      </c>
+      <c r="BD203">
+        <v>0.5990788</v>
+      </c>
+      <c r="BE203">
+        <v>0.6501186</v>
+      </c>
+    </row>
+    <row r="204" spans="1:57">
+      <c r="A204" t="s">
+        <v>258</v>
+      </c>
+      <c r="B204">
+        <v>0.65123</v>
+      </c>
+      <c r="C204">
+        <v>1.0699572</v>
+      </c>
+      <c r="D204">
+        <v>0.7288888</v>
+      </c>
+      <c r="F204">
+        <v>0.630291</v>
+      </c>
+      <c r="G204">
+        <v>0.5113987</v>
+      </c>
+      <c r="H204">
+        <v>0.4856735</v>
+      </c>
+      <c r="I204">
+        <v>0.2345475</v>
+      </c>
+      <c r="J204">
+        <v>0.1329787</v>
+      </c>
+      <c r="K204">
+        <v>0.2729636</v>
+      </c>
+      <c r="L204">
+        <v>0.6545481</v>
+      </c>
+      <c r="M204">
+        <v>0.928884</v>
+      </c>
+      <c r="O204">
+        <v>0.4718965</v>
+      </c>
+      <c r="P204">
+        <v>0.9477365</v>
+      </c>
+      <c r="Q204">
+        <v>1.1659769</v>
+      </c>
+      <c r="R204">
+        <v>0.461663</v>
+      </c>
+      <c r="S204">
+        <v>0.781073</v>
+      </c>
+      <c r="T204">
+        <v>0.773631</v>
+      </c>
+      <c r="U204">
+        <v>0.6864748000000001</v>
+      </c>
+      <c r="V204">
+        <v>1.1583645</v>
+      </c>
+      <c r="W204">
+        <v>0.2708283</v>
+      </c>
+      <c r="X204">
+        <v>0.3920199</v>
+      </c>
+      <c r="Y204">
+        <v>0.2142585</v>
+      </c>
+      <c r="Z204">
+        <v>0.5057717</v>
+      </c>
+      <c r="AA204">
+        <v>0.3088636</v>
+      </c>
+      <c r="AB204">
+        <v>0.5964187</v>
+      </c>
+      <c r="AD204">
+        <v>1.1046447</v>
+      </c>
+      <c r="AE204">
+        <v>0.6742527</v>
+      </c>
+      <c r="AF204">
+        <v>0.5175343</v>
+      </c>
+      <c r="AG204">
+        <v>0.6666196</v>
+      </c>
+      <c r="AH204">
+        <v>0.979167</v>
+      </c>
+      <c r="AI204">
+        <v>0.4408945</v>
+      </c>
+      <c r="AJ204">
+        <v>0.2564421</v>
+      </c>
+      <c r="AK204">
+        <v>0.43656</v>
+      </c>
+      <c r="AL204">
+        <v>0.4816024</v>
+      </c>
+      <c r="AM204">
+        <v>0.3231496</v>
+      </c>
+      <c r="AN204">
+        <v>0.4517217</v>
+      </c>
+      <c r="AO204">
+        <v>0.7899414</v>
+      </c>
+      <c r="AP204">
+        <v>0.4248582</v>
+      </c>
+      <c r="AQ204">
+        <v>0.3389427</v>
+      </c>
+      <c r="AS204">
+        <v>0.2842144</v>
+      </c>
+      <c r="AT204">
+        <v>0.7385401</v>
+      </c>
+      <c r="AU204">
+        <v>0.9450001</v>
+      </c>
+      <c r="AV204">
+        <v>0.6952983</v>
+      </c>
+      <c r="AW204">
+        <v>0.7322689</v>
+      </c>
+      <c r="AX204">
+        <v>0.6006601</v>
+      </c>
+      <c r="AY204">
+        <v>0.5079597</v>
+      </c>
+      <c r="BA204">
+        <v>0.1089014</v>
+      </c>
+      <c r="BB204">
+        <v>0.3023158</v>
+      </c>
+      <c r="BC204">
+        <v>0.4445865</v>
+      </c>
+      <c r="BD204">
+        <v>0.6322479</v>
+      </c>
+      <c r="BE204">
+        <v>0.7814687</v>
+      </c>
+    </row>
+    <row r="205" spans="1:57">
+      <c r="A205" t="s">
+        <v>259</v>
+      </c>
+      <c r="B205">
+        <v>0.8014152</v>
+      </c>
+      <c r="C205">
+        <v>1.06837</v>
+      </c>
+      <c r="D205">
+        <v>0.7922736</v>
+      </c>
+      <c r="F205">
+        <v>0.6573366</v>
+      </c>
+      <c r="G205">
+        <v>0.5018521</v>
+      </c>
+      <c r="H205">
+        <v>0.4956143</v>
+      </c>
+      <c r="I205">
+        <v>0.2485632</v>
+      </c>
+      <c r="J205">
+        <v>0.1338688</v>
+      </c>
+      <c r="K205">
+        <v>0.2725721</v>
+      </c>
+      <c r="L205">
+        <v>0.624416</v>
+      </c>
+      <c r="M205">
+        <v>0.8870452</v>
+      </c>
+      <c r="O205">
+        <v>0.2643852</v>
+      </c>
+      <c r="P205">
+        <v>0.9946002</v>
+      </c>
+      <c r="Q205">
+        <v>1.1663578</v>
+      </c>
+      <c r="R205">
+        <v>0.4896874</v>
+      </c>
+      <c r="S205">
+        <v>0.7848851999999999</v>
+      </c>
+      <c r="T205">
+        <v>0.7872187</v>
+      </c>
+      <c r="U205">
+        <v>0.696858</v>
+      </c>
+      <c r="V205">
+        <v>1.0141159</v>
+      </c>
+      <c r="W205">
+        <v>0.2301138</v>
+      </c>
+      <c r="X205">
+        <v>0.3927205</v>
+      </c>
+      <c r="Y205">
+        <v>0.3077399</v>
+      </c>
+      <c r="Z205">
+        <v>0.4518918</v>
+      </c>
+      <c r="AA205">
+        <v>0.3384049</v>
+      </c>
+      <c r="AB205">
+        <v>0.6042568</v>
+      </c>
+      <c r="AD205">
+        <v>1.0064998</v>
+      </c>
+      <c r="AE205">
+        <v>0.7025865</v>
+      </c>
+      <c r="AF205">
+        <v>0.550458</v>
+      </c>
+      <c r="AG205">
+        <v>0.5513764</v>
+      </c>
+      <c r="AH205">
+        <v>0.9974608</v>
+      </c>
+      <c r="AI205">
+        <v>0.3771443</v>
+      </c>
+      <c r="AJ205">
+        <v>0.2706995</v>
+      </c>
+      <c r="AK205">
+        <v>0.4189135</v>
+      </c>
+      <c r="AL205">
+        <v>0.5354934</v>
+      </c>
+      <c r="AM205">
+        <v>0.3691699</v>
+      </c>
+      <c r="AN205">
+        <v>0.4506075</v>
+      </c>
+      <c r="AO205">
+        <v>0.7760754</v>
+      </c>
+      <c r="AP205">
+        <v>0.4722772</v>
+      </c>
+      <c r="AQ205">
+        <v>0.3842036</v>
+      </c>
+      <c r="AS205">
+        <v>0.2913385</v>
+      </c>
+      <c r="AT205">
+        <v>0.7355263</v>
+      </c>
+      <c r="AU205">
+        <v>1.0727605</v>
+      </c>
+      <c r="AV205">
+        <v>0.7000754</v>
+      </c>
+      <c r="AW205">
+        <v>0.7062657</v>
+      </c>
+      <c r="AX205">
+        <v>0.5482112</v>
+      </c>
+      <c r="AY205">
+        <v>0.4335884</v>
+      </c>
+      <c r="BA205">
+        <v>0.2511845</v>
+      </c>
+      <c r="BB205">
+        <v>0.262574</v>
+      </c>
+      <c r="BC205">
+        <v>0.5189091</v>
+      </c>
+      <c r="BD205">
+        <v>0.612158</v>
+      </c>
+      <c r="BE205">
+        <v>0.6845343</v>
+      </c>
+    </row>
+    <row r="206" spans="1:57">
+      <c r="A206" t="s">
+        <v>260</v>
+      </c>
+      <c r="B206">
+        <v>0.8908825</v>
+      </c>
+      <c r="C206">
+        <v>1.0736486</v>
+      </c>
+      <c r="D206">
+        <v>0.7679851</v>
+      </c>
+      <c r="F206">
+        <v>0.6337133</v>
+      </c>
+      <c r="G206">
+        <v>0.4930303</v>
+      </c>
+      <c r="H206">
+        <v>0.4991314</v>
+      </c>
+      <c r="I206">
+        <v>0.2952216</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0.2861759</v>
+      </c>
+      <c r="L206">
+        <v>0.6193899</v>
+      </c>
+      <c r="M206">
+        <v>0.8989995</v>
+      </c>
+      <c r="O206">
+        <v>0.3507653</v>
+      </c>
+      <c r="P206">
+        <v>0.8887589</v>
+      </c>
+      <c r="Q206">
+        <v>1.1208659</v>
+      </c>
+      <c r="R206">
+        <v>0.5257509</v>
+      </c>
+      <c r="S206">
+        <v>0.6990634999999999</v>
+      </c>
+      <c r="T206">
+        <v>0.8043928</v>
+      </c>
+      <c r="U206">
+        <v>0.7371695</v>
+      </c>
+      <c r="V206">
+        <v>1.0766428</v>
+      </c>
+      <c r="W206">
+        <v>0.2352608</v>
+      </c>
+      <c r="X206">
+        <v>0.4088317</v>
+      </c>
+      <c r="Y206">
+        <v>0.2881312</v>
+      </c>
+      <c r="Z206">
+        <v>0.4685418</v>
+      </c>
+      <c r="AA206">
+        <v>0.3617011</v>
+      </c>
+      <c r="AB206">
+        <v>0.5403767</v>
+      </c>
+      <c r="AD206">
+        <v>0.9120764</v>
+      </c>
+      <c r="AE206">
+        <v>0.6953885</v>
+      </c>
+      <c r="AF206">
+        <v>0.5078658</v>
+      </c>
+      <c r="AG206">
+        <v>0.566796</v>
+      </c>
+      <c r="AH206">
+        <v>0.9674160000000001</v>
+      </c>
+      <c r="AI206">
+        <v>0.4061767</v>
+      </c>
+      <c r="AJ206">
+        <v>0.292115</v>
+      </c>
+      <c r="AK206">
+        <v>0.3989687</v>
+      </c>
+      <c r="AL206">
+        <v>0.6390883000000001</v>
+      </c>
+      <c r="AM206">
+        <v>0.3677877</v>
+      </c>
+      <c r="AN206">
+        <v>0.4552416</v>
+      </c>
+      <c r="AO206">
+        <v>0.794315</v>
+      </c>
+      <c r="AP206">
+        <v>0.4938191</v>
+      </c>
+      <c r="AQ206">
+        <v>0.3593729</v>
+      </c>
+      <c r="AS206">
+        <v>0.1654133</v>
+      </c>
+      <c r="AT206">
+        <v>0.7368405</v>
+      </c>
+      <c r="AU206">
+        <v>1.1797567</v>
+      </c>
+      <c r="AV206">
+        <v>0.7682007</v>
+      </c>
+      <c r="AW206">
+        <v>0.6966457</v>
+      </c>
+      <c r="AX206">
+        <v>0.5066854</v>
+      </c>
+      <c r="AY206">
+        <v>0.4864584</v>
+      </c>
+      <c r="BA206">
+        <v>0.3496164</v>
+      </c>
+      <c r="BB206">
+        <v>0.2605408</v>
+      </c>
+      <c r="BC206">
+        <v>0.5019535000000001</v>
+      </c>
+      <c r="BD206">
+        <v>0.5710781</v>
+      </c>
+      <c r="BE206">
+        <v>0.8382695</v>
+      </c>
+    </row>
+    <row r="207" spans="1:57">
+      <c r="A207" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:57">
+      <c r="A208" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>Alaska</t>
   </si>
@@ -803,6 +803,27 @@
   </si>
   <si>
     <t>25 08 2020</t>
+  </si>
+  <si>
+    <t>26 08 2020</t>
+  </si>
+  <si>
+    <t>27 08 2020</t>
+  </si>
+  <si>
+    <t>28 08 2020</t>
+  </si>
+  <si>
+    <t>29 08 2020</t>
+  </si>
+  <si>
+    <t>30 08 2020</t>
+  </si>
+  <si>
+    <t>31 08 2020</t>
+  </si>
+  <si>
+    <t>01 09 2020</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE208"/>
+  <dimension ref="A1:BE215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23857,10 +23878,10 @@
         <v>0.6337133</v>
       </c>
       <c r="G206">
-        <v>0.4930303</v>
+        <v>0.4930136</v>
       </c>
       <c r="H206">
-        <v>0.4991314</v>
+        <v>0.499055</v>
       </c>
       <c r="I206">
         <v>0.2952216</v>
@@ -23875,7 +23896,7 @@
         <v>0.6193899</v>
       </c>
       <c r="M206">
-        <v>0.8989995</v>
+        <v>0.8989054</v>
       </c>
       <c r="O206">
         <v>0.3507653</v>
@@ -23920,7 +23941,7 @@
         <v>0.5403767</v>
       </c>
       <c r="AD206">
-        <v>0.9120764</v>
+        <v>0.9117809</v>
       </c>
       <c r="AE206">
         <v>0.6953885</v>
@@ -24002,10 +24023,1116 @@
       <c r="A207" t="s">
         <v>261</v>
       </c>
+      <c r="B207">
+        <v>0.7468066</v>
+      </c>
+      <c r="C207">
+        <v>1.0758296</v>
+      </c>
+      <c r="D207">
+        <v>0.9334972</v>
+      </c>
+      <c r="F207">
+        <v>0.6682834</v>
+      </c>
+      <c r="G207">
+        <v>0.5094919</v>
+      </c>
+      <c r="H207">
+        <v>0.5138322</v>
+      </c>
+      <c r="I207">
+        <v>0.3099493</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0.363616</v>
+      </c>
+      <c r="L207">
+        <v>0.579078</v>
+      </c>
+      <c r="M207">
+        <v>0.8848219000000001</v>
+      </c>
+      <c r="O207">
+        <v>0.2882698</v>
+      </c>
+      <c r="P207">
+        <v>0.8632489</v>
+      </c>
+      <c r="Q207">
+        <v>1.2630471</v>
+      </c>
+      <c r="R207">
+        <v>0.5467809</v>
+      </c>
+      <c r="S207">
+        <v>0.6930433</v>
+      </c>
+      <c r="T207">
+        <v>0.8290165</v>
+      </c>
+      <c r="U207">
+        <v>0.7093364</v>
+      </c>
+      <c r="V207">
+        <v>1.0639109</v>
+      </c>
+      <c r="W207">
+        <v>0.2765985</v>
+      </c>
+      <c r="X207">
+        <v>0.3935326</v>
+      </c>
+      <c r="Y207">
+        <v>0.3677282</v>
+      </c>
+      <c r="Z207">
+        <v>0.5133525</v>
+      </c>
+      <c r="AA207">
+        <v>0.3737353</v>
+      </c>
+      <c r="AB207">
+        <v>0.6296815</v>
+      </c>
+      <c r="AD207">
+        <v>0.8310976</v>
+      </c>
+      <c r="AE207">
+        <v>0.8526079</v>
+      </c>
+      <c r="AF207">
+        <v>0.51635</v>
+      </c>
+      <c r="AG207">
+        <v>0.5798238</v>
+      </c>
+      <c r="AH207">
+        <v>0.7506447000000001</v>
+      </c>
+      <c r="AI207">
+        <v>0.4070953</v>
+      </c>
+      <c r="AJ207">
+        <v>0.2947102</v>
+      </c>
+      <c r="AK207">
+        <v>0.3390819</v>
+      </c>
+      <c r="AL207">
+        <v>0.6272015</v>
+      </c>
+      <c r="AM207">
+        <v>0.3561059</v>
+      </c>
+      <c r="AN207">
+        <v>0.4326595</v>
+      </c>
+      <c r="AO207">
+        <v>0.8562804000000001</v>
+      </c>
+      <c r="AP207">
+        <v>0.47569</v>
+      </c>
+      <c r="AQ207">
+        <v>0.3616952</v>
+      </c>
+      <c r="AS207">
+        <v>0.2589481</v>
+      </c>
+      <c r="AT207">
+        <v>0.6912552</v>
+      </c>
+      <c r="AU207">
+        <v>1.1251896</v>
+      </c>
+      <c r="AV207">
+        <v>0.7881875</v>
+      </c>
+      <c r="AW207">
+        <v>0.7011574</v>
+      </c>
+      <c r="AX207">
+        <v>0.4778985</v>
+      </c>
+      <c r="AY207">
+        <v>0.5195775</v>
+      </c>
+      <c r="BA207">
+        <v>0.3550579</v>
+      </c>
+      <c r="BB207">
+        <v>0.2718938</v>
+      </c>
+      <c r="BC207">
+        <v>0.5198327</v>
+      </c>
+      <c r="BD207">
+        <v>0.5206356</v>
+      </c>
+      <c r="BE207">
+        <v>0.8532501</v>
+      </c>
     </row>
     <row r="208" spans="1:57">
       <c r="A208" t="s">
         <v>262</v>
+      </c>
+      <c r="B208">
+        <v>0.8358086</v>
+      </c>
+      <c r="C208">
+        <v>1.0897319</v>
+      </c>
+      <c r="D208">
+        <v>0.8432739</v>
+      </c>
+      <c r="F208">
+        <v>0.6459271</v>
+      </c>
+      <c r="G208">
+        <v>0.53174</v>
+      </c>
+      <c r="H208">
+        <v>0.5656029</v>
+      </c>
+      <c r="I208">
+        <v>0.2750882</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0.3108976</v>
+      </c>
+      <c r="L208">
+        <v>0.6038974</v>
+      </c>
+      <c r="M208">
+        <v>0.8844503</v>
+      </c>
+      <c r="O208">
+        <v>0.3461895</v>
+      </c>
+      <c r="P208">
+        <v>0.7849251</v>
+      </c>
+      <c r="Q208">
+        <v>1.2985648</v>
+      </c>
+      <c r="R208">
+        <v>0.556819</v>
+      </c>
+      <c r="S208">
+        <v>0.6537705</v>
+      </c>
+      <c r="T208">
+        <v>0.6966964</v>
+      </c>
+      <c r="U208">
+        <v>0.6719475</v>
+      </c>
+      <c r="V208">
+        <v>0.9858753</v>
+      </c>
+      <c r="W208">
+        <v>0.27805</v>
+      </c>
+      <c r="X208">
+        <v>0.4146001</v>
+      </c>
+      <c r="Y208">
+        <v>0.4030739</v>
+      </c>
+      <c r="Z208">
+        <v>0.4747444</v>
+      </c>
+      <c r="AA208">
+        <v>0.3743113</v>
+      </c>
+      <c r="AB208">
+        <v>0.5909171</v>
+      </c>
+      <c r="AD208">
+        <v>0.9769774</v>
+      </c>
+      <c r="AE208">
+        <v>0.8968208</v>
+      </c>
+      <c r="AF208">
+        <v>0.5128292</v>
+      </c>
+      <c r="AG208">
+        <v>0.6276223</v>
+      </c>
+      <c r="AH208">
+        <v>0.7768601000000001</v>
+      </c>
+      <c r="AI208">
+        <v>0.4665093</v>
+      </c>
+      <c r="AJ208">
+        <v>0.3464009</v>
+      </c>
+      <c r="AK208">
+        <v>0.3544515</v>
+      </c>
+      <c r="AL208">
+        <v>0.6806635</v>
+      </c>
+      <c r="AM208">
+        <v>0.356592</v>
+      </c>
+      <c r="AN208">
+        <v>0.4416281</v>
+      </c>
+      <c r="AO208">
+        <v>1.0302019</v>
+      </c>
+      <c r="AP208">
+        <v>0.4729445</v>
+      </c>
+      <c r="AQ208">
+        <v>0.3696393</v>
+      </c>
+      <c r="AS208">
+        <v>0.3225844</v>
+      </c>
+      <c r="AT208">
+        <v>0.7045838</v>
+      </c>
+      <c r="AU208">
+        <v>1.063767</v>
+      </c>
+      <c r="AV208">
+        <v>0.8541036</v>
+      </c>
+      <c r="AW208">
+        <v>0.7028099</v>
+      </c>
+      <c r="AX208">
+        <v>0.5159394</v>
+      </c>
+      <c r="AY208">
+        <v>0.52371</v>
+      </c>
+      <c r="BA208">
+        <v>0.3276206</v>
+      </c>
+      <c r="BB208">
+        <v>0.3073338</v>
+      </c>
+      <c r="BC208">
+        <v>0.4536645</v>
+      </c>
+      <c r="BD208">
+        <v>0.4961511</v>
+      </c>
+      <c r="BE208">
+        <v>0.9012581</v>
+      </c>
+    </row>
+    <row r="209" spans="1:57">
+      <c r="A209" t="s">
+        <v>263</v>
+      </c>
+      <c r="B209">
+        <v>1.0209475</v>
+      </c>
+      <c r="C209">
+        <v>1.0360506</v>
+      </c>
+      <c r="D209">
+        <v>0.9411307</v>
+      </c>
+      <c r="F209">
+        <v>0.6364505</v>
+      </c>
+      <c r="G209">
+        <v>0.5679090999999999</v>
+      </c>
+      <c r="H209">
+        <v>0.5842349999999999</v>
+      </c>
+      <c r="I209">
+        <v>0.2930652</v>
+      </c>
+      <c r="J209">
+        <v>0.1579779</v>
+      </c>
+      <c r="K209">
+        <v>0.3971181</v>
+      </c>
+      <c r="L209">
+        <v>0.5668481</v>
+      </c>
+      <c r="M209">
+        <v>0.9153389</v>
+      </c>
+      <c r="O209">
+        <v>0.3738063</v>
+      </c>
+      <c r="P209">
+        <v>0.8023806999999999</v>
+      </c>
+      <c r="Q209">
+        <v>1.1116308</v>
+      </c>
+      <c r="R209">
+        <v>0.5661264</v>
+      </c>
+      <c r="S209">
+        <v>0.723351</v>
+      </c>
+      <c r="T209">
+        <v>0.6409328</v>
+      </c>
+      <c r="U209">
+        <v>0.5942731999999999</v>
+      </c>
+      <c r="V209">
+        <v>0.8216421</v>
+      </c>
+      <c r="W209">
+        <v>0.2979848</v>
+      </c>
+      <c r="X209">
+        <v>0.4521955</v>
+      </c>
+      <c r="Y209">
+        <v>0.4081633</v>
+      </c>
+      <c r="Z209">
+        <v>0.4366974</v>
+      </c>
+      <c r="AA209">
+        <v>0.4316998</v>
+      </c>
+      <c r="AB209">
+        <v>0.5632518</v>
+      </c>
+      <c r="AD209">
+        <v>0.9925123</v>
+      </c>
+      <c r="AE209">
+        <v>0.976284</v>
+      </c>
+      <c r="AF209">
+        <v>0.4847024</v>
+      </c>
+      <c r="AG209">
+        <v>0.5958628</v>
+      </c>
+      <c r="AH209">
+        <v>0.8646739</v>
+      </c>
+      <c r="AI209">
+        <v>0.3821565</v>
+      </c>
+      <c r="AJ209">
+        <v>0.3772247</v>
+      </c>
+      <c r="AK209">
+        <v>0.3780834</v>
+      </c>
+      <c r="AL209">
+        <v>0.7506743</v>
+      </c>
+      <c r="AM209">
+        <v>0.3514225</v>
+      </c>
+      <c r="AN209">
+        <v>0.4686161</v>
+      </c>
+      <c r="AO209">
+        <v>1.0285902</v>
+      </c>
+      <c r="AP209">
+        <v>0.47982</v>
+      </c>
+      <c r="AQ209">
+        <v>0.3656527</v>
+      </c>
+      <c r="AS209">
+        <v>0.2604201</v>
+      </c>
+      <c r="AT209">
+        <v>0.7313667</v>
+      </c>
+      <c r="AU209">
+        <v>1.1470198</v>
+      </c>
+      <c r="AV209">
+        <v>0.9350997</v>
+      </c>
+      <c r="AW209">
+        <v>0.7080486</v>
+      </c>
+      <c r="AX209">
+        <v>0.455287</v>
+      </c>
+      <c r="AY209">
+        <v>0.4901415</v>
+      </c>
+      <c r="BA209">
+        <v>0.3795543</v>
+      </c>
+      <c r="BB209">
+        <v>0.290652</v>
+      </c>
+      <c r="BC209">
+        <v>0.5003427</v>
+      </c>
+      <c r="BD209">
+        <v>0.5322782</v>
+      </c>
+      <c r="BE209">
+        <v>0.9503377</v>
+      </c>
+    </row>
+    <row r="210" spans="1:57">
+      <c r="A210" t="s">
+        <v>264</v>
+      </c>
+      <c r="B210">
+        <v>0.9384875</v>
+      </c>
+      <c r="C210">
+        <v>1.0918259</v>
+      </c>
+      <c r="D210">
+        <v>0.830387</v>
+      </c>
+      <c r="F210">
+        <v>0.5848797999999999</v>
+      </c>
+      <c r="G210">
+        <v>0.5381782000000001</v>
+      </c>
+      <c r="H210">
+        <v>0.5734884</v>
+      </c>
+      <c r="I210">
+        <v>0.3113175</v>
+      </c>
+      <c r="J210">
+        <v>0.2933333</v>
+      </c>
+      <c r="K210">
+        <v>0.3224364</v>
+      </c>
+      <c r="L210">
+        <v>0.5933839</v>
+      </c>
+      <c r="M210">
+        <v>0.8658684</v>
+      </c>
+      <c r="O210">
+        <v>0.4124726</v>
+      </c>
+      <c r="P210">
+        <v>0.8139175</v>
+      </c>
+      <c r="Q210">
+        <v>1.0511315</v>
+      </c>
+      <c r="R210">
+        <v>0.6256429999999999</v>
+      </c>
+      <c r="S210">
+        <v>0.7546562999999999</v>
+      </c>
+      <c r="T210">
+        <v>0.7501539</v>
+      </c>
+      <c r="U210">
+        <v>0.5790314</v>
+      </c>
+      <c r="V210">
+        <v>0.7507906</v>
+      </c>
+      <c r="W210">
+        <v>0.2891327</v>
+      </c>
+      <c r="X210">
+        <v>0.4232789</v>
+      </c>
+      <c r="Y210">
+        <v>0.3892774</v>
+      </c>
+      <c r="Z210">
+        <v>0.442347</v>
+      </c>
+      <c r="AA210">
+        <v>0.4823616</v>
+      </c>
+      <c r="AB210">
+        <v>0.5885854</v>
+      </c>
+      <c r="AD210">
+        <v>1.06748</v>
+      </c>
+      <c r="AE210">
+        <v>0.8146362</v>
+      </c>
+      <c r="AF210">
+        <v>0.5481192</v>
+      </c>
+      <c r="AG210">
+        <v>0.6952535</v>
+      </c>
+      <c r="AH210">
+        <v>0.8335772</v>
+      </c>
+      <c r="AI210">
+        <v>0.3563698</v>
+      </c>
+      <c r="AJ210">
+        <v>0.3414138</v>
+      </c>
+      <c r="AK210">
+        <v>0.2703468</v>
+      </c>
+      <c r="AL210">
+        <v>0.8055402</v>
+      </c>
+      <c r="AM210">
+        <v>0.35664</v>
+      </c>
+      <c r="AN210">
+        <v>0.4845909</v>
+      </c>
+      <c r="AO210">
+        <v>0.9494186</v>
+      </c>
+      <c r="AP210">
+        <v>0.5396701</v>
+      </c>
+      <c r="AQ210">
+        <v>0.3985069</v>
+      </c>
+      <c r="AS210">
+        <v>0.2625691</v>
+      </c>
+      <c r="AT210">
+        <v>0.6382735</v>
+      </c>
+      <c r="AU210">
+        <v>0.8493337</v>
+      </c>
+      <c r="AV210">
+        <v>0.9841829</v>
+      </c>
+      <c r="AW210">
+        <v>0.7218497</v>
+      </c>
+      <c r="AX210">
+        <v>0.4809702</v>
+      </c>
+      <c r="AY210">
+        <v>0.4670035</v>
+      </c>
+      <c r="BA210">
+        <v>0.360082</v>
+      </c>
+      <c r="BB210">
+        <v>0.2838205</v>
+      </c>
+      <c r="BC210">
+        <v>0.5617123000000001</v>
+      </c>
+      <c r="BD210">
+        <v>0.6522976</v>
+      </c>
+      <c r="BE210">
+        <v>0.9219383</v>
+      </c>
+    </row>
+    <row r="211" spans="1:57">
+      <c r="A211" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211">
+        <v>1.0457251</v>
+      </c>
+      <c r="C211">
+        <v>1.0235783</v>
+      </c>
+      <c r="D211">
+        <v>0.8315342</v>
+      </c>
+      <c r="F211">
+        <v>0.5843541</v>
+      </c>
+      <c r="G211">
+        <v>0.5178263</v>
+      </c>
+      <c r="H211">
+        <v>0.508503</v>
+      </c>
+      <c r="I211">
+        <v>0.3160554</v>
+      </c>
+      <c r="J211">
+        <v>0.294275</v>
+      </c>
+      <c r="K211">
+        <v>0.2495593</v>
+      </c>
+      <c r="L211">
+        <v>0.5920187</v>
+      </c>
+      <c r="M211">
+        <v>0.8744487</v>
+      </c>
+      <c r="O211">
+        <v>0.4559235</v>
+      </c>
+      <c r="P211">
+        <v>0.7457254</v>
+      </c>
+      <c r="Q211">
+        <v>1.063313</v>
+      </c>
+      <c r="R211">
+        <v>0.582108</v>
+      </c>
+      <c r="S211">
+        <v>0.7662072</v>
+      </c>
+      <c r="T211">
+        <v>0.8230394</v>
+      </c>
+      <c r="U211">
+        <v>0.6834598</v>
+      </c>
+      <c r="V211">
+        <v>0.7333149</v>
+      </c>
+      <c r="W211">
+        <v>0.288319</v>
+      </c>
+      <c r="X211">
+        <v>0.400088</v>
+      </c>
+      <c r="Y211">
+        <v>0.3968631</v>
+      </c>
+      <c r="Z211">
+        <v>0.3803892</v>
+      </c>
+      <c r="AA211">
+        <v>0.5712091</v>
+      </c>
+      <c r="AB211">
+        <v>0.6542034</v>
+      </c>
+      <c r="AD211">
+        <v>1.1119216</v>
+      </c>
+      <c r="AE211">
+        <v>0.9109726</v>
+      </c>
+      <c r="AF211">
+        <v>0.5748626</v>
+      </c>
+      <c r="AG211">
+        <v>0.7417018</v>
+      </c>
+      <c r="AH211">
+        <v>0.7215837000000001</v>
+      </c>
+      <c r="AI211">
+        <v>0.2541235</v>
+      </c>
+      <c r="AJ211">
+        <v>0.3575785</v>
+      </c>
+      <c r="AK211">
+        <v>0.318303</v>
+      </c>
+      <c r="AL211">
+        <v>0.811316</v>
+      </c>
+      <c r="AM211">
+        <v>0.3775044</v>
+      </c>
+      <c r="AN211">
+        <v>0.4594671</v>
+      </c>
+      <c r="AO211">
+        <v>0.8766997</v>
+      </c>
+      <c r="AP211">
+        <v>0.5275054</v>
+      </c>
+      <c r="AQ211">
+        <v>0.3851572</v>
+      </c>
+      <c r="AS211">
+        <v>0.4327736</v>
+      </c>
+      <c r="AT211">
+        <v>0.6636905</v>
+      </c>
+      <c r="AU211">
+        <v>0.7812001</v>
+      </c>
+      <c r="AV211">
+        <v>0.9298833</v>
+      </c>
+      <c r="AW211">
+        <v>0.6812840999999999</v>
+      </c>
+      <c r="AX211">
+        <v>0.4492493</v>
+      </c>
+      <c r="AY211">
+        <v>0.4413975</v>
+      </c>
+      <c r="BA211">
+        <v>0.3711556</v>
+      </c>
+      <c r="BB211">
+        <v>0.3155697</v>
+      </c>
+      <c r="BC211">
+        <v>0.546747</v>
+      </c>
+      <c r="BD211">
+        <v>0.6637095</v>
+      </c>
+      <c r="BE211">
+        <v>0.8090643</v>
+      </c>
+    </row>
+    <row r="212" spans="1:57">
+      <c r="A212" t="s">
+        <v>266</v>
+      </c>
+      <c r="B212">
+        <v>0.9892491</v>
+      </c>
+      <c r="C212">
+        <v>1.0447829</v>
+      </c>
+      <c r="D212">
+        <v>0.8149259</v>
+      </c>
+      <c r="F212">
+        <v>0.5467255</v>
+      </c>
+      <c r="G212">
+        <v>0.5188276000000001</v>
+      </c>
+      <c r="H212">
+        <v>0.5112028</v>
+      </c>
+      <c r="I212">
+        <v>0.3282104</v>
+      </c>
+      <c r="J212">
+        <v>0.2956989</v>
+      </c>
+      <c r="K212">
+        <v>0.2025573</v>
+      </c>
+      <c r="L212">
+        <v>0.5759678</v>
+      </c>
+      <c r="M212">
+        <v>0.8879729</v>
+      </c>
+      <c r="O212">
+        <v>0.6226715</v>
+      </c>
+      <c r="P212">
+        <v>0.7760118</v>
+      </c>
+      <c r="Q212">
+        <v>1.1876057</v>
+      </c>
+      <c r="R212">
+        <v>0.5835756</v>
+      </c>
+      <c r="S212">
+        <v>0.722955</v>
+      </c>
+      <c r="T212">
+        <v>0.8761622999999999</v>
+      </c>
+      <c r="U212">
+        <v>0.7135309</v>
+      </c>
+      <c r="V212">
+        <v>0.8460028000000001</v>
+      </c>
+      <c r="W212">
+        <v>0.2879332</v>
+      </c>
+      <c r="X212">
+        <v>0.380824</v>
+      </c>
+      <c r="Y212">
+        <v>0.3813423</v>
+      </c>
+      <c r="Z212">
+        <v>0.3973413</v>
+      </c>
+      <c r="AA212">
+        <v>0.5501718</v>
+      </c>
+      <c r="AB212">
+        <v>0.7105702</v>
+      </c>
+      <c r="AD212">
+        <v>1.2198606</v>
+      </c>
+      <c r="AE212">
+        <v>0.9160324</v>
+      </c>
+      <c r="AF212">
+        <v>0.6613476</v>
+      </c>
+      <c r="AG212">
+        <v>0.8714803</v>
+      </c>
+      <c r="AH212">
+        <v>0.6423863</v>
+      </c>
+      <c r="AI212">
+        <v>0.2710258</v>
+      </c>
+      <c r="AJ212">
+        <v>0.3618406</v>
+      </c>
+      <c r="AK212">
+        <v>0.2794913</v>
+      </c>
+      <c r="AL212">
+        <v>0.6148335</v>
+      </c>
+      <c r="AM212">
+        <v>0.3547621</v>
+      </c>
+      <c r="AN212">
+        <v>0.418871</v>
+      </c>
+      <c r="AO212">
+        <v>0.9634864</v>
+      </c>
+      <c r="AP212">
+        <v>0.5208564999999999</v>
+      </c>
+      <c r="AQ212">
+        <v>0.3223913</v>
+      </c>
+      <c r="AS212">
+        <v>0.4291257</v>
+      </c>
+      <c r="AT212">
+        <v>0.7655217</v>
+      </c>
+      <c r="AU212">
+        <v>0.6075699</v>
+      </c>
+      <c r="AV212">
+        <v>1.0079269</v>
+      </c>
+      <c r="AW212">
+        <v>0.6934505</v>
+      </c>
+      <c r="AX212">
+        <v>0.6018305</v>
+      </c>
+      <c r="AY212">
+        <v>0.4781887</v>
+      </c>
+      <c r="BA212">
+        <v>0.2159826</v>
+      </c>
+      <c r="BB212">
+        <v>0.3079832</v>
+      </c>
+      <c r="BC212">
+        <v>0.4725692</v>
+      </c>
+      <c r="BD212">
+        <v>0.6906315</v>
+      </c>
+      <c r="BE212">
+        <v>0.8036058</v>
+      </c>
+    </row>
+    <row r="213" spans="1:57">
+      <c r="A213" t="s">
+        <v>267</v>
+      </c>
+      <c r="B213">
+        <v>0.9786211</v>
+      </c>
+      <c r="C213">
+        <v>1.0633407</v>
+      </c>
+      <c r="D213">
+        <v>0.7580954</v>
+      </c>
+      <c r="F213">
+        <v>0.5858934</v>
+      </c>
+      <c r="G213">
+        <v>0.5350718</v>
+      </c>
+      <c r="H213">
+        <v>0.5252273</v>
+      </c>
+      <c r="I213">
+        <v>0.3103049</v>
+      </c>
+      <c r="J213">
+        <v>0.4509962</v>
+      </c>
+      <c r="K213">
+        <v>0.1905979</v>
+      </c>
+      <c r="L213">
+        <v>0.595164</v>
+      </c>
+      <c r="M213">
+        <v>0.8329298000000001</v>
+      </c>
+      <c r="O213">
+        <v>0.5022807</v>
+      </c>
+      <c r="P213">
+        <v>0.8066919</v>
+      </c>
+      <c r="Q213">
+        <v>1.2109371</v>
+      </c>
+      <c r="R213">
+        <v>0.6126123</v>
+      </c>
+      <c r="S213">
+        <v>0.7509279</v>
+      </c>
+      <c r="T213">
+        <v>0.8732955999999999</v>
+      </c>
+      <c r="U213">
+        <v>0.6742234</v>
+      </c>
+      <c r="V213">
+        <v>0.6717116</v>
+      </c>
+      <c r="W213">
+        <v>0.3005603</v>
+      </c>
+      <c r="X213">
+        <v>0.3533328</v>
+      </c>
+      <c r="Y213">
+        <v>0.5097545999999999</v>
+      </c>
+      <c r="Z213">
+        <v>0.4035044</v>
+      </c>
+      <c r="AA213">
+        <v>0.5156341</v>
+      </c>
+      <c r="AB213">
+        <v>0.6814817</v>
+      </c>
+      <c r="AD213">
+        <v>1.3031784</v>
+      </c>
+      <c r="AE213">
+        <v>0.8805423</v>
+      </c>
+      <c r="AF213">
+        <v>0.6735883</v>
+      </c>
+      <c r="AG213">
+        <v>0.8352296</v>
+      </c>
+      <c r="AH213">
+        <v>0.791565</v>
+      </c>
+      <c r="AI213">
+        <v>0.2581909</v>
+      </c>
+      <c r="AJ213">
+        <v>0.3244473</v>
+      </c>
+      <c r="AK213">
+        <v>0.2946325</v>
+      </c>
+      <c r="AL213">
+        <v>0.6103672</v>
+      </c>
+      <c r="AM213">
+        <v>0.3436735</v>
+      </c>
+      <c r="AN213">
+        <v>0.4155189</v>
+      </c>
+      <c r="AO213">
+        <v>0.9264713999999999</v>
+      </c>
+      <c r="AP213">
+        <v>0.468419</v>
+      </c>
+      <c r="AQ213">
+        <v>0.3506685</v>
+      </c>
+      <c r="AS213">
+        <v>0.4418501</v>
+      </c>
+      <c r="AT213">
+        <v>0.8255224</v>
+      </c>
+      <c r="AU213">
+        <v>0.5513206</v>
+      </c>
+      <c r="AV213">
+        <v>0.9362765</v>
+      </c>
+      <c r="AW213">
+        <v>0.6978105999999999</v>
+      </c>
+      <c r="AX213">
+        <v>0.5859474</v>
+      </c>
+      <c r="AY213">
+        <v>0.4229389</v>
+      </c>
+      <c r="BA213">
+        <v>0.1094092</v>
+      </c>
+      <c r="BB213">
+        <v>0.3257925</v>
+      </c>
+      <c r="BC213">
+        <v>0.4871453</v>
+      </c>
+      <c r="BD213">
+        <v>0.6748736</v>
+      </c>
+      <c r="BE213">
+        <v>0.6432267</v>
+      </c>
+    </row>
+    <row r="214" spans="1:57">
+      <c r="A214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:57">
+      <c r="A215" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -25965,7 +25965,7 @@
         <v>0.2619241</v>
       </c>
       <c r="L219">
-        <v>0.6247696</v>
+        <v>0.6247365</v>
       </c>
       <c r="M219">
         <v>0.8132208</v>
@@ -26040,7 +26040,7 @@
         <v>0.711972</v>
       </c>
       <c r="AM219">
-        <v>0.3191905</v>
+        <v>0.3191687</v>
       </c>
       <c r="AN219">
         <v>0.433402</v>
@@ -26079,7 +26079,7 @@
         <v>0.3026632</v>
       </c>
       <c r="BB219">
-        <v>0.43383</v>
+        <v>0.4337745</v>
       </c>
       <c r="BC219">
         <v>0.5467332</v>
@@ -26094,6 +26094,159 @@
     <row r="220" spans="1:57">
       <c r="A220" t="s">
         <v>274</v>
+      </c>
+      <c r="B220">
+        <v>0.3419262</v>
+      </c>
+      <c r="C220">
+        <v>1.1242917</v>
+      </c>
+      <c r="D220">
+        <v>0.8515939</v>
+      </c>
+      <c r="F220">
+        <v>0.4711344</v>
+      </c>
+      <c r="G220">
+        <v>0.4528856</v>
+      </c>
+      <c r="H220">
+        <v>0.4660323</v>
+      </c>
+      <c r="I220">
+        <v>0.2258193</v>
+      </c>
+      <c r="J220">
+        <v>0.6495102</v>
+      </c>
+      <c r="K220">
+        <v>0.2675663</v>
+      </c>
+      <c r="L220">
+        <v>0.5949643</v>
+      </c>
+      <c r="M220">
+        <v>0.8518115000000001</v>
+      </c>
+      <c r="O220">
+        <v>0.3630998</v>
+      </c>
+      <c r="P220">
+        <v>1.001074</v>
+      </c>
+      <c r="Q220">
+        <v>0.9286641</v>
+      </c>
+      <c r="R220">
+        <v>0.5825245</v>
+      </c>
+      <c r="S220">
+        <v>0.7315372</v>
+      </c>
+      <c r="T220">
+        <v>0.7617072</v>
+      </c>
+      <c r="U220">
+        <v>0.6370973</v>
+      </c>
+      <c r="V220">
+        <v>0.7190393</v>
+      </c>
+      <c r="W220">
+        <v>0.2931224</v>
+      </c>
+      <c r="X220">
+        <v>0.3163683</v>
+      </c>
+      <c r="Y220">
+        <v>0.2416824</v>
+      </c>
+      <c r="Z220">
+        <v>0.4705695</v>
+      </c>
+      <c r="AA220">
+        <v>0.4993135</v>
+      </c>
+      <c r="AB220">
+        <v>0.8184457000000001</v>
+      </c>
+      <c r="AD220">
+        <v>1.0046032</v>
+      </c>
+      <c r="AE220">
+        <v>0.6927052</v>
+      </c>
+      <c r="AF220">
+        <v>0.5464249</v>
+      </c>
+      <c r="AG220">
+        <v>0.4469135</v>
+      </c>
+      <c r="AH220">
+        <v>1.2416712</v>
+      </c>
+      <c r="AI220">
+        <v>0.2719665</v>
+      </c>
+      <c r="AJ220">
+        <v>0.186849</v>
+      </c>
+      <c r="AK220">
+        <v>0.472256</v>
+      </c>
+      <c r="AL220">
+        <v>0.660153</v>
+      </c>
+      <c r="AM220">
+        <v>0.3625497</v>
+      </c>
+      <c r="AN220">
+        <v>0.4331354</v>
+      </c>
+      <c r="AO220">
+        <v>0.8745398</v>
+      </c>
+      <c r="AP220">
+        <v>0.307853</v>
+      </c>
+      <c r="AQ220">
+        <v>0.3783618</v>
+      </c>
+      <c r="AS220">
+        <v>0.4786827</v>
+      </c>
+      <c r="AT220">
+        <v>0.5688708</v>
+      </c>
+      <c r="AU220">
+        <v>1.0262104</v>
+      </c>
+      <c r="AV220">
+        <v>0.8395403</v>
+      </c>
+      <c r="AW220">
+        <v>0.756589</v>
+      </c>
+      <c r="AX220">
+        <v>0.680167</v>
+      </c>
+      <c r="AY220">
+        <v>0.5471535</v>
+      </c>
+      <c r="BA220">
+        <v>0.5258895</v>
+      </c>
+      <c r="BB220">
+        <v>0.4604249</v>
+      </c>
+      <c r="BC220">
+        <v>0.5266488</v>
+      </c>
+      <c r="BD220">
+        <v>0.4930344</v>
+      </c>
+      <c r="BE220">
+        <v>1.0102207</v>
       </c>
     </row>
     <row r="221" spans="1:57">

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>Alaska</t>
   </si>
@@ -842,6 +842,27 @@
   </si>
   <si>
     <t>07 09 2020</t>
+  </si>
+  <si>
+    <t>08 09 2020</t>
+  </si>
+  <si>
+    <t>09 09 2020</t>
+  </si>
+  <si>
+    <t>10 09 2020</t>
+  </si>
+  <si>
+    <t>11 09 2020</t>
+  </si>
+  <si>
+    <t>12 09 2020</t>
+  </si>
+  <si>
+    <t>13 09 2020</t>
+  </si>
+  <si>
+    <t>14 09 2020</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE221"/>
+  <dimension ref="A1:BE228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25649,7 +25670,7 @@
         <v>0.1717529</v>
       </c>
       <c r="L217">
-        <v>0.6431988</v>
+        <v>0.6431656</v>
       </c>
       <c r="M217">
         <v>0.8513411</v>
@@ -25682,7 +25703,7 @@
         <v>0.2518441</v>
       </c>
       <c r="X217">
-        <v>0.3398194</v>
+        <v>0.339749</v>
       </c>
       <c r="Y217">
         <v>0.4033965</v>
@@ -25766,7 +25787,7 @@
         <v>0.378849</v>
       </c>
       <c r="BC217">
-        <v>0.5162419</v>
+        <v>0.5161563</v>
       </c>
       <c r="BD217">
         <v>0.4539917</v>
@@ -25807,7 +25828,7 @@
         <v>0.2524743</v>
       </c>
       <c r="L218">
-        <v>0.6206903</v>
+        <v>0.6206581</v>
       </c>
       <c r="M218">
         <v>0.8489355</v>
@@ -25840,7 +25861,7 @@
         <v>0.254399</v>
       </c>
       <c r="X218">
-        <v>0.3407749</v>
+        <v>0.3407038</v>
       </c>
       <c r="Y218">
         <v>0.4792215</v>
@@ -25924,7 +25945,7 @@
         <v>0.406117</v>
       </c>
       <c r="BC218">
-        <v>0.5076329000000001</v>
+        <v>0.5075484</v>
       </c>
       <c r="BD218">
         <v>0.4707179</v>
@@ -25965,7 +25986,7 @@
         <v>0.2619241</v>
       </c>
       <c r="L219">
-        <v>0.6247365</v>
+        <v>0.6247034</v>
       </c>
       <c r="M219">
         <v>0.8132208</v>
@@ -25998,7 +26019,7 @@
         <v>0.2660872</v>
       </c>
       <c r="X219">
-        <v>0.3446569</v>
+        <v>0.3445838</v>
       </c>
       <c r="Y219">
         <v>0.4019326</v>
@@ -26082,7 +26103,7 @@
         <v>0.4337745</v>
       </c>
       <c r="BC219">
-        <v>0.5467332</v>
+        <v>0.5466399</v>
       </c>
       <c r="BD219">
         <v>0.4524682</v>
@@ -26108,7 +26129,7 @@
         <v>0.4711344</v>
       </c>
       <c r="G220">
-        <v>0.4528856</v>
+        <v>0.4528665</v>
       </c>
       <c r="H220">
         <v>0.4660323</v>
@@ -26123,7 +26144,7 @@
         <v>0.2675663</v>
       </c>
       <c r="L220">
-        <v>0.5949643</v>
+        <v>0.594932</v>
       </c>
       <c r="M220">
         <v>0.8518115000000001</v>
@@ -26156,7 +26177,7 @@
         <v>0.2931224</v>
       </c>
       <c r="X220">
-        <v>0.3163683</v>
+        <v>0.3162993</v>
       </c>
       <c r="Y220">
         <v>0.2416824</v>
@@ -26225,7 +26246,7 @@
         <v>0.8395403</v>
       </c>
       <c r="AW220">
-        <v>0.756589</v>
+        <v>0.7565516</v>
       </c>
       <c r="AX220">
         <v>0.680167</v>
@@ -26240,7 +26261,7 @@
         <v>0.4604249</v>
       </c>
       <c r="BC220">
-        <v>0.5266488</v>
+        <v>0.5265579</v>
       </c>
       <c r="BD220">
         <v>0.4930344</v>
@@ -26252,6 +26273,1112 @@
     <row r="221" spans="1:57">
       <c r="A221" t="s">
         <v>275</v>
+      </c>
+      <c r="B221">
+        <v>0.3347136</v>
+      </c>
+      <c r="C221">
+        <v>1.0544599</v>
+      </c>
+      <c r="D221">
+        <v>0.8910583</v>
+      </c>
+      <c r="F221">
+        <v>0.5968199</v>
+      </c>
+      <c r="G221">
+        <v>0.4252703</v>
+      </c>
+      <c r="H221">
+        <v>0.5148606999999999</v>
+      </c>
+      <c r="I221">
+        <v>0.2166225</v>
+      </c>
+      <c r="J221">
+        <v>0.6474417</v>
+      </c>
+      <c r="K221">
+        <v>0.3277264</v>
+      </c>
+      <c r="L221">
+        <v>0.6197112</v>
+      </c>
+      <c r="M221">
+        <v>0.8001451000000001</v>
+      </c>
+      <c r="O221">
+        <v>0.1966146</v>
+      </c>
+      <c r="P221">
+        <v>0.991238</v>
+      </c>
+      <c r="Q221">
+        <v>0.9885546</v>
+      </c>
+      <c r="R221">
+        <v>0.6243072</v>
+      </c>
+      <c r="S221">
+        <v>0.7867527</v>
+      </c>
+      <c r="T221">
+        <v>0.7422598</v>
+      </c>
+      <c r="U221">
+        <v>0.6093631</v>
+      </c>
+      <c r="V221">
+        <v>0.6904088</v>
+      </c>
+      <c r="W221">
+        <v>0.3211003</v>
+      </c>
+      <c r="X221">
+        <v>0.2889477</v>
+      </c>
+      <c r="Y221">
+        <v>0.3503425</v>
+      </c>
+      <c r="Z221">
+        <v>0.4554259</v>
+      </c>
+      <c r="AA221">
+        <v>0.6122507</v>
+      </c>
+      <c r="AB221">
+        <v>0.8850158</v>
+      </c>
+      <c r="AD221">
+        <v>1.0218092</v>
+      </c>
+      <c r="AE221">
+        <v>0.4746033</v>
+      </c>
+      <c r="AF221">
+        <v>0.5224618</v>
+      </c>
+      <c r="AG221">
+        <v>0.7389217</v>
+      </c>
+      <c r="AH221">
+        <v>1.3493849</v>
+      </c>
+      <c r="AI221">
+        <v>0.2810693</v>
+      </c>
+      <c r="AJ221">
+        <v>0.1867376</v>
+      </c>
+      <c r="AK221">
+        <v>0.4197149</v>
+      </c>
+      <c r="AL221">
+        <v>0.76176</v>
+      </c>
+      <c r="AM221">
+        <v>0.3840781</v>
+      </c>
+      <c r="AN221">
+        <v>0.4520036</v>
+      </c>
+      <c r="AO221">
+        <v>0.9354709</v>
+      </c>
+      <c r="AP221">
+        <v>0.3392905</v>
+      </c>
+      <c r="AQ221">
+        <v>0.3720495</v>
+      </c>
+      <c r="AS221">
+        <v>0.598445</v>
+      </c>
+      <c r="AT221">
+        <v>0.6198005</v>
+      </c>
+      <c r="AU221">
+        <v>1.2248118</v>
+      </c>
+      <c r="AV221">
+        <v>0.8262567</v>
+      </c>
+      <c r="AW221">
+        <v>0.7203092</v>
+      </c>
+      <c r="AX221">
+        <v>0.7059873</v>
+      </c>
+      <c r="AY221">
+        <v>0.5209808</v>
+      </c>
+      <c r="BA221">
+        <v>0.621519</v>
+      </c>
+      <c r="BB221">
+        <v>0.4768944</v>
+      </c>
+      <c r="BC221">
+        <v>0.5624344999999999</v>
+      </c>
+      <c r="BD221">
+        <v>0.516447</v>
+      </c>
+      <c r="BE221">
+        <v>0.9531287000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:57">
+      <c r="A222" t="s">
+        <v>276</v>
+      </c>
+      <c r="B222">
+        <v>0.4226986</v>
+      </c>
+      <c r="C222">
+        <v>0.94617</v>
+      </c>
+      <c r="D222">
+        <v>0.7737508</v>
+      </c>
+      <c r="F222">
+        <v>0.5894885</v>
+      </c>
+      <c r="G222">
+        <v>0.4118265</v>
+      </c>
+      <c r="H222">
+        <v>0.5607722000000001</v>
+      </c>
+      <c r="I222">
+        <v>0.1904293</v>
+      </c>
+      <c r="J222">
+        <v>0.4937092</v>
+      </c>
+      <c r="K222">
+        <v>0.3061224</v>
+      </c>
+      <c r="L222">
+        <v>0.6270478</v>
+      </c>
+      <c r="M222">
+        <v>0.8459105</v>
+      </c>
+      <c r="O222">
+        <v>0.2010117</v>
+      </c>
+      <c r="P222">
+        <v>1.0553306</v>
+      </c>
+      <c r="Q222">
+        <v>0.9245186</v>
+      </c>
+      <c r="R222">
+        <v>0.6633119</v>
+      </c>
+      <c r="S222">
+        <v>0.8245114</v>
+      </c>
+      <c r="T222">
+        <v>0.7105188</v>
+      </c>
+      <c r="U222">
+        <v>0.5195399000000001</v>
+      </c>
+      <c r="V222">
+        <v>0.7951041</v>
+      </c>
+      <c r="W222">
+        <v>0.3124991</v>
+      </c>
+      <c r="X222">
+        <v>0.324725</v>
+      </c>
+      <c r="Y222">
+        <v>0.3294777</v>
+      </c>
+      <c r="Z222">
+        <v>0.4740468</v>
+      </c>
+      <c r="AA222">
+        <v>0.5820455</v>
+      </c>
+      <c r="AB222">
+        <v>0.9334741</v>
+      </c>
+      <c r="AD222">
+        <v>0.9548885</v>
+      </c>
+      <c r="AE222">
+        <v>0.5393911</v>
+      </c>
+      <c r="AF222">
+        <v>0.5597391</v>
+      </c>
+      <c r="AG222">
+        <v>0.8451945</v>
+      </c>
+      <c r="AH222">
+        <v>1.3441838</v>
+      </c>
+      <c r="AI222">
+        <v>0.2075318</v>
+      </c>
+      <c r="AJ222">
+        <v>0.1795839</v>
+      </c>
+      <c r="AK222">
+        <v>0.3902468</v>
+      </c>
+      <c r="AL222">
+        <v>0.7643867</v>
+      </c>
+      <c r="AM222">
+        <v>0.3671089</v>
+      </c>
+      <c r="AN222">
+        <v>0.5071397</v>
+      </c>
+      <c r="AO222">
+        <v>0.9462206</v>
+      </c>
+      <c r="AP222">
+        <v>0.3680947</v>
+      </c>
+      <c r="AQ222">
+        <v>0.3928694</v>
+      </c>
+      <c r="AS222">
+        <v>0.6525639</v>
+      </c>
+      <c r="AT222">
+        <v>0.679525</v>
+      </c>
+      <c r="AU222">
+        <v>1.2697386</v>
+      </c>
+      <c r="AV222">
+        <v>0.7489366</v>
+      </c>
+      <c r="AW222">
+        <v>0.7061197</v>
+      </c>
+      <c r="AX222">
+        <v>0.6680397</v>
+      </c>
+      <c r="AY222">
+        <v>0.5931243</v>
+      </c>
+      <c r="BA222">
+        <v>0.4992088</v>
+      </c>
+      <c r="BB222">
+        <v>0.4657631</v>
+      </c>
+      <c r="BC222">
+        <v>0.5743646</v>
+      </c>
+      <c r="BD222">
+        <v>0.6682018</v>
+      </c>
+      <c r="BE222">
+        <v>0.8707214</v>
+      </c>
+    </row>
+    <row r="223" spans="1:57">
+      <c r="A223" t="s">
+        <v>277</v>
+      </c>
+      <c r="B223">
+        <v>0.4694646</v>
+      </c>
+      <c r="C223">
+        <v>0.8980487</v>
+      </c>
+      <c r="D223">
+        <v>0.8660442</v>
+      </c>
+      <c r="F223">
+        <v>0.5562953</v>
+      </c>
+      <c r="G223">
+        <v>0.3983495</v>
+      </c>
+      <c r="H223">
+        <v>0.6343137</v>
+      </c>
+      <c r="I223">
+        <v>0.1791058</v>
+      </c>
+      <c r="J223">
+        <v>0.1110289</v>
+      </c>
+      <c r="K223">
+        <v>0.4022072</v>
+      </c>
+      <c r="L223">
+        <v>0.6197759</v>
+      </c>
+      <c r="M223">
+        <v>0.7849433</v>
+      </c>
+      <c r="O223">
+        <v>0.2982601</v>
+      </c>
+      <c r="P223">
+        <v>1.0133926</v>
+      </c>
+      <c r="Q223">
+        <v>0.9828504</v>
+      </c>
+      <c r="R223">
+        <v>0.6312591</v>
+      </c>
+      <c r="S223">
+        <v>0.8053696</v>
+      </c>
+      <c r="T223">
+        <v>0.7018316</v>
+      </c>
+      <c r="U223">
+        <v>0.5152156</v>
+      </c>
+      <c r="V223">
+        <v>0.7404828</v>
+      </c>
+      <c r="W223">
+        <v>0.3522254</v>
+      </c>
+      <c r="X223">
+        <v>0.2497851</v>
+      </c>
+      <c r="Y223">
+        <v>0.2711324</v>
+      </c>
+      <c r="Z223">
+        <v>0.4340591</v>
+      </c>
+      <c r="AA223">
+        <v>0.5389932</v>
+      </c>
+      <c r="AB223">
+        <v>0.9918337</v>
+      </c>
+      <c r="AD223">
+        <v>0.8786075</v>
+      </c>
+      <c r="AE223">
+        <v>0.5427902999999999</v>
+      </c>
+      <c r="AF223">
+        <v>0.5914454</v>
+      </c>
+      <c r="AG223">
+        <v>0.7340644</v>
+      </c>
+      <c r="AH223">
+        <v>1.0387021</v>
+      </c>
+      <c r="AI223">
+        <v>0.2034429</v>
+      </c>
+      <c r="AJ223">
+        <v>0.2290289</v>
+      </c>
+      <c r="AK223">
+        <v>0.3194227</v>
+      </c>
+      <c r="AL223">
+        <v>0.6148432</v>
+      </c>
+      <c r="AM223">
+        <v>0.3969299</v>
+      </c>
+      <c r="AN223">
+        <v>0.4768183</v>
+      </c>
+      <c r="AO223">
+        <v>0.9983642</v>
+      </c>
+      <c r="AP223">
+        <v>0.2887357</v>
+      </c>
+      <c r="AQ223">
+        <v>0.3249615</v>
+      </c>
+      <c r="AS223">
+        <v>0.6289955</v>
+      </c>
+      <c r="AT223">
+        <v>0.6528433</v>
+      </c>
+      <c r="AU223">
+        <v>1.3152443</v>
+      </c>
+      <c r="AV223">
+        <v>0.675307</v>
+      </c>
+      <c r="AW223">
+        <v>0.6907435</v>
+      </c>
+      <c r="AX223">
+        <v>0.6043153999999999</v>
+      </c>
+      <c r="AY223">
+        <v>0.5994249</v>
+      </c>
+      <c r="BA223">
+        <v>0.5477065</v>
+      </c>
+      <c r="BB223">
+        <v>0.4101413</v>
+      </c>
+      <c r="BC223">
+        <v>0.4824523</v>
+      </c>
+      <c r="BD223">
+        <v>0.6406212</v>
+      </c>
+      <c r="BE223">
+        <v>1.048486</v>
+      </c>
+    </row>
+    <row r="224" spans="1:57">
+      <c r="A224" t="s">
+        <v>278</v>
+      </c>
+      <c r="B224">
+        <v>0.4246616</v>
+      </c>
+      <c r="C224">
+        <v>0.8847853</v>
+      </c>
+      <c r="D224">
+        <v>0.8026817000000001</v>
+      </c>
+      <c r="F224">
+        <v>0.5531236</v>
+      </c>
+      <c r="G224">
+        <v>0.3884633</v>
+      </c>
+      <c r="H224">
+        <v>0.5804665</v>
+      </c>
+      <c r="I224">
+        <v>0.1681555</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0.4952713</v>
+      </c>
+      <c r="L224">
+        <v>0.6031571</v>
+      </c>
+      <c r="M224">
+        <v>0.7616379</v>
+      </c>
+      <c r="O224">
+        <v>0.3048264</v>
+      </c>
+      <c r="P224">
+        <v>1.0478427</v>
+      </c>
+      <c r="Q224">
+        <v>0.8946232</v>
+      </c>
+      <c r="R224">
+        <v>0.6367683</v>
+      </c>
+      <c r="S224">
+        <v>0.7716912</v>
+      </c>
+      <c r="T224">
+        <v>0.7111976</v>
+      </c>
+      <c r="U224">
+        <v>0.4972781</v>
+      </c>
+      <c r="V224">
+        <v>0.8185757</v>
+      </c>
+      <c r="W224">
+        <v>0.2972767</v>
+      </c>
+      <c r="X224">
+        <v>0.2811277</v>
+      </c>
+      <c r="Y224">
+        <v>0.3592979</v>
+      </c>
+      <c r="Z224">
+        <v>0.4684673</v>
+      </c>
+      <c r="AA224">
+        <v>0.5375185</v>
+      </c>
+      <c r="AB224">
+        <v>0.9580867</v>
+      </c>
+      <c r="AD224">
+        <v>1.0232772</v>
+      </c>
+      <c r="AE224">
+        <v>0.6165333</v>
+      </c>
+      <c r="AF224">
+        <v>0.5553960999999999</v>
+      </c>
+      <c r="AG224">
+        <v>0.6913122</v>
+      </c>
+      <c r="AH224">
+        <v>0.9635994</v>
+      </c>
+      <c r="AI224">
+        <v>0.1518212</v>
+      </c>
+      <c r="AJ224">
+        <v>0.2227696</v>
+      </c>
+      <c r="AK224">
+        <v>0.2653212</v>
+      </c>
+      <c r="AL224">
+        <v>0.7148747</v>
+      </c>
+      <c r="AM224">
+        <v>0.3800577</v>
+      </c>
+      <c r="AN224">
+        <v>0.5082738999999999</v>
+      </c>
+      <c r="AO224">
+        <v>0.9332014</v>
+      </c>
+      <c r="AP224">
+        <v>0.3820252</v>
+      </c>
+      <c r="AQ224">
+        <v>0.3252678</v>
+      </c>
+      <c r="AS224">
+        <v>0.6472879</v>
+      </c>
+      <c r="AT224">
+        <v>0.6646465</v>
+      </c>
+      <c r="AU224">
+        <v>1.1500744</v>
+      </c>
+      <c r="AV224">
+        <v>0.7169183</v>
+      </c>
+      <c r="AW224">
+        <v>0.7275092</v>
+      </c>
+      <c r="AX224">
+        <v>0.6311781</v>
+      </c>
+      <c r="AY224">
+        <v>0.5121582</v>
+      </c>
+      <c r="BA224">
+        <v>0.5423761</v>
+      </c>
+      <c r="BB224">
+        <v>0.4171337</v>
+      </c>
+      <c r="BC224">
+        <v>0.4188867</v>
+      </c>
+      <c r="BD224">
+        <v>0.5580549</v>
+      </c>
+      <c r="BE224">
+        <v>0.940327</v>
+      </c>
+    </row>
+    <row r="225" spans="1:57">
+      <c r="A225" t="s">
+        <v>279</v>
+      </c>
+      <c r="B225">
+        <v>0.3784219</v>
+      </c>
+      <c r="C225">
+        <v>0.8018313</v>
+      </c>
+      <c r="D225">
+        <v>0.760732</v>
+      </c>
+      <c r="F225">
+        <v>0.4868956</v>
+      </c>
+      <c r="G225">
+        <v>0.3811755</v>
+      </c>
+      <c r="H225">
+        <v>0.6331548</v>
+      </c>
+      <c r="I225">
+        <v>0.1909445</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0.4284263</v>
+      </c>
+      <c r="L225">
+        <v>0.581942</v>
+      </c>
+      <c r="M225">
+        <v>0.7176731</v>
+      </c>
+      <c r="O225">
+        <v>0.3978526</v>
+      </c>
+      <c r="P225">
+        <v>1.003167</v>
+      </c>
+      <c r="Q225">
+        <v>0.7569630000000001</v>
+      </c>
+      <c r="R225">
+        <v>0.6074746</v>
+      </c>
+      <c r="S225">
+        <v>0.698183</v>
+      </c>
+      <c r="T225">
+        <v>0.7535865</v>
+      </c>
+      <c r="U225">
+        <v>0.4753264</v>
+      </c>
+      <c r="V225">
+        <v>0.8046473</v>
+      </c>
+      <c r="W225">
+        <v>0.342143</v>
+      </c>
+      <c r="X225">
+        <v>0.3268361</v>
+      </c>
+      <c r="Y225">
+        <v>0.3068984</v>
+      </c>
+      <c r="Z225">
+        <v>0.4255997</v>
+      </c>
+      <c r="AA225">
+        <v>0.5718358</v>
+      </c>
+      <c r="AB225">
+        <v>0.8951195</v>
+      </c>
+      <c r="AD225">
+        <v>1.0176151</v>
+      </c>
+      <c r="AE225">
+        <v>0.6812729</v>
+      </c>
+      <c r="AF225">
+        <v>0.547832</v>
+      </c>
+      <c r="AG225">
+        <v>0.8024391</v>
+      </c>
+      <c r="AH225">
+        <v>0.7890547</v>
+      </c>
+      <c r="AI225">
+        <v>0.1652841</v>
+      </c>
+      <c r="AJ225">
+        <v>0.2462155</v>
+      </c>
+      <c r="AK225">
+        <v>0.2065955</v>
+      </c>
+      <c r="AL225">
+        <v>0.7232819</v>
+      </c>
+      <c r="AM225">
+        <v>0.3742921</v>
+      </c>
+      <c r="AN225">
+        <v>0.5553046</v>
+      </c>
+      <c r="AO225">
+        <v>0.8974084</v>
+      </c>
+      <c r="AP225">
+        <v>0.3527734</v>
+      </c>
+      <c r="AQ225">
+        <v>0.3073712</v>
+      </c>
+      <c r="AS225">
+        <v>0.6628324</v>
+      </c>
+      <c r="AT225">
+        <v>0.630559</v>
+      </c>
+      <c r="AU225">
+        <v>1.125204</v>
+      </c>
+      <c r="AV225">
+        <v>0.7695033</v>
+      </c>
+      <c r="AW225">
+        <v>0.7337985</v>
+      </c>
+      <c r="AX225">
+        <v>0.5238111</v>
+      </c>
+      <c r="AY225">
+        <v>0.5030476</v>
+      </c>
+      <c r="BA225">
+        <v>0.4706698</v>
+      </c>
+      <c r="BB225">
+        <v>0.4137233</v>
+      </c>
+      <c r="BC225">
+        <v>0.4498924</v>
+      </c>
+      <c r="BD225">
+        <v>0.6023816</v>
+      </c>
+      <c r="BE225">
+        <v>0.5462518</v>
+      </c>
+    </row>
+    <row r="226" spans="1:57">
+      <c r="A226" t="s">
+        <v>280</v>
+      </c>
+      <c r="B226">
+        <v>0.376438</v>
+      </c>
+      <c r="C226">
+        <v>0.6686873</v>
+      </c>
+      <c r="D226">
+        <v>0.7058416</v>
+      </c>
+      <c r="F226">
+        <v>0.484007</v>
+      </c>
+      <c r="G226">
+        <v>0.3886581</v>
+      </c>
+      <c r="H226">
+        <v>0.6304933</v>
+      </c>
+      <c r="I226">
+        <v>0.1702413</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0.4287773</v>
+      </c>
+      <c r="L226">
+        <v>0.6180247</v>
+      </c>
+      <c r="M226">
+        <v>0.6635294</v>
+      </c>
+      <c r="O226">
+        <v>0.3198504</v>
+      </c>
+      <c r="P226">
+        <v>1.0034107</v>
+      </c>
+      <c r="Q226">
+        <v>0.7229949</v>
+      </c>
+      <c r="R226">
+        <v>0.544471</v>
+      </c>
+      <c r="S226">
+        <v>0.6886544999999999</v>
+      </c>
+      <c r="T226">
+        <v>0.7302925</v>
+      </c>
+      <c r="U226">
+        <v>0.5167663</v>
+      </c>
+      <c r="V226">
+        <v>0.648145</v>
+      </c>
+      <c r="W226">
+        <v>0.340676</v>
+      </c>
+      <c r="X226">
+        <v>0.3243584</v>
+      </c>
+      <c r="Y226">
+        <v>0.3067318</v>
+      </c>
+      <c r="Z226">
+        <v>0.4101403</v>
+      </c>
+      <c r="AA226">
+        <v>0.5643594</v>
+      </c>
+      <c r="AB226">
+        <v>0.9390447</v>
+      </c>
+      <c r="AD226">
+        <v>0.9266152</v>
+      </c>
+      <c r="AE226">
+        <v>0.5073671</v>
+      </c>
+      <c r="AF226">
+        <v>0.5228221</v>
+      </c>
+      <c r="AG226">
+        <v>0.7867774</v>
+      </c>
+      <c r="AH226">
+        <v>0.5953083</v>
+      </c>
+      <c r="AI226">
+        <v>0.0850403</v>
+      </c>
+      <c r="AJ226">
+        <v>0.2484598</v>
+      </c>
+      <c r="AK226">
+        <v>0.2074978</v>
+      </c>
+      <c r="AL226">
+        <v>0.7231595</v>
+      </c>
+      <c r="AM226">
+        <v>0.3434071</v>
+      </c>
+      <c r="AN226">
+        <v>0.5626038</v>
+      </c>
+      <c r="AO226">
+        <v>0.8265842</v>
+      </c>
+      <c r="AP226">
+        <v>0.3233294</v>
+      </c>
+      <c r="AQ226">
+        <v>0.3835625</v>
+      </c>
+      <c r="AS226">
+        <v>0.7312332</v>
+      </c>
+      <c r="AT226">
+        <v>0.6831153</v>
+      </c>
+      <c r="AU226">
+        <v>1.1214745</v>
+      </c>
+      <c r="AV226">
+        <v>0.7458314</v>
+      </c>
+      <c r="AW226">
+        <v>0.6531695</v>
+      </c>
+      <c r="AX226">
+        <v>0.5185835</v>
+      </c>
+      <c r="AY226">
+        <v>0.4600205</v>
+      </c>
+      <c r="BA226">
+        <v>0.4763337</v>
+      </c>
+      <c r="BB226">
+        <v>0.4242207</v>
+      </c>
+      <c r="BC226">
+        <v>0.4950351</v>
+      </c>
+      <c r="BD226">
+        <v>0.5613345</v>
+      </c>
+      <c r="BE226">
+        <v>0.7340801</v>
+      </c>
+    </row>
+    <row r="227" spans="1:57">
+      <c r="A227" t="s">
+        <v>281</v>
+      </c>
+      <c r="B227">
+        <v>0.4468255</v>
+      </c>
+      <c r="C227">
+        <v>0.758768</v>
+      </c>
+      <c r="D227">
+        <v>0.8387426</v>
+      </c>
+      <c r="F227">
+        <v>0.4729999</v>
+      </c>
+      <c r="G227">
+        <v>0.3669905</v>
+      </c>
+      <c r="H227">
+        <v>0.5455095</v>
+      </c>
+      <c r="I227">
+        <v>0.2173014</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0.4064594</v>
+      </c>
+      <c r="L227">
+        <v>0.6177002</v>
+      </c>
+      <c r="M227">
+        <v>0.6227791</v>
+      </c>
+      <c r="O227">
+        <v>0.3261091</v>
+      </c>
+      <c r="P227">
+        <v>0.9180692</v>
+      </c>
+      <c r="Q227">
+        <v>0.7216827</v>
+      </c>
+      <c r="R227">
+        <v>0.5213421</v>
+      </c>
+      <c r="S227">
+        <v>0.680103</v>
+      </c>
+      <c r="T227">
+        <v>0.64749</v>
+      </c>
+      <c r="U227">
+        <v>0.433487</v>
+      </c>
+      <c r="V227">
+        <v>0.6660688</v>
+      </c>
+      <c r="W227">
+        <v>0.2884764</v>
+      </c>
+      <c r="X227">
+        <v>0.3418484</v>
+      </c>
+      <c r="Y227">
+        <v>0.3663912</v>
+      </c>
+      <c r="Z227">
+        <v>0.3886767</v>
+      </c>
+      <c r="AA227">
+        <v>0.591836</v>
+      </c>
+      <c r="AB227">
+        <v>0.9505425</v>
+      </c>
+      <c r="AD227">
+        <v>0.9110662</v>
+      </c>
+      <c r="AE227">
+        <v>0.5333203</v>
+      </c>
+      <c r="AF227">
+        <v>0.5791752</v>
+      </c>
+      <c r="AG227">
+        <v>0.7361115</v>
+      </c>
+      <c r="AH227">
+        <v>0.6764513</v>
+      </c>
+      <c r="AI227">
+        <v>0.1178698</v>
+      </c>
+      <c r="AJ227">
+        <v>0.2540021</v>
+      </c>
+      <c r="AK227">
+        <v>0.1238624</v>
+      </c>
+      <c r="AL227">
+        <v>0.6716746</v>
+      </c>
+      <c r="AM227">
+        <v>0.2949663</v>
+      </c>
+      <c r="AN227">
+        <v>0.5975058</v>
+      </c>
+      <c r="AO227">
+        <v>0.8903515</v>
+      </c>
+      <c r="AP227">
+        <v>0.3900878</v>
+      </c>
+      <c r="AQ227">
+        <v>0.381106</v>
+      </c>
+      <c r="AS227">
+        <v>0.4909864</v>
+      </c>
+      <c r="AT227">
+        <v>0.6824189000000001</v>
+      </c>
+      <c r="AU227">
+        <v>1.085925</v>
+      </c>
+      <c r="AV227">
+        <v>0.6867671</v>
+      </c>
+      <c r="AW227">
+        <v>0.5884046000000001</v>
+      </c>
+      <c r="AX227">
+        <v>0.560606</v>
+      </c>
+      <c r="AY227">
+        <v>0.4229261</v>
+      </c>
+      <c r="BA227">
+        <v>0.3356003</v>
+      </c>
+      <c r="BB227">
+        <v>0.3794238</v>
+      </c>
+      <c r="BC227">
+        <v>0.5349484</v>
+      </c>
+      <c r="BD227">
+        <v>0.5859354</v>
+      </c>
+      <c r="BE227">
+        <v>0.8692054</v>
+      </c>
+    </row>
+    <row r="228" spans="1:57">
+      <c r="A228" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/fb-surveyState.xlsx
+++ b/fb-surveyState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Alaska</t>
   </si>
@@ -863,6 +863,30 @@
   </si>
   <si>
     <t>14 09 2020</t>
+  </si>
+  <si>
+    <t>15 09 2020</t>
+  </si>
+  <si>
+    <t>16 09 2020</t>
+  </si>
+  <si>
+    <t>17 09 2020</t>
+  </si>
+  <si>
+    <t>18 09 2020</t>
+  </si>
+  <si>
+    <t>19 09 2020</t>
+  </si>
+  <si>
+    <t>20 09 2020</t>
+  </si>
+  <si>
+    <t>21 09 2020</t>
+  </si>
+  <si>
+    <t>22 09 2020</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE228"/>
+  <dimension ref="A1:BE236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27024,7 +27048,7 @@
         <v>0.3073712</v>
       </c>
       <c r="AS225">
-        <v>0.6628324</v>
+        <v>0.6621963</v>
       </c>
       <c r="AT225">
         <v>0.630559</v>
@@ -27074,7 +27098,7 @@
         <v>0.7058416</v>
       </c>
       <c r="F226">
-        <v>0.484007</v>
+        <v>0.4839117</v>
       </c>
       <c r="G226">
         <v>0.3886581</v>
@@ -27182,7 +27206,7 @@
         <v>0.3835625</v>
       </c>
       <c r="AS226">
-        <v>0.7312332</v>
+        <v>0.7305113</v>
       </c>
       <c r="AT226">
         <v>0.6831153</v>
@@ -27232,10 +27256,10 @@
         <v>0.8387426</v>
       </c>
       <c r="F227">
-        <v>0.4729999</v>
+        <v>0.4729058</v>
       </c>
       <c r="G227">
-        <v>0.3669905</v>
+        <v>0.3669543</v>
       </c>
       <c r="H227">
         <v>0.5455095</v>
@@ -27295,7 +27319,7 @@
         <v>0.591836</v>
       </c>
       <c r="AB227">
-        <v>0.9505425</v>
+        <v>0.9503575</v>
       </c>
       <c r="AD227">
         <v>0.9110662</v>
@@ -27319,7 +27343,7 @@
         <v>0.2540021</v>
       </c>
       <c r="AK227">
-        <v>0.1238624</v>
+        <v>0.1237894</v>
       </c>
       <c r="AL227">
         <v>0.6716746</v>
@@ -27340,7 +27364,7 @@
         <v>0.381106</v>
       </c>
       <c r="AS227">
-        <v>0.4909864</v>
+        <v>0.4904949</v>
       </c>
       <c r="AT227">
         <v>0.6824189000000001</v>
@@ -27364,7 +27388,7 @@
         <v>0.3356003</v>
       </c>
       <c r="BB227">
-        <v>0.3794238</v>
+        <v>0.3793658</v>
       </c>
       <c r="BC227">
         <v>0.5349484</v>
@@ -27379,6 +27403,1270 @@
     <row r="228" spans="1:57">
       <c r="A228" t="s">
         <v>282</v>
+      </c>
+      <c r="B228">
+        <v>0.371971</v>
+      </c>
+      <c r="C228">
+        <v>0.8058954</v>
+      </c>
+      <c r="D228">
+        <v>0.8540886</v>
+      </c>
+      <c r="F228">
+        <v>0.4073884</v>
+      </c>
+      <c r="G228">
+        <v>0.3810135</v>
+      </c>
+      <c r="H228">
+        <v>0.4876522</v>
+      </c>
+      <c r="I228">
+        <v>0.2244028</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0.3249969</v>
+      </c>
+      <c r="L228">
+        <v>0.599247</v>
+      </c>
+      <c r="M228">
+        <v>0.5352048</v>
+      </c>
+      <c r="O228">
+        <v>0.3507546</v>
+      </c>
+      <c r="P228">
+        <v>0.9131783999999999</v>
+      </c>
+      <c r="Q228">
+        <v>0.7945908</v>
+      </c>
+      <c r="R228">
+        <v>0.4892025</v>
+      </c>
+      <c r="S228">
+        <v>0.6471614999999999</v>
+      </c>
+      <c r="T228">
+        <v>0.6138888</v>
+      </c>
+      <c r="U228">
+        <v>0.4412975</v>
+      </c>
+      <c r="V228">
+        <v>0.6684187</v>
+      </c>
+      <c r="W228">
+        <v>0.2503549</v>
+      </c>
+      <c r="X228">
+        <v>0.3866661</v>
+      </c>
+      <c r="Y228">
+        <v>0.3244097</v>
+      </c>
+      <c r="Z228">
+        <v>0.4103998</v>
+      </c>
+      <c r="AA228">
+        <v>0.4257241</v>
+      </c>
+      <c r="AB228">
+        <v>0.9536376</v>
+      </c>
+      <c r="AD228">
+        <v>0.8914954</v>
+      </c>
+      <c r="AE228">
+        <v>0.6310587</v>
+      </c>
+      <c r="AF228">
+        <v>0.6324635</v>
+      </c>
+      <c r="AG228">
+        <v>0.79422</v>
+      </c>
+      <c r="AH228">
+        <v>0.6203216</v>
+      </c>
+      <c r="AI228">
+        <v>0.1961781</v>
+      </c>
+      <c r="AJ228">
+        <v>0.2778791</v>
+      </c>
+      <c r="AK228">
+        <v>0.2751662</v>
+      </c>
+      <c r="AL228">
+        <v>0.5666847</v>
+      </c>
+      <c r="AM228">
+        <v>0.2731143</v>
+      </c>
+      <c r="AN228">
+        <v>0.6058914</v>
+      </c>
+      <c r="AO228">
+        <v>0.8534325</v>
+      </c>
+      <c r="AP228">
+        <v>0.4560462</v>
+      </c>
+      <c r="AQ228">
+        <v>0.4141479</v>
+      </c>
+      <c r="AS228">
+        <v>0.3649669</v>
+      </c>
+      <c r="AT228">
+        <v>0.6582498</v>
+      </c>
+      <c r="AU228">
+        <v>1.0295581</v>
+      </c>
+      <c r="AV228">
+        <v>0.7286686999999999</v>
+      </c>
+      <c r="AW228">
+        <v>0.5586225</v>
+      </c>
+      <c r="AX228">
+        <v>0.5193559</v>
+      </c>
+      <c r="AY228">
+        <v>0.4019887</v>
+      </c>
+      <c r="BA228">
+        <v>0.2377266</v>
+      </c>
+      <c r="BB228">
+        <v>0.4024332</v>
+      </c>
+      <c r="BC228">
+        <v>0.5113327</v>
+      </c>
+      <c r="BD228">
+        <v>0.5688602</v>
+      </c>
+      <c r="BE228">
+        <v>0.960157</v>
+      </c>
+    </row>
+    <row r="229" spans="1:57">
+      <c r="A229" t="s">
+        <v>283</v>
+      </c>
+      <c r="B229">
+        <v>0.4186975</v>
+      </c>
+      <c r="C229">
+        <v>0.8937809</v>
+      </c>
+      <c r="D229">
+        <v>0.8819896</v>
+      </c>
+      <c r="F229">
+        <v>0.4308956</v>
+      </c>
+      <c r="G229">
+        <v>0.4061245</v>
+      </c>
+      <c r="H229">
+        <v>0.3937312</v>
+      </c>
+      <c r="I229">
+        <v>0.2651083</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0.3088159</v>
+      </c>
+      <c r="L229">
+        <v>0.5595182</v>
+      </c>
+      <c r="M229">
+        <v>0.5323234</v>
+      </c>
+      <c r="O229">
+        <v>0.3507546</v>
+      </c>
+      <c r="P229">
+        <v>0.7762841</v>
+      </c>
+      <c r="Q229">
+        <v>0.7228182</v>
+      </c>
+      <c r="R229">
+        <v>0.5128939</v>
+      </c>
+      <c r="S229">
+        <v>0.6497117</v>
+      </c>
+      <c r="T229">
+        <v>0.6706942</v>
+      </c>
+      <c r="U229">
+        <v>0.5487328</v>
+      </c>
+      <c r="V229">
+        <v>0.5524230999999999</v>
+      </c>
+      <c r="W229">
+        <v>0.2200409</v>
+      </c>
+      <c r="X229">
+        <v>0.2748056</v>
+      </c>
+      <c r="Y229">
+        <v>0.2802945</v>
+      </c>
+      <c r="Z229">
+        <v>0.3568331</v>
+      </c>
+      <c r="AA229">
+        <v>0.4114911</v>
+      </c>
+      <c r="AB229">
+        <v>0.9174749</v>
+      </c>
+      <c r="AD229">
+        <v>0.8316572</v>
+      </c>
+      <c r="AE229">
+        <v>0.605159</v>
+      </c>
+      <c r="AF229">
+        <v>0.5939768</v>
+      </c>
+      <c r="AG229">
+        <v>0.851965</v>
+      </c>
+      <c r="AH229">
+        <v>0.7063016</v>
+      </c>
+      <c r="AI229">
+        <v>0.2029138</v>
+      </c>
+      <c r="AJ229">
+        <v>0.2705225</v>
+      </c>
+      <c r="AK229">
+        <v>0.3594225</v>
+      </c>
+      <c r="AL229">
+        <v>0.4916283</v>
+      </c>
+      <c r="AM229">
+        <v>0.2442513</v>
+      </c>
+      <c r="AN229">
+        <v>0.577535</v>
+      </c>
+      <c r="AO229">
+        <v>0.8539973</v>
+      </c>
+      <c r="AP229">
+        <v>0.4884097</v>
+      </c>
+      <c r="AQ229">
+        <v>0.4086621</v>
+      </c>
+      <c r="AS229">
+        <v>0.210307</v>
+      </c>
+      <c r="AT229">
+        <v>0.6321306</v>
+      </c>
+      <c r="AU229">
+        <v>0.8897343</v>
+      </c>
+      <c r="AV229">
+        <v>0.7405551</v>
+      </c>
+      <c r="AW229">
+        <v>0.4978881</v>
+      </c>
+      <c r="AX229">
+        <v>0.5365824</v>
+      </c>
+      <c r="AY229">
+        <v>0.3464515</v>
+      </c>
+      <c r="BA229">
+        <v>0.2763266</v>
+      </c>
+      <c r="BB229">
+        <v>0.3876572</v>
+      </c>
+      <c r="BC229">
+        <v>0.4832487</v>
+      </c>
+      <c r="BD229">
+        <v>0.4656439</v>
+      </c>
+      <c r="BE229">
+        <v>1.0304327</v>
+      </c>
+    </row>
+    <row r="230" spans="1:57">
+      <c r="A230" t="s">
+        <v>284</v>
+      </c>
+      <c r="B230">
+        <v>0.3885215</v>
+      </c>
+      <c r="C230">
+        <v>0.8618216</v>
+      </c>
+      <c r="D230">
+        <v>0.8963577</v>
+      </c>
+      <c r="F230">
+        <v>0.4426352</v>
+      </c>
+      <c r="G230">
+        <v>0.4018376</v>
+      </c>
+      <c r="H230">
+        <v>0.3484401</v>
+      </c>
+      <c r="I230">
+        <v>0.2998075</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0.2300101</v>
+      </c>
+      <c r="L230">
+        <v>0.5790207000000001</v>
+      </c>
+      <c r="M230">
+        <v>0.5325828</v>
+      </c>
+      <c r="O230">
+        <v>0.4727528</v>
+      </c>
+      <c r="P230">
+        <v>0.877594</v>
+      </c>
+      <c r="Q230">
+        <v>0.6658321</v>
+      </c>
+      <c r="R230">
+        <v>0.5273556</v>
+      </c>
+      <c r="S230">
+        <v>0.6637044</v>
+      </c>
+      <c r="T230">
+        <v>0.6538134</v>
+      </c>
+      <c r="U230">
+        <v>0.4961394</v>
+      </c>
+      <c r="V230">
+        <v>0.6388892</v>
+      </c>
+      <c r="W230">
+        <v>0.2609632</v>
+      </c>
+      <c r="X230">
+        <v>0.3276242</v>
+      </c>
+      <c r="Y230">
+        <v>0.4289004</v>
+      </c>
+      <c r="Z230">
+        <v>0.3732513</v>
+      </c>
+      <c r="AA230">
+        <v>0.4380014</v>
+      </c>
+      <c r="AB230">
+        <v>0.9992451999999999</v>
+      </c>
+      <c r="AD230">
+        <v>0.7720898</v>
+      </c>
+      <c r="AE230">
+        <v>0.7738914</v>
+      </c>
+      <c r="AF230">
+        <v>0.5578886</v>
+      </c>
+      <c r="AG230">
+        <v>1.1002755</v>
+      </c>
+      <c r="AH230">
+        <v>0.8701446</v>
+      </c>
+      <c r="AI230">
+        <v>0.3543355</v>
+      </c>
+      <c r="AJ230">
+        <v>0.211717</v>
+      </c>
+      <c r="AK230">
+        <v>0.3725916</v>
+      </c>
+      <c r="AL230">
+        <v>0.574558</v>
+      </c>
+      <c r="AM230">
+        <v>0.2626725</v>
+      </c>
+      <c r="AN230">
+        <v>0.5614268</v>
+      </c>
+      <c r="AO230">
+        <v>0.8771763</v>
+      </c>
+      <c r="AP230">
+        <v>0.4893877</v>
+      </c>
+      <c r="AQ230">
+        <v>0.4287602</v>
+      </c>
+      <c r="AS230">
+        <v>0.2319789</v>
+      </c>
+      <c r="AT230">
+        <v>0.6328661</v>
+      </c>
+      <c r="AU230">
+        <v>0.8809636</v>
+      </c>
+      <c r="AV230">
+        <v>0.7837123</v>
+      </c>
+      <c r="AW230">
+        <v>0.5271103</v>
+      </c>
+      <c r="AX230">
+        <v>0.6386811</v>
+      </c>
+      <c r="AY230">
+        <v>0.3279765</v>
+      </c>
+      <c r="BA230">
+        <v>0.1161993</v>
+      </c>
+      <c r="BB230">
+        <v>0.3860873</v>
+      </c>
+      <c r="BC230">
+        <v>0.5125851</v>
+      </c>
+      <c r="BD230">
+        <v>0.504556</v>
+      </c>
+      <c r="BE230">
+        <v>0.8079382000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:57">
+      <c r="A231" t="s">
+        <v>285</v>
+      </c>
+      <c r="B231">
+        <v>0.7021804</v>
+      </c>
+      <c r="C231">
+        <v>0.8714584</v>
+      </c>
+      <c r="D231">
+        <v>0.9276403</v>
+      </c>
+      <c r="F231">
+        <v>0.4838398</v>
+      </c>
+      <c r="G231">
+        <v>0.4483588</v>
+      </c>
+      <c r="H231">
+        <v>0.3829198</v>
+      </c>
+      <c r="I231">
+        <v>0.2869069</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0.1411567</v>
+      </c>
+      <c r="L231">
+        <v>0.5543985</v>
+      </c>
+      <c r="M231">
+        <v>0.4453636</v>
+      </c>
+      <c r="O231">
+        <v>0.5811423999999999</v>
+      </c>
+      <c r="P231">
+        <v>0.7877411</v>
+      </c>
+      <c r="Q231">
+        <v>0.5907874</v>
+      </c>
+      <c r="R231">
+        <v>0.4909111</v>
+      </c>
+      <c r="S231">
+        <v>0.6930911</v>
+      </c>
+      <c r="T231">
+        <v>0.6855234</v>
+      </c>
+      <c r="U231">
+        <v>0.5316082</v>
+      </c>
+      <c r="V231">
+        <v>0.6218920999999999</v>
+      </c>
+      <c r="W231">
+        <v>0.2717055</v>
+      </c>
+      <c r="X231">
+        <v>0.324412</v>
+      </c>
+      <c r="Y231">
+        <v>0.4639876</v>
+      </c>
+      <c r="Z231">
+        <v>0.3866428</v>
+      </c>
+      <c r="AA231">
+        <v>0.4182461</v>
+      </c>
+      <c r="AB231">
+        <v>1.0593914</v>
+      </c>
+      <c r="AD231">
+        <v>0.7321228</v>
+      </c>
+      <c r="AE231">
+        <v>0.747232</v>
+      </c>
+      <c r="AF231">
+        <v>0.5111831</v>
+      </c>
+      <c r="AG231">
+        <v>1.0501311</v>
+      </c>
+      <c r="AH231">
+        <v>0.9216051</v>
+      </c>
+      <c r="AI231">
+        <v>0.3696492</v>
+      </c>
+      <c r="AJ231">
+        <v>0.1982401</v>
+      </c>
+      <c r="AK231">
+        <v>0.4155956</v>
+      </c>
+      <c r="AL231">
+        <v>0.6223568</v>
+      </c>
+      <c r="AM231">
+        <v>0.2820127</v>
+      </c>
+      <c r="AN231">
+        <v>0.5980904</v>
+      </c>
+      <c r="AO231">
+        <v>0.8928718</v>
+      </c>
+      <c r="AP231">
+        <v>0.4165109</v>
+      </c>
+      <c r="AQ231">
+        <v>0.4327845</v>
+      </c>
+      <c r="AS231">
+        <v>0.2410107</v>
+      </c>
+      <c r="AT231">
+        <v>0.6608204</v>
+      </c>
+      <c r="AU231">
+        <v>1.0694741</v>
+      </c>
+      <c r="AV231">
+        <v>0.773102</v>
+      </c>
+      <c r="AW231">
+        <v>0.4798156</v>
+      </c>
+      <c r="AX231">
+        <v>0.5703884</v>
+      </c>
+      <c r="AY231">
+        <v>0.3450381</v>
+      </c>
+      <c r="BA231">
+        <v>0.2609433</v>
+      </c>
+      <c r="BB231">
+        <v>0.4320239</v>
+      </c>
+      <c r="BC231">
+        <v>0.5826379</v>
+      </c>
+      <c r="BD231">
+        <v>0.5554747</v>
+      </c>
+      <c r="BE231">
+        <v>0.9773230000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:57">
+      <c r="A232" t="s">
+        <v>286</v>
+      </c>
+      <c r="B232">
+        <v>0.8254652</v>
+      </c>
+      <c r="C232">
+        <v>0.8872845</v>
+      </c>
+      <c r="D232">
+        <v>1.030952</v>
+      </c>
+      <c r="F232">
+        <v>0.5689415</v>
+      </c>
+      <c r="G232">
+        <v>0.454615</v>
+      </c>
+      <c r="H232">
+        <v>0.3602846</v>
+      </c>
+      <c r="I232">
+        <v>0.2407838</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0.2690677</v>
+      </c>
+      <c r="L232">
+        <v>0.5790744</v>
+      </c>
+      <c r="M232">
+        <v>0.4925641</v>
+      </c>
+      <c r="O232">
+        <v>0.6234336</v>
+      </c>
+      <c r="P232">
+        <v>0.8967988</v>
+      </c>
+      <c r="Q232">
+        <v>0.4475845</v>
+      </c>
+      <c r="R232">
+        <v>0.5193954</v>
+      </c>
+      <c r="S232">
+        <v>0.6783135</v>
+      </c>
+      <c r="T232">
+        <v>0.7128939</v>
+      </c>
+      <c r="U232">
+        <v>0.5225783000000001</v>
+      </c>
+      <c r="V232">
+        <v>0.6521335</v>
+      </c>
+      <c r="W232">
+        <v>0.3079222</v>
+      </c>
+      <c r="X232">
+        <v>0.2997058</v>
+      </c>
+      <c r="Y232">
+        <v>0.4479104</v>
+      </c>
+      <c r="Z232">
+        <v>0.4259822</v>
+      </c>
+      <c r="AA232">
+        <v>0.375485</v>
+      </c>
+      <c r="AB232">
+        <v>1.1853732</v>
+      </c>
+      <c r="AD232">
+        <v>0.5650049</v>
+      </c>
+      <c r="AE232">
+        <v>0.7740576</v>
+      </c>
+      <c r="AF232">
+        <v>0.599415</v>
+      </c>
+      <c r="AG232">
+        <v>0.9439244</v>
+      </c>
+      <c r="AH232">
+        <v>0.8371714</v>
+      </c>
+      <c r="AI232">
+        <v>0.381048</v>
+      </c>
+      <c r="AJ232">
+        <v>0.2139474</v>
+      </c>
+      <c r="AK232">
+        <v>0.4758641</v>
+      </c>
+      <c r="AL232">
+        <v>0.7339272</v>
+      </c>
+      <c r="AM232">
+        <v>0.3067312</v>
+      </c>
+      <c r="AN232">
+        <v>0.5895705999999999</v>
+      </c>
+      <c r="AO232">
+        <v>0.8828676</v>
+      </c>
+      <c r="AP232">
+        <v>0.4961657</v>
+      </c>
+      <c r="AQ232">
+        <v>0.3987853</v>
+      </c>
+      <c r="AS232">
+        <v>0.2653249</v>
+      </c>
+      <c r="AT232">
+        <v>0.7329565</v>
+      </c>
+      <c r="AU232">
+        <v>1.1664279</v>
+      </c>
+      <c r="AV232">
+        <v>0.7609104</v>
+      </c>
+      <c r="AW232">
+        <v>0.4992067</v>
+      </c>
+      <c r="AX232">
+        <v>0.5823834</v>
+      </c>
+      <c r="AY232">
+        <v>0.3239357</v>
+      </c>
+      <c r="BA232">
+        <v>0.3760024</v>
+      </c>
+      <c r="BB232">
+        <v>0.403691</v>
+      </c>
+      <c r="BC232">
+        <v>0.694024</v>
+      </c>
+      <c r="BD232">
+        <v>0.4781483</v>
+      </c>
+      <c r="BE232">
+        <v>1.0574248</v>
+      </c>
+    </row>
+    <row r="233" spans="1:57">
+      <c r="A233" t="s">
+        <v>287</v>
+      </c>
+      <c r="B233">
+        <v>1.0719647</v>
+      </c>
+      <c r="C233">
+        <v>0.8205257</v>
+      </c>
+      <c r="D233">
+        <v>1.1528095</v>
+      </c>
+      <c r="F233">
+        <v>0.5185803</v>
+      </c>
+      <c r="G233">
+        <v>0.4353729</v>
+      </c>
+      <c r="H233">
+        <v>0.3317056</v>
+      </c>
+      <c r="I233">
+        <v>0.2593204</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0.3437825</v>
+      </c>
+      <c r="L233">
+        <v>0.5374747</v>
+      </c>
+      <c r="M233">
+        <v>0.6271563999999999</v>
+      </c>
+      <c r="O233">
+        <v>0.8541234</v>
+      </c>
+      <c r="P233">
+        <v>0.8321349</v>
+      </c>
+      <c r="Q233">
+        <v>0.3398586</v>
+      </c>
+      <c r="R233">
+        <v>0.52933</v>
+      </c>
+      <c r="S233">
+        <v>0.6417163</v>
+      </c>
+      <c r="T233">
+        <v>0.735307</v>
+      </c>
+      <c r="U233">
+        <v>0.5512375</v>
+      </c>
+      <c r="V233">
+        <v>0.6961371</v>
+      </c>
+      <c r="W233">
+        <v>0.3800992</v>
+      </c>
+      <c r="X233">
+        <v>0.2824137</v>
+      </c>
+      <c r="Y233">
+        <v>0.5301607</v>
+      </c>
+      <c r="Z233">
+        <v>0.4205515</v>
+      </c>
+      <c r="AA233">
+        <v>0.4629323</v>
+      </c>
+      <c r="AB233">
+        <v>1.0334641</v>
+      </c>
+      <c r="AD233">
+        <v>0.4960471</v>
+      </c>
+      <c r="AE233">
+        <v>0.9442729</v>
+      </c>
+      <c r="AF233">
+        <v>0.6072557</v>
+      </c>
+      <c r="AG233">
+        <v>1.0314774</v>
+      </c>
+      <c r="AH233">
+        <v>0.8784354</v>
+      </c>
+      <c r="AI233">
+        <v>0.3964385</v>
+      </c>
+      <c r="AJ233">
+        <v>0.21371</v>
+      </c>
+      <c r="AK233">
+        <v>0.4489199</v>
+      </c>
+      <c r="AL233">
+        <v>0.6426373</v>
+      </c>
+      <c r="AM233">
+        <v>0.3638613</v>
+      </c>
+      <c r="AN233">
+        <v>0.5311751</v>
+      </c>
+      <c r="AO233">
+        <v>0.9559483</v>
+      </c>
+      <c r="AP233">
+        <v>0.565791</v>
+      </c>
+      <c r="AQ233">
+        <v>0.3651742</v>
+      </c>
+      <c r="AS233">
+        <v>0.1527024</v>
+      </c>
+      <c r="AT233">
+        <v>0.5886022</v>
+      </c>
+      <c r="AU233">
+        <v>0.9921251</v>
+      </c>
+      <c r="AV233">
+        <v>0.7624355</v>
+      </c>
+      <c r="AW233">
+        <v>0.5070285</v>
+      </c>
+      <c r="AX233">
+        <v>0.5110696</v>
+      </c>
+      <c r="AY233">
+        <v>0.3925992</v>
+      </c>
+      <c r="BA233">
+        <v>0.5599218</v>
+      </c>
+      <c r="BB233">
+        <v>0.3648298</v>
+      </c>
+      <c r="BC233">
+        <v>0.6069771</v>
+      </c>
+      <c r="BD233">
+        <v>0.4982738</v>
+      </c>
+      <c r="BE233">
+        <v>1.0356274</v>
+      </c>
+    </row>
+    <row r="234" spans="1:57">
+      <c r="A234" t="s">
+        <v>288</v>
+      </c>
+      <c r="B234">
+        <v>0.8627675</v>
+      </c>
+      <c r="C234">
+        <v>0.7968769</v>
+      </c>
+      <c r="D234">
+        <v>1.1616021</v>
+      </c>
+      <c r="F234">
+        <v>0.4835553</v>
+      </c>
+      <c r="G234">
+        <v>0.4343217</v>
+      </c>
+      <c r="H234">
+        <v>0.3560745</v>
+      </c>
+      <c r="I234">
+        <v>0.2123922</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0.3739079</v>
+      </c>
+      <c r="L234">
+        <v>0.5104712</v>
+      </c>
+      <c r="M234">
+        <v>0.6011101</v>
+      </c>
+      <c r="O234">
+        <v>0.8483245</v>
+      </c>
+      <c r="P234">
+        <v>0.9754806</v>
+      </c>
+      <c r="Q234">
+        <v>0.3311997</v>
+      </c>
+      <c r="R234">
+        <v>0.5316386</v>
+      </c>
+      <c r="S234">
+        <v>0.6285745</v>
+      </c>
+      <c r="T234">
+        <v>0.6443624</v>
+      </c>
+      <c r="U234">
+        <v>0.5667839</v>
+      </c>
+      <c r="V234">
+        <v>0.7872224</v>
+      </c>
+      <c r="W234">
+        <v>0.4094919</v>
+      </c>
+      <c r="X234">
+        <v>0.3160508</v>
+      </c>
+      <c r="Y234">
+        <v>0.5054992</v>
+      </c>
+      <c r="Z234">
+        <v>0.4527684</v>
+      </c>
+      <c r="AA234">
+        <v>0.5082289</v>
+      </c>
+      <c r="AB234">
+        <v>1.0844807</v>
+      </c>
+      <c r="AD234">
+        <v>0.5265324</v>
+      </c>
+      <c r="AE234">
+        <v>0.8421414</v>
+      </c>
+      <c r="AF234">
+        <v>0.6226943</v>
+      </c>
+      <c r="AG234">
+        <v>1.1812489</v>
+      </c>
+      <c r="AH234">
+        <v>0.7641896</v>
+      </c>
+      <c r="AI234">
+        <v>0.3989935</v>
+      </c>
+      <c r="AJ234">
+        <v>0.2233081</v>
+      </c>
+      <c r="AK234">
+        <v>0.4586931</v>
+      </c>
+      <c r="AL234">
+        <v>0.7049886</v>
+      </c>
+      <c r="AM234">
+        <v>0.3775526</v>
+      </c>
+      <c r="AN234">
+        <v>0.5144835</v>
+      </c>
+      <c r="AO234">
+        <v>0.9542241</v>
+      </c>
+      <c r="AP234">
+        <v>0.5188143</v>
+      </c>
+      <c r="AQ234">
+        <v>0.4009074</v>
+      </c>
+      <c r="AS234">
+        <v>0.1596598</v>
+      </c>
+      <c r="AT234">
+        <v>0.6407497</v>
+      </c>
+      <c r="AU234">
+        <v>1.0365538</v>
+      </c>
+      <c r="AV234">
+        <v>0.8190368</v>
+      </c>
+      <c r="AW234">
+        <v>0.5443291</v>
+      </c>
+      <c r="AX234">
+        <v>0.5032956</v>
+      </c>
+      <c r="AY234">
+        <v>0.41665</v>
+      </c>
+      <c r="BA234">
+        <v>0.5107119</v>
+      </c>
+      <c r="BB234">
+        <v>0.3962952</v>
+      </c>
+      <c r="BC234">
+        <v>0.6019951</v>
+      </c>
+      <c r="BD234">
+        <v>0.5266366</v>
+      </c>
+      <c r="BE234">
+        <v>0.826819</v>
+      </c>
+    </row>
+    <row r="235" spans="1:57">
+      <c r="A235" t="s">
+        <v>289</v>
+      </c>
+      <c r="B235">
+        <v>0.8520979</v>
+      </c>
+      <c r="C235">
+        <v>0.7976114</v>
+      </c>
+      <c r="D235">
+        <v>1.0767865</v>
+      </c>
+      <c r="F235">
+        <v>0.4290631</v>
+      </c>
+      <c r="G235">
+        <v>0.41878</v>
+      </c>
+      <c r="H235">
+        <v>0.3757794</v>
+      </c>
+      <c r="I235">
+        <v>0.2377145</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0.4281932</v>
+      </c>
+      <c r="L235">
+        <v>0.4753729</v>
+      </c>
+      <c r="M235">
+        <v>0.7115808</v>
+      </c>
+      <c r="O235">
+        <v>0.7956115</v>
+      </c>
+      <c r="P235">
+        <v>0.9940932</v>
+      </c>
+      <c r="Q235">
+        <v>0.3544114</v>
+      </c>
+      <c r="R235">
+        <v>0.5940683</v>
+      </c>
+      <c r="S235">
+        <v>0.6697963</v>
+      </c>
+      <c r="T235">
+        <v>0.6773175</v>
+      </c>
+      <c r="U235">
+        <v>0.5969192</v>
+      </c>
+      <c r="V235">
+        <v>0.7926989</v>
+      </c>
+      <c r="W235">
+        <v>0.3988289</v>
+      </c>
+      <c r="X235">
+        <v>0.3058082</v>
+      </c>
+      <c r="Y235">
+        <v>0.4668412</v>
+      </c>
+      <c r="Z235">
+        <v>0.4305549</v>
+      </c>
+      <c r="AA235">
+        <v>0.5985482</v>
+      </c>
+      <c r="AB235">
+        <v>0.9992864</v>
+      </c>
+      <c r="AD235">
+        <v>0.5904047</v>
+      </c>
+      <c r="AE235">
+        <v>0.9062537000000001</v>
+      </c>
+      <c r="AF235">
+        <v>0.5949089</v>
+      </c>
+      <c r="AG235">
+        <v>0.6210904</v>
+      </c>
+      <c r="AH235">
+        <v>0.85947</v>
+      </c>
+      <c r="AI235">
+        <v>0.3964099</v>
+      </c>
+      <c r="AJ235">
+        <v>0.1849785</v>
+      </c>
+      <c r="AK235">
+        <v>0.3711528</v>
+      </c>
+      <c r="AL235">
+        <v>0.9279991</v>
+      </c>
+      <c r="AM235">
+        <v>0.3825923</v>
+      </c>
+      <c r="AN235">
+        <v>0.5072812</v>
+      </c>
+      <c r="AO235">
+        <v>0.8962166</v>
+      </c>
+      <c r="AP235">
+        <v>0.4767553</v>
+      </c>
+      <c r="AQ235">
+        <v>0.3800296</v>
+      </c>
+      <c r="AS235">
+        <v>0.204085</v>
+      </c>
+      <c r="AT235">
+        <v>0.624685</v>
+      </c>
+      <c r="AU235">
+        <v>1.03957</v>
+      </c>
+      <c r="AV235">
+        <v>0.7852865999999999</v>
+      </c>
+      <c r="AW235">
+        <v>0.5369672</v>
+      </c>
+      <c r="AX235">
+        <v>0.5632963</v>
+      </c>
+      <c r="AY235">
+        <v>0.3692844</v>
+      </c>
+      <c r="BA235">
+        <v>0.6562789</v>
+      </c>
+      <c r="BB235">
+        <v>0.3348527</v>
+      </c>
+      <c r="BC235">
+        <v>0.5494739</v>
+      </c>
+      <c r="BD235">
+        <v>0.6615780999999999</v>
+      </c>
+      <c r="BE235">
+        <v>0.8311796</v>
+      </c>
+    </row>
+    <row r="236" spans="1:57">
+      <c r="A236" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
